--- a/r_map/data_boot_cq_remov_Hg.xlsx
+++ b/r_map/data_boot_cq_remov_Hg.xlsx
@@ -609,16 +609,16 @@
         <v>2207648</v>
       </c>
       <c r="C2">
-        <v>3504022.7463180004</v>
+        <v>3261169.684692</v>
       </c>
       <c r="E2">
-        <v>171697114.56958199</v>
+        <v>159797314.54990798</v>
       </c>
       <c r="F2">
-        <v>1.5872198585635031</v>
+        <v>1.477214521831379</v>
       </c>
       <c r="H2">
-        <v>77.773773069611636</v>
+        <v>72.383511569737564</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -644,16 +644,16 @@
         <v>505392</v>
       </c>
       <c r="C3">
-        <v>324609.58076659578</v>
+        <v>322421.46876089345</v>
       </c>
       <c r="E3">
-        <v>15905869.457563194</v>
+        <v>15798651.96928378</v>
       </c>
       <c r="F3">
-        <v>0.64229267730117567</v>
+        <v>0.63796314298780643</v>
       </c>
       <c r="H3">
-        <v>31.472341187757607</v>
+        <v>31.260194006402514</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -679,16 +679,16 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>52960459.713292226</v>
+        <v>52768224.100200072</v>
       </c>
       <c r="E4">
-        <v>206046664.85347444</v>
+        <v>205548155.84681267</v>
       </c>
       <c r="F4">
-        <v>19.425165242054028</v>
+        <v>19.354655873934142</v>
       </c>
       <c r="H4">
-        <v>75.575071176134557</v>
+        <v>75.392224956870592</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -749,16 +749,16 @@
         <v>324142</v>
       </c>
       <c r="C6">
-        <v>4877803.5454372168</v>
+        <v>4738978.7822947083</v>
       </c>
       <c r="E6">
-        <v>20309393.652113203</v>
+        <v>20535982.769526001</v>
       </c>
       <c r="F6">
-        <v>15.048353948075896</v>
+        <v>14.620070161517818</v>
       </c>
       <c r="H6">
-        <v>62.655853459635601</v>
+        <v>63.354896216861746</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -866,22 +866,22 @@
         <v>8921964</v>
       </c>
       <c r="C9">
-        <v>358034530.44666547</v>
+        <v>359870930.77712786</v>
       </c>
       <c r="D9">
-        <v>35669691.700788587</v>
+        <v>35852645.656500921</v>
       </c>
       <c r="E9">
-        <v>18236129.882028166</v>
+        <v>18329665.091886092</v>
       </c>
       <c r="F9">
-        <v>40.129564571955846</v>
+        <v>40.33539372913048</v>
       </c>
       <c r="G9">
-        <v>3.9979640918511423</v>
+        <v>4.0184701100005462</v>
       </c>
       <c r="H9">
-        <v>2.0439591419588967</v>
+        <v>2.0544428437377791</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -907,22 +907,22 @@
         <v>7744214</v>
       </c>
       <c r="C10">
-        <v>228956504.71374249</v>
+        <v>226803557.41222107</v>
       </c>
       <c r="D10">
-        <v>22810112.54931432</v>
+        <v>22595622.158129122</v>
       </c>
       <c r="E10">
-        <v>11661670.040836945</v>
+        <v>11552011.828343514</v>
       </c>
       <c r="F10">
-        <v>29.564847344577835</v>
+        <v>29.286840137968952</v>
       </c>
       <c r="G10">
-        <v>2.9454393369442426</v>
+        <v>2.9177424794987745</v>
       </c>
       <c r="H10">
-        <v>1.5058558610127439</v>
+        <v>1.4916958426437485</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -948,22 +948,22 @@
         <v>1912394</v>
       </c>
       <c r="C11">
-        <v>9121787.7735669911</v>
+        <v>9147783.3922598027</v>
       </c>
       <c r="D11">
-        <v>946600.61801166902</v>
+        <v>949298.27655526274</v>
       </c>
       <c r="E11">
-        <v>28656182.345262345</v>
+        <v>28737847.826627493</v>
       </c>
       <c r="F11">
-        <v>4.7698266014048318</v>
+        <v>4.7834198351698465</v>
       </c>
       <c r="G11">
-        <v>0.49498200580616186</v>
+        <v>0.49639262440441806</v>
       </c>
       <c r="H11">
-        <v>14.984455266677445</v>
+        <v>15.02715853878829</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -989,16 +989,16 @@
         <v>2014725</v>
       </c>
       <c r="C12">
-        <v>30776044.534898091</v>
+        <v>30841088.870721597</v>
       </c>
       <c r="E12">
-        <v>129569859.54754801</v>
+        <v>130371514.79366952</v>
       </c>
       <c r="F12">
-        <v>15.275555986498452</v>
+        <v>15.307840459974239</v>
       </c>
       <c r="H12">
-        <v>64.311436820185392</v>
+        <v>64.709334918497319</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -1024,22 +1024,22 @@
         <v>9164672</v>
       </c>
       <c r="C13">
-        <v>502256173.11582452</v>
+        <v>504111073.69592965</v>
       </c>
       <c r="D13">
-        <v>31741985.806501713</v>
+        <v>32091199.095173329</v>
       </c>
       <c r="E13">
-        <v>653828516.77305245</v>
+        <v>665817225.24611092</v>
       </c>
       <c r="F13">
-        <v>54.803507765015979</v>
+        <v>55.005904597123561</v>
       </c>
       <c r="G13">
-        <v>3.4635157490089892</v>
+        <v>3.5016200356295708</v>
       </c>
       <c r="H13">
-        <v>71.342271362581499</v>
+        <v>72.650415120815126</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -1100,22 +1100,22 @@
         <v>2221132</v>
       </c>
       <c r="C15">
-        <v>56145181.752725676</v>
+        <v>68724844.398767203</v>
       </c>
       <c r="D15">
-        <v>5593542.3913051728</v>
+        <v>6846808.9064774299</v>
       </c>
       <c r="E15">
-        <v>2859698.5475547696</v>
+        <v>3500431.0534365857</v>
       </c>
       <c r="F15">
-        <v>25.277733044558214</v>
+        <v>30.941359810568308</v>
       </c>
       <c r="G15">
-        <v>2.51832956857367</v>
+        <v>3.0825763198573655</v>
       </c>
       <c r="H15">
-        <v>1.2874959919332887</v>
+        <v>1.5759671435270779</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1141,16 +1141,16 @@
         <v>9744872</v>
       </c>
       <c r="C16">
-        <v>296317623.64499682</v>
+        <v>297799618.19061595</v>
       </c>
       <c r="E16">
-        <v>96970468.513115481</v>
+        <v>97279675.027932644</v>
       </c>
       <c r="F16">
-        <v>30.407543951834036</v>
+        <v>30.559623378389777</v>
       </c>
       <c r="H16">
-        <v>9.950922753332776</v>
+        <v>9.9826529304779612</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -1176,22 +1176,22 @@
         <v>2258981</v>
       </c>
       <c r="C17">
-        <v>59125593.49417682</v>
+        <v>61178546.780819267</v>
       </c>
       <c r="D17">
-        <v>5890470.0865929592</v>
+        <v>6094998.4339545965</v>
       </c>
       <c r="E17">
-        <v>3011502.8317706501</v>
+        <v>3116067.9493592875</v>
       </c>
       <c r="F17">
-        <v>26.173568301006878</v>
+        <v>27.082364473547706</v>
       </c>
       <c r="G17">
-        <v>2.6075784110592162</v>
+        <v>2.6981185029686379</v>
       </c>
       <c r="H17">
-        <v>1.3331244626540242</v>
+        <v>1.3794130846427162</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -1217,22 +1217,22 @@
         <v>7754032</v>
       </c>
       <c r="C18">
-        <v>214044912.20593804</v>
+        <v>214844468.90481526</v>
       </c>
       <c r="D18">
-        <v>21324524.25463891</v>
+        <v>21404181.210940499</v>
       </c>
       <c r="E18">
-        <v>10902163.025184143</v>
+        <v>10942887.644093329</v>
       </c>
       <c r="F18">
-        <v>27.604336970228914</v>
+        <v>27.707451930146178</v>
       </c>
       <c r="G18">
-        <v>2.7501207442320212</v>
+        <v>2.760393716577453</v>
       </c>
       <c r="H18">
-        <v>1.4059992304886211</v>
+        <v>1.4112512876002226</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -1398,16 +1398,16 @@
         <v>4881045</v>
       </c>
       <c r="C23">
-        <v>220225332.1491726</v>
+        <v>225112522.87839377</v>
       </c>
       <c r="E23">
-        <v>54484021.883059308</v>
+        <v>55693118.965756439</v>
       </c>
       <c r="F23">
-        <v>45.118480192084398</v>
+        <v>46.119739293203352</v>
       </c>
       <c r="H23">
-        <v>11.162368280370147</v>
+        <v>11.41008103095883</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -1509,22 +1509,22 @@
         <v>1066912</v>
       </c>
       <c r="C26">
-        <v>60373978.210089877</v>
+        <v>60195305.641832858</v>
       </c>
       <c r="D26">
-        <v>6014842.1628981205</v>
+        <v>5997041.6579659134</v>
       </c>
       <c r="E26">
-        <v>3075088.0557816634</v>
+        <v>3065987.5476350733</v>
       </c>
       <c r="F26">
-        <v>56.58758942639119</v>
+        <v>56.420122411063758</v>
       </c>
       <c r="G26">
-        <v>5.6376178756055992</v>
+        <v>5.6209337395829397</v>
       </c>
       <c r="H26">
-        <v>2.8822321389033618</v>
+        <v>2.8737023743617782</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -1550,22 +1550,22 @@
         <v>5225154</v>
       </c>
       <c r="C27">
-        <v>128814619.4598867</v>
+        <v>129464771.20611525</v>
       </c>
       <c r="D27">
-        <v>12856087.431304378</v>
+        <v>12920974.535952717</v>
       </c>
       <c r="E27">
-        <v>23515230.813891344</v>
+        <v>23633916.631081376</v>
       </c>
       <c r="F27">
-        <v>24.652789077582536</v>
+        <v>24.777216366467908</v>
       </c>
       <c r="G27">
-        <v>2.4604226844422916</v>
+        <v>2.4728409030533296</v>
       </c>
       <c r="H27">
-        <v>4.5003900007332502</v>
+        <v>4.5231043201944621</v>
       </c>
       <c r="I27" t="s">
         <v>19</v>
@@ -1591,16 +1591,16 @@
         <v>2992958</v>
       </c>
       <c r="C28">
-        <v>88976008.473974034</v>
+        <v>88870090.688153028</v>
       </c>
       <c r="E28">
-        <v>26508043.993324634</v>
+        <v>26400656.880256303</v>
       </c>
       <c r="F28">
-        <v>29.728452077835385</v>
+        <v>29.693063079452845</v>
       </c>
       <c r="H28">
-        <v>8.8568045369579647</v>
+        <v>8.8209246104543748</v>
       </c>
       <c r="I28" t="s">
         <v>19</v>
@@ -1626,16 +1626,16 @@
         <v>229494</v>
       </c>
       <c r="C29">
-        <v>1368176.5072102947</v>
+        <v>1345535.2514971697</v>
       </c>
       <c r="E29">
-        <v>5766060.2286103927</v>
+        <v>5700249.5647738576</v>
       </c>
       <c r="F29">
-        <v>5.9617092700039862</v>
+        <v>5.863051981738824</v>
       </c>
       <c r="H29">
-        <v>25.125102305987923</v>
+        <v>24.838338103714509</v>
       </c>
       <c r="I29" t="s">
         <v>19</v>
@@ -1661,22 +1661,22 @@
         <v>6529869</v>
       </c>
       <c r="C30">
-        <v>147452144.14818799</v>
+        <v>147421398.21050704</v>
       </c>
       <c r="D30">
-        <v>12221046.44573121</v>
+        <v>12219689.727228405</v>
       </c>
       <c r="E30">
-        <v>103854177.58134878</v>
+        <v>103681647.98338726</v>
       </c>
       <c r="F30">
-        <v>22.581179522619518</v>
+        <v>22.576471015039822</v>
       </c>
       <c r="G30">
-        <v>1.871560738160476</v>
+        <v>1.8713529669934275</v>
       </c>
       <c r="H30">
-        <v>15.904481021188754</v>
+        <v>15.878059419474916</v>
       </c>
       <c r="I30" t="s">
         <v>19</v>
@@ -1702,22 +1702,22 @@
         <v>4984247</v>
       </c>
       <c r="C31">
-        <v>166187899.65365791</v>
+        <v>152797483.89789963</v>
       </c>
       <c r="D31">
-        <v>16556702.331622208</v>
+        <v>15222663.402032342</v>
       </c>
       <c r="E31">
-        <v>8464614.0670418534</v>
+        <v>7782586.664289034</v>
       </c>
       <c r="F31">
-        <v>33.342629218346907</v>
+        <v>30.656081830996662</v>
       </c>
       <c r="G31">
-        <v>3.3218061487767776</v>
+        <v>3.0541551014691573</v>
       </c>
       <c r="H31">
-        <v>1.6982733935621275</v>
+        <v>1.5614367956261064</v>
       </c>
       <c r="I31" t="s">
         <v>19</v>
@@ -1743,16 +1743,16 @@
         <v>2093626</v>
       </c>
       <c r="C32">
-        <v>11142838.803698782</v>
+        <v>10984578.204221815</v>
       </c>
       <c r="E32">
-        <v>61853412.289505258</v>
+        <v>61694359.637170352</v>
       </c>
       <c r="F32">
-        <v>5.3222680668365712</v>
+        <v>5.2466764380179711</v>
       </c>
       <c r="H32">
-        <v>29.543677948929396</v>
+        <v>29.467708003803139</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
@@ -1784,7 +1784,7 @@
         <v>135609.27966599999</v>
       </c>
       <c r="E33">
-        <v>2839534.4092499996</v>
+        <v>2633022.8158499999</v>
       </c>
       <c r="F33">
         <v>25.048395103912167</v>
@@ -1793,7 +1793,7 @@
         <v>2.0163749318404851</v>
       </c>
       <c r="H33">
-        <v>42.221048699705584</v>
+        <v>39.150426976090642</v>
       </c>
       <c r="I33" t="s">
         <v>19</v>
@@ -1819,16 +1819,16 @@
         <v>245567</v>
       </c>
       <c r="C34">
-        <v>9876117.4787774142</v>
+        <v>10021521.580983292</v>
       </c>
       <c r="E34">
-        <v>2443363.7837307937</v>
+        <v>2479336.9399937862</v>
       </c>
       <c r="F34">
-        <v>40.217608549916783</v>
+        <v>40.809724356217622</v>
       </c>
       <c r="H34">
-        <v>9.9498865227444799</v>
+        <v>10.096376711829302</v>
       </c>
       <c r="I34" t="s">
         <v>20</v>
@@ -1854,16 +1854,16 @@
         <v>717925</v>
       </c>
       <c r="C35">
-        <v>7685479.3546777498</v>
+        <v>7530309.6581667922</v>
       </c>
       <c r="E35">
-        <v>43410925.394155607</v>
+        <v>43646520.021805324</v>
       </c>
       <c r="F35">
-        <v>10.705128467009436</v>
+        <v>10.488992106650127</v>
       </c>
       <c r="H35">
-        <v>60.467215090929571</v>
+        <v>60.795375591886788</v>
       </c>
       <c r="I35" t="s">
         <v>20</v>
@@ -1924,16 +1924,16 @@
         <v>250729</v>
       </c>
       <c r="C37">
-        <v>1215751.8610242656</v>
+        <v>1194577.3949200083</v>
       </c>
       <c r="E37">
-        <v>17158456.07095528</v>
+        <v>17283863.278513681</v>
       </c>
       <c r="F37">
-        <v>4.8488681445874455</v>
+        <v>4.7644165410463417</v>
       </c>
       <c r="H37">
-        <v>68.434269952639227</v>
+        <v>68.934440286180219</v>
       </c>
       <c r="I37" t="s">
         <v>20</v>
@@ -1959,16 +1959,16 @@
         <v>750815</v>
       </c>
       <c r="C38">
-        <v>23132477.345608965</v>
+        <v>23411014.887067918</v>
       </c>
       <c r="E38">
-        <v>31612156.930329598</v>
+        <v>31650523.774675105</v>
       </c>
       <c r="F38">
-        <v>30.809823119688559</v>
+        <v>31.180803376421512</v>
       </c>
       <c r="H38">
-        <v>42.103789788868895</v>
+        <v>42.154890052376558</v>
       </c>
       <c r="I38" t="s">
         <v>20</v>
@@ -2035,16 +2035,16 @@
         <v>384251</v>
       </c>
       <c r="C40">
-        <v>4846513.8090695161</v>
+        <v>5038105.9294385994</v>
       </c>
       <c r="E40">
-        <v>21126544.544698525</v>
+        <v>21146340.211347014</v>
       </c>
       <c r="F40">
-        <v>12.612885351162433</v>
+        <v>13.111497249034093</v>
       </c>
       <c r="H40">
-        <v>54.981104915012651</v>
+        <v>55.032622456017066</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
@@ -2070,16 +2070,16 @@
         <v>1245893</v>
       </c>
       <c r="C41">
-        <v>24807885.068946403</v>
+        <v>24903581.133713469</v>
       </c>
       <c r="E41">
-        <v>80148946.730521813</v>
+        <v>80103410.894698262</v>
       </c>
       <c r="F41">
-        <v>19.911730035361305</v>
+        <v>19.98853925153562</v>
       </c>
       <c r="H41">
-        <v>64.330521746668296</v>
+        <v>64.293972993425811</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -2105,22 +2105,22 @@
         <v>827980</v>
       </c>
       <c r="C42">
-        <v>17411117.284164306</v>
+        <v>17430638.701073185</v>
       </c>
       <c r="D42">
-        <v>1084193.8529999035</v>
+        <v>1089477.2816144645</v>
       </c>
       <c r="E42">
-        <v>22538107.03254734</v>
+        <v>22683390.072211429</v>
       </c>
       <c r="F42">
-        <v>21.028427358347191</v>
+        <v>21.052004518313467</v>
       </c>
       <c r="G42">
-        <v>1.3094444950359954</v>
+        <v>1.3158256016020489</v>
       </c>
       <c r="H42">
-        <v>27.22059353190577</v>
+        <v>27.396060378525362</v>
       </c>
       <c r="I42" t="s">
         <v>22</v>
@@ -2146,22 +2146,22 @@
         <v>2177256</v>
       </c>
       <c r="C43">
-        <v>80809748.586525202</v>
+        <v>77304638.594856948</v>
       </c>
       <c r="D43">
-        <v>8050784.4170884397</v>
+        <v>7701582.9235224845</v>
       </c>
       <c r="E43">
-        <v>4115963.5332364645</v>
+        <v>3937434.26965087</v>
       </c>
       <c r="F43">
-        <v>37.115409757293222</v>
+        <v>35.505534762497817</v>
       </c>
       <c r="G43">
-        <v>3.6976746956207442</v>
+        <v>3.5372886438353985</v>
       </c>
       <c r="H43">
-        <v>1.8904361881361054</v>
+        <v>1.8084388191608474</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
@@ -2187,22 +2187,22 @@
         <v>2300225</v>
       </c>
       <c r="C44">
-        <v>67454933.920615435</v>
+        <v>68157202.912510902</v>
       </c>
       <c r="D44">
-        <v>5759403.707891874</v>
+        <v>5808460.9152798187</v>
       </c>
       <c r="E44">
-        <v>38011830.620014429</v>
+        <v>37794298.572628513</v>
       </c>
       <c r="F44">
-        <v>29.325363353852524</v>
+        <v>29.630667831412538</v>
       </c>
       <c r="G44">
-        <v>2.5038436274242191</v>
+        <v>2.5251707616775834</v>
       </c>
       <c r="H44">
-        <v>16.525266276131433</v>
+        <v>16.430696376497302</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -2228,22 +2228,22 @@
         <v>1488285</v>
       </c>
       <c r="C45">
-        <v>47582101.946730927</v>
+        <v>47228101.76199995</v>
       </c>
       <c r="D45">
-        <v>4740433.5687901303</v>
+        <v>4705165.80443337</v>
       </c>
       <c r="E45">
-        <v>2423546.6620439538</v>
+        <v>2405516.0175165604</v>
       </c>
       <c r="F45">
-        <v>31.971095554098124</v>
+        <v>31.733237761584608</v>
       </c>
       <c r="G45">
-        <v>3.1851651859624535</v>
+        <v>3.1614682701454155</v>
       </c>
       <c r="H45">
-        <v>1.6284157013233043</v>
+        <v>1.6163006531118438</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -2269,16 +2269,16 @@
         <v>48329</v>
       </c>
       <c r="C46">
-        <v>510885.38800874085</v>
+        <v>512296.42768495623</v>
       </c>
       <c r="E46">
-        <v>2087767.1724893157</v>
+        <v>2123083.1489578271</v>
       </c>
       <c r="F46">
-        <v>10.570990254479522</v>
+        <v>10.600186796436017</v>
       </c>
       <c r="H46">
-        <v>43.199055897893928</v>
+        <v>43.929796787804975</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
@@ -2304,16 +2304,16 @@
         <v>402573</v>
       </c>
       <c r="C47">
-        <v>16599237.407835379</v>
+        <v>16741200.521615075</v>
       </c>
       <c r="E47">
-        <v>12837329.93903435</v>
+        <v>12866239.114125237</v>
       </c>
       <c r="F47">
-        <v>41.232863127520673</v>
+        <v>41.585502558828026</v>
       </c>
       <c r="H47">
-        <v>31.888203975513388</v>
+        <v>31.960014988897012</v>
       </c>
       <c r="I47" t="s">
         <v>24</v>
@@ -2339,16 +2339,16 @@
         <v>142677</v>
       </c>
       <c r="C48">
-        <v>880880.82819563593</v>
+        <v>869127.65837560385</v>
       </c>
       <c r="E48">
-        <v>3481008.3749287985</v>
+        <v>3471839.5445726393</v>
       </c>
       <c r="F48">
-        <v>6.1739511497693105</v>
+        <v>6.0915750848111738</v>
       </c>
       <c r="H48">
-        <v>24.397824280919831</v>
+        <v>24.333561432975458</v>
       </c>
       <c r="I48" t="s">
         <v>24</v>
@@ -2374,22 +2374,22 @@
         <v>4238250</v>
       </c>
       <c r="C49">
-        <v>226996509.67128932</v>
+        <v>227496246.16720665</v>
       </c>
       <c r="D49">
-        <v>22614845.297264196</v>
+        <v>22664632.245798916</v>
       </c>
       <c r="E49">
-        <v>11561839.658226319</v>
+        <v>11587293.235664696</v>
       </c>
       <c r="F49">
-        <v>53.559018385250837</v>
+        <v>53.676929432479589</v>
       </c>
       <c r="G49">
-        <v>5.3358922426152766</v>
+        <v>5.3476392958883778</v>
       </c>
       <c r="H49">
-        <v>2.7279749090370595</v>
+        <v>2.733980590022933</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
@@ -2415,16 +2415,16 @@
         <v>1825199</v>
       </c>
       <c r="C50">
-        <v>11895377.559610102</v>
+        <v>11742591.552142492</v>
       </c>
       <c r="E50">
-        <v>49368649.557715297</v>
+        <v>49233677.710371099</v>
       </c>
       <c r="F50">
-        <v>6.517304447137052</v>
+        <v>6.4335952146272763</v>
       </c>
       <c r="H50">
-        <v>27.048365442735445</v>
+        <v>26.974416329600828</v>
       </c>
       <c r="I50" t="s">
         <v>25</v>
@@ -2450,16 +2450,16 @@
         <v>1533454</v>
       </c>
       <c r="C51">
-        <v>19053929.363532953</v>
+        <v>19126056.792737931</v>
       </c>
       <c r="E51">
-        <v>68174588.711609691</v>
+        <v>68235651.675165787</v>
       </c>
       <c r="F51">
-        <v>12.425497839213273</v>
+        <v>12.472533765432765</v>
       </c>
       <c r="H51">
-        <v>44.458189623953302</v>
+        <v>44.498010162134491</v>
       </c>
       <c r="I51" t="s">
         <v>25</v>
@@ -2485,16 +2485,16 @@
         <v>992174</v>
       </c>
       <c r="C52">
-        <v>11838059.918275468</v>
+        <v>12171892.531242743</v>
       </c>
       <c r="E52">
-        <v>44882640.209944531</v>
+        <v>44847600.645099185</v>
       </c>
       <c r="F52">
-        <v>11.931435331177262</v>
+        <v>12.267901125450518</v>
       </c>
       <c r="H52">
-        <v>45.236662329333896</v>
+        <v>45.201346381883809</v>
       </c>
       <c r="I52" t="s">
         <v>25</v>
@@ -2520,16 +2520,16 @@
         <v>1769518</v>
       </c>
       <c r="C53">
-        <v>23146172.676186629</v>
+        <v>23296632.378288954</v>
       </c>
       <c r="E53">
-        <v>96525670.242246166</v>
+        <v>96822701.75019519</v>
       </c>
       <c r="F53">
-        <v>13.080495748665246</v>
+        <v>13.165524384769725</v>
       </c>
       <c r="H53">
-        <v>54.549131595296664</v>
+        <v>54.716991717628865</v>
       </c>
       <c r="I53" t="s">
         <v>25</v>
@@ -2555,22 +2555,22 @@
         <v>16149545</v>
       </c>
       <c r="C54">
-        <v>772204555.88671577</v>
+        <v>778172790.65172267</v>
       </c>
       <c r="D54">
-        <v>76931960.735911906</v>
+        <v>77526554.485850334</v>
       </c>
       <c r="E54">
-        <v>39331464.926234961</v>
+        <v>39635450.980890989</v>
       </c>
       <c r="F54">
-        <v>47.815870718754972</v>
+        <v>48.185431270770948</v>
       </c>
       <c r="G54">
-        <v>4.7637231102122009</v>
+        <v>4.8005410979597469</v>
       </c>
       <c r="H54">
-        <v>2.435453440095988</v>
+        <v>2.4542766363319206</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
@@ -2596,16 +2596,16 @@
         <v>1806150</v>
       </c>
       <c r="C55">
-        <v>19059844.295182243</v>
+        <v>19108130.321349129</v>
       </c>
       <c r="E55">
-        <v>74333009.143853083</v>
+        <v>74413661.001211733</v>
       </c>
       <c r="F55">
-        <v>10.552747166726045</v>
+        <v>10.579481394872591</v>
       </c>
       <c r="H55">
-        <v>41.155501560697104</v>
+        <v>41.200155580218549</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -2631,16 +2631,16 @@
         <v>5446539</v>
       </c>
       <c r="C56">
-        <v>151903282.66480893</v>
+        <v>153289944.64212608</v>
       </c>
       <c r="E56">
-        <v>290616260.72832525</v>
+        <v>290253814.05192196</v>
       </c>
       <c r="F56">
-        <v>27.889873305746811</v>
+        <v>28.144468375628279</v>
       </c>
       <c r="H56">
-        <v>53.357969295423246</v>
+        <v>53.291423058188329</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -2666,16 +2666,16 @@
         <v>2101351</v>
       </c>
       <c r="C57">
-        <v>27605122.769773759</v>
+        <v>27168305.034429558</v>
       </c>
       <c r="E57">
-        <v>98361030.229385689</v>
+        <v>97495831.482388794</v>
       </c>
       <c r="F57">
-        <v>13.136845186631724</v>
+        <v>12.92897047396154</v>
       </c>
       <c r="H57">
-        <v>46.808472372957056</v>
+        <v>46.396737852166922</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -2704,19 +2704,19 @@
         <v>3542948.1502851592</v>
       </c>
       <c r="D58">
-        <v>195842.96521010032</v>
+        <v>203721.89166831196</v>
       </c>
       <c r="E58">
-        <v>4376940.3437043708</v>
+        <v>4364195.1793164257</v>
       </c>
       <c r="F58">
         <v>17.248429460949041</v>
       </c>
       <c r="G58">
-        <v>0.95343861314414946</v>
+        <v>0.99179624680907641</v>
       </c>
       <c r="H58">
-        <v>21.308623093197266</v>
+        <v>21.246574748262841</v>
       </c>
       <c r="I58" t="s">
         <v>25</v>
@@ -2742,16 +2742,16 @@
         <v>500876</v>
       </c>
       <c r="C59">
-        <v>7295584.6265819287</v>
+        <v>7145375.3600602411</v>
       </c>
       <c r="E59">
-        <v>29821203.761167556</v>
+        <v>29741008.553697728</v>
       </c>
       <c r="F59">
-        <v>14.565650233953971</v>
+        <v>14.265757113657354</v>
       </c>
       <c r="H59">
-        <v>59.53809677678219</v>
+        <v>59.377986874391517</v>
       </c>
       <c r="I59" t="s">
         <v>25</v>
@@ -2777,13 +2777,13 @@
         <v>869762</v>
       </c>
       <c r="C60">
-        <v>10658715.476421</v>
+        <v>11099502.604515601</v>
       </c>
       <c r="E60">
         <v>46631330.026742995</v>
       </c>
       <c r="F60">
-        <v>12.254749548061424</v>
+        <v>12.761540058677662</v>
       </c>
       <c r="H60">
         <v>53.613896705929889</v>
@@ -2812,16 +2812,16 @@
         <v>1013496</v>
       </c>
       <c r="C61">
-        <v>32241968.696029142</v>
+        <v>31966174.544078626</v>
       </c>
       <c r="E61">
-        <v>25261415.808016516</v>
+        <v>24463985.909411155</v>
       </c>
       <c r="F61">
-        <v>31.812625502250768</v>
+        <v>31.54050390339836</v>
       </c>
       <c r="H61">
-        <v>24.92502763505383</v>
+        <v>24.138216539000801</v>
       </c>
       <c r="I61" t="s">
         <v>26</v>
@@ -2847,16 +2847,16 @@
         <v>296202</v>
       </c>
       <c r="C62">
-        <v>8315242.1948685385</v>
+        <v>8726362.622366026</v>
       </c>
       <c r="E62">
-        <v>2057201.2914539615</v>
+        <v>2158912.9980489742</v>
       </c>
       <c r="F62">
-        <v>28.072876600659477</v>
+        <v>29.460849765923342</v>
       </c>
       <c r="H62">
-        <v>6.9452646891444401</v>
+        <v>7.2886509815901794</v>
       </c>
       <c r="I62" t="s">
         <v>26</v>
@@ -2882,16 +2882,16 @@
         <v>1615868</v>
       </c>
       <c r="C63">
-        <v>3962683.4683501525</v>
+        <v>3946256.6498544533</v>
       </c>
       <c r="E63">
-        <v>15363141.394899311</v>
+        <v>15450931.011515437</v>
       </c>
       <c r="F63">
-        <v>2.4523559278048408</v>
+        <v>2.4421899869633243</v>
       </c>
       <c r="H63">
-        <v>9.5076710442309089</v>
+        <v>9.5620007398595899</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -2917,16 +2917,16 @@
         <v>1420063</v>
       </c>
       <c r="C64">
-        <v>20348037.350803431</v>
+        <v>20291886.732726038</v>
       </c>
       <c r="E64">
-        <v>83068576.512870327</v>
+        <v>84393041.695345476</v>
       </c>
       <c r="F64">
-        <v>14.328968046349656</v>
+        <v>14.289427111843656</v>
       </c>
       <c r="H64">
-        <v>58.496402281356765</v>
+        <v>59.429082861355781</v>
       </c>
       <c r="I64" t="s">
         <v>28</v>
@@ -2952,16 +2952,16 @@
         <v>188829</v>
       </c>
       <c r="C65">
-        <v>2561539.8366621756</v>
+        <v>2534334.5840883162</v>
       </c>
       <c r="E65">
-        <v>10337211.761668492</v>
+        <v>10296748.198865149</v>
       </c>
       <c r="F65">
-        <v>13.565394280868805</v>
+        <v>13.421320793354392</v>
       </c>
       <c r="H65">
-        <v>54.743772204844021</v>
+        <v>54.529485401422178</v>
       </c>
       <c r="I65" t="s">
         <v>28</v>
@@ -2987,16 +2987,16 @@
         <v>233500</v>
       </c>
       <c r="C66">
-        <v>2411952.3456241498</v>
+        <v>2323514.0929512642</v>
       </c>
       <c r="E66">
-        <v>9021590.5992943477</v>
+        <v>8842529.3793622628</v>
       </c>
       <c r="F66">
-        <v>10.329560366698715</v>
+        <v>9.9508098199197619</v>
       </c>
       <c r="H66">
-        <v>38.636362309611769</v>
+        <v>37.869504836669222</v>
       </c>
       <c r="I66" t="s">
         <v>28</v>
@@ -3022,16 +3022,16 @@
         <v>16042082</v>
       </c>
       <c r="C67">
-        <v>199103118.96592456</v>
+        <v>201042147.1166662</v>
       </c>
       <c r="E67">
-        <v>838009340.47119117</v>
+        <v>836870938.79517865</v>
       </c>
       <c r="F67">
-        <v>12.411301660590224</v>
+        <v>12.532173013245176</v>
       </c>
       <c r="H67">
-        <v>52.238190807850955</v>
+        <v>52.167227345875595</v>
       </c>
       <c r="I67" t="s">
         <v>28</v>
@@ -3057,16 +3057,16 @@
         <v>2119428</v>
       </c>
       <c r="C68">
-        <v>28522338.055947892</v>
+        <v>28663601.413752064</v>
       </c>
       <c r="E68">
-        <v>120932998.08632666</v>
+        <v>119862622.60429239</v>
       </c>
       <c r="F68">
-        <v>13.457564048388475</v>
+        <v>13.524215691097815</v>
       </c>
       <c r="H68">
-        <v>57.059262256762985</v>
+        <v>56.554231898555827</v>
       </c>
       <c r="I68" t="s">
         <v>28</v>
@@ -3092,22 +3092,22 @@
         <v>4495381</v>
       </c>
       <c r="C69">
-        <v>118042674.44752385</v>
+        <v>117764174.39844096</v>
       </c>
       <c r="D69">
-        <v>7491292.7391617186</v>
+        <v>7453610.8196605705</v>
       </c>
       <c r="E69">
-        <v>152193400.47702801</v>
+        <v>153732832.93988192</v>
       </c>
       <c r="F69">
-        <v>26.258658486905524</v>
+        <v>26.196705996319547</v>
       </c>
       <c r="G69">
-        <v>1.6664422301828741</v>
+        <v>1.6580598662628532</v>
       </c>
       <c r="H69">
-        <v>33.855506458079532</v>
+        <v>34.197954064378962</v>
       </c>
       <c r="I69" t="s">
         <v>28</v>
@@ -3168,16 +3168,16 @@
         <v>5074077</v>
       </c>
       <c r="C71">
-        <v>57579991.630530082</v>
+        <v>57745163.630832806</v>
       </c>
       <c r="E71">
-        <v>251113056.71022901</v>
+        <v>252666705.83807644</v>
       </c>
       <c r="F71">
-        <v>11.347875018556101</v>
+        <v>11.380427145830229</v>
       </c>
       <c r="H71">
-        <v>49.489405996446052</v>
+        <v>49.795599443618308</v>
       </c>
       <c r="I71" t="s">
         <v>28</v>
@@ -3203,16 +3203,16 @@
         <v>423587</v>
       </c>
       <c r="C72">
-        <v>4552154.4315251112</v>
+        <v>4491976.7395746354</v>
       </c>
       <c r="E72">
-        <v>19979735.992591005</v>
+        <v>19627735.214770161</v>
       </c>
       <c r="F72">
-        <v>10.746681157649105</v>
+        <v>10.604614257695907</v>
       </c>
       <c r="H72">
-        <v>47.167963116410576</v>
+        <v>46.33696316168853</v>
       </c>
       <c r="I72" t="s">
         <v>9</v>
@@ -3238,16 +3238,16 @@
         <v>969633</v>
       </c>
       <c r="C73">
-        <v>38683396.013808742</v>
+        <v>38909222.417726427</v>
       </c>
       <c r="E73">
-        <v>29863263.107494943</v>
+        <v>30371354.782657348</v>
       </c>
       <c r="F73">
-        <v>39.894883954866167</v>
+        <v>40.127782797951831</v>
       </c>
       <c r="H73">
-        <v>30.798521819590444</v>
+        <v>31.322525927497669</v>
       </c>
       <c r="I73" t="s">
         <v>9</v>
@@ -3273,16 +3273,16 @@
         <v>3095082</v>
       </c>
       <c r="C74">
-        <v>43777355.076548748</v>
+        <v>43892030.412853479</v>
       </c>
       <c r="E74">
-        <v>182792180.57048011</v>
+        <v>181194632.94284812</v>
       </c>
       <c r="F74">
-        <v>14.144166479772991</v>
+        <v>14.181217303080656</v>
       </c>
       <c r="H74">
-        <v>59.05891364767723</v>
+        <v>58.542756845488462</v>
       </c>
       <c r="I74" t="s">
         <v>9</v>
@@ -3349,22 +3349,22 @@
         <v>531521</v>
       </c>
       <c r="C76">
-        <v>19672040.385017198</v>
+        <v>19960806.119603399</v>
       </c>
       <c r="D76">
-        <v>1471919.4857715492</v>
+        <v>1489663.1772438155</v>
       </c>
       <c r="E76">
-        <v>17674526.182865612</v>
+        <v>17684644.063673191</v>
       </c>
       <c r="F76">
-        <v>37.010843193433928</v>
+        <v>37.554125085562752</v>
       </c>
       <c r="G76">
-        <v>2.7692593251659843</v>
+        <v>2.802642185809809</v>
       </c>
       <c r="H76">
-        <v>33.252733538026931</v>
+        <v>33.271769250270808</v>
       </c>
       <c r="I76" t="s">
         <v>29</v>
@@ -3390,16 +3390,16 @@
         <v>387114</v>
       </c>
       <c r="C77">
-        <v>15629772.469958954</v>
+        <v>15841687.218209997</v>
       </c>
       <c r="E77">
-        <v>12032193.872825999</v>
+        <v>11975424.630494397</v>
       </c>
       <c r="F77">
-        <v>40.375115521419929</v>
+        <v>40.922537594119554</v>
       </c>
       <c r="H77">
-        <v>31.081784365396238</v>
+        <v>30.935137015180018</v>
       </c>
       <c r="I77" t="s">
         <v>29</v>
@@ -3425,16 +3425,16 @@
         <v>439947</v>
       </c>
       <c r="C78">
-        <v>21822388.891080454</v>
+        <v>21908985.672394261</v>
       </c>
       <c r="E78">
-        <v>12323807.754599551</v>
+        <v>12372711.753625739</v>
       </c>
       <c r="F78">
-        <v>49.602313212910772</v>
+        <v>49.799147789152471</v>
       </c>
       <c r="H78">
-        <v>28.012028163845986</v>
+        <v>28.123187005766006</v>
       </c>
       <c r="I78" t="s">
         <v>29</v>
@@ -3460,22 +3460,22 @@
         <v>1438500</v>
       </c>
       <c r="C79">
-        <v>75310501.927822426</v>
+        <v>74215018.637520313</v>
       </c>
       <c r="D79">
-        <v>7502914.2642911505</v>
+        <v>7393775.2067268062</v>
       </c>
       <c r="E79">
-        <v>3835864.9176188507</v>
+        <v>3780067.574439079</v>
       </c>
       <c r="F79">
-        <v>52.353494562267933</v>
+        <v>51.591949000709285</v>
       </c>
       <c r="G79">
-        <v>5.215790242816233</v>
+        <v>5.1399201993234662</v>
       </c>
       <c r="H79">
-        <v>2.6665727616397987</v>
+        <v>2.627784201904122</v>
       </c>
       <c r="I79" t="s">
         <v>30</v>
@@ -3501,22 +3501,22 @@
         <v>4871389</v>
       </c>
       <c r="C80">
-        <v>228022491.99556541</v>
+        <v>227012679.89996874</v>
       </c>
       <c r="D80">
-        <v>22717060.2237176</v>
+        <v>22616456.27895081</v>
       </c>
       <c r="E80">
-        <v>11614097.039375622</v>
+        <v>11562663.2726136</v>
       </c>
       <c r="F80">
-        <v>46.808516420176133</v>
+        <v>46.60122193074065</v>
       </c>
       <c r="G80">
-        <v>4.6633640269166765</v>
+        <v>4.64271202298786</v>
       </c>
       <c r="H80">
-        <v>2.3841448587611507</v>
+        <v>2.3735865217525434</v>
       </c>
       <c r="I80" t="s">
         <v>30</v>
@@ -3542,22 +3542,22 @@
         <v>1656996</v>
       </c>
       <c r="C81">
-        <v>46706622.083620697</v>
+        <v>47029868.884078413</v>
       </c>
       <c r="D81">
-        <v>3030320.2053489685</v>
+        <v>3061563.8720503249</v>
       </c>
       <c r="E81">
-        <v>60849936.247556053</v>
+        <v>61080276.898979396</v>
       </c>
       <c r="F81">
-        <v>28.18752856592333</v>
+        <v>28.382608578462722</v>
       </c>
       <c r="G81">
-        <v>1.8288035730617143</v>
+        <v>1.8476591808612242</v>
       </c>
       <c r="H81">
-        <v>36.723043536348939</v>
+        <v>36.862054524560946</v>
       </c>
       <c r="I81" t="s">
         <v>30</v>
@@ -3583,22 +3583,22 @@
         <v>967351</v>
       </c>
       <c r="C82">
-        <v>44152145.581022993</v>
+        <v>44212371.009289578</v>
       </c>
       <c r="D82">
-        <v>4398719.3605004232</v>
+        <v>4404719.403167082</v>
       </c>
       <c r="E82">
-        <v>2248845.2730558412</v>
+        <v>2251912.7948691705</v>
       </c>
       <c r="F82">
-        <v>45.642321743630788</v>
+        <v>45.704579836367131</v>
       </c>
       <c r="G82">
-        <v>4.5471802484314612</v>
+        <v>4.5533827981436747</v>
       </c>
       <c r="H82">
-        <v>2.3247459020105845</v>
+        <v>2.3279169555509531</v>
       </c>
       <c r="I82" t="s">
         <v>30</v>
@@ -3624,22 +3624,22 @@
         <v>7658910</v>
       </c>
       <c r="C83">
-        <v>253106891.2865569</v>
+        <v>254979546.53011155</v>
       </c>
       <c r="D83">
-        <v>21028441.290838718</v>
+        <v>21270181.396054849</v>
       </c>
       <c r="E83">
-        <v>163076557.45306677</v>
+        <v>162378844.37368006</v>
       </c>
       <c r="F83">
-        <v>33.047377666868641</v>
+        <v>33.29188442351608</v>
       </c>
       <c r="G83">
-        <v>2.7456180175558558</v>
+        <v>2.7771812694045042</v>
       </c>
       <c r="H83">
-        <v>21.292397671870638</v>
+        <v>21.201299450402217</v>
       </c>
       <c r="I83" t="s">
         <v>30</v>
@@ -3665,16 +3665,16 @@
         <v>500630</v>
       </c>
       <c r="C84">
-        <v>8075588.4697325062</v>
+        <v>8126167.2188906288</v>
       </c>
       <c r="E84">
-        <v>34151635.851155758</v>
+        <v>33734636.566847995</v>
       </c>
       <c r="F84">
-        <v>16.130852065862026</v>
+        <v>16.23188226612594</v>
       </c>
       <c r="H84">
-        <v>68.217317881780474</v>
+        <v>67.384368828971489</v>
       </c>
       <c r="I84" t="s">
         <v>31</v>
@@ -3700,22 +3700,22 @@
         <v>6114392</v>
       </c>
       <c r="C85">
-        <v>306051068.31148171</v>
+        <v>307108336.86429727</v>
       </c>
       <c r="D85">
-        <v>30490766.456934672</v>
+        <v>30596098.317738205</v>
       </c>
       <c r="E85">
-        <v>15588404.351107851</v>
+        <v>15642255.264943657</v>
       </c>
       <c r="F85">
-        <v>50.05421116465574</v>
+        <v>50.227125912813122</v>
       </c>
       <c r="G85">
-        <v>4.986720913041669</v>
+        <v>5.0039477870797633</v>
       </c>
       <c r="H85">
-        <v>2.5494610667925528</v>
+        <v>2.5582683061445288</v>
       </c>
       <c r="I85" t="s">
         <v>32</v>
@@ -3741,22 +3741,22 @@
         <v>6233147</v>
       </c>
       <c r="C86">
-        <v>233985421.73310739</v>
+        <v>232477909.68385479</v>
       </c>
       <c r="D86">
-        <v>23311125.452862505</v>
+        <v>23160937.452936966</v>
       </c>
       <c r="E86">
-        <v>11917812.887775956</v>
+        <v>11841029.272814024</v>
       </c>
       <c r="F86">
-        <v>37.53889034433287</v>
+        <v>37.297036261755864</v>
       </c>
       <c r="G86">
-        <v>3.7398645423992898</v>
+        <v>3.71576949058589</v>
       </c>
       <c r="H86">
-        <v>1.9120057473016367</v>
+        <v>1.899687152062036</v>
       </c>
       <c r="I86" t="s">
         <v>32</v>
@@ -3782,16 +3782,16 @@
         <v>2753681</v>
       </c>
       <c r="C87">
-        <v>32432333.995703824</v>
+        <v>32399337.128909282</v>
       </c>
       <c r="E87">
-        <v>123911166.5863225</v>
+        <v>123699705.54313703</v>
       </c>
       <c r="F87">
-        <v>11.777810863242266</v>
+        <v>11.765828042140424</v>
       </c>
       <c r="H87">
-        <v>44.998373662861638</v>
+        <v>44.921581527830213</v>
       </c>
       <c r="I87" t="s">
         <v>32</v>
@@ -3817,22 +3817,22 @@
         <v>5168266</v>
       </c>
       <c r="C88">
-        <v>246736671.95215338</v>
+        <v>245036412.27090418</v>
       </c>
       <c r="D88">
-        <v>22002238.882409412</v>
+        <v>21983106.090500399</v>
       </c>
       <c r="E88">
-        <v>102143835.47102299</v>
+        <v>101288972.42510146</v>
       </c>
       <c r="F88">
-        <v>47.740706835165483</v>
+        <v>47.411726151653994</v>
       </c>
       <c r="G88">
-        <v>4.2571800449917658</v>
+        <v>4.2534780699175316</v>
       </c>
       <c r="H88">
-        <v>19.763656799209446</v>
+        <v>19.598250636693514</v>
       </c>
       <c r="I88" t="s">
         <v>32</v>
@@ -3858,22 +3858,22 @@
         <v>9849064</v>
       </c>
       <c r="C89">
-        <v>384065690.32788253</v>
+        <v>386587183.20672786</v>
       </c>
       <c r="D89">
-        <v>38263082.473512575</v>
+        <v>38514289.734169655</v>
       </c>
       <c r="E89">
-        <v>19562000.914583303</v>
+        <v>19690430.626594231</v>
       </c>
       <c r="F89">
-        <v>38.995146171035387</v>
+        <v>39.251159623567062</v>
       </c>
       <c r="G89">
-        <v>3.884946069343501</v>
+        <v>3.910451768225859</v>
       </c>
       <c r="H89">
-        <v>1.9861786779518646</v>
+        <v>1.9992184665054702</v>
       </c>
       <c r="I89" t="s">
         <v>32</v>
@@ -3899,22 +3899,22 @@
         <v>8843344</v>
       </c>
       <c r="C90">
-        <v>406618873.74315763</v>
+        <v>407802539.04320097</v>
       </c>
       <c r="D90">
-        <v>32103787.542147238</v>
+        <v>32281304.224965986</v>
       </c>
       <c r="E90">
-        <v>57531758.39176783</v>
+        <v>57367918.00910002</v>
       </c>
       <c r="F90">
-        <v>45.980216730589419</v>
+        <v>46.114064888033411</v>
       </c>
       <c r="G90">
-        <v>3.6302769113298359</v>
+        <v>3.6503503906402357</v>
       </c>
       <c r="H90">
-        <v>6.505656501858101</v>
+        <v>6.4871295303111607</v>
       </c>
       <c r="I90" t="s">
         <v>32</v>
@@ -3940,22 +3940,22 @@
         <v>3681044</v>
       </c>
       <c r="C91">
-        <v>176165114.91127318</v>
+        <v>177366516.01224744</v>
       </c>
       <c r="D91">
-        <v>17550696.379703432</v>
+        <v>17670387.647546448</v>
       </c>
       <c r="E91">
-        <v>8972793.5241233781</v>
+        <v>9033985.6848081201</v>
       </c>
       <c r="F91">
-        <v>47.857378208810644</v>
+        <v>48.183753308096136</v>
       </c>
       <c r="G91">
-        <v>4.7678583520608369</v>
+        <v>4.8003739285774492</v>
       </c>
       <c r="H91">
-        <v>2.4375675824911025</v>
+        <v>2.4541911709852204</v>
       </c>
       <c r="I91" t="s">
         <v>32</v>
@@ -3981,16 +3981,16 @@
         <v>4626240</v>
       </c>
       <c r="C92">
-        <v>59149790.902332634</v>
+        <v>59308297.798976287</v>
       </c>
       <c r="E92">
-        <v>240370436.37419319</v>
+        <v>242135422.19282988</v>
       </c>
       <c r="F92">
-        <v>12.785716024748529</v>
+        <v>12.819978600110737</v>
       </c>
       <c r="H92">
-        <v>51.958055867009321</v>
+        <v>52.339572134785456</v>
       </c>
       <c r="I92" t="s">
         <v>14</v>
@@ -4016,16 +4016,16 @@
         <v>6322841</v>
       </c>
       <c r="C93">
-        <v>79894206.537441403</v>
+        <v>81116991.767751798</v>
       </c>
       <c r="E93">
-        <v>342534374.37104642</v>
+        <v>339882205.34773254</v>
       </c>
       <c r="F93">
-        <v>12.635808260470476</v>
+        <v>12.829200001668838</v>
       </c>
       <c r="H93">
-        <v>54.174124317066713</v>
+        <v>53.754665876894983</v>
       </c>
       <c r="I93" t="s">
         <v>14</v>
@@ -4051,22 +4051,22 @@
         <v>3418107</v>
       </c>
       <c r="C94">
-        <v>309486239.76283342</v>
+        <v>308039214.64654887</v>
       </c>
       <c r="D94">
-        <v>30833000.22543795</v>
+        <v>30688838.32095132</v>
       </c>
       <c r="E94">
-        <v>15763371.365255151</v>
+        <v>15689668.591586361</v>
       </c>
       <c r="F94">
-        <v>90.543169000512108</v>
+        <v>90.119827918362077</v>
       </c>
       <c r="G94">
-        <v>9.0204900623175206</v>
+        <v>8.9783141139090503</v>
       </c>
       <c r="H94">
-        <v>4.6117255443598317</v>
+        <v>4.5901630907360005</v>
       </c>
       <c r="I94" t="s">
         <v>33</v>
@@ -4092,16 +4092,16 @@
         <v>916991</v>
       </c>
       <c r="C95">
-        <v>16398865.010129567</v>
+        <v>16295955.223351661</v>
       </c>
       <c r="E95">
-        <v>67894577.763278157</v>
+        <v>67308904.391870365</v>
       </c>
       <c r="F95">
-        <v>17.883343468070642</v>
+        <v>17.771117953558608</v>
       </c>
       <c r="H95">
-        <v>74.040615189547282</v>
+        <v>73.401924764660023</v>
       </c>
       <c r="I95" t="s">
         <v>33</v>
@@ -4127,16 +4127,16 @@
         <v>317344</v>
       </c>
       <c r="C96">
-        <v>5478536.1819188036</v>
+        <v>5490236.9640340498</v>
       </c>
       <c r="E96">
-        <v>22711151.482755885</v>
+        <v>22610716.88102024</v>
       </c>
       <c r="F96">
-        <v>17.263714397999657</v>
+        <v>17.30058537118726</v>
       </c>
       <c r="H96">
-        <v>71.56634908098431</v>
+        <v>71.249864125429326</v>
       </c>
       <c r="I96" t="s">
         <v>33</v>
@@ -4162,22 +4162,22 @@
         <v>4850745</v>
       </c>
       <c r="C97">
-        <v>156576269.85472718</v>
+        <v>156249148.62712902</v>
       </c>
       <c r="D97">
-        <v>8880629.8183508217</v>
+        <v>8801601.6922251601</v>
       </c>
       <c r="E97">
-        <v>152433504.99951026</v>
+        <v>148804533.48721269</v>
       </c>
       <c r="F97">
-        <v>32.278808689124489</v>
+        <v>32.211371372259109</v>
       </c>
       <c r="G97">
-        <v>1.8307764721400162</v>
+        <v>1.8144845157239065</v>
       </c>
       <c r="H97">
-        <v>31.424761557144368</v>
+        <v>30.676634926637597</v>
       </c>
       <c r="I97" t="s">
         <v>33</v>
@@ -4203,22 +4203,22 @@
         <v>3399679</v>
       </c>
       <c r="C98">
-        <v>169764326.82088196</v>
+        <v>168129854.68301886</v>
       </c>
       <c r="D98">
-        <v>16913008.898718003</v>
+        <v>16750172.322094036</v>
       </c>
       <c r="E98">
-        <v>8646775.799469579</v>
+        <v>8563525.5996705759</v>
       </c>
       <c r="F98">
-        <v>49.935398848209488</v>
+        <v>49.454626358258793</v>
       </c>
       <c r="G98">
-        <v>4.9748840695600975</v>
+        <v>4.9269864366882983</v>
       </c>
       <c r="H98">
-        <v>2.5434094805626</v>
+        <v>2.518921815756892</v>
       </c>
       <c r="I98" t="s">
         <v>33</v>
@@ -4244,16 +4244,16 @@
         <v>939695</v>
       </c>
       <c r="C99">
-        <v>6840953.2102988996</v>
+        <v>6916818.0164917503</v>
       </c>
       <c r="E99">
-        <v>5313609.3412500005</v>
+        <v>5299063.1740859989</v>
       </c>
       <c r="F99">
-        <v>7.2799719167377708</v>
+        <v>7.3607053527918636</v>
       </c>
       <c r="H99">
-        <v>5.6546106356317747</v>
+        <v>5.6391309670542027</v>
       </c>
       <c r="I99" t="s">
         <v>12</v>
@@ -4279,16 +4279,16 @@
         <v>984434</v>
       </c>
       <c r="C100">
-        <v>12536796.098787364</v>
+        <v>12784663.115863198</v>
       </c>
       <c r="E100">
-        <v>53711041.501446001</v>
+        <v>54097451.871959992</v>
       </c>
       <c r="F100">
-        <v>12.735029569059341</v>
+        <v>12.986815892038672</v>
       </c>
       <c r="H100">
-        <v>54.560327560248837</v>
+        <v>54.952847902408891</v>
       </c>
       <c r="I100" t="s">
         <v>34</v>
@@ -4314,22 +4314,22 @@
         <v>3857821</v>
       </c>
       <c r="C101">
-        <v>213146025.63586205</v>
+        <v>214057576.40899014</v>
       </c>
       <c r="D101">
-        <v>21234971.420758367</v>
+        <v>21325785.943610474</v>
       </c>
       <c r="E101">
-        <v>10856379.138862712</v>
+        <v>10902808.063670855</v>
       </c>
       <c r="F101">
-        <v>55.250366887385923</v>
+        <v>55.486653322948399</v>
       </c>
       <c r="G101">
-        <v>5.5043952067134185</v>
+        <v>5.5279355738927434</v>
       </c>
       <c r="H101">
-        <v>2.8141220494322345</v>
+        <v>2.8261570621526646</v>
       </c>
       <c r="I101" t="s">
         <v>34</v>
@@ -4355,13 +4355,13 @@
         <v>393144</v>
       </c>
       <c r="C102">
-        <v>2601290.0724058799</v>
+        <v>2645112.6272194195</v>
       </c>
       <c r="E102">
         <v>9988753.2029831707</v>
       </c>
       <c r="F102">
-        <v>6.6166342927931749</v>
+        <v>6.728101223010956</v>
       </c>
       <c r="H102">
         <v>25.407365247805309</v>
@@ -4390,22 +4390,22 @@
         <v>2485399</v>
       </c>
       <c r="C103">
-        <v>121076354.32919209</v>
+        <v>121071438.61876634</v>
       </c>
       <c r="D103">
-        <v>11965466.399974409</v>
+        <v>11961157.217930797</v>
       </c>
       <c r="E103">
-        <v>9998701.0242722053</v>
+        <v>10010183.26781084</v>
       </c>
       <c r="F103">
-        <v>48.715057151464251</v>
+        <v>48.713079315943368</v>
       </c>
       <c r="G103">
-        <v>4.8143040211951522</v>
+        <v>4.812570222298632</v>
       </c>
       <c r="H103">
-        <v>4.0229761999068181</v>
+        <v>4.0275960792656793</v>
       </c>
       <c r="I103" t="s">
         <v>35</v>
@@ -4431,16 +4431,16 @@
         <v>261201</v>
       </c>
       <c r="C104">
-        <v>1622788.4585314738</v>
+        <v>1641344.7916740831</v>
       </c>
       <c r="E104">
-        <v>6019407.9268219005</v>
+        <v>6011000.9325106964</v>
       </c>
       <c r="F104">
-        <v>6.2127957340571962</v>
+        <v>6.2838380851301601</v>
       </c>
       <c r="H104">
-        <v>23.045118230105935</v>
+        <v>23.012932310790145</v>
       </c>
       <c r="I104" t="s">
         <v>35</v>
@@ -4466,22 +4466,22 @@
         <v>14072154</v>
       </c>
       <c r="C105">
-        <v>613691652.93930411</v>
+        <v>616235280.07258499</v>
       </c>
       <c r="D105">
-        <v>61139890.703791186</v>
+        <v>61393303.120556407</v>
       </c>
       <c r="E105">
-        <v>31257769.122313246</v>
+        <v>31387326.220384464</v>
       </c>
       <c r="F105">
-        <v>43.610356519641854</v>
+        <v>43.791112581100592</v>
       </c>
       <c r="G105">
-        <v>4.3447428662158751</v>
+        <v>4.3627509420772688</v>
       </c>
       <c r="H105">
-        <v>2.2212497903528661</v>
+        <v>2.2304564191370035</v>
       </c>
       <c r="I105" t="s">
         <v>36</v>
@@ -4507,16 +4507,16 @@
         <v>543145</v>
       </c>
       <c r="C106">
-        <v>3247997.8421414215</v>
+        <v>3264151.5927151502</v>
       </c>
       <c r="E106">
-        <v>13767538.883694034</v>
+        <v>13809940.264440451</v>
       </c>
       <c r="F106">
-        <v>5.9799829550882757</v>
+        <v>6.0097240934099556</v>
       </c>
       <c r="H106">
-        <v>25.347814826048356</v>
+        <v>25.425881236944925</v>
       </c>
       <c r="I106" t="s">
         <v>36</v>
@@ -4542,22 +4542,22 @@
         <v>7296430</v>
       </c>
       <c r="C107">
-        <v>181541270.85185879</v>
+        <v>178806893.72504047</v>
       </c>
       <c r="D107">
-        <v>11629332.079873331</v>
+        <v>11398622.909415852</v>
       </c>
       <c r="E107">
-        <v>239129998.404185</v>
+        <v>235471228.91682494</v>
       </c>
       <c r="F107">
-        <v>24.880834990791222</v>
+        <v>24.506079510807403</v>
       </c>
       <c r="G107">
-        <v>1.5938386416197141</v>
+        <v>1.562219182451672</v>
       </c>
       <c r="H107">
-        <v>32.77356164647437</v>
+        <v>32.27211511887662</v>
       </c>
       <c r="I107" t="s">
         <v>36</v>
@@ -4583,22 +4583,22 @@
         <v>11269955</v>
       </c>
       <c r="C108">
-        <v>437515406.30417663</v>
+        <v>392096621.89485693</v>
       </c>
       <c r="D108">
-        <v>43588085.310503282</v>
+        <v>39063175.28217753</v>
       </c>
       <c r="E108">
-        <v>22284408.614994798</v>
+        <v>19971048.36301326</v>
       </c>
       <c r="F108">
-        <v>38.821397805419508</v>
+        <v>34.791320985297361</v>
       </c>
       <c r="G108">
-        <v>3.8676361449982082</v>
+        <v>3.4661340956709705</v>
       </c>
       <c r="H108">
-        <v>1.9773289791303335</v>
+        <v>1.7720610564117834</v>
       </c>
       <c r="I108" t="s">
         <v>36</v>
@@ -4624,22 +4624,22 @@
         <v>5367819</v>
       </c>
       <c r="C109">
-        <v>239399978.74157304</v>
+        <v>239186415.30788344</v>
       </c>
       <c r="D109">
-        <v>23850558.280605037</v>
+        <v>23829281.724322136</v>
       </c>
       <c r="E109">
-        <v>12193597.920959324</v>
+        <v>12182720.281559691</v>
       </c>
       <c r="F109">
-        <v>44.599115346768031</v>
+        <v>44.559329460975391</v>
       </c>
       <c r="G109">
-        <v>4.443249349615745</v>
+        <v>4.4392856250037749</v>
       </c>
       <c r="H109">
-        <v>2.2716112299910494</v>
+        <v>2.2695847757831795</v>
       </c>
       <c r="I109" t="s">
         <v>36</v>
@@ -4665,22 +4665,22 @@
         <v>9846148</v>
       </c>
       <c r="C110">
-        <v>643247764.51458716</v>
+        <v>645677377.73408866</v>
       </c>
       <c r="D110">
-        <v>64084459.727480665</v>
+        <v>64326513.348352551</v>
       </c>
       <c r="E110">
-        <v>32763180.03567449</v>
+        <v>32886929.949345239</v>
       </c>
       <c r="F110">
-        <v>65.329889873134874</v>
+        <v>65.576647612252913</v>
       </c>
       <c r="G110">
-        <v>6.5085818055427023</v>
+        <v>6.5331653910090068</v>
       </c>
       <c r="H110">
-        <v>3.3275124480837066</v>
+        <v>3.3400808061533547</v>
       </c>
       <c r="I110" t="s">
         <v>36</v>
@@ -4706,22 +4706,22 @@
         <v>5178344</v>
       </c>
       <c r="C111">
-        <v>299614805.39027977</v>
+        <v>298689555.92423546</v>
       </c>
       <c r="D111">
-        <v>29849544.746229619</v>
+        <v>29757365.471903909</v>
       </c>
       <c r="E111">
-        <v>15260579.751509892</v>
+        <v>15213453.097510872</v>
       </c>
       <c r="F111">
-        <v>57.859193091513383</v>
+        <v>57.68051638211665</v>
       </c>
       <c r="G111">
-        <v>5.7643031722553806</v>
+        <v>5.7465022547563294</v>
       </c>
       <c r="H111">
-        <v>2.9469999968155633</v>
+        <v>2.9378992777441733</v>
       </c>
       <c r="I111" t="s">
         <v>37</v>
@@ -4747,16 +4747,16 @@
         <v>1457678</v>
       </c>
       <c r="C112">
-        <v>18603166.670415998</v>
+        <v>18282082.495098263</v>
       </c>
       <c r="E112">
-        <v>74610082.633507833</v>
+        <v>74016433.569359601</v>
       </c>
       <c r="F112">
-        <v>12.762192109928254</v>
+        <v>12.541921120506906</v>
       </c>
       <c r="H112">
-        <v>51.18420023730058</v>
+        <v>50.776943583809043</v>
       </c>
       <c r="I112" t="s">
         <v>37</v>
@@ -4782,16 +4782,16 @@
         <v>1330989</v>
       </c>
       <c r="C113">
-        <v>43721988.480978534</v>
+        <v>44138071.316391498</v>
       </c>
       <c r="E113">
-        <v>33525838.047288291</v>
+        <v>34422754.689990342</v>
       </c>
       <c r="F113">
-        <v>32.849248552000454</v>
+        <v>33.16186032821571</v>
       </c>
       <c r="H113">
-        <v>25.188666508354533</v>
+        <v>25.862538826384245</v>
       </c>
       <c r="I113" t="s">
         <v>37</v>
@@ -4817,16 +4817,16 @@
         <v>1522254</v>
       </c>
       <c r="C114">
-        <v>104211694.13558021</v>
+        <v>103391129.6148276</v>
       </c>
       <c r="E114">
-        <v>25782103.122939788</v>
+        <v>25579094.436932389</v>
       </c>
       <c r="F114">
-        <v>68.458807883296885</v>
+        <v>67.919762151932332</v>
       </c>
       <c r="H114">
-        <v>16.936794465929989</v>
+        <v>16.803433879584084</v>
       </c>
       <c r="I114" t="s">
         <v>38</v>
@@ -4852,16 +4852,16 @@
         <v>4899321</v>
       </c>
       <c r="C115">
-        <v>26309886.489671681</v>
+        <v>26312016.446785562</v>
       </c>
       <c r="E115">
-        <v>56764863.722643308</v>
+        <v>56220559.148230314</v>
       </c>
       <c r="F115">
-        <v>5.3701087333676814</v>
+        <v>5.3705434787362494</v>
       </c>
       <c r="H115">
-        <v>11.586271592051901</v>
+        <v>11.475173630841971</v>
       </c>
       <c r="I115" t="s">
         <v>38</v>
@@ -4887,22 +4887,22 @@
         <v>214384</v>
       </c>
       <c r="C116">
-        <v>5574619.1025854768</v>
+        <v>5429024.7370343693</v>
       </c>
       <c r="D116">
-        <v>323911.61650873988</v>
+        <v>316201.30622097419</v>
       </c>
       <c r="E116">
-        <v>6863401.4415170141</v>
+        <v>6756467.8062436078</v>
       </c>
       <c r="F116">
-        <v>26.002962453286983</v>
+        <v>25.323833574494223</v>
       </c>
       <c r="G116">
-        <v>1.5108945467420138</v>
+        <v>1.4749295946571304</v>
       </c>
       <c r="H116">
-        <v>32.014522732652686</v>
+        <v>31.515727881948315</v>
       </c>
       <c r="I116" t="s">
         <v>25</v>
@@ -4969,22 +4969,22 @@
         <v>17815891</v>
       </c>
       <c r="C118">
-        <v>965142316.39016366</v>
+        <v>964986629.81686449</v>
       </c>
       <c r="D118">
-        <v>96153655.431149557</v>
+        <v>96138144.938168317</v>
       </c>
       <c r="E118">
-        <v>49158556.339175209</v>
+        <v>49150626.599638551</v>
       </c>
       <c r="F118">
-        <v>54.173115248076208</v>
+        <v>54.164376612815182</v>
       </c>
       <c r="G118">
-        <v>5.3970725029216648</v>
+        <v>5.3962019041409901</v>
       </c>
       <c r="H118">
-        <v>2.7592533171187008</v>
+        <v>2.758808223492081</v>
       </c>
       <c r="I118" t="s">
         <v>8</v>
@@ -5010,22 +5010,22 @@
         <v>7047532</v>
       </c>
       <c r="C119">
-        <v>343479681.24619758</v>
+        <v>343393091.56264085</v>
       </c>
       <c r="D119">
-        <v>34219644.457902625</v>
+        <v>34211017.839366458</v>
       </c>
       <c r="E119">
-        <v>17494793.229102716</v>
+        <v>17490382.870376103</v>
       </c>
       <c r="F119">
-        <v>48.737583773468153</v>
+        <v>48.725297247694769</v>
       </c>
       <c r="G119">
-        <v>4.8555500646045484</v>
+        <v>4.8543260022609989</v>
       </c>
       <c r="H119">
-        <v>2.4823999705290749</v>
+        <v>2.4817741686559356</v>
       </c>
       <c r="I119" t="s">
         <v>36</v>
@@ -5051,16 +5051,16 @@
         <v>6223129</v>
       </c>
       <c r="C120">
-        <v>80295847.11956656</v>
+        <v>78614631.716577217</v>
       </c>
       <c r="E120">
-        <v>332741264.42956734</v>
+        <v>336952720.99968129</v>
       </c>
       <c r="F120">
-        <v>12.902809361587485</v>
+        <v>12.632653399371478</v>
       </c>
       <c r="H120">
-        <v>53.468482563926813</v>
+        <v>54.14522517525851</v>
       </c>
       <c r="I120" t="s">
         <v>39</v>
@@ -5086,22 +5086,22 @@
         <v>2129192</v>
       </c>
       <c r="C121">
-        <v>124528029.77869236</v>
+        <v>125516347.47534864</v>
       </c>
       <c r="D121">
-        <v>12406279.430006713</v>
+        <v>12504741.965165494</v>
       </c>
       <c r="E121">
-        <v>6342710.3585909307</v>
+        <v>6393049.3296908587</v>
       </c>
       <c r="F121">
-        <v>58.486050003331009</v>
+        <v>58.950225003357438</v>
       </c>
       <c r="G121">
-        <v>5.8267546703194038</v>
+        <v>5.8729987550044775</v>
       </c>
       <c r="H121">
-        <v>2.978928325200795</v>
+        <v>3.0025706134960393</v>
       </c>
       <c r="I121" t="s">
         <v>18</v>
@@ -5127,16 +5127,16 @@
         <v>4998069</v>
       </c>
       <c r="C122">
-        <v>225509031.08884826</v>
+        <v>223795264.92010602</v>
       </c>
       <c r="E122">
-        <v>55791215.591627717</v>
+        <v>55367227.703726828</v>
       </c>
       <c r="F122">
-        <v>45.119231264884149</v>
+        <v>44.77634560869528</v>
       </c>
       <c r="H122">
-        <v>11.162554096717695</v>
+        <v>11.077723757660575</v>
       </c>
       <c r="I122" t="s">
         <v>18</v>
@@ -5162,22 +5162,22 @@
         <v>5936999</v>
       </c>
       <c r="C123">
-        <v>228330258.44197032</v>
+        <v>228548327.75244308</v>
       </c>
       <c r="D123">
-        <v>22747721.887120329</v>
+        <v>22769447.347690471</v>
       </c>
       <c r="E123">
-        <v>11629772.814790267</v>
+        <v>11640879.956506751</v>
       </c>
       <c r="F123">
-        <v>38.458867593201603</v>
+        <v>38.495598155304229</v>
       </c>
       <c r="G123">
-        <v>3.8315185647025256</v>
+        <v>3.8351778984113807</v>
       </c>
       <c r="H123">
-        <v>1.9588638662041662</v>
+        <v>1.960734700562818</v>
       </c>
       <c r="I123" t="s">
         <v>32</v>
@@ -5361,16 +5361,16 @@
         <v>1204962</v>
       </c>
       <c r="C128">
-        <v>17541785.170878127</v>
+        <v>17578859.258300398</v>
       </c>
       <c r="E128">
-        <v>73852461.391736999</v>
+        <v>74383774.063620001</v>
       </c>
       <c r="F128">
-        <v>14.55795715622412</v>
+        <v>14.588725004025353</v>
       </c>
       <c r="H128">
-        <v>61.29028250827578</v>
+        <v>61.731219792507979</v>
       </c>
       <c r="I128" t="s">
         <v>21</v>
@@ -5396,19 +5396,19 @@
         <v>11346108</v>
       </c>
       <c r="C129">
-        <v>499662703.01399553</v>
+        <v>498239006.01577842</v>
       </c>
       <c r="D129">
-        <v>41308116.156960085</v>
+        <v>41566514.259360552</v>
       </c>
       <c r="E129">
         <v>312152416.09253329</v>
       </c>
       <c r="F129">
-        <v>44.038246684589602</v>
+        <v>43.91276779806595</v>
       </c>
       <c r="G129">
-        <v>3.6407300333259727</v>
+        <v>3.6635041953911025</v>
       </c>
       <c r="H129">
         <v>27.51184953400173</v>
@@ -5437,16 +5437,16 @@
         <v>8797020</v>
       </c>
       <c r="C130">
-        <v>310710518.74038798</v>
+        <v>308329856.12257779</v>
       </c>
       <c r="E130">
-        <v>239636454.95503348</v>
+        <v>240926505.50015998</v>
       </c>
       <c r="F130">
-        <v>35.319974120825911</v>
+        <v>35.049352635617261</v>
       </c>
       <c r="H130">
-        <v>27.240640007074383</v>
+        <v>27.387286319703716</v>
       </c>
       <c r="I130" t="s">
         <v>9</v>
@@ -5513,22 +5513,22 @@
         <v>4882435</v>
       </c>
       <c r="C132">
-        <v>111747160.68483514</v>
+        <v>111678684.91431893</v>
       </c>
       <c r="D132">
-        <v>7204696.9154248647</v>
+        <v>7210249.3504652213</v>
       </c>
       <c r="E132">
-        <v>144726343.18711367</v>
+        <v>145262820.77221102</v>
       </c>
       <c r="F132">
-        <v>22.887587993457185</v>
+        <v>22.873563071360692</v>
       </c>
       <c r="G132">
-        <v>1.4756360126504222</v>
+        <v>1.4767732392679518</v>
       </c>
       <c r="H132">
-        <v>29.642246786104408</v>
+        <v>29.752125890505663</v>
       </c>
       <c r="I132" t="s">
         <v>19</v>
@@ -5554,22 +5554,22 @@
         <v>4906656</v>
       </c>
       <c r="C133">
-        <v>190380390.12544435</v>
+        <v>192296480.02171332</v>
       </c>
       <c r="D133">
-        <v>18966913.088462703</v>
+        <v>19157806.228813283</v>
       </c>
       <c r="E133">
-        <v>9696834.3164765574</v>
+        <v>9794428.43448079</v>
       </c>
       <c r="F133">
-        <v>38.800435597165233</v>
+        <v>39.190943897781565</v>
       </c>
       <c r="G133">
-        <v>3.8655477556328997</v>
+        <v>3.9044526921824723</v>
       </c>
       <c r="H133">
-        <v>1.97626129006732</v>
+        <v>1.9961514388782891</v>
       </c>
       <c r="I133" t="s">
         <v>33</v>
@@ -5595,16 +5595,16 @@
         <v>5621453</v>
       </c>
       <c r="C134">
-        <v>67110552.76248771</v>
+        <v>67040113.045829475</v>
       </c>
       <c r="E134">
-        <v>270902359.84323132</v>
+        <v>271800578.51293808</v>
       </c>
       <c r="F134">
-        <v>11.938292957797159</v>
+        <v>11.925762440036317</v>
       </c>
       <c r="H134">
-        <v>48.190807580038701</v>
+        <v>48.350591655384839</v>
       </c>
       <c r="I134" t="s">
         <v>14</v>
@@ -5630,16 +5630,16 @@
         <v>4776449</v>
       </c>
       <c r="C135">
-        <v>57741628.795058809</v>
+        <v>61995531.025014222</v>
       </c>
       <c r="E135">
-        <v>252174492.64374146</v>
+        <v>253734708.92916319</v>
       </c>
       <c r="F135">
-        <v>12.088819287101947</v>
+        <v>12.979418606796434</v>
       </c>
       <c r="H135">
-        <v>52.795391020346173</v>
+        <v>53.122038763349757</v>
       </c>
       <c r="I135" t="s">
         <v>9</v>
@@ -5700,22 +5700,22 @@
         <v>14585886</v>
       </c>
       <c r="C137">
-        <v>399539824.4425388</v>
+        <v>398399803.39365876</v>
       </c>
       <c r="D137">
-        <v>39804714.76388929</v>
+        <v>39691138.569729403</v>
       </c>
       <c r="E137">
-        <v>20350160.423038401</v>
+        <v>20292094.593774151</v>
       </c>
       <c r="F137">
-        <v>27.392221798699016</v>
+        <v>27.314062607760594</v>
       </c>
       <c r="G137">
-        <v>2.7289884730957921</v>
+        <v>2.7212017541978186</v>
       </c>
       <c r="H137">
-        <v>1.3951953568702238</v>
+        <v>1.3912143968336343</v>
       </c>
       <c r="I137" t="s">
         <v>19</v>
@@ -5744,19 +5744,19 @@
         <v>63654918.339447141</v>
       </c>
       <c r="D138">
-        <v>3926175.0365713332</v>
+        <v>3886338.1670706309</v>
       </c>
       <c r="E138">
-        <v>85418642.841107726</v>
+        <v>83235486.460801497</v>
       </c>
       <c r="F138">
         <v>29.141848416159746</v>
       </c>
       <c r="G138">
-        <v>1.7974415921945861</v>
+        <v>1.7792038810695312</v>
       </c>
       <c r="H138">
-        <v>39.105495797126018</v>
+        <v>38.106025309010889</v>
       </c>
       <c r="I138" t="s">
         <v>15</v>
@@ -5858,16 +5858,16 @@
         <v>6130440</v>
       </c>
       <c r="C141">
-        <v>9133659.4896168001</v>
+        <v>9061740.9109584</v>
       </c>
       <c r="E141">
-        <v>447549314.99122322</v>
+        <v>444025304.63696158</v>
       </c>
       <c r="F141">
-        <v>1.4898864501759743</v>
+        <v>1.47815506080451</v>
       </c>
       <c r="H141">
-        <v>73.004436058622744</v>
+        <v>72.42959797942099</v>
       </c>
       <c r="I141" t="s">
         <v>15</v>
@@ -5893,16 +5893,16 @@
         <v>7465222</v>
       </c>
       <c r="C142">
-        <v>400857112.2169711</v>
+        <v>401123329.00692618</v>
       </c>
       <c r="E142">
-        <v>99172549.592140406</v>
+        <v>99238411.958054453</v>
       </c>
       <c r="F142">
-        <v>53.69660972131453</v>
+        <v>53.732270655437468</v>
       </c>
       <c r="H142">
-        <v>13.284608226271155</v>
+        <v>13.293430785856664</v>
       </c>
       <c r="I142" t="s">
         <v>28</v>
@@ -5928,22 +5928,22 @@
         <v>6413540</v>
       </c>
       <c r="C143">
-        <v>126869304.54294923</v>
+        <v>128562340.22362997</v>
       </c>
       <c r="D143">
-        <v>4994854.5095649306</v>
+        <v>5061509.4576232266</v>
       </c>
       <c r="E143">
-        <v>17981476.234433755</v>
+        <v>18221434.047443625</v>
       </c>
       <c r="F143">
-        <v>19.781478644079435</v>
+        <v>20.045456989997717</v>
       </c>
       <c r="G143">
-        <v>0.77879837181415112</v>
+        <v>0.78919122007865028</v>
       </c>
       <c r="H143">
-        <v>2.8036741385309449</v>
+        <v>2.8410883922831425</v>
       </c>
       <c r="I143" t="s">
         <v>41</v>
@@ -6013,13 +6013,13 @@
         <v>99907015.043334603</v>
       </c>
       <c r="E145">
-        <v>82139100.789715201</v>
+        <v>80972352.198952198</v>
       </c>
       <c r="F145">
         <v>31.106363853933839</v>
       </c>
       <c r="H145">
-        <v>25.574267779810803</v>
+        <v>25.210996930665761</v>
       </c>
       <c r="I145" t="s">
         <v>15</v>
@@ -6045,22 +6045,22 @@
         <v>8727176</v>
       </c>
       <c r="C146">
-        <v>257796594.45031503</v>
+        <v>256674294.11043862</v>
       </c>
       <c r="D146">
-        <v>16419646.283402514</v>
+        <v>16392404.639992647</v>
       </c>
       <c r="E146">
-        <v>341827545.38207167</v>
+        <v>342080208.54785788</v>
       </c>
       <c r="F146">
-        <v>29.53952051045092</v>
+        <v>29.41092217120849</v>
       </c>
       <c r="G146">
-        <v>1.8814386559183078</v>
+        <v>1.8783171830146026</v>
       </c>
       <c r="H146">
-        <v>39.168173688954099</v>
+        <v>39.19712499757744</v>
       </c>
       <c r="I146" t="s">
         <v>15</v>
@@ -6086,16 +6086,16 @@
         <v>1634689</v>
       </c>
       <c r="C147">
-        <v>72548319.197337598</v>
+        <v>72707880.976526126</v>
       </c>
       <c r="E147">
-        <v>40970378.777950831</v>
+        <v>41060488.467660606</v>
       </c>
       <c r="F147">
-        <v>44.3805024670366</v>
+        <v>44.478112336062779</v>
       </c>
       <c r="H147">
-        <v>25.063102998766634</v>
+        <v>25.118226444088513</v>
       </c>
       <c r="I147" t="s">
         <v>15</v>
@@ -6127,7 +6127,7 @@
         <v>17807773.1683896</v>
       </c>
       <c r="E148">
-        <v>385295455.82515681</v>
+        <v>372223520.51347601</v>
       </c>
       <c r="F148">
         <v>126.68471810193755</v>
@@ -6136,7 +6136,7 @@
         <v>8.207754125771606</v>
       </c>
       <c r="H148">
-        <v>177.5859529030584</v>
+        <v>171.56098672835898</v>
       </c>
       <c r="I148" t="s">
         <v>15</v>
@@ -6162,16 +6162,16 @@
         <v>5753937</v>
       </c>
       <c r="C149">
-        <v>162310461.88542688</v>
+        <v>161425128.18883333</v>
       </c>
       <c r="E149">
-        <v>215154744.41927397</v>
+        <v>211188419.23896861</v>
       </c>
       <c r="F149">
-        <v>28.208592114482116</v>
+        <v>28.054726388007605</v>
       </c>
       <c r="H149">
-        <v>37.392613860609522</v>
+        <v>36.703290154022994</v>
       </c>
       <c r="I149" t="s">
         <v>15</v>
@@ -6197,16 +6197,16 @@
         <v>6488120</v>
       </c>
       <c r="C150">
-        <v>225059859.83725989</v>
+        <v>224803720.43805185</v>
       </c>
       <c r="E150">
-        <v>175327116.86307839</v>
+        <v>171930269.82355797</v>
       </c>
       <c r="F150">
-        <v>34.687992798724423</v>
+        <v>34.648514583277105</v>
       </c>
       <c r="H150">
-        <v>27.022791943286865</v>
+        <v>26.499243205051382</v>
       </c>
       <c r="I150" t="s">
         <v>15</v>
@@ -6273,22 +6273,22 @@
         <v>3910602</v>
       </c>
       <c r="C152">
-        <v>188123005.92886293</v>
+        <v>190062394.26534033</v>
       </c>
       <c r="D152">
-        <v>18742018.025291454</v>
+        <v>18935232.305388827</v>
       </c>
       <c r="E152">
-        <v>9581856.715430256</v>
+        <v>9680637.5161300376</v>
       </c>
       <c r="F152">
-        <v>48.105894163830257</v>
+        <v>48.601825055410991</v>
       </c>
       <c r="G152">
-        <v>4.7926171022495909</v>
+        <v>4.8420249121206478</v>
       </c>
       <c r="H152">
-        <v>2.4502254935251031</v>
+        <v>2.4754852363216804</v>
       </c>
       <c r="I152" t="s">
         <v>12</v>
@@ -6314,22 +6314,22 @@
         <v>7463219</v>
       </c>
       <c r="C153">
-        <v>351164247.08307183</v>
+        <v>353954020.6101253</v>
       </c>
       <c r="D153">
-        <v>34985230.095449254</v>
+        <v>35263165.191544242</v>
       </c>
       <c r="E153">
-        <v>17886198.886298429</v>
+        <v>18028293.204176992</v>
       </c>
       <c r="F153">
-        <v>47.052652090615567</v>
+        <v>47.426455073893088</v>
       </c>
       <c r="G153">
-        <v>4.6876863851173667</v>
+        <v>4.7249270310229736</v>
       </c>
       <c r="H153">
-        <v>2.396579664391254</v>
+        <v>2.415618944610495</v>
       </c>
       <c r="I153" t="s">
         <v>36</v>
@@ -6355,22 +6355,22 @@
         <v>10860909</v>
       </c>
       <c r="C154">
-        <v>260709682.61315536</v>
+        <v>260906402.36257121</v>
       </c>
       <c r="D154">
-        <v>10264160.732801391</v>
+        <v>10271905.604825638</v>
       </c>
       <c r="E154">
-        <v>36950978.638085023</v>
+        <v>36978860.177372314</v>
       </c>
       <c r="F154">
-        <v>24.0044072382114</v>
+        <v>24.022519879558075</v>
       </c>
       <c r="G154">
-        <v>0.94505540307918889</v>
+        <v>0.94576849919519979</v>
       </c>
       <c r="H154">
-        <v>3.4021994510850817</v>
+        <v>3.4047665971027206</v>
       </c>
       <c r="I154" t="s">
         <v>41</v>
@@ -6396,22 +6396,22 @@
         <v>2584028</v>
       </c>
       <c r="C155">
-        <v>30513158.542953461</v>
+        <v>30212641.593374349</v>
       </c>
       <c r="D155">
-        <v>1980040.086713339</v>
+        <v>1951829.838846979</v>
       </c>
       <c r="E155">
-        <v>39467581.618921451</v>
+        <v>39134755.225358203</v>
       </c>
       <c r="F155">
-        <v>11.808369933666919</v>
+        <v>11.69207206476646</v>
       </c>
       <c r="G155">
-        <v>0.76626108026435436</v>
+        <v>0.75534391997570416</v>
       </c>
       <c r="H155">
-        <v>15.273666391742447</v>
+        <v>15.144865003536417</v>
       </c>
       <c r="I155" t="s">
         <v>22</v>
@@ -6437,16 +6437,16 @@
         <v>5184267</v>
       </c>
       <c r="C156">
-        <v>296570794.81071496</v>
+        <v>297604382.30815536</v>
       </c>
       <c r="E156">
-        <v>73371984.578950256</v>
+        <v>73627695.415115327</v>
       </c>
       <c r="F156">
-        <v>57.205926085734966</v>
+        <v>57.405296121545312</v>
       </c>
       <c r="H156">
-        <v>14.152817472354386</v>
+        <v>14.202141867908294</v>
       </c>
       <c r="I156" t="s">
         <v>39</v>
@@ -6472,22 +6472,22 @@
         <v>5491581</v>
       </c>
       <c r="C157">
-        <v>140487392.72234288</v>
+        <v>140571331.14262524</v>
       </c>
       <c r="D157">
-        <v>11715020.284588257</v>
+        <v>11707874.178151388</v>
       </c>
       <c r="E157">
-        <v>90057427.880804926</v>
+        <v>89975085.503695473</v>
       </c>
       <c r="F157">
-        <v>25.582321870940788</v>
+        <v>25.597606798957393</v>
       </c>
       <c r="G157">
-        <v>2.1332691413617058</v>
+        <v>2.1319678573713814</v>
       </c>
       <c r="H157">
-        <v>16.399180469304724</v>
+        <v>16.384186175838156</v>
       </c>
       <c r="I157" t="s">
         <v>19</v>
@@ -6513,16 +6513,16 @@
         <v>1299004</v>
       </c>
       <c r="C158">
-        <v>16830447.556374092</v>
+        <v>16866018.2510316</v>
       </c>
       <c r="E158">
-        <v>70857667.349973008</v>
+        <v>71331751.023609519</v>
       </c>
       <c r="F158">
-        <v>12.956424734930833</v>
+        <v>12.98380778737525</v>
       </c>
       <c r="H158">
-        <v>54.547689883921073</v>
+        <v>54.912649247892624</v>
       </c>
       <c r="I158" t="s">
         <v>28</v>
@@ -6548,22 +6548,22 @@
         <v>3250811</v>
       </c>
       <c r="C159">
-        <v>116369377.56338295</v>
+        <v>118935386.04141265</v>
       </c>
       <c r="D159">
-        <v>11593462.272815239</v>
+        <v>11849104.462407239</v>
       </c>
       <c r="E159">
-        <v>5927157.5869767908</v>
+        <v>6057854.6564057004</v>
       </c>
       <c r="F159">
-        <v>35.797029591502849</v>
+        <v>36.586373689953874</v>
       </c>
       <c r="G159">
-        <v>3.5663292245581912</v>
+        <v>3.6449687362345085</v>
       </c>
       <c r="H159">
-        <v>1.8232858160553753</v>
+        <v>1.8634902663998925</v>
       </c>
       <c r="I159" t="s">
         <v>22</v>
@@ -6589,22 +6589,22 @@
         <v>5484916</v>
       </c>
       <c r="C160">
-        <v>199226770.90837932</v>
+        <v>198216209.96655923</v>
       </c>
       <c r="D160">
-        <v>7843573.6578102093</v>
+        <v>7803787.7939590244</v>
       </c>
       <c r="E160">
-        <v>28236865.168116767</v>
+        <v>28093636.058252499</v>
       </c>
       <c r="F160">
-        <v>36.322665818105385</v>
+        <v>36.138422168463336</v>
       </c>
       <c r="G160">
-        <v>1.4300262133112356</v>
+        <v>1.422772526317454</v>
       </c>
       <c r="H160">
-        <v>5.1480943679204501</v>
+        <v>5.1219810947428357</v>
       </c>
       <c r="I160" t="s">
         <v>35</v>
@@ -6671,22 +6671,22 @@
         <v>12498933</v>
       </c>
       <c r="C162">
-        <v>744284263.43511581</v>
+        <v>743347376.29542124</v>
       </c>
       <c r="D162">
-        <v>74150362.484195843</v>
+        <v>74057023.790328398</v>
       </c>
       <c r="E162">
-        <v>37909372.820045128</v>
+        <v>37861653.412805393</v>
       </c>
       <c r="F162">
-        <v>59.547824077072477</v>
+        <v>59.472866707535857</v>
       </c>
       <c r="G162">
-        <v>5.9325353999574073</v>
+        <v>5.9250676670023275</v>
       </c>
       <c r="H162">
-        <v>3.0330087232282255</v>
+        <v>3.0291908447549396</v>
       </c>
       <c r="I162" t="s">
         <v>30</v>
@@ -6712,22 +6712,22 @@
         <v>2663953</v>
       </c>
       <c r="C163">
-        <v>66998556.090062067</v>
+        <v>66415243.632957958</v>
       </c>
       <c r="D163">
-        <v>2637738.4287426011</v>
+        <v>2614773.3713762974</v>
       </c>
       <c r="E163">
-        <v>9495858.3434733674</v>
+        <v>9413184.1369546745</v>
       </c>
       <c r="F163">
-        <v>25.150051855292517</v>
+        <v>24.931086859624759</v>
       </c>
       <c r="G163">
-        <v>0.99015952186191014</v>
+        <v>0.98153885274113228</v>
       </c>
       <c r="H163">
-        <v>3.5645742787028776</v>
+        <v>3.5335398698680773</v>
       </c>
       <c r="I163" t="s">
         <v>41</v>
@@ -6753,22 +6753,22 @@
         <v>14171621</v>
       </c>
       <c r="C164">
-        <v>726645369.99801648</v>
+        <v>733237688.94442761</v>
       </c>
       <c r="D164">
-        <v>72393063.013501018</v>
+        <v>73049832.024351448</v>
       </c>
       <c r="E164">
-        <v>37010953.465652391</v>
+        <v>37346726.622449666</v>
       </c>
       <c r="F164">
-        <v>51.274682691416629</v>
+        <v>51.739860171565951</v>
       </c>
       <c r="G164">
-        <v>5.1083120987712718</v>
+        <v>5.1546560569430575</v>
       </c>
       <c r="H164">
-        <v>2.6116245604968125</v>
+        <v>2.6353179091121381</v>
       </c>
       <c r="I164" t="s">
         <v>32</v>
@@ -6794,16 +6794,16 @@
         <v>1551911</v>
       </c>
       <c r="C165">
-        <v>67224628.417509094</v>
+        <v>67758157.214473441</v>
       </c>
       <c r="E165">
-        <v>37963918.667510904</v>
+        <v>38265219.609316543</v>
       </c>
       <c r="F165">
-        <v>43.317321945336488</v>
+        <v>43.661110214743914</v>
       </c>
       <c r="H165">
-        <v>24.462690623051774</v>
+        <v>24.656838961329964</v>
       </c>
       <c r="I165" t="s">
         <v>16</v>
@@ -6829,16 +6829,16 @@
         <v>1138255</v>
       </c>
       <c r="C166">
-        <v>23422463.499252923</v>
+        <v>23691235.511742719</v>
       </c>
       <c r="E166">
-        <v>17751664.043707862</v>
+        <v>17733284.121384807</v>
       </c>
       <c r="F166">
-        <v>20.577518657289382</v>
+        <v>20.813645019563033</v>
       </c>
       <c r="H166">
-        <v>15.595507196285419</v>
+        <v>15.579359740466597</v>
       </c>
       <c r="I166" t="s">
         <v>42</v>
@@ -6864,22 +6864,22 @@
         <v>1940463</v>
       </c>
       <c r="C167">
-        <v>45693092.367904872</v>
+        <v>46268191.801911354</v>
       </c>
       <c r="D167">
-        <v>2782030.8058615951</v>
+        <v>2808612.3279994563</v>
       </c>
       <c r="E167">
-        <v>59987998.37211138</v>
+        <v>59661002.389520772</v>
       </c>
       <c r="F167">
-        <v>23.547520549428086</v>
+        <v>23.843892824501861</v>
       </c>
       <c r="G167">
-        <v>1.4336943326729727</v>
+        <v>1.4473928789157311</v>
       </c>
       <c r="H167">
-        <v>30.914270651958518</v>
+        <v>30.745756239372135</v>
       </c>
       <c r="I167" t="s">
         <v>33</v>
@@ -6905,16 +6905,16 @@
         <v>166824</v>
       </c>
       <c r="C168">
-        <v>3860633.765878405</v>
+        <v>3805505.7502665957</v>
       </c>
       <c r="E168">
-        <v>15604972.773729108</v>
+        <v>15416912.017960686</v>
       </c>
       <c r="F168">
-        <v>23.141956588251119</v>
+        <v>22.811500445179327</v>
       </c>
       <c r="H168">
-        <v>93.54153343481218</v>
+        <v>92.414233071744391</v>
       </c>
       <c r="I168" t="s">
         <v>37</v>
@@ -6940,13 +6940,13 @@
         <v>477436</v>
       </c>
       <c r="C169">
-        <v>13444079.214674158</v>
+        <v>13835166.907670997</v>
       </c>
       <c r="E169">
         <v>11134647.747924026</v>
       </c>
       <c r="F169">
-        <v>28.15891389563032</v>
+        <v>28.978055504132485</v>
       </c>
       <c r="H169">
         <v>23.321759875510072</v>
@@ -7045,16 +7045,16 @@
         <v>334348.61</v>
       </c>
       <c r="C172">
-        <v>3784501.6096706013</v>
+        <v>3733658.5412272261</v>
       </c>
       <c r="E172">
-        <v>14839483.777082652</v>
+        <v>15020221.983342635</v>
       </c>
       <c r="F172">
-        <v>11.319028990940328</v>
+        <v>11.166962952910815</v>
       </c>
       <c r="H172">
-        <v>44.383267443769697</v>
+        <v>44.923835583891417</v>
       </c>
       <c r="I172" t="s">
         <v>36</v>

--- a/r_map/data_boot_cq_remov_Hg.xlsx
+++ b/r_map/data_boot_cq_remov_Hg.xlsx
@@ -609,16 +609,16 @@
         <v>2207648</v>
       </c>
       <c r="C2">
-        <v>3261169.684692</v>
+        <v>3504022.7463180004</v>
       </c>
       <c r="E2">
-        <v>159797314.54990798</v>
+        <v>171697114.56958199</v>
       </c>
       <c r="F2">
-        <v>1.477214521831379</v>
+        <v>1.5872198585635031</v>
       </c>
       <c r="H2">
-        <v>72.383511569737564</v>
+        <v>77.773773069611636</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -644,16 +644,16 @@
         <v>505392</v>
       </c>
       <c r="C3">
-        <v>322421.46876089345</v>
+        <v>324022.6416102603</v>
       </c>
       <c r="E3">
-        <v>15798651.96928378</v>
+        <v>15877109.438902754</v>
       </c>
       <c r="F3">
-        <v>0.63796314298780643</v>
+        <v>0.64113132303293341</v>
       </c>
       <c r="H3">
-        <v>31.260194006402514</v>
+        <v>31.415434828613737</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -679,16 +679,16 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>52768224.100200072</v>
+        <v>52805556.636618003</v>
       </c>
       <c r="E4">
-        <v>205548155.84681267</v>
+        <v>205101071.22956467</v>
       </c>
       <c r="F4">
-        <v>19.354655873934142</v>
+        <v>19.368348932732147</v>
       </c>
       <c r="H4">
-        <v>75.392224956870592</v>
+        <v>75.228240493475852</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -749,16 +749,16 @@
         <v>324142</v>
       </c>
       <c r="C6">
-        <v>4738978.7822947083</v>
+        <v>4888112.6509992015</v>
       </c>
       <c r="E6">
-        <v>20535982.769526001</v>
+        <v>20683723.652759999</v>
       </c>
       <c r="F6">
-        <v>14.620070161517818</v>
+        <v>15.080158236202656</v>
       </c>
       <c r="H6">
-        <v>63.354896216861746</v>
+        <v>63.810686837126937</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -866,22 +866,22 @@
         <v>8921964</v>
       </c>
       <c r="C9">
-        <v>359870930.77712786</v>
+        <v>355904978.14654559</v>
       </c>
       <c r="D9">
-        <v>35852645.656500921</v>
+        <v>35457532.069394335</v>
       </c>
       <c r="E9">
-        <v>18329665.091886092</v>
+        <v>18127663.270477854</v>
       </c>
       <c r="F9">
-        <v>40.33539372913048</v>
+        <v>39.890878078699444</v>
       </c>
       <c r="G9">
-        <v>4.0184701100005462</v>
+        <v>3.9741846155615885</v>
       </c>
       <c r="H9">
-        <v>2.0544428437377791</v>
+        <v>2.0318018847058621</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -907,22 +907,22 @@
         <v>7744214</v>
       </c>
       <c r="C10">
-        <v>226803557.41222107</v>
+        <v>221494386.30999848</v>
       </c>
       <c r="D10">
-        <v>22595622.158129122</v>
+        <v>22066688.548941322</v>
       </c>
       <c r="E10">
-        <v>11552011.828343514</v>
+        <v>11281594.520646248</v>
       </c>
       <c r="F10">
-        <v>29.286840137968952</v>
+        <v>28.601273971767629</v>
       </c>
       <c r="G10">
-        <v>2.9177424794987745</v>
+        <v>2.8494419897153307</v>
       </c>
       <c r="H10">
-        <v>1.4916958426437485</v>
+        <v>1.4567772172419626</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -948,22 +948,22 @@
         <v>1912394</v>
       </c>
       <c r="C11">
-        <v>9147783.3922598027</v>
+        <v>9051050.7991004158</v>
       </c>
       <c r="D11">
-        <v>949298.27655526274</v>
+        <v>939259.98858589213</v>
       </c>
       <c r="E11">
-        <v>28737847.826627493</v>
+        <v>28433961.472645644</v>
       </c>
       <c r="F11">
-        <v>4.7834198351698465</v>
+        <v>4.7328378979961325</v>
       </c>
       <c r="G11">
-        <v>0.49639262440441806</v>
+        <v>0.49114355545242883</v>
       </c>
       <c r="H11">
-        <v>15.02715853878829</v>
+        <v>14.868254905968982</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -989,16 +989,16 @@
         <v>2014725</v>
       </c>
       <c r="C12">
-        <v>30841088.870721597</v>
+        <v>32866000.776456453</v>
       </c>
       <c r="E12">
-        <v>130371514.79366952</v>
+        <v>129327498.65918566</v>
       </c>
       <c r="F12">
-        <v>15.307840459974239</v>
+        <v>16.312896686374792</v>
       </c>
       <c r="H12">
-        <v>64.709334918497319</v>
+        <v>64.191142046277122</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -1024,22 +1024,22 @@
         <v>9164672</v>
       </c>
       <c r="C13">
-        <v>504111073.69592965</v>
+        <v>504702328.14436233</v>
       </c>
       <c r="D13">
-        <v>32091199.095173329</v>
+        <v>32163068.265386321</v>
       </c>
       <c r="E13">
-        <v>665817225.24611092</v>
+        <v>657068418.51773584</v>
       </c>
       <c r="F13">
-        <v>55.005904597123561</v>
+        <v>55.070419120767482</v>
       </c>
       <c r="G13">
-        <v>3.5016200356295708</v>
+        <v>3.5094620151584603</v>
       </c>
       <c r="H13">
-        <v>72.650415120815126</v>
+        <v>71.695792115390034</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>
@@ -1065,13 +1065,13 @@
         <v>1387318</v>
       </c>
       <c r="C14">
-        <v>65400502.976869345</v>
+        <v>64885538.386500299</v>
       </c>
       <c r="E14">
         <v>38490828.243948296</v>
       </c>
       <c r="F14">
-        <v>47.14168127053015</v>
+        <v>46.770486929817316</v>
       </c>
       <c r="H14">
         <v>27.744776787981053</v>
@@ -1100,22 +1100,22 @@
         <v>2221132</v>
       </c>
       <c r="C15">
-        <v>68724844.398767203</v>
+        <v>56145181.752725676</v>
       </c>
       <c r="D15">
-        <v>6846808.9064774299</v>
+        <v>5593542.3913051728</v>
       </c>
       <c r="E15">
-        <v>3500431.0534365857</v>
+        <v>2859698.5475547696</v>
       </c>
       <c r="F15">
-        <v>30.941359810568308</v>
+        <v>25.277733044558214</v>
       </c>
       <c r="G15">
-        <v>3.0825763198573655</v>
+        <v>2.51832956857367</v>
       </c>
       <c r="H15">
-        <v>1.5759671435270779</v>
+        <v>1.2874959919332887</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1141,16 +1141,16 @@
         <v>9744872</v>
       </c>
       <c r="C16">
-        <v>297799618.19061595</v>
+        <v>298948625.7479198</v>
       </c>
       <c r="E16">
-        <v>97279675.027932644</v>
+        <v>97576726.236540869</v>
       </c>
       <c r="F16">
-        <v>30.559623378389777</v>
+        <v>30.677532321401429</v>
       </c>
       <c r="H16">
-        <v>9.9826529304779612</v>
+        <v>10.013135753506138</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -1176,22 +1176,22 @@
         <v>2258981</v>
       </c>
       <c r="C17">
-        <v>61178546.780819267</v>
+        <v>58505423.011192366</v>
       </c>
       <c r="D17">
-        <v>6094998.4339545965</v>
+        <v>5828684.7333691027</v>
       </c>
       <c r="E17">
-        <v>3116067.9493592875</v>
+        <v>2979915.0699349539</v>
       </c>
       <c r="F17">
-        <v>27.082364473547706</v>
+        <v>25.899032798944464</v>
       </c>
       <c r="G17">
-        <v>2.6981185029686379</v>
+        <v>2.580227427043035</v>
       </c>
       <c r="H17">
-        <v>1.3794130846427162</v>
+        <v>1.3191412720757518</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -1217,22 +1217,22 @@
         <v>7754032</v>
       </c>
       <c r="C18">
-        <v>214844468.90481526</v>
+        <v>214560258.93086565</v>
       </c>
       <c r="D18">
-        <v>21404181.210940499</v>
+        <v>21375866.394108657</v>
       </c>
       <c r="E18">
-        <v>10942887.644093329</v>
+        <v>10928411.693988051</v>
       </c>
       <c r="F18">
-        <v>27.707451930146178</v>
+        <v>27.670798744558397</v>
       </c>
       <c r="G18">
-        <v>2.760393716577453</v>
+        <v>2.7567420916122938</v>
       </c>
       <c r="H18">
-        <v>1.4112512876002226</v>
+        <v>1.4093843943367852</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -1293,16 +1293,16 @@
         <v>1265697</v>
       </c>
       <c r="C20">
-        <v>75966650.494360596</v>
+        <v>75368487.892042801</v>
       </c>
       <c r="E20">
-        <v>18794244.093199387</v>
+        <v>18646257.919237193</v>
       </c>
       <c r="F20">
-        <v>60.019618039989503</v>
+        <v>59.547022622351797</v>
       </c>
       <c r="H20">
-        <v>14.848928371639806</v>
+        <v>14.732007675800126</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
@@ -1363,16 +1363,16 @@
         <v>2372033</v>
       </c>
       <c r="C22">
-        <v>121719455.50618035</v>
+        <v>122685482.93083258</v>
       </c>
       <c r="E22">
-        <v>30113545.125229631</v>
+        <v>30352541.515112411</v>
       </c>
       <c r="F22">
-        <v>51.314402247430934</v>
+        <v>51.721659408124836</v>
       </c>
       <c r="H22">
-        <v>12.695247125663778</v>
+        <v>12.796003055232541</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1398,16 +1398,16 @@
         <v>4881045</v>
       </c>
       <c r="C23">
-        <v>225112522.87839377</v>
+        <v>223662566.0285345</v>
       </c>
       <c r="E23">
-        <v>55693118.965756439</v>
+        <v>55334397.83242327</v>
       </c>
       <c r="F23">
-        <v>46.119739293203352</v>
+        <v>45.822680599858124</v>
       </c>
       <c r="H23">
-        <v>11.41008103095883</v>
+        <v>11.336588339673835</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -1433,16 +1433,16 @@
         <v>2219933</v>
       </c>
       <c r="C24">
-        <v>124411959.5667039</v>
+        <v>125399356.07120156</v>
       </c>
       <c r="E24">
-        <v>30779673.988436084</v>
+        <v>31023957.115328431</v>
       </c>
       <c r="F24">
-        <v>56.043114619542074</v>
+        <v>56.487901243506698</v>
       </c>
       <c r="H24">
-        <v>13.865136465125786</v>
+        <v>13.975177230722021</v>
       </c>
       <c r="I24" t="s">
         <v>18</v>
@@ -1468,22 +1468,22 @@
         <v>1056327</v>
       </c>
       <c r="C25">
-        <v>42355998.188684955</v>
+        <v>33541757.845707767</v>
       </c>
       <c r="D25">
-        <v>4219775.66014296</v>
+        <v>3341644.6172560663</v>
       </c>
       <c r="E25">
-        <v>2157360.3062480879</v>
+        <v>1708415.8105721639</v>
       </c>
       <c r="F25">
-        <v>40.097430235793418</v>
+        <v>31.753195597298721</v>
       </c>
       <c r="G25">
-        <v>3.9947626635908766</v>
+        <v>3.1634565974892874</v>
       </c>
       <c r="H25">
-        <v>2.0423224117608352</v>
+        <v>1.6173171854663981</v>
       </c>
       <c r="I25" t="s">
         <v>18</v>
@@ -1509,22 +1509,22 @@
         <v>1066912</v>
       </c>
       <c r="C26">
-        <v>60195305.641832858</v>
+        <v>60350195.390687987</v>
       </c>
       <c r="D26">
-        <v>5997041.6579659134</v>
+        <v>6012472.7661955655</v>
       </c>
       <c r="E26">
-        <v>3065987.5476350733</v>
+        <v>3073876.7017174829</v>
       </c>
       <c r="F26">
-        <v>56.420122411063758</v>
+        <v>56.565298160193137</v>
       </c>
       <c r="G26">
-        <v>5.6209337395829397</v>
+        <v>5.6353970769806363</v>
       </c>
       <c r="H26">
-        <v>2.8737023743617782</v>
+        <v>2.8810967556063503</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -1550,22 +1550,22 @@
         <v>5225154</v>
       </c>
       <c r="C27">
-        <v>129464771.20611525</v>
+        <v>128639714.44063398</v>
       </c>
       <c r="D27">
-        <v>12920974.535952717</v>
+        <v>12838631.38299934</v>
       </c>
       <c r="E27">
-        <v>23633916.631081376</v>
+        <v>23483301.736931913</v>
       </c>
       <c r="F27">
-        <v>24.777216366467908</v>
+        <v>24.619315419341511</v>
       </c>
       <c r="G27">
-        <v>2.4728409030533296</v>
+        <v>2.4570819124181487</v>
       </c>
       <c r="H27">
-        <v>4.5231043201944621</v>
+        <v>4.4942793527103531</v>
       </c>
       <c r="I27" t="s">
         <v>19</v>
@@ -1591,16 +1591,16 @@
         <v>2992958</v>
       </c>
       <c r="C28">
-        <v>88870090.688153028</v>
+        <v>88404484.421113044</v>
       </c>
       <c r="E28">
-        <v>26400656.880256303</v>
+        <v>25862671.67821655</v>
       </c>
       <c r="F28">
-        <v>29.693063079452845</v>
+        <v>29.537495822231065</v>
       </c>
       <c r="H28">
-        <v>8.8209246104543748</v>
+        <v>8.6411742758222978</v>
       </c>
       <c r="I28" t="s">
         <v>19</v>
@@ -1626,16 +1626,16 @@
         <v>229494</v>
       </c>
       <c r="C29">
-        <v>1345535.2514971697</v>
+        <v>1342660.5492569096</v>
       </c>
       <c r="E29">
-        <v>5700249.5647738576</v>
+        <v>5709508.8196972255</v>
       </c>
       <c r="F29">
-        <v>5.863051981738824</v>
+        <v>5.850525718567412</v>
       </c>
       <c r="H29">
-        <v>24.838338103714509</v>
+        <v>24.878684495878872</v>
       </c>
       <c r="I29" t="s">
         <v>19</v>
@@ -1661,22 +1661,22 @@
         <v>6529869</v>
       </c>
       <c r="C30">
-        <v>147421398.21050704</v>
+        <v>148081961.32592833</v>
       </c>
       <c r="D30">
-        <v>12219689.727228405</v>
+        <v>12177090.086030047</v>
       </c>
       <c r="E30">
-        <v>103681647.98338726</v>
+        <v>102876330.09373915</v>
       </c>
       <c r="F30">
-        <v>22.576471015039822</v>
+        <v>22.677631255072395</v>
       </c>
       <c r="G30">
-        <v>1.8713529669934275</v>
+        <v>1.8648291544639024</v>
       </c>
       <c r="H30">
-        <v>15.878059419474916</v>
+        <v>15.754731081701509</v>
       </c>
       <c r="I30" t="s">
         <v>19</v>
@@ -1702,22 +1702,22 @@
         <v>4984247</v>
       </c>
       <c r="C31">
-        <v>152797483.89789963</v>
+        <v>166187899.65365791</v>
       </c>
       <c r="D31">
-        <v>15222663.402032342</v>
+        <v>16556702.331622208</v>
       </c>
       <c r="E31">
-        <v>7782586.664289034</v>
+        <v>8464614.0670418534</v>
       </c>
       <c r="F31">
-        <v>30.656081830996662</v>
+        <v>33.342629218346907</v>
       </c>
       <c r="G31">
-        <v>3.0541551014691573</v>
+        <v>3.3218061487767776</v>
       </c>
       <c r="H31">
-        <v>1.5614367956261064</v>
+        <v>1.6982733935621275</v>
       </c>
       <c r="I31" t="s">
         <v>19</v>
@@ -1743,16 +1743,16 @@
         <v>2093626</v>
       </c>
       <c r="C32">
-        <v>10984578.204221815</v>
+        <v>10909907.409490552</v>
       </c>
       <c r="E32">
-        <v>61694359.637170352</v>
+        <v>61414897.569691256</v>
       </c>
       <c r="F32">
-        <v>5.2466764380179711</v>
+        <v>5.2110106625971166</v>
       </c>
       <c r="H32">
-        <v>29.467708003803139</v>
+        <v>29.334225678173301</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
@@ -1781,19 +1781,19 @@
         <v>1684604.7643185088</v>
       </c>
       <c r="D33">
-        <v>135609.27966599999</v>
+        <v>126201.52930000001</v>
       </c>
       <c r="E33">
-        <v>2633022.8158499999</v>
+        <v>2839534.4092499996</v>
       </c>
       <c r="F33">
         <v>25.048395103912167</v>
       </c>
       <c r="G33">
-        <v>2.0163749318404851</v>
+        <v>1.8764910533202488</v>
       </c>
       <c r="H33">
-        <v>39.150426976090642</v>
+        <v>42.221048699705584</v>
       </c>
       <c r="I33" t="s">
         <v>19</v>
@@ -1819,16 +1819,16 @@
         <v>245567</v>
       </c>
       <c r="C34">
-        <v>10021521.580983292</v>
+        <v>10032291.275088975</v>
       </c>
       <c r="E34">
-        <v>2479336.9399937862</v>
+        <v>2482001.3757496621</v>
       </c>
       <c r="F34">
-        <v>40.809724356217622</v>
+        <v>40.853580795013073</v>
       </c>
       <c r="H34">
-        <v>10.096376711829302</v>
+        <v>10.107226849493873</v>
       </c>
       <c r="I34" t="s">
         <v>20</v>
@@ -1854,16 +1854,16 @@
         <v>717925</v>
       </c>
       <c r="C35">
-        <v>7530309.6581667922</v>
+        <v>7595291.4665123885</v>
       </c>
       <c r="E35">
-        <v>43646520.021805324</v>
+        <v>43335986.765513808</v>
       </c>
       <c r="F35">
-        <v>10.488992106650127</v>
+        <v>10.579505472733766</v>
       </c>
       <c r="H35">
-        <v>60.795375591886788</v>
+        <v>60.362832838407641</v>
       </c>
       <c r="I35" t="s">
         <v>20</v>
@@ -1889,16 +1889,16 @@
         <v>1081826</v>
       </c>
       <c r="C36">
-        <v>60126054.072370656</v>
+        <v>60603244.977706924</v>
       </c>
       <c r="E36">
-        <v>14875260.778819343</v>
+        <v>14993318.404048068</v>
       </c>
       <c r="F36">
-        <v>55.578303786718621</v>
+        <v>56.019401435819553</v>
       </c>
       <c r="H36">
-        <v>13.750141685279651</v>
+        <v>13.859269793892981</v>
       </c>
       <c r="I36" t="s">
         <v>20</v>
@@ -1924,16 +1924,16 @@
         <v>250729</v>
       </c>
       <c r="C37">
-        <v>1194577.3949200083</v>
+        <v>1231587.580526219</v>
       </c>
       <c r="E37">
-        <v>17283863.278513681</v>
+        <v>17275710.965744641</v>
       </c>
       <c r="F37">
-        <v>4.7644165410463417</v>
+        <v>4.9120268518050123</v>
       </c>
       <c r="H37">
-        <v>68.934440286180219</v>
+        <v>68.901925847208105</v>
       </c>
       <c r="I37" t="s">
         <v>20</v>
@@ -1959,13 +1959,13 @@
         <v>750815</v>
       </c>
       <c r="C38">
-        <v>23411014.887067918</v>
+        <v>23570399.645787034</v>
       </c>
       <c r="E38">
         <v>31650523.774675105</v>
       </c>
       <c r="F38">
-        <v>31.180803376421512</v>
+        <v>31.393085707913446</v>
       </c>
       <c r="H38">
         <v>42.154890052376558</v>
@@ -2035,16 +2035,16 @@
         <v>384251</v>
       </c>
       <c r="C40">
-        <v>5038105.9294385994</v>
+        <v>4867297.6057859585</v>
       </c>
       <c r="E40">
-        <v>21146340.211347014</v>
+        <v>21166135.877995498</v>
       </c>
       <c r="F40">
-        <v>13.111497249034093</v>
+        <v>12.666974466653199</v>
       </c>
       <c r="H40">
-        <v>55.032622456017066</v>
+        <v>55.084139997021474</v>
       </c>
       <c r="I40" t="s">
         <v>21</v>
@@ -2070,16 +2070,16 @@
         <v>1245893</v>
       </c>
       <c r="C41">
-        <v>24903581.133713469</v>
+        <v>25079969.329840921</v>
       </c>
       <c r="E41">
-        <v>80103410.894698262</v>
+        <v>79267661.88233918</v>
       </c>
       <c r="F41">
-        <v>19.98853925153562</v>
+        <v>20.130114969616908</v>
       </c>
       <c r="H41">
-        <v>64.293972993425811</v>
+        <v>63.623169792541717</v>
       </c>
       <c r="I41" t="s">
         <v>22</v>
@@ -2105,22 +2105,22 @@
         <v>827980</v>
       </c>
       <c r="C42">
-        <v>17430638.701073185</v>
+        <v>17370193.723624092</v>
       </c>
       <c r="D42">
-        <v>1089477.2816144645</v>
+        <v>1080962.390456052</v>
       </c>
       <c r="E42">
-        <v>22683390.072211429</v>
+        <v>22391472.359551221</v>
       </c>
       <c r="F42">
-        <v>21.052004518313467</v>
+        <v>20.979001574463261</v>
       </c>
       <c r="G42">
-        <v>1.3158256016020489</v>
+        <v>1.3055416682239329</v>
       </c>
       <c r="H42">
-        <v>27.396060378525362</v>
+        <v>27.043494238449263</v>
       </c>
       <c r="I42" t="s">
         <v>22</v>
@@ -2146,22 +2146,22 @@
         <v>2177256</v>
       </c>
       <c r="C43">
-        <v>77304638.594856948</v>
+        <v>80432380.763685256</v>
       </c>
       <c r="D43">
-        <v>7701582.9235224845</v>
+        <v>8013188.6190470988</v>
       </c>
       <c r="E43">
-        <v>3937434.26965087</v>
+        <v>4096742.6814878294</v>
       </c>
       <c r="F43">
-        <v>35.505534762497817</v>
+        <v>36.942087087455612</v>
       </c>
       <c r="G43">
-        <v>3.5372886438353985</v>
+        <v>3.6804071818137594</v>
       </c>
       <c r="H43">
-        <v>1.8084388191608474</v>
+        <v>1.8816081717022846</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
@@ -2187,22 +2187,22 @@
         <v>2300225</v>
       </c>
       <c r="C44">
-        <v>68157202.912510902</v>
+        <v>68536544.250649452</v>
       </c>
       <c r="D44">
-        <v>5808460.9152798187</v>
+        <v>5777287.4920735937</v>
       </c>
       <c r="E44">
-        <v>37794298.572628513</v>
+        <v>37925912.377209455</v>
       </c>
       <c r="F44">
-        <v>29.630667831412538</v>
+        <v>29.795582715016771</v>
       </c>
       <c r="G44">
-        <v>2.5251707616775834</v>
+        <v>2.5116184251860556</v>
       </c>
       <c r="H44">
-        <v>16.430696376497302</v>
+        <v>16.487914172400288</v>
       </c>
       <c r="I44" t="s">
         <v>22</v>
@@ -2228,22 +2228,22 @@
         <v>1488285</v>
       </c>
       <c r="C45">
-        <v>47228101.76199995</v>
+        <v>46949242.571375459</v>
       </c>
       <c r="D45">
-        <v>4705165.80443337</v>
+        <v>4677384.0668867212</v>
       </c>
       <c r="E45">
-        <v>2405516.0175165604</v>
+        <v>2391312.604195836</v>
       </c>
       <c r="F45">
-        <v>31.733237761584608</v>
+        <v>31.54586827884139</v>
       </c>
       <c r="G45">
-        <v>3.1614682701454155</v>
+        <v>3.1428013229231775</v>
       </c>
       <c r="H45">
-        <v>1.6163006531118438</v>
+        <v>1.6067571763444743</v>
       </c>
       <c r="I45" t="s">
         <v>22</v>
@@ -2269,16 +2269,16 @@
         <v>48329</v>
       </c>
       <c r="C46">
-        <v>512296.42768495623</v>
+        <v>505830.79330068821</v>
       </c>
       <c r="E46">
-        <v>2123083.1489578271</v>
+        <v>2060002.3956201174</v>
       </c>
       <c r="F46">
-        <v>10.600186796436017</v>
+        <v>10.466403056150307</v>
       </c>
       <c r="H46">
-        <v>43.929796787804975</v>
+        <v>42.624560732068062</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
@@ -2304,16 +2304,16 @@
         <v>402573</v>
       </c>
       <c r="C47">
-        <v>16741200.521615075</v>
+        <v>16652095.191987215</v>
       </c>
       <c r="E47">
-        <v>12866239.114125237</v>
+        <v>12683875.896052189</v>
       </c>
       <c r="F47">
-        <v>41.585502558828026</v>
+        <v>41.364163001461137</v>
       </c>
       <c r="H47">
-        <v>31.960014988897012</v>
+        <v>31.50702082865018</v>
       </c>
       <c r="I47" t="s">
         <v>24</v>
@@ -2339,16 +2339,16 @@
         <v>142677</v>
       </c>
       <c r="C48">
-        <v>869127.65837560385</v>
+        <v>880018.49602879258</v>
       </c>
       <c r="E48">
-        <v>3471839.5445726393</v>
+        <v>3498951.5761854365</v>
       </c>
       <c r="F48">
-        <v>6.0915750848111738</v>
+        <v>6.1679072031847646</v>
       </c>
       <c r="H48">
-        <v>24.333561432975458</v>
+        <v>24.523585274328983</v>
       </c>
       <c r="I48" t="s">
         <v>24</v>
@@ -2374,22 +2374,22 @@
         <v>4238250</v>
       </c>
       <c r="C49">
-        <v>227496246.16720665</v>
+        <v>227915693.12668228</v>
       </c>
       <c r="D49">
-        <v>22664632.245798916</v>
+        <v>22706420.236780304</v>
       </c>
       <c r="E49">
-        <v>11587293.235664696</v>
+        <v>11608657.34605393</v>
       </c>
       <c r="F49">
-        <v>53.676929432479589</v>
+        <v>53.775896449403007</v>
       </c>
       <c r="G49">
-        <v>5.3476392958883778</v>
+        <v>5.3574990236017941</v>
       </c>
       <c r="H49">
-        <v>2.733980590022933</v>
+        <v>2.7390213758164172</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
@@ -2415,16 +2415,16 @@
         <v>1825199</v>
       </c>
       <c r="C50">
-        <v>11742591.552142492</v>
+        <v>11801776.898374416</v>
       </c>
       <c r="E50">
-        <v>49233677.710371099</v>
+        <v>49659007.069663942</v>
       </c>
       <c r="F50">
-        <v>6.4335952146272763</v>
+        <v>6.4660220054768915</v>
       </c>
       <c r="H50">
-        <v>26.974416329600828</v>
+        <v>27.207448102735064</v>
       </c>
       <c r="I50" t="s">
         <v>25</v>
@@ -2450,16 +2450,16 @@
         <v>1533454</v>
       </c>
       <c r="C51">
-        <v>19126056.792737931</v>
+        <v>18966615.638921604</v>
       </c>
       <c r="E51">
-        <v>68235651.675165787</v>
+        <v>68517203.598422185</v>
       </c>
       <c r="F51">
-        <v>12.472533765432765</v>
+        <v>12.368558586642704</v>
       </c>
       <c r="H51">
-        <v>44.498010162134491</v>
+        <v>44.681616532626464</v>
       </c>
       <c r="I51" t="s">
         <v>25</v>
@@ -2485,16 +2485,16 @@
         <v>992174</v>
       </c>
       <c r="C52">
-        <v>12171892.531242743</v>
+        <v>11814674.090275295</v>
       </c>
       <c r="E52">
-        <v>44847600.645099185</v>
+        <v>44723441.25832963</v>
       </c>
       <c r="F52">
-        <v>12.267901125450518</v>
+        <v>11.907865042094731</v>
       </c>
       <c r="H52">
-        <v>45.201346381883809</v>
+        <v>45.076207659472658</v>
       </c>
       <c r="I52" t="s">
         <v>25</v>
@@ -2520,16 +2520,16 @@
         <v>1769518</v>
       </c>
       <c r="C53">
-        <v>23296632.378288954</v>
+        <v>23283783.776696581</v>
       </c>
       <c r="E53">
-        <v>96822701.75019519</v>
+        <v>97972523.361333758</v>
       </c>
       <c r="F53">
-        <v>13.165524384769725</v>
+        <v>13.158263310515395</v>
       </c>
       <c r="H53">
-        <v>54.716991717628865</v>
+        <v>55.366785396550789</v>
       </c>
       <c r="I53" t="s">
         <v>25</v>
@@ -2555,22 +2555,22 @@
         <v>16149545</v>
       </c>
       <c r="C54">
-        <v>778172790.65172267</v>
+        <v>774778382.07208323</v>
       </c>
       <c r="D54">
-        <v>77526554.485850334</v>
+        <v>77188381.775550008</v>
       </c>
       <c r="E54">
-        <v>39635450.980890989</v>
+        <v>39462560.182749942</v>
       </c>
       <c r="F54">
-        <v>48.185431270770948</v>
+        <v>47.975245251310994</v>
       </c>
       <c r="G54">
-        <v>4.8005410979597469</v>
+        <v>4.7796010213012199</v>
       </c>
       <c r="H54">
-        <v>2.4542766363319206</v>
+        <v>2.4435710221402487</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
@@ -2596,16 +2596,16 @@
         <v>1806150</v>
       </c>
       <c r="C55">
-        <v>19108130.321349129</v>
+        <v>19332251.091885969</v>
       </c>
       <c r="E55">
-        <v>74413661.001211733</v>
+        <v>74339198.660321504</v>
       </c>
       <c r="F55">
-        <v>10.579481394872591</v>
+        <v>10.703568968184243</v>
       </c>
       <c r="H55">
-        <v>41.200155580218549</v>
+        <v>41.158928472342552</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -2631,16 +2631,16 @@
         <v>5446539</v>
       </c>
       <c r="C56">
-        <v>153289944.64212608</v>
+        <v>153172363.34699947</v>
       </c>
       <c r="E56">
-        <v>290253814.05192196</v>
+        <v>289460466.86295772</v>
       </c>
       <c r="F56">
-        <v>28.144468375628279</v>
+        <v>28.122880116528947</v>
       </c>
       <c r="H56">
-        <v>53.291423058188329</v>
+        <v>53.145762265350115</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -2666,16 +2666,16 @@
         <v>2101351</v>
       </c>
       <c r="C57">
-        <v>27168305.034429558</v>
+        <v>27631149.215294592</v>
       </c>
       <c r="E57">
-        <v>97495831.482388794</v>
+        <v>96973686.254277855</v>
       </c>
       <c r="F57">
-        <v>12.92897047396154</v>
+        <v>13.14923076406302</v>
       </c>
       <c r="H57">
-        <v>46.396737852166922</v>
+        <v>46.148257123287763</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -2701,19 +2701,19 @@
         <v>205407</v>
       </c>
       <c r="C58">
-        <v>3542948.1502851592</v>
+        <v>3613383.3376631062</v>
       </c>
       <c r="D58">
-        <v>203721.89166831196</v>
+        <v>203831.88058612394</v>
       </c>
       <c r="E58">
         <v>4364195.1793164257</v>
       </c>
       <c r="F58">
-        <v>17.248429460949041</v>
+        <v>17.591334947996447</v>
       </c>
       <c r="G58">
-        <v>0.99179624680907641</v>
+        <v>0.99233171501518413</v>
       </c>
       <c r="H58">
         <v>21.246574748262841</v>
@@ -2742,16 +2742,16 @@
         <v>500876</v>
       </c>
       <c r="C59">
-        <v>7145375.3600602411</v>
+        <v>7366817.3808268039</v>
       </c>
       <c r="E59">
-        <v>29741008.553697728</v>
+        <v>30132758.816824898</v>
       </c>
       <c r="F59">
-        <v>14.265757113657354</v>
+        <v>14.707866579406488</v>
       </c>
       <c r="H59">
-        <v>59.377986874391517</v>
+        <v>60.160117108475745</v>
       </c>
       <c r="I59" t="s">
         <v>25</v>
@@ -2777,16 +2777,16 @@
         <v>869762</v>
       </c>
       <c r="C60">
-        <v>11099502.604515601</v>
+        <v>11464022.538928146</v>
       </c>
       <c r="E60">
-        <v>46631330.026742995</v>
+        <v>46966807.221179999</v>
       </c>
       <c r="F60">
-        <v>12.761540058677662</v>
+        <v>13.180643140224735</v>
       </c>
       <c r="H60">
-        <v>53.613896705929889</v>
+        <v>53.999608193022915</v>
       </c>
       <c r="I60" t="s">
         <v>25</v>
@@ -2812,16 +2812,16 @@
         <v>1013496</v>
       </c>
       <c r="C61">
-        <v>31966174.544078626</v>
+        <v>31973463.434035193</v>
       </c>
       <c r="E61">
-        <v>24463985.909411155</v>
+        <v>24706752.100139678</v>
       </c>
       <c r="F61">
-        <v>31.54050390339836</v>
+        <v>31.547695732430313</v>
       </c>
       <c r="H61">
-        <v>24.138216539000801</v>
+        <v>24.377749986324247</v>
       </c>
       <c r="I61" t="s">
         <v>26</v>
@@ -2882,16 +2882,16 @@
         <v>1615868</v>
       </c>
       <c r="C63">
-        <v>3946256.6498544533</v>
+        <v>3973522.9532649657</v>
       </c>
       <c r="E63">
-        <v>15450931.011515437</v>
+        <v>15359380.027117345</v>
       </c>
       <c r="F63">
-        <v>2.4421899869633243</v>
+        <v>2.4590640777990318</v>
       </c>
       <c r="H63">
-        <v>9.5620007398595899</v>
+        <v>9.5053432750183458</v>
       </c>
       <c r="I63" t="s">
         <v>27</v>
@@ -2917,16 +2917,16 @@
         <v>1420063</v>
       </c>
       <c r="C64">
-        <v>20291886.732726038</v>
+        <v>20306026.091604248</v>
       </c>
       <c r="E64">
-        <v>84393041.695345476</v>
+        <v>82753260.167595088</v>
       </c>
       <c r="F64">
-        <v>14.289427111843656</v>
+        <v>14.299383965080596</v>
       </c>
       <c r="H64">
-        <v>59.429082861355781</v>
+        <v>58.274358368322453</v>
       </c>
       <c r="I64" t="s">
         <v>28</v>
@@ -2952,16 +2952,16 @@
         <v>188829</v>
       </c>
       <c r="C65">
-        <v>2534334.5840883162</v>
+        <v>2590863.99233037</v>
       </c>
       <c r="E65">
-        <v>10296748.198865149</v>
+        <v>10314106.169575786</v>
       </c>
       <c r="F65">
-        <v>13.421320793354392</v>
+        <v>13.720689048453204</v>
       </c>
       <c r="H65">
-        <v>54.529485401422178</v>
+        <v>54.621409685883982</v>
       </c>
       <c r="I65" t="s">
         <v>28</v>
@@ -3022,16 +3022,16 @@
         <v>16042082</v>
       </c>
       <c r="C67">
-        <v>201042147.1166662</v>
+        <v>199520822.04167143</v>
       </c>
       <c r="E67">
-        <v>836870938.79517865</v>
+        <v>829527640.905828</v>
       </c>
       <c r="F67">
-        <v>12.532173013245176</v>
+        <v>12.437339619737102</v>
       </c>
       <c r="H67">
-        <v>52.167227345875595</v>
+        <v>51.709475173224277</v>
       </c>
       <c r="I67" t="s">
         <v>28</v>
@@ -3057,16 +3057,16 @@
         <v>2119428</v>
       </c>
       <c r="C68">
-        <v>28663601.413752064</v>
+        <v>28109286.484688267</v>
       </c>
       <c r="E68">
-        <v>119862622.60429239</v>
+        <v>117825798.2017183</v>
       </c>
       <c r="F68">
-        <v>13.524215691097815</v>
+        <v>13.262675818517199</v>
       </c>
       <c r="H68">
-        <v>56.554231898555827</v>
+        <v>55.59320637536085</v>
       </c>
       <c r="I68" t="s">
         <v>28</v>
@@ -3092,22 +3092,22 @@
         <v>4495381</v>
       </c>
       <c r="C69">
-        <v>117764174.39844096</v>
+        <v>116894887.27538553</v>
       </c>
       <c r="D69">
-        <v>7453610.8196605705</v>
+        <v>7441883.0791829936</v>
       </c>
       <c r="E69">
-        <v>153732832.93988192</v>
+        <v>152011367.11296532</v>
       </c>
       <c r="F69">
-        <v>26.196705996319547</v>
+        <v>26.003332593029494</v>
       </c>
       <c r="G69">
-        <v>1.6580598662628532</v>
+        <v>1.6554510238805107</v>
       </c>
       <c r="H69">
-        <v>34.197954064378962</v>
+        <v>33.815013035149931</v>
       </c>
       <c r="I69" t="s">
         <v>28</v>
@@ -3168,16 +3168,16 @@
         <v>5074077</v>
       </c>
       <c r="C71">
-        <v>57745163.630832806</v>
+        <v>59771617.609546795</v>
       </c>
       <c r="E71">
-        <v>252666705.83807644</v>
+        <v>251113056.71022901</v>
       </c>
       <c r="F71">
-        <v>11.380427145830229</v>
+        <v>11.77980105732467</v>
       </c>
       <c r="H71">
-        <v>49.795599443618308</v>
+        <v>49.489405996446052</v>
       </c>
       <c r="I71" t="s">
         <v>28</v>
@@ -3203,16 +3203,16 @@
         <v>423587</v>
       </c>
       <c r="C72">
-        <v>4491976.7395746354</v>
+        <v>4525397.1683162441</v>
       </c>
       <c r="E72">
-        <v>19627735.214770161</v>
+        <v>19865042.245773882</v>
       </c>
       <c r="F72">
-        <v>10.604614257695907</v>
+        <v>10.683512875315447</v>
       </c>
       <c r="H72">
-        <v>46.33696316168853</v>
+        <v>46.897195253333749</v>
       </c>
       <c r="I72" t="s">
         <v>9</v>
@@ -3238,16 +3238,16 @@
         <v>969633</v>
       </c>
       <c r="C73">
-        <v>38909222.417726427</v>
+        <v>39381719.493743993</v>
       </c>
       <c r="E73">
-        <v>30371354.782657348</v>
+        <v>30476248.674240001</v>
       </c>
       <c r="F73">
-        <v>40.127782797951831</v>
+        <v>40.615077553820875</v>
       </c>
       <c r="H73">
-        <v>31.322525927497669</v>
+        <v>31.430704889623186</v>
       </c>
       <c r="I73" t="s">
         <v>9</v>
@@ -3273,16 +3273,16 @@
         <v>3095082</v>
       </c>
       <c r="C74">
-        <v>43892030.412853479</v>
+        <v>43781911.438372791</v>
       </c>
       <c r="E74">
-        <v>181194632.94284812</v>
+        <v>182106084.10679448</v>
       </c>
       <c r="F74">
-        <v>14.181217303080656</v>
+        <v>14.145638609372156</v>
       </c>
       <c r="H74">
-        <v>58.542756845488462</v>
+        <v>58.837240534110066</v>
       </c>
       <c r="I74" t="s">
         <v>9</v>
@@ -3349,22 +3349,22 @@
         <v>531521</v>
       </c>
       <c r="C76">
-        <v>19960806.119603399</v>
+        <v>19716216.208216459</v>
       </c>
       <c r="D76">
-        <v>1489663.1772438155</v>
+        <v>1481184.5065066733</v>
       </c>
       <c r="E76">
-        <v>17684644.063673191</v>
+        <v>17535949.738758504</v>
       </c>
       <c r="F76">
-        <v>37.554125085562752</v>
+        <v>37.093955287216232</v>
       </c>
       <c r="G76">
-        <v>2.802642185809809</v>
+        <v>2.7866904722610646</v>
       </c>
       <c r="H76">
-        <v>33.271769250270808</v>
+        <v>32.992016757114968</v>
       </c>
       <c r="I76" t="s">
         <v>29</v>
@@ -3390,16 +3390,16 @@
         <v>387114</v>
       </c>
       <c r="C77">
-        <v>15841687.218209997</v>
+        <v>15646110.832799999</v>
       </c>
       <c r="E77">
-        <v>11975424.630494397</v>
+        <v>11883728.902647734</v>
       </c>
       <c r="F77">
-        <v>40.922537594119554</v>
+        <v>40.417321080611913</v>
       </c>
       <c r="H77">
-        <v>30.935137015180018</v>
+        <v>30.698266925628456</v>
       </c>
       <c r="I77" t="s">
         <v>29</v>
@@ -3425,16 +3425,16 @@
         <v>439947</v>
       </c>
       <c r="C78">
-        <v>21908985.672394261</v>
+        <v>21995582.453708071</v>
       </c>
       <c r="E78">
-        <v>12372711.753625739</v>
+        <v>12421615.752651926</v>
       </c>
       <c r="F78">
-        <v>49.799147789152471</v>
+        <v>49.995982365394177</v>
       </c>
       <c r="H78">
-        <v>28.123187005766006</v>
+        <v>28.234345847686029</v>
       </c>
       <c r="I78" t="s">
         <v>29</v>
@@ -3460,22 +3460,22 @@
         <v>1438500</v>
       </c>
       <c r="C79">
-        <v>74215018.637520313</v>
+        <v>75657509.218959868</v>
       </c>
       <c r="D79">
-        <v>7393775.2067268062</v>
+        <v>7537485.351826638</v>
       </c>
       <c r="E79">
-        <v>3780067.574439079</v>
+        <v>3853539.3861213685</v>
       </c>
       <c r="F79">
-        <v>51.591949000709285</v>
+        <v>52.594723127535531</v>
       </c>
       <c r="G79">
-        <v>5.1399201993234662</v>
+        <v>5.2398229765913369</v>
       </c>
       <c r="H79">
-        <v>2.627784201904122</v>
+        <v>2.6788594967823207</v>
       </c>
       <c r="I79" t="s">
         <v>30</v>
@@ -3501,22 +3501,22 @@
         <v>4871389</v>
       </c>
       <c r="C80">
-        <v>227012679.89996874</v>
+        <v>227726118.35502127</v>
       </c>
       <c r="D80">
-        <v>22616456.27895081</v>
+        <v>22687533.584560029</v>
       </c>
       <c r="E80">
-        <v>11562663.2726136</v>
+        <v>11599001.545106314</v>
       </c>
       <c r="F80">
-        <v>46.60122193074065</v>
+        <v>46.74767676221736</v>
       </c>
       <c r="G80">
-        <v>4.64271202298786</v>
+        <v>4.6573027907564004</v>
       </c>
       <c r="H80">
-        <v>2.3735865217525434</v>
+        <v>2.3810460517742094</v>
       </c>
       <c r="I80" t="s">
         <v>30</v>
@@ -3542,22 +3542,22 @@
         <v>1656996</v>
       </c>
       <c r="C81">
-        <v>47029868.884078413</v>
+        <v>46888854.135060742</v>
       </c>
       <c r="D81">
-        <v>3061563.8720503249</v>
+        <v>3055465.8040346368</v>
       </c>
       <c r="E81">
-        <v>61080276.898979396</v>
+        <v>61331124.838065103</v>
       </c>
       <c r="F81">
-        <v>28.382608578462722</v>
+        <v>28.297505929441435</v>
       </c>
       <c r="G81">
-        <v>1.8476591808612242</v>
+        <v>1.8439789860896689</v>
       </c>
       <c r="H81">
-        <v>36.862054524560946</v>
+        <v>37.013441696941392</v>
       </c>
       <c r="I81" t="s">
         <v>30</v>
@@ -3583,22 +3583,22 @@
         <v>967351</v>
       </c>
       <c r="C82">
-        <v>44212371.009289578</v>
+        <v>44441838.303318918</v>
       </c>
       <c r="D82">
-        <v>4404719.403167082</v>
+        <v>4427580.4038175754</v>
       </c>
       <c r="E82">
-        <v>2251912.7948691705</v>
+        <v>2263600.4814517358</v>
       </c>
       <c r="F82">
-        <v>45.704579836367131</v>
+        <v>45.941791865950329</v>
       </c>
       <c r="G82">
-        <v>4.5533827981436747</v>
+        <v>4.5770153789240684</v>
       </c>
       <c r="H82">
-        <v>2.3279169555509531</v>
+        <v>2.3399991124749295</v>
       </c>
       <c r="I82" t="s">
         <v>30</v>
@@ -3624,22 +3624,22 @@
         <v>7658910</v>
       </c>
       <c r="C83">
-        <v>254979546.53011155</v>
+        <v>255345094.04596364</v>
       </c>
       <c r="D83">
-        <v>21270181.396054849</v>
+        <v>21351389.511506349</v>
       </c>
       <c r="E83">
-        <v>162378844.37368006</v>
+        <v>165117513.25356525</v>
       </c>
       <c r="F83">
-        <v>33.29188442351608</v>
+        <v>33.33961282296876</v>
       </c>
       <c r="G83">
-        <v>2.7771812694045042</v>
+        <v>2.7877843598509902</v>
       </c>
       <c r="H83">
-        <v>21.201299450402217</v>
+        <v>21.558878907516249</v>
       </c>
       <c r="I83" t="s">
         <v>30</v>
@@ -3665,16 +3665,16 @@
         <v>500630</v>
       </c>
       <c r="C84">
-        <v>8126167.2188906288</v>
+        <v>8064406.8665864822</v>
       </c>
       <c r="E84">
-        <v>33734636.566847995</v>
+        <v>33847753.000019275</v>
       </c>
       <c r="F84">
-        <v>16.23188226612594</v>
+        <v>16.108517001750755</v>
       </c>
       <c r="H84">
-        <v>67.384368828971489</v>
+        <v>67.610317000617769</v>
       </c>
       <c r="I84" t="s">
         <v>31</v>
@@ -3700,22 +3700,22 @@
         <v>6114392</v>
       </c>
       <c r="C85">
-        <v>307108336.86429727</v>
+        <v>305258717.78345996</v>
       </c>
       <c r="D85">
-        <v>30596098.317738205</v>
+        <v>30411827.425500371</v>
       </c>
       <c r="E85">
-        <v>15642255.264943657</v>
+        <v>15548046.771287065</v>
       </c>
       <c r="F85">
-        <v>50.227125912813122</v>
+        <v>49.92462337767352</v>
       </c>
       <c r="G85">
-        <v>5.0039477870797633</v>
+        <v>4.9738105482115591</v>
       </c>
       <c r="H85">
-        <v>2.5582683061445288</v>
+        <v>2.5428606427731593</v>
       </c>
       <c r="I85" t="s">
         <v>32</v>
@@ -3741,22 +3741,22 @@
         <v>6233147</v>
       </c>
       <c r="C86">
-        <v>232477909.68385479</v>
+        <v>233037799.08403885</v>
       </c>
       <c r="D86">
-        <v>23160937.452936966</v>
+        <v>23216717.21883326</v>
       </c>
       <c r="E86">
-        <v>11841029.272814024</v>
+        <v>11869546.678128505</v>
       </c>
       <c r="F86">
-        <v>37.297036261755864</v>
+        <v>37.386860775790922</v>
       </c>
       <c r="G86">
-        <v>3.71576949058589</v>
+        <v>3.7247183836404405</v>
       </c>
       <c r="H86">
-        <v>1.899687152062036</v>
+        <v>1.9042622736361752</v>
       </c>
       <c r="I86" t="s">
         <v>32</v>
@@ -3782,16 +3782,16 @@
         <v>2753681</v>
       </c>
       <c r="C87">
-        <v>32399337.128909282</v>
+        <v>31910305.300544493</v>
       </c>
       <c r="E87">
-        <v>123699705.54313703</v>
+        <v>123020291.63430241</v>
       </c>
       <c r="F87">
-        <v>11.765828042140424</v>
+        <v>11.588236001390317</v>
       </c>
       <c r="H87">
-        <v>44.921581527830213</v>
+        <v>44.674852183060572</v>
       </c>
       <c r="I87" t="s">
         <v>32</v>
@@ -3817,22 +3817,22 @@
         <v>5168266</v>
       </c>
       <c r="C88">
-        <v>245036412.27090418</v>
+        <v>244280110.66010103</v>
       </c>
       <c r="D88">
-        <v>21983106.090500399</v>
+        <v>21915564.969993755</v>
       </c>
       <c r="E88">
-        <v>101288972.42510146</v>
+        <v>100760824.68469244</v>
       </c>
       <c r="F88">
-        <v>47.411726151653994</v>
+        <v>47.265390492691559</v>
       </c>
       <c r="G88">
-        <v>4.2534780699175316</v>
+        <v>4.2404096402920741</v>
       </c>
       <c r="H88">
-        <v>19.598250636693514</v>
+        <v>19.496060126296214</v>
       </c>
       <c r="I88" t="s">
         <v>32</v>
@@ -3858,22 +3858,22 @@
         <v>9849064</v>
       </c>
       <c r="C89">
-        <v>386587183.20672786</v>
+        <v>386318550.90708983</v>
       </c>
       <c r="D89">
-        <v>38514289.734169655</v>
+        <v>38487526.864965364</v>
       </c>
       <c r="E89">
-        <v>19690430.626594231</v>
+        <v>19676748.109713543</v>
       </c>
       <c r="F89">
-        <v>39.251159623567062</v>
+        <v>39.223884717074618</v>
       </c>
       <c r="G89">
-        <v>3.910451768225859</v>
+        <v>3.9077344674545076</v>
       </c>
       <c r="H89">
-        <v>1.9992184665054702</v>
+        <v>1.9978292464861171</v>
       </c>
       <c r="I89" t="s">
         <v>32</v>
@@ -3899,22 +3899,22 @@
         <v>8843344</v>
       </c>
       <c r="C90">
-        <v>407802539.04320097</v>
+        <v>411356768.58291733</v>
       </c>
       <c r="D90">
-        <v>32281304.224965986</v>
+        <v>32458432.295996334</v>
       </c>
       <c r="E90">
-        <v>57367918.00910002</v>
+        <v>57651373.651290268</v>
       </c>
       <c r="F90">
-        <v>46.114064888033411</v>
+        <v>46.515975018377361</v>
       </c>
       <c r="G90">
-        <v>3.6503503906402357</v>
+        <v>3.6703799259642431</v>
       </c>
       <c r="H90">
-        <v>6.4871295303111607</v>
+        <v>6.5191825231824367</v>
       </c>
       <c r="I90" t="s">
         <v>32</v>
@@ -3981,16 +3981,16 @@
         <v>4626240</v>
       </c>
       <c r="C92">
-        <v>59308297.798976287</v>
+        <v>60054305.744084835</v>
       </c>
       <c r="E92">
-        <v>242135422.19282988</v>
+        <v>242064303.01569122</v>
       </c>
       <c r="F92">
-        <v>12.819978600110737</v>
+        <v>12.981234381286928</v>
       </c>
       <c r="H92">
-        <v>52.339572134785456</v>
+        <v>52.324199137029474</v>
       </c>
       <c r="I92" t="s">
         <v>14</v>
@@ -4016,16 +4016,16 @@
         <v>6322841</v>
       </c>
       <c r="C93">
-        <v>81116991.767751798</v>
+        <v>81579443.159520358</v>
       </c>
       <c r="E93">
-        <v>339882205.34773254</v>
+        <v>345740882.70268571</v>
       </c>
       <c r="F93">
-        <v>12.829200001668838</v>
+        <v>12.902339812043408</v>
       </c>
       <c r="H93">
-        <v>53.754665876894983</v>
+        <v>54.681255262102226</v>
       </c>
       <c r="I93" t="s">
         <v>14</v>
@@ -4051,22 +4051,22 @@
         <v>3418107</v>
       </c>
       <c r="C94">
-        <v>308039214.64654887</v>
+        <v>308910738.0295068</v>
       </c>
       <c r="D94">
-        <v>30688838.32095132</v>
+        <v>30775665.058979511</v>
       </c>
       <c r="E94">
-        <v>15689668.591586361</v>
+        <v>15734058.761403274</v>
       </c>
       <c r="F94">
-        <v>90.119827918362077</v>
+        <v>90.374800446418675</v>
       </c>
       <c r="G94">
-        <v>8.9783141139090503</v>
+        <v>9.0037161092322489</v>
       </c>
       <c r="H94">
-        <v>4.5901630907360005</v>
+        <v>4.6031498608449866</v>
       </c>
       <c r="I94" t="s">
         <v>33</v>
@@ -4092,16 +4092,16 @@
         <v>916991</v>
       </c>
       <c r="C95">
-        <v>16295955.223351661</v>
+        <v>16540984.827022748</v>
       </c>
       <c r="E95">
-        <v>67308904.391870365</v>
+        <v>67436882.463099122</v>
       </c>
       <c r="F95">
-        <v>17.771117953558608</v>
+        <v>18.038328431819668</v>
       </c>
       <c r="H95">
-        <v>73.401924764660023</v>
+        <v>73.541487826051849</v>
       </c>
       <c r="I95" t="s">
         <v>33</v>
@@ -4127,16 +4127,16 @@
         <v>317344</v>
       </c>
       <c r="C96">
-        <v>5490236.9640340498</v>
+        <v>5483044.9860923011</v>
       </c>
       <c r="E96">
-        <v>22610716.88102024</v>
+        <v>22749315.202309124</v>
       </c>
       <c r="F96">
-        <v>17.30058537118726</v>
+        <v>17.277922336934999</v>
       </c>
       <c r="H96">
-        <v>71.249864125429326</v>
+        <v>71.686608860760316</v>
       </c>
       <c r="I96" t="s">
         <v>33</v>
@@ -4162,22 +4162,22 @@
         <v>4850745</v>
       </c>
       <c r="C97">
-        <v>156249148.62712902</v>
+        <v>158298744.47959214</v>
       </c>
       <c r="D97">
-        <v>8801601.6922251601</v>
+        <v>8873709.3768963926</v>
       </c>
       <c r="E97">
-        <v>148804533.48721269</v>
+        <v>150840228.20865786</v>
       </c>
       <c r="F97">
-        <v>32.211371372259109</v>
+        <v>32.63390355081377</v>
       </c>
       <c r="G97">
-        <v>1.8144845157239065</v>
+        <v>1.8293497961439722</v>
       </c>
       <c r="H97">
-        <v>30.676634926637597</v>
+        <v>31.096301332817504</v>
       </c>
       <c r="I97" t="s">
         <v>33</v>
@@ -4203,22 +4203,22 @@
         <v>3399679</v>
       </c>
       <c r="C98">
-        <v>168129854.68301886</v>
+        <v>169257534.67737973</v>
       </c>
       <c r="D98">
-        <v>16750172.322094036</v>
+        <v>16862519.021407694</v>
       </c>
       <c r="E98">
-        <v>8563525.5996705759</v>
+        <v>8620962.8496946841</v>
       </c>
       <c r="F98">
-        <v>49.454626358258793</v>
+        <v>49.786328261397536</v>
       </c>
       <c r="G98">
-        <v>4.9269864366882983</v>
+        <v>4.9600327035016232</v>
       </c>
       <c r="H98">
-        <v>2.518921815756892</v>
+        <v>2.5358167196652044</v>
       </c>
       <c r="I98" t="s">
         <v>33</v>
@@ -4279,13 +4279,13 @@
         <v>984434</v>
       </c>
       <c r="C100">
-        <v>12784663.115863198</v>
+        <v>13204525.584167413</v>
       </c>
       <c r="E100">
         <v>54097451.871959992</v>
       </c>
       <c r="F100">
-        <v>12.986815892038672</v>
+        <v>13.413317280962882</v>
       </c>
       <c r="H100">
         <v>54.952847902408891</v>
@@ -4314,22 +4314,22 @@
         <v>3857821</v>
       </c>
       <c r="C101">
-        <v>214057576.40899014</v>
+        <v>214846654.26872778</v>
       </c>
       <c r="D101">
-        <v>21325785.943610474</v>
+        <v>21404398.93088197</v>
       </c>
       <c r="E101">
-        <v>10902808.063670855</v>
+        <v>10942998.953413406</v>
       </c>
       <c r="F101">
-        <v>55.486653322948399</v>
+        <v>55.691193103238277</v>
       </c>
       <c r="G101">
-        <v>5.5279355738927434</v>
+        <v>5.5483131360635891</v>
       </c>
       <c r="H101">
-        <v>2.8261570621526646</v>
+        <v>2.8365750908125094</v>
       </c>
       <c r="I101" t="s">
         <v>34</v>
@@ -4355,13 +4355,13 @@
         <v>393144</v>
       </c>
       <c r="C102">
-        <v>2645112.6272194195</v>
+        <v>2614862.219529375</v>
       </c>
       <c r="E102">
         <v>9988753.2029831707</v>
       </c>
       <c r="F102">
-        <v>6.728101223010956</v>
+        <v>6.6511563689878894</v>
       </c>
       <c r="H102">
         <v>25.407365247805309</v>
@@ -4390,22 +4390,22 @@
         <v>2485399</v>
       </c>
       <c r="C103">
-        <v>121071438.61876634</v>
+        <v>121473342.79180485</v>
       </c>
       <c r="D103">
-        <v>11961157.217930797</v>
+        <v>11995899.580281606</v>
       </c>
       <c r="E103">
-        <v>10010183.26781084</v>
+        <v>10078249.886994768</v>
       </c>
       <c r="F103">
-        <v>48.713079315943368</v>
+        <v>48.874785413450653</v>
       </c>
       <c r="G103">
-        <v>4.812570222298632</v>
+        <v>4.8265488077695391</v>
       </c>
       <c r="H103">
-        <v>4.0275960792656793</v>
+        <v>4.0549826756165785</v>
       </c>
       <c r="I103" t="s">
         <v>35</v>
@@ -4431,16 +4431,16 @@
         <v>261201</v>
       </c>
       <c r="C104">
-        <v>1641344.7916740831</v>
+        <v>1649488.8170813518</v>
       </c>
       <c r="E104">
-        <v>6011000.9325106964</v>
+        <v>5973413.1508400915</v>
       </c>
       <c r="F104">
-        <v>6.2838380851301601</v>
+        <v>6.3150172360800756</v>
       </c>
       <c r="H104">
-        <v>23.012932310790145</v>
+        <v>22.869028643994824</v>
       </c>
       <c r="I104" t="s">
         <v>35</v>
@@ -4466,22 +4466,22 @@
         <v>14072154</v>
       </c>
       <c r="C105">
-        <v>616235280.07258499</v>
+        <v>610123466.22625017</v>
       </c>
       <c r="D105">
-        <v>61393303.120556407</v>
+        <v>60784405.10348694</v>
       </c>
       <c r="E105">
-        <v>31387326.220384464</v>
+        <v>31076027.109157696</v>
       </c>
       <c r="F105">
-        <v>43.791112581100592</v>
+        <v>43.356792870959922</v>
       </c>
       <c r="G105">
-        <v>4.3627509420772688</v>
+        <v>4.3194812324742138</v>
       </c>
       <c r="H105">
-        <v>2.2304564191370035</v>
+        <v>2.208334780102442</v>
       </c>
       <c r="I105" t="s">
         <v>36</v>
@@ -4507,13 +4507,13 @@
         <v>543145</v>
       </c>
       <c r="C106">
-        <v>3264151.5927151502</v>
+        <v>3182922.8320080563</v>
       </c>
       <c r="E106">
         <v>13809940.264440451</v>
       </c>
       <c r="F106">
-        <v>6.0097240934099556</v>
+        <v>5.8601714680390256</v>
       </c>
       <c r="H106">
         <v>25.425881236944925</v>
@@ -4542,22 +4542,22 @@
         <v>7296430</v>
       </c>
       <c r="C107">
-        <v>178806893.72504047</v>
+        <v>183352141.31766424</v>
       </c>
       <c r="D107">
-        <v>11398622.909415852</v>
+        <v>11729962.015431222</v>
       </c>
       <c r="E107">
-        <v>235471228.91682494</v>
+        <v>238910258.35231531</v>
       </c>
       <c r="F107">
-        <v>24.506079510807403</v>
+        <v>25.129020811227441</v>
       </c>
       <c r="G107">
-        <v>1.562219182451672</v>
+        <v>1.6076303089910029</v>
       </c>
       <c r="H107">
-        <v>32.27211511887662</v>
+        <v>32.743445541492932</v>
       </c>
       <c r="I107" t="s">
         <v>36</v>
@@ -4624,22 +4624,22 @@
         <v>5367819</v>
       </c>
       <c r="C109">
-        <v>239186415.30788344</v>
+        <v>237932891.78997147</v>
       </c>
       <c r="D109">
-        <v>23829281.724322136</v>
+        <v>23704397.687668391</v>
       </c>
       <c r="E109">
-        <v>12182720.281559691</v>
+        <v>12118873.317820463</v>
       </c>
       <c r="F109">
-        <v>44.559329460975391</v>
+        <v>44.325803792931822</v>
       </c>
       <c r="G109">
-        <v>4.4392856250037749</v>
+        <v>4.4160203031563459</v>
       </c>
       <c r="H109">
-        <v>2.2695847757831795</v>
+        <v>2.2576903799886816</v>
       </c>
       <c r="I109" t="s">
         <v>36</v>
@@ -4665,22 +4665,22 @@
         <v>9846148</v>
       </c>
       <c r="C110">
-        <v>645677377.73408866</v>
+        <v>643098356.35357618</v>
       </c>
       <c r="D110">
-        <v>64326513.348352551</v>
+        <v>64069574.730119675</v>
       </c>
       <c r="E110">
-        <v>32886929.949345239</v>
+        <v>32755570.080773681</v>
       </c>
       <c r="F110">
-        <v>65.576647612252913</v>
+        <v>65.314715597772448</v>
       </c>
       <c r="G110">
-        <v>6.5331653910090068</v>
+        <v>6.5070700471006191</v>
       </c>
       <c r="H110">
-        <v>3.3400808061533547</v>
+        <v>3.3267395615801916</v>
       </c>
       <c r="I110" t="s">
         <v>36</v>
@@ -4747,16 +4747,16 @@
         <v>1457678</v>
       </c>
       <c r="C112">
-        <v>18282082.495098263</v>
+        <v>19058651.882103112</v>
       </c>
       <c r="E112">
-        <v>74016433.569359601</v>
+        <v>76180048.809024692</v>
       </c>
       <c r="F112">
-        <v>12.541921120506906</v>
+        <v>13.074665243011907</v>
       </c>
       <c r="H112">
-        <v>50.776943583809043</v>
+        <v>52.261232459448998</v>
       </c>
       <c r="I112" t="s">
         <v>37</v>
@@ -4782,16 +4782,16 @@
         <v>1330989</v>
       </c>
       <c r="C113">
-        <v>44138071.316391498</v>
+        <v>43127151.195128508</v>
       </c>
       <c r="E113">
-        <v>34422754.689990342</v>
+        <v>33680551.714005768</v>
       </c>
       <c r="F113">
-        <v>33.16186032821571</v>
+        <v>32.402334801511138</v>
       </c>
       <c r="H113">
-        <v>25.862538826384245</v>
+        <v>25.304906136719215</v>
       </c>
       <c r="I113" t="s">
         <v>37</v>
@@ -4852,16 +4852,16 @@
         <v>4899321</v>
       </c>
       <c r="C115">
-        <v>26312016.446785562</v>
+        <v>26299799.813669205</v>
       </c>
       <c r="E115">
-        <v>56220559.148230314</v>
+        <v>56296572.186093479</v>
       </c>
       <c r="F115">
-        <v>5.3705434787362494</v>
+        <v>5.3680499427714992</v>
       </c>
       <c r="H115">
-        <v>11.475173630841971</v>
+        <v>11.490688645649771</v>
       </c>
       <c r="I115" t="s">
         <v>38</v>
@@ -4887,22 +4887,22 @@
         <v>214384</v>
       </c>
       <c r="C116">
-        <v>5429024.7370343693</v>
+        <v>5526727.2724587107</v>
       </c>
       <c r="D116">
-        <v>316201.30622097419</v>
+        <v>319396.06346732134</v>
       </c>
       <c r="E116">
-        <v>6756467.8062436078</v>
+        <v>6783867.664620054</v>
       </c>
       <c r="F116">
-        <v>25.323833574494223</v>
+        <v>25.779569708834199</v>
       </c>
       <c r="G116">
-        <v>1.4749295946571304</v>
+        <v>1.4898316267413674</v>
       </c>
       <c r="H116">
-        <v>31.515727881948315</v>
+        <v>31.643535266717919</v>
       </c>
       <c r="I116" t="s">
         <v>25</v>
@@ -4969,22 +4969,22 @@
         <v>17815891</v>
       </c>
       <c r="C118">
-        <v>964986629.81686449</v>
+        <v>952264688.45591307</v>
       </c>
       <c r="D118">
-        <v>96138144.938168317</v>
+        <v>94870703.706691235</v>
       </c>
       <c r="E118">
-        <v>49150626.599638551</v>
+        <v>48502647.270045884</v>
       </c>
       <c r="F118">
-        <v>54.164376612815182</v>
+        <v>53.45029830143848</v>
       </c>
       <c r="G118">
-        <v>5.3962019041409901</v>
+        <v>5.3250608519490399</v>
       </c>
       <c r="H118">
-        <v>2.758808223492081</v>
+        <v>2.722437360558946</v>
       </c>
       <c r="I118" t="s">
         <v>8</v>
@@ -5010,22 +5010,22 @@
         <v>7047532</v>
       </c>
       <c r="C119">
-        <v>343393091.56264085</v>
+        <v>346910601.55876994</v>
       </c>
       <c r="D119">
-        <v>34211017.839366458</v>
+        <v>34561454.700749189</v>
       </c>
       <c r="E119">
-        <v>17490382.870376103</v>
+        <v>17669543.715758018</v>
       </c>
       <c r="F119">
-        <v>48.725297247694769</v>
+        <v>49.22440956050572</v>
       </c>
       <c r="G119">
-        <v>4.8543260022609989</v>
+        <v>4.9040507656792744</v>
       </c>
       <c r="H119">
-        <v>2.4817741686559356</v>
+        <v>2.5071959539535289</v>
       </c>
       <c r="I119" t="s">
         <v>36</v>
@@ -5051,16 +5051,16 @@
         <v>6223129</v>
       </c>
       <c r="C120">
-        <v>78614631.716577217</v>
+        <v>79578304.020494223</v>
       </c>
       <c r="E120">
-        <v>336952720.99968129</v>
+        <v>333489975.36739397</v>
       </c>
       <c r="F120">
-        <v>12.632653399371478</v>
+        <v>12.787506738249235</v>
       </c>
       <c r="H120">
-        <v>54.14522517525851</v>
+        <v>53.58879357432474</v>
       </c>
       <c r="I120" t="s">
         <v>39</v>
@@ -5086,22 +5086,22 @@
         <v>2129192</v>
       </c>
       <c r="C121">
-        <v>125516347.47534864</v>
+        <v>124528029.77869236</v>
       </c>
       <c r="D121">
-        <v>12504741.965165494</v>
+        <v>12406279.430006713</v>
       </c>
       <c r="E121">
-        <v>6393049.3296908587</v>
+        <v>6342710.3585909307</v>
       </c>
       <c r="F121">
-        <v>58.950225003357438</v>
+        <v>58.486050003331009</v>
       </c>
       <c r="G121">
-        <v>5.8729987550044775</v>
+        <v>5.8267546703194038</v>
       </c>
       <c r="H121">
-        <v>3.0025706134960393</v>
+        <v>2.978928325200795</v>
       </c>
       <c r="I121" t="s">
         <v>18</v>
@@ -5127,16 +5127,16 @@
         <v>4998069</v>
       </c>
       <c r="C122">
-        <v>223795264.92010602</v>
+        <v>225509031.08884826</v>
       </c>
       <c r="E122">
-        <v>55367227.703726828</v>
+        <v>55791215.591627717</v>
       </c>
       <c r="F122">
-        <v>44.77634560869528</v>
+        <v>45.119231264884149</v>
       </c>
       <c r="H122">
-        <v>11.077723757660575</v>
+        <v>11.162554096717695</v>
       </c>
       <c r="I122" t="s">
         <v>18</v>
@@ -5162,22 +5162,22 @@
         <v>5936999</v>
       </c>
       <c r="C123">
-        <v>228548327.75244308</v>
+        <v>227969497.42282307</v>
       </c>
       <c r="D123">
-        <v>22769447.347690471</v>
+        <v>22711780.565162949</v>
       </c>
       <c r="E123">
-        <v>11640879.956506751</v>
+        <v>11611397.813939556</v>
       </c>
       <c r="F123">
-        <v>38.495598155304229</v>
+        <v>38.398102715331952</v>
       </c>
       <c r="G123">
-        <v>3.8351778984113807</v>
+        <v>3.8254647786133953</v>
       </c>
       <c r="H123">
-        <v>1.960734700562818</v>
+        <v>1.9557688680660983</v>
       </c>
       <c r="I123" t="s">
         <v>32</v>
@@ -5244,7 +5244,7 @@
         <v>8834166</v>
       </c>
       <c r="C125">
-        <v>216934580.09496903</v>
+        <v>218702213.81963211</v>
       </c>
       <c r="D125">
         <v>12566760.697796103</v>
@@ -5253,7 +5253,7 @@
         <v>283420707.39819753</v>
       </c>
       <c r="F125">
-        <v>24.556316928498855</v>
+        <v>24.756407545390488</v>
       </c>
       <c r="G125">
         <v>1.4225180620101663</v>
@@ -5361,16 +5361,16 @@
         <v>1204962</v>
       </c>
       <c r="C128">
-        <v>17578859.258300398</v>
+        <v>18096509.60433498</v>
       </c>
       <c r="E128">
-        <v>74383774.063620001</v>
+        <v>73852461.391736999</v>
       </c>
       <c r="F128">
-        <v>14.588725004025353</v>
+        <v>15.018323900948728</v>
       </c>
       <c r="H128">
-        <v>61.731219792507979</v>
+        <v>61.29028250827578</v>
       </c>
       <c r="I128" t="s">
         <v>21</v>
@@ -5396,22 +5396,22 @@
         <v>11346108</v>
       </c>
       <c r="C129">
-        <v>498239006.01577842</v>
+        <v>485252708.26951462</v>
       </c>
       <c r="D129">
-        <v>41566514.259360552</v>
+        <v>40562266.059739836</v>
       </c>
       <c r="E129">
-        <v>312152416.09253329</v>
+        <v>307653508.63951325</v>
       </c>
       <c r="F129">
-        <v>43.91276779806595</v>
+        <v>42.768208117665957</v>
       </c>
       <c r="G129">
-        <v>3.6635041953911025</v>
+        <v>3.5749938269351778</v>
       </c>
       <c r="H129">
-        <v>27.51184953400173</v>
+        <v>27.115334054595042</v>
       </c>
       <c r="I129" t="s">
         <v>21</v>
@@ -5437,16 +5437,16 @@
         <v>8797020</v>
       </c>
       <c r="C130">
-        <v>308329856.12257779</v>
+        <v>308263979.22274709</v>
       </c>
       <c r="E130">
-        <v>240926505.50015998</v>
+        <v>240426465.24609405</v>
       </c>
       <c r="F130">
-        <v>35.049352635617261</v>
+        <v>35.04186408837846</v>
       </c>
       <c r="H130">
-        <v>27.387286319703716</v>
+        <v>27.330444314790014</v>
       </c>
       <c r="I130" t="s">
         <v>9</v>
@@ -5513,22 +5513,22 @@
         <v>4882435</v>
       </c>
       <c r="C132">
-        <v>111678684.91431893</v>
+        <v>111291431.03540604</v>
       </c>
       <c r="D132">
-        <v>7210249.3504652213</v>
+        <v>7160046.5383362137</v>
       </c>
       <c r="E132">
-        <v>145262820.77221102</v>
+        <v>144006187.43893459</v>
       </c>
       <c r="F132">
-        <v>22.873563071360692</v>
+        <v>22.794247344901883</v>
       </c>
       <c r="G132">
-        <v>1.4767732392679518</v>
+        <v>1.4664909083963664</v>
       </c>
       <c r="H132">
-        <v>29.752125890505663</v>
+        <v>29.494747485411398</v>
       </c>
       <c r="I132" t="s">
         <v>19</v>
@@ -5554,22 +5554,22 @@
         <v>4906656</v>
       </c>
       <c r="C133">
-        <v>192296480.02171332</v>
+        <v>192226707.60129488</v>
       </c>
       <c r="D133">
-        <v>19157806.228813283</v>
+        <v>19150855.053678192</v>
       </c>
       <c r="E133">
-        <v>9794428.43448079</v>
+        <v>9790874.6461929753</v>
       </c>
       <c r="F133">
-        <v>39.190943897781565</v>
+        <v>39.176723944228996</v>
       </c>
       <c r="G133">
-        <v>3.9044526921824723</v>
+        <v>3.9030360093876952</v>
       </c>
       <c r="H133">
-        <v>1.9961514388782891</v>
+        <v>1.9954271597994593</v>
       </c>
       <c r="I133" t="s">
         <v>33</v>
@@ -5595,16 +5595,16 @@
         <v>5621453</v>
       </c>
       <c r="C134">
-        <v>67040113.045829475</v>
+        <v>68000691.882191926</v>
       </c>
       <c r="E134">
-        <v>271800578.51293808</v>
+        <v>274341184.84325719</v>
       </c>
       <c r="F134">
-        <v>11.925762440036317</v>
+        <v>12.096639762387397</v>
       </c>
       <c r="H134">
-        <v>48.350591655384839</v>
+        <v>48.802539991574633</v>
       </c>
       <c r="I134" t="s">
         <v>14</v>
@@ -5630,16 +5630,16 @@
         <v>4776449</v>
       </c>
       <c r="C135">
-        <v>61995531.025014222</v>
+        <v>61078839.164293855</v>
       </c>
       <c r="E135">
-        <v>253734708.92916319</v>
+        <v>252174492.64374146</v>
       </c>
       <c r="F135">
-        <v>12.979418606796434</v>
+        <v>12.787499492676224</v>
       </c>
       <c r="H135">
-        <v>53.122038763349757</v>
+        <v>52.795391020346173</v>
       </c>
       <c r="I135" t="s">
         <v>9</v>
@@ -5700,22 +5700,22 @@
         <v>14585886</v>
       </c>
       <c r="C137">
-        <v>398399803.39365876</v>
+        <v>398714581.88196355</v>
       </c>
       <c r="D137">
-        <v>39691138.569729403</v>
+        <v>39722498.817630239</v>
       </c>
       <c r="E137">
-        <v>20292094.593774151</v>
+        <v>20308127.52051346</v>
       </c>
       <c r="F137">
-        <v>27.314062607760594</v>
+        <v>27.33564364084318</v>
       </c>
       <c r="G137">
-        <v>2.7212017541978186</v>
+        <v>2.7233517948536168</v>
       </c>
       <c r="H137">
-        <v>1.3912143968336343</v>
+        <v>1.3923136051189116</v>
       </c>
       <c r="I137" t="s">
         <v>19</v>
@@ -5744,19 +5744,19 @@
         <v>63654918.339447141</v>
       </c>
       <c r="D138">
-        <v>3886338.1670706309</v>
+        <v>3969026.2131785173</v>
       </c>
       <c r="E138">
-        <v>83235486.460801497</v>
+        <v>84556684.658592001</v>
       </c>
       <c r="F138">
         <v>29.141848416159746</v>
       </c>
       <c r="G138">
-        <v>1.7792038810695312</v>
+        <v>1.8170592827944152</v>
       </c>
       <c r="H138">
-        <v>38.106025309010889</v>
+        <v>38.710882853598363</v>
       </c>
       <c r="I138" t="s">
         <v>15</v>
@@ -5782,22 +5782,22 @@
         <v>1131899</v>
       </c>
       <c r="C139">
-        <v>46975070.648302995</v>
+        <v>48545562.568528131</v>
       </c>
       <c r="D139">
-        <v>4679957.2252356661</v>
+        <v>4836419.6830414077</v>
       </c>
       <c r="E139">
-        <v>2392628.1314017344</v>
+        <v>2472619.5629549194</v>
       </c>
       <c r="F139">
-        <v>41.501115071488705</v>
+        <v>42.88859922000826</v>
       </c>
       <c r="G139">
-        <v>4.1346067319042303</v>
+        <v>4.2728367840605985</v>
       </c>
       <c r="H139">
-        <v>2.1138176916860378</v>
+        <v>2.1844878058509809</v>
       </c>
       <c r="I139" t="s">
         <v>19</v>
@@ -5893,16 +5893,16 @@
         <v>7465222</v>
       </c>
       <c r="C142">
-        <v>401123329.00692618</v>
+        <v>400259148.3503027</v>
       </c>
       <c r="E142">
-        <v>99238411.958054453</v>
+        <v>99024612.585625783</v>
       </c>
       <c r="F142">
-        <v>53.732270655437468</v>
+        <v>53.616509776976855</v>
       </c>
       <c r="H142">
-        <v>13.293430785856664</v>
+        <v>13.264791400125246</v>
       </c>
       <c r="I142" t="s">
         <v>28</v>
@@ -5928,22 +5928,22 @@
         <v>6413540</v>
       </c>
       <c r="C143">
-        <v>128562340.22362997</v>
+        <v>129279612.12958366</v>
       </c>
       <c r="D143">
-        <v>5061509.4576232266</v>
+        <v>5089748.5090387268</v>
       </c>
       <c r="E143">
-        <v>18221434.047443625</v>
+        <v>18323094.632539425</v>
       </c>
       <c r="F143">
-        <v>20.045456989997717</v>
+        <v>20.157294119875086</v>
       </c>
       <c r="G143">
-        <v>0.78919122007865028</v>
+        <v>0.79359425668799555</v>
       </c>
       <c r="H143">
-        <v>2.8410883922831425</v>
+        <v>2.8569393240767851</v>
       </c>
       <c r="I143" t="s">
         <v>41</v>
@@ -5969,22 +5969,22 @@
         <v>6659324</v>
       </c>
       <c r="C144">
-        <v>439195668.22824097</v>
+        <v>442681348.13481426</v>
       </c>
       <c r="D144">
-        <v>43755483.758728869</v>
+        <v>44102749.502845764</v>
       </c>
       <c r="E144">
-        <v>22369991.071650133</v>
+        <v>22547530.683329895</v>
       </c>
       <c r="F144">
-        <v>65.951989755753132</v>
+        <v>66.475418245878146</v>
       </c>
       <c r="G144">
-        <v>6.5705593779081584</v>
+        <v>6.6227066745582235</v>
       </c>
       <c r="H144">
-        <v>3.3591984819555458</v>
+        <v>3.3858587873678911</v>
       </c>
       <c r="I144" t="s">
         <v>37</v>
@@ -6010,16 +6010,16 @@
         <v>3211787</v>
       </c>
       <c r="C145">
-        <v>99907015.043334603</v>
+        <v>101507127.39638098</v>
       </c>
       <c r="E145">
-        <v>80972352.198952198</v>
+        <v>82139100.789715201</v>
       </c>
       <c r="F145">
-        <v>31.106363853933839</v>
+        <v>31.604563875618457</v>
       </c>
       <c r="H145">
-        <v>25.210996930665761</v>
+        <v>25.574267779810803</v>
       </c>
       <c r="I145" t="s">
         <v>15</v>
@@ -6045,22 +6045,22 @@
         <v>8727176</v>
       </c>
       <c r="C146">
-        <v>256674294.11043862</v>
+        <v>256027690.76034725</v>
       </c>
       <c r="D146">
-        <v>16392404.639992647</v>
+        <v>16338156.038617287</v>
       </c>
       <c r="E146">
-        <v>342080208.54785788</v>
+        <v>340994178.44806951</v>
       </c>
       <c r="F146">
-        <v>29.41092217120849</v>
+        <v>29.336831382837616</v>
       </c>
       <c r="G146">
-        <v>1.8783171830146026</v>
+        <v>1.8721011285457387</v>
       </c>
       <c r="H146">
-        <v>39.19712499757744</v>
+        <v>39.072682669407548</v>
       </c>
       <c r="I146" t="s">
         <v>15</v>
@@ -6086,16 +6086,16 @@
         <v>1634689</v>
       </c>
       <c r="C147">
-        <v>72707880.976526126</v>
+        <v>71992768.060410023</v>
       </c>
       <c r="E147">
-        <v>41060488.467660606</v>
+        <v>40656641.109562792</v>
       </c>
       <c r="F147">
-        <v>44.478112336062779</v>
+        <v>44.040651194453517</v>
       </c>
       <c r="H147">
-        <v>25.118226444088513</v>
+        <v>24.871178009739339</v>
       </c>
       <c r="I147" t="s">
         <v>15</v>
@@ -6127,7 +6127,7 @@
         <v>17807773.1683896</v>
       </c>
       <c r="E148">
-        <v>372223520.51347601</v>
+        <v>385295455.82515681</v>
       </c>
       <c r="F148">
         <v>126.68471810193755</v>
@@ -6136,7 +6136,7 @@
         <v>8.207754125771606</v>
       </c>
       <c r="H148">
-        <v>171.56098672835898</v>
+        <v>177.5859529030584</v>
       </c>
       <c r="I148" t="s">
         <v>15</v>
@@ -6162,16 +6162,16 @@
         <v>5753937</v>
       </c>
       <c r="C149">
-        <v>161425128.18883333</v>
+        <v>161785809.72952649</v>
       </c>
       <c r="E149">
-        <v>211188419.23896861</v>
+        <v>213221870.90021956</v>
       </c>
       <c r="F149">
-        <v>28.054726388007605</v>
+        <v>28.117410692805031</v>
       </c>
       <c r="H149">
-        <v>36.703290154022994</v>
+        <v>37.056691948524907</v>
       </c>
       <c r="I149" t="s">
         <v>15</v>
@@ -6197,16 +6197,16 @@
         <v>6488120</v>
       </c>
       <c r="C150">
-        <v>224803720.43805185</v>
+        <v>220741689.83479559</v>
       </c>
       <c r="E150">
-        <v>171930269.82355797</v>
+        <v>172504869.83469135</v>
       </c>
       <c r="F150">
-        <v>34.648514583277105</v>
+        <v>34.022442531086909</v>
       </c>
       <c r="H150">
-        <v>26.499243205051382</v>
+        <v>26.587805070604634</v>
       </c>
       <c r="I150" t="s">
         <v>15</v>
@@ -6273,22 +6273,22 @@
         <v>3910602</v>
       </c>
       <c r="C152">
-        <v>190062394.26534033</v>
+        <v>188757479.68804547</v>
       </c>
       <c r="D152">
-        <v>18935232.305388827</v>
+        <v>18805228.362445377</v>
       </c>
       <c r="E152">
-        <v>9680637.5161300376</v>
+        <v>9614173.0003001988</v>
       </c>
       <c r="F152">
-        <v>48.601825055410991</v>
+        <v>48.268138687610112</v>
       </c>
       <c r="G152">
-        <v>4.8420249121206478</v>
+        <v>4.8087809402351294</v>
       </c>
       <c r="H152">
-        <v>2.4754852363216804</v>
+        <v>2.45848925569521</v>
       </c>
       <c r="I152" t="s">
         <v>12</v>
@@ -6314,22 +6314,22 @@
         <v>7463219</v>
       </c>
       <c r="C153">
-        <v>353954020.6101253</v>
+        <v>353257757.45897394</v>
       </c>
       <c r="D153">
-        <v>35263165.191544242</v>
+        <v>35193798.999648713</v>
       </c>
       <c r="E153">
-        <v>18028293.204176992</v>
+        <v>17992829.738570403</v>
       </c>
       <c r="F153">
-        <v>47.426455073893088</v>
+        <v>47.333162467693086</v>
       </c>
       <c r="G153">
-        <v>4.7249270310229736</v>
+        <v>4.7156326244277054</v>
       </c>
       <c r="H153">
-        <v>2.415618944610495</v>
+        <v>2.4108671792386644</v>
       </c>
       <c r="I153" t="s">
         <v>36</v>
@@ -6355,22 +6355,22 @@
         <v>10860909</v>
       </c>
       <c r="C154">
-        <v>260906402.36257121</v>
+        <v>259790178.22817296</v>
       </c>
       <c r="D154">
-        <v>10271905.604825638</v>
+        <v>10227959.772762716</v>
       </c>
       <c r="E154">
-        <v>36978860.177372314</v>
+        <v>36820655.181945793</v>
       </c>
       <c r="F154">
-        <v>24.022519879558075</v>
+        <v>23.919745412485547</v>
       </c>
       <c r="G154">
-        <v>0.94576849919519979</v>
+        <v>0.94172226033407658</v>
       </c>
       <c r="H154">
-        <v>3.4047665971027206</v>
+        <v>3.3902001372026773</v>
       </c>
       <c r="I154" t="s">
         <v>41</v>
@@ -6396,22 +6396,22 @@
         <v>2584028</v>
       </c>
       <c r="C155">
-        <v>30212641.593374349</v>
+        <v>30702489.236239113</v>
       </c>
       <c r="D155">
-        <v>1951829.838846979</v>
+        <v>1985178.5206835698</v>
       </c>
       <c r="E155">
-        <v>39134755.225358203</v>
+        <v>39451660.715670809</v>
       </c>
       <c r="F155">
-        <v>11.69207206476646</v>
+        <v>11.881639531862312</v>
       </c>
       <c r="G155">
-        <v>0.75534391997570416</v>
+        <v>0.76824961675476033</v>
       </c>
       <c r="H155">
-        <v>15.144865003536417</v>
+        <v>15.267505118238194</v>
       </c>
       <c r="I155" t="s">
         <v>22</v>
@@ -6437,16 +6437,16 @@
         <v>5184267</v>
       </c>
       <c r="C156">
-        <v>297604382.30815536</v>
+        <v>296010184.87638605</v>
       </c>
       <c r="E156">
-        <v>73627695.415115327</v>
+        <v>73233288.981891736</v>
       </c>
       <c r="F156">
-        <v>57.405296121545312</v>
+        <v>57.097789306836638</v>
       </c>
       <c r="H156">
-        <v>14.202141867908294</v>
+        <v>14.126064298364984</v>
       </c>
       <c r="I156" t="s">
         <v>39</v>
@@ -6472,22 +6472,22 @@
         <v>5491581</v>
       </c>
       <c r="C157">
-        <v>140571331.14262524</v>
+        <v>139230830.40482703</v>
       </c>
       <c r="D157">
-        <v>11707874.178151388</v>
+        <v>11619581.477488872</v>
       </c>
       <c r="E157">
-        <v>89975085.503695473</v>
+        <v>89187108.567207724</v>
       </c>
       <c r="F157">
-        <v>25.597606798957393</v>
+        <v>25.353505739936647</v>
       </c>
       <c r="G157">
-        <v>2.1319678573713814</v>
+        <v>2.115890028297656</v>
       </c>
       <c r="H157">
-        <v>16.384186175838156</v>
+        <v>16.240698000668246</v>
       </c>
       <c r="I157" t="s">
         <v>19</v>
@@ -6516,13 +6516,13 @@
         <v>16866018.2510316</v>
       </c>
       <c r="E158">
-        <v>71331751.023609519</v>
+        <v>70857667.349973008</v>
       </c>
       <c r="F158">
         <v>12.98380778737525</v>
       </c>
       <c r="H158">
-        <v>54.912649247892624</v>
+        <v>54.547689883921073</v>
       </c>
       <c r="I158" t="s">
         <v>28</v>
@@ -6548,22 +6548,22 @@
         <v>3250811</v>
       </c>
       <c r="C159">
-        <v>118935386.04141265</v>
+        <v>119091791.37381002</v>
       </c>
       <c r="D159">
-        <v>11849104.462407239</v>
+        <v>11864686.562770613</v>
       </c>
       <c r="E159">
-        <v>6057854.6564057004</v>
+        <v>6065821.0052164756</v>
       </c>
       <c r="F159">
-        <v>36.586373689953874</v>
+        <v>36.634486401642548</v>
       </c>
       <c r="G159">
-        <v>3.6449687362345085</v>
+        <v>3.6497620325422218</v>
       </c>
       <c r="H159">
-        <v>1.8634902663998925</v>
+        <v>1.8659408391372105</v>
       </c>
       <c r="I159" t="s">
         <v>22</v>
@@ -6589,22 +6589,22 @@
         <v>5484916</v>
       </c>
       <c r="C160">
-        <v>198216209.96655923</v>
+        <v>197919171.44574055</v>
       </c>
       <c r="D160">
-        <v>7803787.7939590244</v>
+        <v>7792093.364005533</v>
       </c>
       <c r="E160">
-        <v>28093636.058252499</v>
+        <v>28051536.110419933</v>
       </c>
       <c r="F160">
-        <v>36.138422168463336</v>
+        <v>36.084266640681562</v>
       </c>
       <c r="G160">
-        <v>1.422772526317454</v>
+        <v>1.4206404189244708</v>
       </c>
       <c r="H160">
-        <v>5.1219810947428357</v>
+        <v>5.1143055081280977</v>
       </c>
       <c r="I160" t="s">
         <v>35</v>
@@ -6671,22 +6671,22 @@
         <v>12498933</v>
       </c>
       <c r="C162">
-        <v>743347376.29542124</v>
+        <v>744587635.50749969</v>
       </c>
       <c r="D162">
-        <v>74057023.790328398</v>
+        <v>74180586.351930246</v>
       </c>
       <c r="E162">
-        <v>37861653.412805393</v>
+        <v>37924824.772424333</v>
       </c>
       <c r="F162">
-        <v>59.472866707535857</v>
+        <v>59.572095914707262</v>
       </c>
       <c r="G162">
-        <v>5.9250676670023275</v>
+        <v>5.9349535157865274</v>
       </c>
       <c r="H162">
-        <v>3.0291908447549396</v>
+        <v>3.0342449849458619</v>
       </c>
       <c r="I162" t="s">
         <v>30</v>
@@ -6712,22 +6712,22 @@
         <v>2663953</v>
       </c>
       <c r="C163">
-        <v>66415243.632957958</v>
+        <v>66954197.336445726</v>
       </c>
       <c r="D163">
-        <v>2614773.3713762974</v>
+        <v>2635992.0211199103</v>
       </c>
       <c r="E163">
-        <v>9413184.1369546745</v>
+        <v>9489571.2760316823</v>
       </c>
       <c r="F163">
-        <v>24.931086859624759</v>
+        <v>25.133400377726531</v>
       </c>
       <c r="G163">
-        <v>0.98153885274113228</v>
+        <v>0.9895039518789972</v>
       </c>
       <c r="H163">
-        <v>3.5335398698680773</v>
+        <v>3.5622142267643921</v>
       </c>
       <c r="I163" t="s">
         <v>41</v>
@@ -6753,22 +6753,22 @@
         <v>14171621</v>
       </c>
       <c r="C164">
-        <v>733237688.94442761</v>
+        <v>730090756.42750657</v>
       </c>
       <c r="D164">
-        <v>73049832.024351448</v>
+        <v>72736314.46351248</v>
       </c>
       <c r="E164">
-        <v>37346726.622449666</v>
+        <v>37186440.769470751</v>
       </c>
       <c r="F164">
-        <v>51.739860171565951</v>
+        <v>51.517801416472153</v>
       </c>
       <c r="G164">
-        <v>5.1546560569430575</v>
+        <v>5.1325331423633536</v>
       </c>
       <c r="H164">
-        <v>2.6353179091121381</v>
+        <v>2.6240075690332638</v>
       </c>
       <c r="I164" t="s">
         <v>32</v>
@@ -6794,16 +6794,16 @@
         <v>1551911</v>
       </c>
       <c r="C165">
-        <v>67758157.214473441</v>
+        <v>67224628.417509094</v>
       </c>
       <c r="E165">
-        <v>38265219.609316543</v>
+        <v>37963918.667510904</v>
       </c>
       <c r="F165">
-        <v>43.661110214743914</v>
+        <v>43.317321945336488</v>
       </c>
       <c r="H165">
-        <v>24.656838961329964</v>
+        <v>24.462690623051774</v>
       </c>
       <c r="I165" t="s">
         <v>16</v>
@@ -6829,16 +6829,16 @@
         <v>1138255</v>
       </c>
       <c r="C166">
-        <v>23691235.511742719</v>
+        <v>23989187.024596728</v>
       </c>
       <c r="E166">
-        <v>17733284.121384807</v>
+        <v>17898142.19755961</v>
       </c>
       <c r="F166">
-        <v>20.813645019563033</v>
+        <v>21.075406674775625</v>
       </c>
       <c r="H166">
-        <v>15.579359740466597</v>
+        <v>15.72419378571551</v>
       </c>
       <c r="I166" t="s">
         <v>42</v>
@@ -6864,22 +6864,22 @@
         <v>1940463</v>
       </c>
       <c r="C167">
-        <v>46268191.801911354</v>
+        <v>46128673.259948388</v>
       </c>
       <c r="D167">
-        <v>2808612.3279994563</v>
+        <v>2769066.3691603784</v>
       </c>
       <c r="E167">
-        <v>59661002.389520772</v>
+        <v>59510773.490084991</v>
       </c>
       <c r="F167">
-        <v>23.843892824501861</v>
+        <v>23.771993209841359</v>
       </c>
       <c r="G167">
-        <v>1.4473928789157311</v>
+        <v>1.4270132278535475</v>
       </c>
       <c r="H167">
-        <v>30.745756239372135</v>
+        <v>30.668337139169871</v>
       </c>
       <c r="I167" t="s">
         <v>33</v>
@@ -6905,16 +6905,16 @@
         <v>166824</v>
       </c>
       <c r="C168">
-        <v>3805505.7502665957</v>
+        <v>3848479.431088469</v>
       </c>
       <c r="E168">
-        <v>15416912.017960686</v>
+        <v>15627652.938347097</v>
       </c>
       <c r="F168">
-        <v>22.811500445179327</v>
+        <v>23.069099356738054</v>
       </c>
       <c r="H168">
-        <v>92.414233071744391</v>
+        <v>93.677486083220032</v>
       </c>
       <c r="I168" t="s">
         <v>37</v>
@@ -6943,13 +6943,13 @@
         <v>13835166.907670997</v>
       </c>
       <c r="E169">
-        <v>11134647.747924026</v>
+        <v>10962899.594400598</v>
       </c>
       <c r="F169">
         <v>28.978055504132485</v>
       </c>
       <c r="H169">
-        <v>23.321759875510072</v>
+        <v>22.962029663453528</v>
       </c>
       <c r="I169" t="s">
         <v>26</v>
@@ -6975,16 +6975,16 @@
         <v>97358</v>
       </c>
       <c r="C170">
-        <v>14853.935118360001</v>
+        <v>12338.732047199999</v>
       </c>
       <c r="E170">
-        <v>727842.82079964003</v>
+        <v>604597.87031279993</v>
       </c>
       <c r="F170">
-        <v>0.15257025738367674</v>
+        <v>0.12673567705992317</v>
       </c>
       <c r="H170">
-        <v>7.4759426118001606</v>
+        <v>6.2100481759362349</v>
       </c>
       <c r="I170" t="s">
         <v>24</v>
@@ -7045,16 +7045,16 @@
         <v>334348.61</v>
       </c>
       <c r="C172">
-        <v>3733658.5412272261</v>
+        <v>3773630.3803282399</v>
       </c>
       <c r="E172">
-        <v>15020221.983342635</v>
+        <v>14900985.115472384</v>
       </c>
       <c r="F172">
-        <v>11.166962952910815</v>
+        <v>11.28651433702159</v>
       </c>
       <c r="H172">
-        <v>44.923835583891417</v>
+        <v>44.567211197535364</v>
       </c>
       <c r="I172" t="s">
         <v>36</v>

--- a/r_map/data_boot_cq_remov_Hg.xlsx
+++ b/r_map/data_boot_cq_remov_Hg.xlsx
@@ -623,22 +623,22 @@
         <v>2207648</v>
       </c>
       <c r="C2">
-        <v>4713683.0473102499</v>
+        <v>4785885.674664</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>164047243.12836301</v>
+        <v>168193091.823264</v>
       </c>
       <c r="F2">
-        <v>2.1351606086252199</v>
+        <v>2.1678662878611084</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>74.308604962549737</v>
+        <v>76.186553211048135</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -664,22 +664,22 @@
         <v>6578669</v>
       </c>
       <c r="C3">
-        <v>180064380.79537213</v>
+        <v>179326836.77844316</v>
       </c>
       <c r="D3">
-        <v>19609451.003468268</v>
+        <v>19573675.549023539</v>
       </c>
       <c r="E3">
-        <v>37507362.322277211</v>
+        <v>37427280.955590427</v>
       </c>
       <c r="F3">
-        <v>27.370944000279103</v>
+        <v>27.258832566046895</v>
       </c>
       <c r="G3">
-        <v>2.9807626745574627</v>
+        <v>2.9753245753850117</v>
       </c>
       <c r="H3">
-        <v>5.7013603089435279</v>
+        <v>5.6891874261481199</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -705,22 +705,22 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>57022599.854792416</v>
+        <v>57439171.549527712</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>205366630.94643238</v>
+        <v>204646538.60959488</v>
       </c>
       <c r="F4">
-        <v>20.915102148043861</v>
+        <v>21.067894892842574</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>75.325644130259121</v>
+        <v>75.061524205539229</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -787,22 +787,22 @@
         <v>1657543</v>
       </c>
       <c r="C6">
-        <v>47062403.245114401</v>
+        <v>47242691.258217312</v>
       </c>
       <c r="D6">
-        <v>5675786.9275111798</v>
+        <v>5690903.3085659072</v>
       </c>
       <c r="E6">
-        <v>2901746.0666900882</v>
+        <v>2909474.3165043173</v>
       </c>
       <c r="F6">
-        <v>28.392870197101615</v>
+        <v>28.501638423991</v>
       </c>
       <c r="G6">
-        <v>3.4242170052367751</v>
+        <v>3.4333367572158955</v>
       </c>
       <c r="H6">
-        <v>1.7506309439272998</v>
+        <v>1.755293417126625</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -828,7 +828,7 @@
         <v>541762</v>
       </c>
       <c r="C7">
-        <v>1105760.7386007002</v>
+        <v>1100526.3682404598</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>39885902.145028792</v>
       </c>
       <c r="F7">
-        <v>2.04104521653549</v>
+        <v>2.0313834640311792</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -869,22 +869,22 @@
         <v>1380537</v>
       </c>
       <c r="C8">
-        <v>53325611.634047836</v>
+        <v>53454167.308301874</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>48342603.719910719</v>
+        <v>48192541.1942259</v>
       </c>
       <c r="F8">
-        <v>38.626716729828928</v>
+        <v>38.719836779674772</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>35.017245984649975</v>
+        <v>34.908547321966672</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -910,22 +910,22 @@
         <v>1368602</v>
       </c>
       <c r="C9">
-        <v>10123978.965352098</v>
+        <v>10199312.90292988</v>
       </c>
       <c r="D9">
-        <v>202749.8446692822</v>
+        <v>203743.71645687672</v>
       </c>
       <c r="E9">
-        <v>2818499.0765002957</v>
+        <v>2889638.7576524792</v>
       </c>
       <c r="F9">
-        <v>7.3973141682915102</v>
+        <v>7.4523586133367328</v>
       </c>
       <c r="G9">
-        <v>0.14814375886436101</v>
+        <v>0.14886995376075493</v>
       </c>
       <c r="H9">
-        <v>2.0594000860003825</v>
+        <v>2.1113799027419797</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -951,22 +951,22 @@
         <v>1443465</v>
       </c>
       <c r="C10">
-        <v>50352654.070481852</v>
+        <v>49722299.109569192</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37802385.12168774</v>
+        <v>37398111.328737706</v>
       </c>
       <c r="F10">
-        <v>34.883183222649564</v>
+        <v>34.44648752104775</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>26.188639919698602</v>
+        <v>25.908568152838971</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -992,22 +992,22 @@
         <v>4446401</v>
       </c>
       <c r="C11">
-        <v>32045653.538294721</v>
+        <v>32211059.124924317</v>
       </c>
       <c r="D11">
-        <v>638337.95720273512</v>
+        <v>665291.1953722327</v>
       </c>
       <c r="E11">
-        <v>9200786.3275498319</v>
+        <v>9286350.1669215076</v>
       </c>
       <c r="F11">
-        <v>7.2070993008266058</v>
+        <v>7.2442991815007955</v>
       </c>
       <c r="G11">
-        <v>0.14356284041919187</v>
+        <v>0.14962465044700932</v>
       </c>
       <c r="H11">
-        <v>2.0692659810821903</v>
+        <v>2.0885093735183822</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1033,19 +1033,19 @@
         <v>2081937</v>
       </c>
       <c r="C12">
-        <v>131866284.95224583</v>
+        <v>130079491.07458487</v>
       </c>
       <c r="D12">
-        <v>1003809.9610386454</v>
+        <v>981503.07301556447</v>
       </c>
       <c r="E12">
         <v>17225378.93142315</v>
       </c>
       <c r="F12">
-        <v>63.338268618236683</v>
+        <v>62.480032332671385</v>
       </c>
       <c r="G12">
-        <v>0.48215193881402046</v>
+        <v>0.47143745128482006</v>
       </c>
       <c r="H12">
         <v>8.2737272700485889</v>
@@ -1074,22 +1074,22 @@
         <v>8921964</v>
       </c>
       <c r="C13">
-        <v>358165009.22386307</v>
+        <v>360800015.73412365</v>
       </c>
       <c r="D13">
-        <v>34243097.709080338</v>
+        <v>34316667.052619353</v>
       </c>
       <c r="E13">
-        <v>17506783.703767318</v>
+        <v>17544396.030651666</v>
       </c>
       <c r="F13">
-        <v>40.144189017559704</v>
+        <v>40.439528307234106</v>
       </c>
       <c r="G13">
-        <v>3.8380672359897821</v>
+        <v>3.8463131046728449</v>
       </c>
       <c r="H13">
-        <v>1.9622118743997754</v>
+        <v>1.9664275747639943</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
@@ -1115,22 +1115,22 @@
         <v>7744214</v>
       </c>
       <c r="C14">
-        <v>226081814.01221824</v>
+        <v>218180888.05791259</v>
       </c>
       <c r="D14">
-        <v>21965965.579258759</v>
+        <v>21012234.092266962</v>
       </c>
       <c r="E14">
-        <v>11230099.902396038</v>
+        <v>10742504.679671483</v>
       </c>
       <c r="F14">
-        <v>29.193642377679417</v>
+        <v>28.173406372539883</v>
       </c>
       <c r="G14">
-        <v>2.8364357673043075</v>
+        <v>2.7132816955041483</v>
       </c>
       <c r="H14">
-        <v>1.4501277860343269</v>
+        <v>1.3871652668264955</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -1156,22 +1156,22 @@
         <v>1912394</v>
       </c>
       <c r="C15">
-        <v>12063176.766328435</v>
+        <v>12080909.371413531</v>
       </c>
       <c r="D15">
-        <v>1343341.9344817882</v>
+        <v>1347609.8179101879</v>
       </c>
       <c r="E15">
-        <v>22533332.944240734</v>
+        <v>22646627.81311639</v>
       </c>
       <c r="F15">
-        <v>6.3078930211705515</v>
+        <v>6.3171654854666617</v>
       </c>
       <c r="G15">
-        <v>0.70243994411287014</v>
+        <v>0.70467164083875389</v>
       </c>
       <c r="H15">
-        <v>11.782787931901446</v>
+        <v>11.842030362528009</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1197,22 +1197,22 @@
         <v>3755194</v>
       </c>
       <c r="C16">
-        <v>127422054.7712763</v>
+        <v>124986208.1615838</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>187044177.25943962</v>
+        <v>183077317.29720551</v>
       </c>
       <c r="F16">
-        <v>33.932216224055615</v>
+        <v>33.283555566392522</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>49.809457849431908</v>
+        <v>48.753091663761047</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1238,22 +1238,22 @@
         <v>9164672</v>
       </c>
       <c r="C17">
-        <v>525356904.99075466</v>
+        <v>526930831.87899399</v>
       </c>
       <c r="D17">
-        <v>31862216.799101926</v>
+        <v>31836745.393947154</v>
       </c>
       <c r="E17">
-        <v>583565303.30438685</v>
+        <v>589561481.185431</v>
       </c>
       <c r="F17">
-        <v>57.324136094641979</v>
+        <v>57.495874580017045</v>
       </c>
       <c r="G17">
-        <v>3.4766347119789915</v>
+        <v>3.4738554084583884</v>
       </c>
       <c r="H17">
-        <v>63.675525245681115</v>
+        <v>64.329796111135352</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1279,22 +1279,22 @@
         <v>1901037</v>
       </c>
       <c r="C18">
-        <v>12125552.789199598</v>
+        <v>12309547.495702378</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9296257.1383863576</v>
+        <v>9622018.2580961995</v>
       </c>
       <c r="F18">
-        <v>6.3783886316781828</v>
+        <v>6.4751751258404644</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.8900979509532734</v>
+        <v>5.0614576455356728</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
@@ -1320,22 +1320,22 @@
         <v>8636016</v>
       </c>
       <c r="C19">
-        <v>347215578.45021439</v>
+        <v>346055124.13547468</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>196083850.37861273</v>
+        <v>195428504.35053915</v>
       </c>
       <c r="F19">
-        <v>40.205527461993398</v>
+        <v>40.071153658755925</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22.705359783795299</v>
+        <v>22.629474557543563</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -1361,22 +1361,22 @@
         <v>1057147</v>
       </c>
       <c r="C20">
-        <v>6709862.6989501799</v>
+        <v>6741512.9946999447</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5067335.66237796</v>
+        <v>5282722.0905971397</v>
       </c>
       <c r="F20">
-        <v>6.3471425439888494</v>
+        <v>6.3770818956114379</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.7934068416009881</v>
+        <v>4.997149961733931</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -1402,22 +1402,22 @@
         <v>1387318</v>
       </c>
       <c r="C21">
-        <v>63822622.380660303</v>
+        <v>64260934.374454349</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>37502265.066277191</v>
+        <v>37767679.610200644</v>
       </c>
       <c r="F21">
-        <v>46.004320841119558</v>
+        <v>46.320262819666688</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27.032205353262331</v>
+        <v>27.223520209642377</v>
       </c>
       <c r="I21" t="s">
         <v>19</v>
@@ -1443,22 +1443,22 @@
         <v>2877284</v>
       </c>
       <c r="C22">
-        <v>19982603.257966802</v>
+        <v>20285821.864617541</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15319995.831107881</v>
+        <v>15856841.888784599</v>
       </c>
       <c r="F22">
-        <v>6.944953385889888</v>
+        <v>7.0503370069195608</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.3244642625155807</v>
+        <v>5.5110450997484426</v>
       </c>
       <c r="I22" t="s">
         <v>19</v>
@@ -1484,22 +1484,22 @@
         <v>3900879</v>
       </c>
       <c r="C23">
-        <v>107139571.96342236</v>
+        <v>107247246.62962906</v>
       </c>
       <c r="D23">
-        <v>6343195.2880595243</v>
+        <v>6343242.8017292395</v>
       </c>
       <c r="E23">
-        <v>10440216.95697026</v>
+        <v>10422470.467327563</v>
       </c>
       <c r="F23">
-        <v>27.465494818840153</v>
+        <v>27.493097486394493</v>
       </c>
       <c r="G23">
-        <v>1.6260938337383766</v>
+        <v>1.6261060139853709</v>
       </c>
       <c r="H23">
-        <v>2.6763754930543242</v>
+        <v>2.6718261364496469</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>3341004.0817981954</v>
+        <v>3293927.4326295834</v>
       </c>
       <c r="F24">
         <v>62.209531850521337</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5.5467356011637925</v>
+        <v>5.4685789394136233</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -1566,22 +1566,22 @@
         <v>4962679</v>
       </c>
       <c r="C25">
-        <v>294485679.09023309</v>
+        <v>294411721.77663809</v>
       </c>
       <c r="D25">
-        <v>11503837.160017394</v>
+        <v>11461160.973090686</v>
       </c>
       <c r="E25">
-        <v>5881336.7480589077</v>
+        <v>5859518.5474926271</v>
       </c>
       <c r="F25">
-        <v>59.340061908141365</v>
+        <v>59.325159208693144</v>
       </c>
       <c r="G25">
-        <v>2.3180699698726017</v>
+        <v>2.3094705446575703</v>
       </c>
       <c r="H25">
-        <v>1.1851132720973707</v>
+        <v>1.1807168159561856</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -1607,22 +1607,22 @@
         <v>9744872</v>
       </c>
       <c r="C26">
-        <v>300927972.10555637</v>
+        <v>300304019.16656101</v>
       </c>
       <c r="D26">
-        <v>26352111.486586422</v>
+        <v>26378558.673063926</v>
       </c>
       <c r="E26">
-        <v>97022475.86174953</v>
+        <v>96779191.285813019</v>
       </c>
       <c r="F26">
-        <v>30.880649033210119</v>
+        <v>30.81662018408872</v>
       </c>
       <c r="G26">
-        <v>2.7042029373588923</v>
+        <v>2.7069168967087434</v>
       </c>
       <c r="H26">
-        <v>9.9562596473047087</v>
+        <v>9.9312942525887475</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1648,22 +1648,22 @@
         <v>2476429</v>
       </c>
       <c r="C27">
-        <v>67023882.992598273</v>
+        <v>66855019.418369003</v>
       </c>
       <c r="D27">
-        <v>6110488.5912502594</v>
+        <v>6092111.8172536585</v>
       </c>
       <c r="E27">
-        <v>3123987.2922767005</v>
+        <v>3114592.1665709317</v>
       </c>
       <c r="F27">
-        <v>27.064730300201731</v>
+        <v>26.996541963597181</v>
       </c>
       <c r="G27">
-        <v>2.4674596329029659</v>
+        <v>2.4600389582150988</v>
       </c>
       <c r="H27">
-        <v>1.2614887373216437</v>
+        <v>1.2576949173874687</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1689,22 +1689,22 @@
         <v>786988</v>
       </c>
       <c r="C28">
-        <v>16636786.661701178</v>
+        <v>16751929.619693683</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>11917865.876570817</v>
+        <v>11866300.147150971</v>
       </c>
       <c r="F28">
-        <v>21.139822540751801</v>
+        <v>21.28613094442823</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15.143643710667529</v>
+        <v>15.078120819060736</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1730,22 +1730,22 @@
         <v>12851943</v>
       </c>
       <c r="C29">
-        <v>379861945.69040775</v>
+        <v>380577684.82785523</v>
       </c>
       <c r="D29">
-        <v>24150083.742355052</v>
+        <v>24046180.059280291</v>
       </c>
       <c r="E29">
-        <v>12346730.313279023</v>
+        <v>12293609.555307049</v>
       </c>
       <c r="F29">
-        <v>29.55677174186096</v>
+        <v>29.612462864786689</v>
       </c>
       <c r="G29">
-        <v>1.8790998172303637</v>
+        <v>1.8710151499489447</v>
       </c>
       <c r="H29">
-        <v>0.96068978155902363</v>
+        <v>0.95655649541139809</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -1771,22 +1771,22 @@
         <v>1157290</v>
       </c>
       <c r="C30">
-        <v>36085035.611717001</v>
+        <v>36023693.211820774</v>
       </c>
       <c r="D30">
-        <v>715466.2061895486</v>
+        <v>714636.44459044642</v>
       </c>
       <c r="E30">
-        <v>987410.3132991906</v>
+        <v>978114.79851304123</v>
       </c>
       <c r="F30">
-        <v>31.180633732009262</v>
+        <v>31.127628521650387</v>
       </c>
       <c r="G30">
-        <v>0.6182255149440059</v>
+        <v>0.61750852819124546</v>
       </c>
       <c r="H30">
-        <v>0.85320906021756915</v>
+        <v>0.8451769206620996</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -1894,22 +1894,22 @@
         <v>5057931</v>
       </c>
       <c r="C33">
-        <v>262570596.89653808</v>
+        <v>259018536.32104129</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>64960293.203093588</v>
+        <v>64081508.985870883</v>
       </c>
       <c r="F33">
-        <v>51.912649044943095</v>
+        <v>51.210373633219056</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>12.843254129622091</v>
+        <v>12.669510316742336</v>
       </c>
       <c r="I33" t="s">
         <v>23</v>
@@ -1935,22 +1935,22 @@
         <v>1796131</v>
       </c>
       <c r="C34">
-        <v>86151759.567554861</v>
+        <v>85473399.255999297</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>43153873.45833014</v>
+        <v>42814079.179130681</v>
       </c>
       <c r="F34">
-        <v>47.965187153695837</v>
+        <v>47.587508514690349</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>24.026016731702832</v>
+        <v>23.836835497594929</v>
       </c>
       <c r="I34" t="s">
         <v>23</v>
@@ -1976,22 +1976,22 @@
         <v>2372033</v>
       </c>
       <c r="C35">
-        <v>122685482.93083258</v>
+        <v>121719455.50618035</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>30352541.515112411</v>
+        <v>30113545.125229631</v>
       </c>
       <c r="F35">
-        <v>51.721659408124836</v>
+        <v>51.314402247430934</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>12.796003055232541</v>
+        <v>12.695247125663778</v>
       </c>
       <c r="I35" t="s">
         <v>23</v>
@@ -2017,22 +2017,22 @@
         <v>4881045</v>
       </c>
       <c r="C36">
-        <v>220567720.57825482</v>
+        <v>224455066.20697066</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>54568729.207509995</v>
+        <v>55530463.365134083</v>
       </c>
       <c r="F36">
-        <v>45.188626734286373</v>
+        <v>45.985043409141007</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>11.179722622411798</v>
+        <v>11.376757101221989</v>
       </c>
       <c r="I36" t="s">
         <v>23</v>
@@ -2058,22 +2058,22 @@
         <v>10305807</v>
       </c>
       <c r="C37">
-        <v>639452218.69346225</v>
+        <v>634681195.76213872</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>54283141.23341202</v>
+        <v>53553676.802022062</v>
       </c>
       <c r="F37">
-        <v>62.047757996386139</v>
+        <v>61.584812888708157</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>5.2672382893850056</v>
+        <v>5.1964564057935556</v>
       </c>
       <c r="I37" t="s">
         <v>23</v>
@@ -2099,22 +2099,22 @@
         <v>1880003</v>
       </c>
       <c r="C38">
-        <v>96365860.21079801</v>
+        <v>96674861.670085058</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>51660588.777239494</v>
+        <v>52067365.066824056</v>
       </c>
       <c r="F38">
-        <v>51.258354487092845</v>
+        <v>51.422716703156887</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>27.478992734181539</v>
+        <v>27.695362755710526</v>
       </c>
       <c r="I38" t="s">
         <v>23</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>8520627.650993634</v>
+        <v>8551617.5414645746</v>
       </c>
       <c r="F39">
         <v>65.209529209706503</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>5.522457734593921</v>
+        <v>5.5425431516940931</v>
       </c>
       <c r="I39" t="s">
         <v>23</v>
@@ -2181,22 +2181,22 @@
         <v>2219933</v>
       </c>
       <c r="C40">
-        <v>125399356.07120156</v>
+        <v>124411959.5667039</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>31023957.115328431</v>
+        <v>30779673.988436084</v>
       </c>
       <c r="F40">
-        <v>56.487901243506698</v>
+        <v>56.043114619542074</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>13.975177230722021</v>
+        <v>13.865136465125786</v>
       </c>
       <c r="I40" t="s">
         <v>23</v>
@@ -2263,22 +2263,22 @@
         <v>1066912</v>
       </c>
       <c r="C42">
-        <v>60406026.070649922</v>
+        <v>60578153.326089144</v>
       </c>
       <c r="D42">
-        <v>5694604.5990602616</v>
+        <v>5719089.9450843437</v>
       </c>
       <c r="E42">
-        <v>2911366.6012695637</v>
+        <v>2923884.7344243657</v>
       </c>
       <c r="F42">
-        <v>56.617627386935304</v>
+        <v>56.778959582504598</v>
       </c>
       <c r="G42">
-        <v>5.3374641948541788</v>
+        <v>5.3604139283130605</v>
       </c>
       <c r="H42">
-        <v>2.7287785696192035</v>
+        <v>2.7405116208500475</v>
       </c>
       <c r="I42" t="s">
         <v>23</v>
@@ -2304,22 +2304,22 @@
         <v>5225154</v>
       </c>
       <c r="C43">
-        <v>130547386.3384378</v>
+        <v>130645517.34921041</v>
       </c>
       <c r="D43">
-        <v>12295652.874235943</v>
+        <v>12327458.261704206</v>
       </c>
       <c r="E43">
-        <v>19696182.601272065</v>
+        <v>19821440.242453858</v>
       </c>
       <c r="F43">
-        <v>24.984409328115074</v>
+        <v>25.003189829277837</v>
       </c>
       <c r="G43">
-        <v>2.3531656433927006</v>
+        <v>2.3592526194834078</v>
       </c>
       <c r="H43">
-        <v>3.7694932247493691</v>
+        <v>3.7934652724979703</v>
       </c>
       <c r="I43" t="s">
         <v>24</v>
@@ -2345,22 +2345,22 @@
         <v>2992958</v>
       </c>
       <c r="C44">
-        <v>88344693.618654579</v>
+        <v>87835865.522569403</v>
       </c>
       <c r="D44">
-        <v>8155717.6031822693</v>
+        <v>8148455.186209742</v>
       </c>
       <c r="E44">
-        <v>25976209.515787948</v>
+        <v>25958247.312843941</v>
       </c>
       <c r="F44">
-        <v>29.517518661690065</v>
+        <v>29.347510229869382</v>
       </c>
       <c r="G44">
-        <v>2.7249689448305889</v>
+        <v>2.7225424433653069</v>
       </c>
       <c r="H44">
-        <v>8.6791092677504817</v>
+        <v>8.6731077792751989</v>
       </c>
       <c r="I44" t="s">
         <v>24</v>
@@ -2427,22 +2427,22 @@
         <v>8966852</v>
       </c>
       <c r="C46">
-        <v>246817766.41171509</v>
+        <v>246512030.71021384</v>
       </c>
       <c r="D46">
-        <v>14980494.648999948</v>
+        <v>15003830.753155988</v>
       </c>
       <c r="E46">
-        <v>96727220.122936785</v>
+        <v>96919888.45323436</v>
       </c>
       <c r="F46">
-        <v>27.525576022857866</v>
+        <v>27.491479809214407</v>
       </c>
       <c r="G46">
-        <v>1.6706526046153041</v>
+        <v>1.6732550903211056</v>
       </c>
       <c r="H46">
-        <v>10.787199356355696</v>
+        <v>10.808686086625983</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
@@ -2468,22 +2468,22 @@
         <v>1441562</v>
       </c>
       <c r="C47">
-        <v>75105399.213455051</v>
+        <v>74988032.771859944</v>
       </c>
       <c r="D47">
-        <v>1617095.3543719645</v>
+        <v>1614568.3359491851</v>
       </c>
       <c r="E47">
-        <v>826739.99992266588</v>
+        <v>825448.06175401993</v>
       </c>
       <c r="F47">
-        <v>52.100013189481309</v>
+        <v>52.018597030068733</v>
       </c>
       <c r="G47">
-        <v>1.1217660803850023</v>
+        <v>1.1200131079684295</v>
       </c>
       <c r="H47">
-        <v>0.57350290859683173</v>
+        <v>0.57260670144885895</v>
       </c>
       <c r="I47" t="s">
         <v>24</v>
@@ -2509,22 +2509,22 @@
         <v>1650341</v>
       </c>
       <c r="C48">
-        <v>22148147.825326443</v>
+        <v>22197335.335242502</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>88280633.001903787</v>
+        <v>88560831.692962378</v>
       </c>
       <c r="F48">
-        <v>13.420346355890354</v>
+        <v>13.450150808373847</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>53.492358853051449</v>
+        <v>53.662141153229776</v>
       </c>
       <c r="I48" t="s">
         <v>24</v>
@@ -2553,19 +2553,19 @@
         <v>156249329.60702288</v>
       </c>
       <c r="D49">
-        <v>14605303.572164111</v>
+        <v>14675539.778493367</v>
       </c>
       <c r="E49">
-        <v>7466961.4512689039</v>
+        <v>7502869.7117547402</v>
       </c>
       <c r="F49">
         <v>31.348632924295863</v>
       </c>
       <c r="G49">
-        <v>2.9302928952285292</v>
+        <v>2.9443845336102661</v>
       </c>
       <c r="H49">
-        <v>1.498112242685586</v>
+        <v>1.5053165928082497</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
@@ -2591,22 +2591,22 @@
         <v>508325</v>
       </c>
       <c r="C50">
-        <v>21013977.66266099</v>
+        <v>21128163.714831494</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>15591806.892975595</v>
+        <v>15551890.201524317</v>
       </c>
       <c r="F50">
-        <v>41.339650150319166</v>
+        <v>41.564282132162482</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>30.672909837162436</v>
+        <v>30.594383910931622</v>
       </c>
       <c r="I50" t="s">
         <v>24</v>
@@ -2632,22 +2632,22 @@
         <v>2093626</v>
       </c>
       <c r="C51">
-        <v>10620088.684490688</v>
+        <v>11210680.744764382</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>62276386.708395749</v>
+        <v>62348408.346173145</v>
       </c>
       <c r="F51">
-        <v>5.0725815807076753</v>
+        <v>5.3546721070355368</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>29.745707546809101</v>
+        <v>29.780107978298485</v>
       </c>
       <c r="I51" t="s">
         <v>24</v>
@@ -2673,22 +2673,22 @@
         <v>1408704</v>
       </c>
       <c r="C52">
-        <v>67376861.175744206</v>
+        <v>67598974.889740586</v>
       </c>
       <c r="D52">
         <v>3079501.99429612</v>
       </c>
       <c r="E52">
-        <v>3791235.3399779811</v>
+        <v>4027620.5182725983</v>
       </c>
       <c r="F52">
-        <v>47.828969872836453</v>
+        <v>47.98664225397286</v>
       </c>
       <c r="G52">
         <v>2.1860532761290661</v>
       </c>
       <c r="H52">
-        <v>2.6912930892351983</v>
+        <v>2.8590963880791125</v>
       </c>
       <c r="I52" t="s">
         <v>24</v>
@@ -2714,22 +2714,22 @@
         <v>53291</v>
       </c>
       <c r="C53">
-        <v>4697379.2289964203</v>
+        <v>4713468.8284251047</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>2354824.3152681454</v>
+        <v>2353673.9551126966</v>
       </c>
       <c r="F53">
-        <v>88.145826293303188</v>
+        <v>88.447745931303686</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>44.188030160217401</v>
+        <v>44.166443773107964</v>
       </c>
       <c r="I53" t="s">
         <v>24</v>
@@ -2755,22 +2755,22 @@
         <v>860420</v>
       </c>
       <c r="C54">
-        <v>44627216.834811963</v>
+        <v>44278566.703290001</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>23924118.895766236</v>
+        <v>23737211.716893066</v>
       </c>
       <c r="F54">
-        <v>51.866782309583648</v>
+        <v>51.461573072790031</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>27.805163636091951</v>
+        <v>27.587935795184986</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
@@ -2796,22 +2796,22 @@
         <v>245567</v>
       </c>
       <c r="C55">
-        <v>10021521.580983292</v>
+        <v>9915989.4564065207</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>2479336.9399937862</v>
+        <v>2453228.1607325892</v>
       </c>
       <c r="F55">
-        <v>40.809724356217622</v>
+        <v>40.379975552116207</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>10.096376711829302</v>
+        <v>9.9900563216254188</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -2837,22 +2837,22 @@
         <v>9501203</v>
       </c>
       <c r="C56">
-        <v>474739471.49104118</v>
+        <v>480412217.32417023</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>152976233.0492731</v>
+        <v>154374424.57896408</v>
       </c>
       <c r="F56">
-        <v>49.966248641465839</v>
+        <v>50.563304175710194</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>16.100722513693594</v>
+        <v>16.247881934420736</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -2878,22 +2878,22 @@
         <v>2526066</v>
       </c>
       <c r="C57">
-        <v>122428626.4674446</v>
+        <v>123220383.66485953</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>52282129.580198981</v>
+        <v>52351181.411325887</v>
       </c>
       <c r="F57">
-        <v>48.466123397981129</v>
+        <v>48.779558279498453</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>20.697056046912067</v>
+        <v>20.72439176621905</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -2919,22 +2919,22 @@
         <v>1081826</v>
       </c>
       <c r="C58">
-        <v>60603244.977706924</v>
+        <v>60126054.072370656</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>14993318.404048068</v>
+        <v>14875260.778819343</v>
       </c>
       <c r="F58">
-        <v>56.019401435819553</v>
+        <v>55.578303786718621</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>13.859269793892981</v>
+        <v>13.750141685279651</v>
       </c>
       <c r="I58" t="s">
         <v>25</v>
@@ -2960,22 +2960,22 @@
         <v>250729</v>
       </c>
       <c r="C59">
-        <v>1346488.1024783999</v>
+        <v>1342508.8520068033</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>17298923.333321519</v>
+        <v>17321712.154365599</v>
       </c>
       <c r="F59">
-        <v>5.370292636585317</v>
+        <v>5.3544219137267861</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>68.994505355668949</v>
+        <v>69.08539560388148</v>
       </c>
       <c r="I59" t="s">
         <v>25</v>
@@ -3001,22 +3001,22 @@
         <v>750815</v>
       </c>
       <c r="C60">
-        <v>24591831.26068845</v>
+        <v>25059866.388389118</v>
       </c>
       <c r="D60">
-        <v>1479708.6692085674</v>
+        <v>1501186.0078646615</v>
       </c>
       <c r="E60">
-        <v>27744513.155434493</v>
+        <v>28149919.280881464</v>
       </c>
       <c r="F60">
-        <v>32.75351619332119</v>
+        <v>33.376885635461619</v>
       </c>
       <c r="G60">
-        <v>1.9708032860405924</v>
+        <v>1.9994086530831983</v>
       </c>
       <c r="H60">
-        <v>36.952529125596179</v>
+        <v>37.492483875364059</v>
       </c>
       <c r="I60" t="s">
         <v>25</v>
@@ -3042,22 +3042,22 @@
         <v>6981232</v>
       </c>
       <c r="C61">
-        <v>442737487.61145425</v>
+        <v>448966383.83095282</v>
       </c>
       <c r="D61">
-        <v>17822098.950234532</v>
+        <v>18072838.966341026</v>
       </c>
       <c r="E61">
-        <v>9111548.0883073732</v>
+        <v>9239738.9215418175</v>
       </c>
       <c r="F61">
-        <v>63.418245892910342</v>
+        <v>64.310480418205955</v>
       </c>
       <c r="G61">
-        <v>2.5528587146558848</v>
+        <v>2.5887750136854106</v>
       </c>
       <c r="H61">
-        <v>1.3051490178678167</v>
+        <v>1.3235112257466615</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
@@ -3083,22 +3083,22 @@
         <v>2191143</v>
       </c>
       <c r="C62">
-        <v>102696191.58114424</v>
+        <v>102539091.41192675</v>
       </c>
       <c r="D62">
-        <v>2111018.4021566999</v>
+        <v>2092394.753567338</v>
       </c>
       <c r="E62">
-        <v>35414241.528455645</v>
+        <v>35782524.267965302</v>
       </c>
       <c r="F62">
-        <v>46.868776515793009</v>
+        <v>46.797078699074753</v>
       </c>
       <c r="G62">
-        <v>0.96343251086610959</v>
+        <v>0.95493299778578489</v>
       </c>
       <c r="H62">
-        <v>16.162451071635054</v>
+        <v>16.330528983259104</v>
       </c>
       <c r="I62" t="s">
         <v>13</v>
@@ -3124,7 +3124,7 @@
         <v>384251</v>
       </c>
       <c r="C63">
-        <v>5083788.2370889485</v>
+        <v>5038105.9294385994</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>21318410.23683</v>
       </c>
       <c r="F63">
-        <v>13.230383882121188</v>
+        <v>13.111497249034093</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3165,22 +3165,22 @@
         <v>1245893</v>
       </c>
       <c r="C64">
-        <v>22578974.6111768</v>
+        <v>22881635.194072772</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>79964860.528368443</v>
+        <v>80457017.228655905</v>
       </c>
       <c r="F64">
-        <v>18.122723709962894</v>
+        <v>18.365650336002187</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>64.182767323011234</v>
+        <v>64.577790571626863</v>
       </c>
       <c r="I64" t="s">
         <v>26</v>
@@ -3206,22 +3206,22 @@
         <v>2032750</v>
       </c>
       <c r="C65">
-        <v>79485431.090700775</v>
+        <v>79672525.770184875</v>
       </c>
       <c r="D65">
-        <v>1666173.8686112536</v>
+        <v>1676725.5090553006</v>
       </c>
       <c r="E65">
-        <v>20897706.614947159</v>
+        <v>20979187.551073838</v>
       </c>
       <c r="F65">
-        <v>39.10241352389658</v>
+        <v>39.19445370566222</v>
       </c>
       <c r="G65">
-        <v>0.81966492122063883</v>
+        <v>0.82485574175638943</v>
       </c>
       <c r="H65">
-        <v>10.280509956928869</v>
+        <v>10.320594048000904</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
@@ -3247,22 +3247,22 @@
         <v>11367897</v>
       </c>
       <c r="C66">
-        <v>487819960.34460306</v>
+        <v>483793557.61612153</v>
       </c>
       <c r="D66">
-        <v>13397894.526156954</v>
+        <v>13307845.343032412</v>
       </c>
       <c r="E66">
-        <v>30469180.38734429</v>
+        <v>30300290.895096183</v>
       </c>
       <c r="F66">
-        <v>42.912067231485565</v>
+        <v>42.557876590201474</v>
       </c>
       <c r="G66">
-        <v>1.1785728289196282</v>
+        <v>1.1706514708069937</v>
       </c>
       <c r="H66">
-        <v>2.6802829395220846</v>
+        <v>2.665426234517799</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
@@ -3288,22 +3288,22 @@
         <v>7935224</v>
       </c>
       <c r="C67">
-        <v>310612210.05443907</v>
+        <v>300386980.4539268</v>
       </c>
       <c r="D67">
-        <v>8954994.6536910236</v>
+        <v>8737161.9962302372</v>
       </c>
       <c r="E67">
-        <v>10181810.870714026</v>
+        <v>9959138.9246036354</v>
       </c>
       <c r="F67">
-        <v>39.143470941014279</v>
+        <v>37.854883548835772</v>
       </c>
       <c r="G67">
-        <v>1.1285118925049908</v>
+        <v>1.1010605366943942</v>
       </c>
       <c r="H67">
-        <v>1.2831157470430608</v>
+        <v>1.2550545422036776</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
@@ -3329,22 +3329,22 @@
         <v>2300225</v>
       </c>
       <c r="C68">
-        <v>70121293.661606818</v>
+        <v>69748810.383368194</v>
       </c>
       <c r="D68">
-        <v>5694175.3453893838</v>
+        <v>5670346.8436112236</v>
       </c>
       <c r="E68">
-        <v>34029669.143508047</v>
+        <v>33932011.992502399</v>
       </c>
       <c r="F68">
-        <v>30.48453680035945</v>
+        <v>30.322603390263211</v>
       </c>
       <c r="G68">
-        <v>2.4754862439063063</v>
+        <v>2.465127039142355</v>
       </c>
       <c r="H68">
-        <v>14.794061078158895</v>
+        <v>14.75160560054012</v>
       </c>
       <c r="I68" t="s">
         <v>26</v>
@@ -3370,22 +3370,22 @@
         <v>12008149</v>
       </c>
       <c r="C69">
-        <v>509247791.1469909</v>
+        <v>512639325.79990131</v>
       </c>
       <c r="D69">
-        <v>48677225.217996135</v>
+        <v>48836878.132606924</v>
       </c>
       <c r="E69">
-        <v>24886231.392700542</v>
+        <v>24967853.945295278</v>
       </c>
       <c r="F69">
-        <v>42.408517011821793</v>
+        <v>42.690953101922808</v>
       </c>
       <c r="G69">
-        <v>4.0536826465091442</v>
+        <v>4.0669780273884779</v>
       </c>
       <c r="H69">
-        <v>2.0724452530278015</v>
+        <v>2.0792425165023585</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
@@ -3411,22 +3411,22 @@
         <v>6141807</v>
       </c>
       <c r="C70">
-        <v>236477379.27249107</v>
+        <v>237308296.80420595</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>173886276.54413158</v>
+        <v>174928855.2548553</v>
       </c>
       <c r="F70">
-        <v>38.502899761013502</v>
+        <v>38.638188533798925</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>28.311908294111419</v>
+        <v>28.481659429359357</v>
       </c>
       <c r="I70" t="s">
         <v>26</v>
@@ -3452,22 +3452,22 @@
         <v>1488285</v>
       </c>
       <c r="C71">
-        <v>48095167.78133437</v>
+        <v>47473052.031806074</v>
       </c>
       <c r="D71">
-        <v>4635211.436590137</v>
+        <v>4592006.0873211697</v>
       </c>
       <c r="E71">
-        <v>2369751.8469567094</v>
+        <v>2347663.1121429475</v>
       </c>
       <c r="F71">
-        <v>32.315831834181203</v>
+        <v>31.897823354939462</v>
       </c>
       <c r="G71">
-        <v>3.114464928820849</v>
+        <v>3.0854346360550364</v>
       </c>
       <c r="H71">
-        <v>1.5922701948596603</v>
+        <v>1.577428457683137</v>
       </c>
       <c r="I71" t="s">
         <v>26</v>
@@ -3493,22 +3493,22 @@
         <v>524509</v>
       </c>
       <c r="C72">
-        <v>18760527.028362572</v>
+        <v>18980320.581889778</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>12226038.045425683</v>
+        <v>12225661.204740601</v>
       </c>
       <c r="F72">
-        <v>35.767788595357892</v>
+        <v>36.186834891088196</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>23.309491439471358</v>
+        <v>23.308772975755613</v>
       </c>
       <c r="I72" t="s">
         <v>26</v>
@@ -3534,22 +3534,22 @@
         <v>48329</v>
       </c>
       <c r="C73">
-        <v>455733.90254262125</v>
+        <v>463525.55575730704</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>2097144.9571614256</v>
+        <v>2067073.6784009887</v>
       </c>
       <c r="F73">
-        <v>9.4298227263676306</v>
+        <v>9.5910437989055648</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>43.393096425778012</v>
+        <v>42.770876252374116</v>
       </c>
       <c r="I73" t="s">
         <v>26</v>
@@ -3575,22 +3575,22 @@
         <v>402573</v>
       </c>
       <c r="C74">
-        <v>16757432.116595976</v>
+        <v>16710575.332447035</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>12699141.613009032</v>
+        <v>12720329.925497668</v>
       </c>
       <c r="F74">
-        <v>41.625822190251149</v>
+        <v>41.509428929528397</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>31.544941198264741</v>
+        <v>31.597573422702634</v>
       </c>
       <c r="I74" t="s">
         <v>21</v>
@@ -3616,22 +3616,22 @@
         <v>1336530</v>
       </c>
       <c r="C75">
-        <v>25563964.458817124</v>
+        <v>25723769.930219129</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>9612926.6257206611</v>
+        <v>9654568.9256459642</v>
       </c>
       <c r="F75">
-        <v>19.127116083303125</v>
+        <v>19.24668352391576</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>7.1924510678553126</v>
+        <v>7.2236080938295171</v>
       </c>
       <c r="I75" t="s">
         <v>21</v>
@@ -3657,22 +3657,22 @@
         <v>1349171</v>
       </c>
       <c r="C76">
-        <v>72594519.067191824</v>
+        <v>73086125.148088276</v>
       </c>
       <c r="D76">
-        <v>2043579.7247404149</v>
+        <v>2083830.6547101384</v>
       </c>
       <c r="E76">
-        <v>7826861.5227210168</v>
+        <v>7840259.7750948807</v>
       </c>
       <c r="F76">
-        <v>53.806759163361669</v>
+        <v>54.17113556998207</v>
       </c>
       <c r="G76">
-        <v>1.5146928927025669</v>
+        <v>1.5445267165616059</v>
       </c>
       <c r="H76">
-        <v>5.8012375916181247</v>
+        <v>5.8111683212097507</v>
       </c>
       <c r="I76" t="s">
         <v>21</v>
@@ -3698,22 +3698,22 @@
         <v>518992</v>
       </c>
       <c r="C77">
-        <v>29894622.418412615</v>
+        <v>29840134.425845914</v>
       </c>
       <c r="D77">
-        <v>430935.83691244735</v>
+        <v>434699.58187601302</v>
       </c>
       <c r="E77">
-        <v>7437726.1412181789</v>
+        <v>7422167.4544305298</v>
       </c>
       <c r="F77">
-        <v>57.601316433418269</v>
+        <v>57.496328316902598</v>
       </c>
       <c r="G77">
-        <v>0.83033233058013867</v>
+        <v>0.83758435944294518</v>
       </c>
       <c r="H77">
-        <v>14.331099788085711</v>
+        <v>14.301121124083858</v>
       </c>
       <c r="I77" t="s">
         <v>21</v>
@@ -3739,22 +3739,22 @@
         <v>4238250</v>
       </c>
       <c r="C78">
-        <v>223860976.89271033</v>
+        <v>228172184.09465513</v>
       </c>
       <c r="D78">
-        <v>21481343.590068631</v>
+        <v>21932551.053885162</v>
       </c>
       <c r="E78">
-        <v>10982336.910422588</v>
+        <v>11213016.726298796</v>
       </c>
       <c r="F78">
-        <v>52.819200588146131</v>
+        <v>53.836414580228897</v>
       </c>
       <c r="G78">
-        <v>5.068446549889372</v>
+        <v>5.1749073447496396</v>
       </c>
       <c r="H78">
-        <v>2.5912432986309413</v>
+        <v>2.6456713800032552</v>
       </c>
       <c r="I78" t="s">
         <v>21</v>
@@ -3780,22 +3780,22 @@
         <v>1825199</v>
       </c>
       <c r="C79">
-        <v>11556152.712616794</v>
+        <v>11376235.09683034</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>49770303.140535772</v>
+        <v>49552756.608433291</v>
       </c>
       <c r="F79">
-        <v>6.3314480846290149</v>
+        <v>6.2328738383213773</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27.268425602104632</v>
+        <v>27.149235019542139</v>
       </c>
       <c r="I79" t="s">
         <v>27</v>
@@ -3821,22 +3821,22 @@
         <v>8749914</v>
       </c>
       <c r="C80">
-        <v>133966424.99334078</v>
+        <v>134761986.27761382</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>353976124.77625465</v>
+        <v>353497396.32072175</v>
       </c>
       <c r="F80">
-        <v>15.310599051983914</v>
+        <v>15.401521235250291</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>40.454811873151513</v>
+        <v>40.400099511917688</v>
       </c>
       <c r="I80" t="s">
         <v>27</v>
@@ -3862,22 +3862,22 @@
         <v>992174</v>
       </c>
       <c r="C81">
-        <v>11425581.373474207</v>
+        <v>11382005.128420226</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>45224692.321219809</v>
+        <v>45156352.700389773</v>
       </c>
       <c r="F81">
-        <v>11.515703267243655</v>
+        <v>11.471783304561725</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>45.581412455093371</v>
+        <v>45.512533789828971</v>
       </c>
       <c r="I81" t="s">
         <v>27</v>
@@ -3903,22 +3903,22 @@
         <v>1769518</v>
       </c>
       <c r="C82">
-        <v>23253798.271765124</v>
+        <v>22723087.758065283</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>96505273.688816547</v>
+        <v>95414446.284000233</v>
       </c>
       <c r="F82">
-        <v>13.141317732718811</v>
+        <v>12.841399611682551</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>54.537604979896528</v>
+        <v>53.921150439837419</v>
       </c>
       <c r="I82" t="s">
         <v>27</v>
@@ -3944,22 +3944,22 @@
         <v>16149545</v>
       </c>
       <c r="C83">
-        <v>778409668.9835875</v>
+        <v>778641071.03260207</v>
       </c>
       <c r="D83">
-        <v>73985705.464406312</v>
+        <v>74003060.032374591</v>
       </c>
       <c r="E83">
-        <v>37825191.91867774</v>
+        <v>37834064.441551566</v>
       </c>
       <c r="F83">
-        <v>48.200099072982397</v>
+        <v>48.214427776918917</v>
       </c>
       <c r="G83">
-        <v>4.5812873034135828</v>
+        <v>4.5823619199410626</v>
       </c>
       <c r="H83">
-        <v>2.3421831338701953</v>
+        <v>2.3427325315698719</v>
       </c>
       <c r="I83" t="s">
         <v>27</v>
@@ -3985,22 +3985,22 @@
         <v>1806150</v>
       </c>
       <c r="C84">
-        <v>20034754.876330584</v>
+        <v>20305831.219400261</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>74542564.85410513</v>
+        <v>74840745.683510482</v>
       </c>
       <c r="F84">
-        <v>11.092519932636041</v>
+        <v>11.242605109985472</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>41.271524986355026</v>
+        <v>41.436616938521432</v>
       </c>
       <c r="I84" t="s">
         <v>27</v>
@@ -4026,22 +4026,22 @@
         <v>5446539</v>
       </c>
       <c r="C85">
-        <v>154016426.45611709</v>
+        <v>154607684.13689339</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>289413143.25677514</v>
+        <v>288198798.20468724</v>
       </c>
       <c r="F85">
-        <v>28.277852496074498</v>
+        <v>28.386409082335295</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>53.137073517104191</v>
+        <v>52.914116323170958</v>
       </c>
       <c r="I85" t="s">
         <v>27</v>
@@ -4067,22 +4067,22 @@
         <v>2101351</v>
       </c>
       <c r="C86">
-        <v>26340520.839925326</v>
+        <v>26012828.757789001</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>98370759.223627463</v>
+        <v>98965203.137587681</v>
       </c>
       <c r="F86">
-        <v>12.535040952189961</v>
+        <v>12.379097427221344</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>46.813102248804441</v>
+        <v>47.095988788920877</v>
       </c>
       <c r="I86" t="s">
         <v>27</v>
@@ -4108,22 +4108,22 @@
         <v>1738999</v>
       </c>
       <c r="C87">
-        <v>58852158.95339331</v>
+        <v>59159829.722179323</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>31010458.829312366</v>
+        <v>31166999.350200884</v>
       </c>
       <c r="F87">
-        <v>33.84254904884552</v>
+        <v>34.019473111933543</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>17.832361507575545</v>
+        <v>17.922379110166759</v>
       </c>
       <c r="I87" t="s">
         <v>27</v>
@@ -4149,22 +4149,22 @@
         <v>205407</v>
       </c>
       <c r="C88">
-        <v>3705077.1069209138</v>
+        <v>3759673.4112314214</v>
       </c>
       <c r="D88">
-        <v>215274.38882346722</v>
+        <v>219496.86674069721</v>
       </c>
       <c r="E88">
-        <v>4092500.9235583292</v>
+        <v>4103292.8693771143</v>
       </c>
       <c r="F88">
-        <v>18.037735359169424</v>
+        <v>18.303531093056328</v>
       </c>
       <c r="G88">
-        <v>1.0480382305543006</v>
+        <v>1.0685948713563667</v>
       </c>
       <c r="H88">
-        <v>19.923862982071348</v>
+        <v>19.976402310423278</v>
       </c>
       <c r="I88" t="s">
         <v>27</v>
@@ -4190,22 +4190,22 @@
         <v>500876</v>
       </c>
       <c r="C89">
-        <v>6934108.2950850269</v>
+        <v>7034239.453791745</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>29240593.56767115</v>
+        <v>29257104.525180005</v>
       </c>
       <c r="F89">
-        <v>13.843961968800715</v>
+        <v>14.043874040264946</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>58.378907289770623</v>
+        <v>58.411871451576843</v>
       </c>
       <c r="I89" t="s">
         <v>27</v>
@@ -4231,7 +4231,7 @@
         <v>869762</v>
       </c>
       <c r="C90">
-        <v>11200145.762846697</v>
+        <v>11291203.858479597</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>47302284.415616989</v>
       </c>
       <c r="F90">
-        <v>12.877253504805564</v>
+        <v>12.981946622730812</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -4272,22 +4272,22 @@
         <v>285146</v>
       </c>
       <c r="C91">
-        <v>7654173.1530901156</v>
+        <v>7641725.9169278359</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>5668382.3596347496</v>
+        <v>5610991.5186483758</v>
       </c>
       <c r="F91">
-        <v>26.842996756363814</v>
+        <v>26.7993446056681</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>19.878877345762344</v>
+        <v>19.677609079728896</v>
       </c>
       <c r="I91" t="s">
         <v>27</v>
@@ -4313,22 +4313,22 @@
         <v>6959580</v>
       </c>
       <c r="C92">
-        <v>288528755.63449955</v>
+        <v>292981062.93374437</v>
       </c>
       <c r="D92">
-        <v>5420865.2847794723</v>
+        <v>5498616.3154760431</v>
       </c>
       <c r="E92">
-        <v>95504707.133259952</v>
+        <v>96861980.810737431</v>
       </c>
       <c r="F92">
-        <v>41.457782744720163</v>
+        <v>42.097520674199359</v>
       </c>
       <c r="G92">
-        <v>0.77890695771576335</v>
+        <v>0.7900787569761456</v>
       </c>
       <c r="H92">
-        <v>13.72276877818201</v>
+        <v>13.917791132616829</v>
       </c>
       <c r="I92" t="s">
         <v>28</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>15017325.397101756</v>
+        <v>15272577.386854194</v>
       </c>
       <c r="F93">
         <v>59.122830062971573</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>4.9561851953641698</v>
+        <v>5.0404263035006718</v>
       </c>
       <c r="I93" t="s">
         <v>28</v>
@@ -4395,22 +4395,22 @@
         <v>296202</v>
       </c>
       <c r="C94">
-        <v>8315242.1948685385</v>
+        <v>8726362.622366026</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>2057201.2914539615</v>
+        <v>2158912.9980489742</v>
       </c>
       <c r="F94">
-        <v>28.072876600659477</v>
+        <v>29.460849765923342</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>6.9452646891444401</v>
+        <v>7.2886509815901794</v>
       </c>
       <c r="I94" t="s">
         <v>28</v>
@@ -4436,22 +4436,22 @@
         <v>1615868</v>
       </c>
       <c r="C95">
-        <v>4159329.9135070657</v>
+        <v>4083493.8041881709</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>15468698.279084645</v>
+        <v>15449549.02685675</v>
       </c>
       <c r="F95">
-        <v>2.5740530250658256</v>
+        <v>2.5271209060320343</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>9.5729962342744859</v>
+        <v>9.5611454814729608</v>
       </c>
       <c r="I95" t="s">
         <v>29</v>
@@ -4477,22 +4477,22 @@
         <v>1079076</v>
       </c>
       <c r="C96">
-        <v>45088738.158648431</v>
+        <v>45948964.887074411</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>25463066.566088885</v>
+        <v>25948864.38040714</v>
       </c>
       <c r="F96">
-        <v>41.784580658497113</v>
+        <v>42.581768927373432</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>23.597102118932202</v>
+        <v>24.047300079333745</v>
       </c>
       <c r="I96" t="s">
         <v>30</v>
@@ -4518,22 +4518,22 @@
         <v>3480059</v>
       </c>
       <c r="C97">
-        <v>117864304.3202337</v>
+        <v>119416225.38193396</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>89706687.804024994</v>
+        <v>89048860.972690493</v>
       </c>
       <c r="F97">
-        <v>33.868478758616938</v>
+        <v>34.314425526099974</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>25.777346822000716</v>
+        <v>25.588319328117855</v>
       </c>
       <c r="I97" t="s">
         <v>30</v>
@@ -4559,22 +4559,22 @@
         <v>1420063</v>
       </c>
       <c r="C98">
-        <v>19784130.951506004</v>
+        <v>19982700.397992559</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>82514721.833518088</v>
+        <v>83229181.046643287</v>
       </c>
       <c r="F98">
-        <v>13.931868481543427</v>
+        <v>14.071699916125242</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>58.106381078528266</v>
+        <v>58.609499048030465</v>
       </c>
       <c r="I98" t="s">
         <v>30</v>
@@ -4600,22 +4600,22 @@
         <v>2037047</v>
       </c>
       <c r="C99">
-        <v>23201240.721173443</v>
+        <v>23328711.01638424</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>89835867.417090803</v>
+        <v>90306202.411409259</v>
       </c>
       <c r="F99">
-        <v>11.389644284679461</v>
+        <v>11.452220305365678</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>44.101028310633382</v>
+        <v>44.331918905852078</v>
       </c>
       <c r="I99" t="s">
         <v>30</v>
@@ -4641,7 +4641,7 @@
         <v>233500</v>
       </c>
       <c r="C100">
-        <v>2273776.1781345829</v>
+        <v>2296970.4967858535</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -4650,7 +4650,7 @@
         <v>8842529.3793622628</v>
       </c>
       <c r="F100">
-        <v>9.7377994780924322</v>
+        <v>9.8371327485475533</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -4682,22 +4682,22 @@
         <v>16042082</v>
       </c>
       <c r="C101">
-        <v>197679135.03736773</v>
+        <v>200524613.89287922</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>811083798.04476988</v>
+        <v>822720954.60674024</v>
       </c>
       <c r="F101">
-        <v>12.322536129497887</v>
+        <v>12.49991203715822</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>50.559758891942451</v>
+        <v>51.285173246635956</v>
       </c>
       <c r="I101" t="s">
         <v>30</v>
@@ -4723,22 +4723,22 @@
         <v>2119428</v>
       </c>
       <c r="C102">
-        <v>26936812.089650363</v>
+        <v>27277017.605313107</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>116266842.59957004</v>
+        <v>116619422.58091334</v>
       </c>
       <c r="F102">
-        <v>12.709472598102112</v>
+        <v>12.869990207411201</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>54.857651498220292</v>
+        <v>55.024007694959835</v>
       </c>
       <c r="I102" t="s">
         <v>30</v>
@@ -4764,22 +4764,22 @@
         <v>4495381</v>
       </c>
       <c r="C103">
-        <v>123987685.88573627</v>
+        <v>124371013.77310467</v>
       </c>
       <c r="D103">
-        <v>7574562.7306931242</v>
+        <v>7629267.8448112179</v>
       </c>
       <c r="E103">
-        <v>137630079.6836139</v>
+        <v>136502561.68168008</v>
       </c>
       <c r="F103">
-        <v>27.581129582951093</v>
+        <v>27.666401084380759</v>
       </c>
       <c r="G103">
-        <v>1.684965686043769</v>
+        <v>1.6971348690603127</v>
       </c>
       <c r="H103">
-        <v>30.615887659714247</v>
+        <v>30.365070654006875</v>
       </c>
       <c r="I103" t="s">
         <v>30</v>
@@ -4805,22 +4805,22 @@
         <v>201976</v>
       </c>
       <c r="C104">
-        <v>12341828.783343866</v>
+        <v>12365016.179837154</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1052099.6258703377</v>
+        <v>1044177.2319425466</v>
       </c>
       <c r="F104">
-        <v>61.105422343960996</v>
+        <v>61.220225075440418</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>5.2090328844532898</v>
+        <v>5.1698084522049479</v>
       </c>
       <c r="I104" t="s">
         <v>30</v>
@@ -4846,22 +4846,22 @@
         <v>6594728</v>
       </c>
       <c r="C105">
-        <v>78423410.168904766</v>
+        <v>78108017.389793307</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>331195364.77059478</v>
+        <v>332024953.82136822</v>
       </c>
       <c r="F105">
-        <v>11.891833926873826</v>
+        <v>11.844008940140261</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>50.221231985700513</v>
+        <v>50.347027780579914</v>
       </c>
       <c r="I105" t="s">
         <v>30</v>
@@ -4887,22 +4887,22 @@
         <v>7672769</v>
       </c>
       <c r="C106">
-        <v>91275115.998417646</v>
+        <v>92268165.667989105</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>390470529.66846478</v>
+        <v>390904984.41659307</v>
       </c>
       <c r="F106">
-        <v>11.89598122899538</v>
+        <v>12.025406429932806</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>50.890432081099377</v>
+        <v>50.947055022325458</v>
       </c>
       <c r="I106" t="s">
         <v>30</v>
@@ -4928,22 +4928,22 @@
         <v>423587</v>
       </c>
       <c r="C107">
-        <v>4675918.2111610882</v>
+        <v>4643642.4501766823</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>19328776.550979428</v>
+        <v>19206233.42484767</v>
       </c>
       <c r="F107">
-        <v>11.038861464495106</v>
+        <v>10.962665167195127</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>45.631184505141633</v>
+        <v>45.341885905015189</v>
       </c>
       <c r="I107" t="s">
         <v>11</v>
@@ -4969,22 +4969,22 @@
         <v>969633</v>
       </c>
       <c r="C108">
-        <v>40326382.095970005</v>
+        <v>39976148.291942991</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>29656166.969440199</v>
+        <v>29508331.466810696</v>
       </c>
       <c r="F108">
-        <v>41.589325132261386</v>
+        <v>41.228122693785167</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>30.584939837485109</v>
+        <v>30.432474417445256</v>
       </c>
       <c r="I108" t="s">
         <v>11</v>
@@ -5010,22 +5010,22 @@
         <v>3095082</v>
       </c>
       <c r="C109">
-        <v>42722407.280221708</v>
+        <v>42461695.694286987</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>179707276.90311819</v>
+        <v>178997610.47182286</v>
       </c>
       <c r="F109">
-        <v>13.803320002578836</v>
+        <v>13.719085857591814</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>58.062202197912107</v>
+        <v>57.832913787687325</v>
       </c>
       <c r="I109" t="s">
         <v>11</v>
@@ -5051,22 +5051,22 @@
         <v>134547</v>
       </c>
       <c r="C110">
-        <v>7753833.3783941073</v>
+        <v>7793573.1609217105</v>
       </c>
       <c r="D110">
-        <v>62597.699464275691</v>
+        <v>63999.817190400427</v>
       </c>
       <c r="E110">
-        <v>1098070.4623460746</v>
+        <v>1108460.4045769018</v>
       </c>
       <c r="F110">
-        <v>57.629180720447927</v>
+        <v>57.924540576316907</v>
       </c>
       <c r="G110">
-        <v>0.46524782763105599</v>
+        <v>0.47566885319182461</v>
       </c>
       <c r="H110">
-        <v>8.1612407734551837</v>
+        <v>8.2384624300571687</v>
       </c>
       <c r="I110" t="s">
         <v>31</v>
@@ -5092,22 +5092,22 @@
         <v>265550</v>
       </c>
       <c r="C111">
-        <v>7559204.779965288</v>
+        <v>7397010.2183843832</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>750119.80806671921</v>
+        <v>739313.07924515929</v>
       </c>
       <c r="F111">
-        <v>28.466220222049664</v>
+        <v>27.855432944396096</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>2.8247780382855177</v>
+        <v>2.7840823921866287</v>
       </c>
       <c r="I111" t="s">
         <v>31</v>
@@ -5133,22 +5133,22 @@
         <v>10172252</v>
       </c>
       <c r="C112">
-        <v>246093531.5414108</v>
+        <v>244950521.87621167</v>
       </c>
       <c r="D112">
-        <v>4915173.4877407271</v>
+        <v>4967925.9005899392</v>
       </c>
       <c r="E112">
-        <v>82736313.631112605</v>
+        <v>84989333.316110313</v>
       </c>
       <c r="F112">
-        <v>24.192630259396918</v>
+        <v>24.080264810212299</v>
       </c>
       <c r="G112">
-        <v>0.48319423149767887</v>
+        <v>0.48838014439574828</v>
       </c>
       <c r="H112">
-        <v>8.1335296875374894</v>
+        <v>8.3550165013716047</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -5174,22 +5174,22 @@
         <v>9007455</v>
       </c>
       <c r="C113">
-        <v>146817366.85615408</v>
+        <v>149935789.14087537</v>
       </c>
       <c r="D113">
-        <v>2625423.2724945256</v>
+        <v>2783523.0374058629</v>
       </c>
       <c r="E113">
-        <v>42520605.067290261</v>
+        <v>43159192.036465332</v>
       </c>
       <c r="F113">
-        <v>16.299539310066393</v>
+        <v>16.645743902231583</v>
       </c>
       <c r="G113">
-        <v>0.29147226075451121</v>
+        <v>0.30902436230942737</v>
       </c>
       <c r="H113">
-        <v>4.7206014426150631</v>
+        <v>4.7914968252925307</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -5215,22 +5215,22 @@
         <v>531521</v>
       </c>
       <c r="C114">
-        <v>20970805.752237447</v>
+        <v>20898607.334094033</v>
       </c>
       <c r="D114">
-        <v>1507607.4571957646</v>
+        <v>1493102.0048894761</v>
       </c>
       <c r="E114">
-        <v>16323758.266226469</v>
+        <v>16641716.175471142</v>
       </c>
       <c r="F114">
-        <v>39.454331535795284</v>
+        <v>39.318497922178111</v>
       </c>
       <c r="G114">
-        <v>2.8364024322571728</v>
+        <v>2.8091119727903058</v>
       </c>
       <c r="H114">
-        <v>30.711407952322617</v>
+        <v>31.309611803618562</v>
       </c>
       <c r="I114" t="s">
         <v>32</v>
@@ -5256,22 +5256,22 @@
         <v>387114</v>
       </c>
       <c r="C115">
-        <v>15935551.255191598</v>
+        <v>15981886.599964198</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>11866167.042984001</v>
+        <v>11738494.6523082</v>
       </c>
       <c r="F115">
-        <v>41.165008899682256</v>
+        <v>41.284703213947822</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>30.652900806956094</v>
+        <v>30.323095140729087</v>
       </c>
       <c r="I115" t="s">
         <v>32</v>
@@ -5338,22 +5338,22 @@
         <v>1438500</v>
       </c>
       <c r="C117">
-        <v>75295314.823191524</v>
+        <v>75365354.635603756</v>
       </c>
       <c r="D117">
-        <v>7239456.227729084</v>
+        <v>7217678.1995562902</v>
       </c>
       <c r="E117">
-        <v>3701171.9964264962</v>
+        <v>3690037.9795231507</v>
       </c>
       <c r="F117">
-        <v>52.342936964331962</v>
+        <v>52.391626441156589</v>
       </c>
       <c r="G117">
-        <v>5.0326424940765273</v>
+        <v>5.0175030931917206</v>
       </c>
       <c r="H117">
-        <v>2.5729384750966258</v>
+        <v>2.5651984563942651</v>
       </c>
       <c r="I117" t="s">
         <v>33</v>
@@ -5379,22 +5379,22 @@
         <v>4871389</v>
       </c>
       <c r="C118">
-        <v>228263793.90783301</v>
+        <v>229118905.5248543</v>
       </c>
       <c r="D118">
-        <v>21859086.098032899</v>
+        <v>21874495.364343647</v>
       </c>
       <c r="E118">
-        <v>11175457.767619319</v>
+        <v>11183335.755020689</v>
       </c>
       <c r="F118">
-        <v>46.858050939441092</v>
+        <v>47.033588474427788</v>
       </c>
       <c r="G118">
-        <v>4.4872388754075887</v>
+        <v>4.4904020936007463</v>
       </c>
       <c r="H118">
-        <v>2.2941008750521297</v>
+        <v>2.2957180703533817</v>
       </c>
       <c r="I118" t="s">
         <v>33</v>
@@ -5420,22 +5420,22 @@
         <v>1656996</v>
       </c>
       <c r="C119">
-        <v>49406137.125811264</v>
+        <v>49280498.899107337</v>
       </c>
       <c r="D119">
-        <v>2797131.6729870588</v>
+        <v>2790548.8961197771</v>
       </c>
       <c r="E119">
-        <v>57206944.114788525</v>
+        <v>56800283.778459564</v>
       </c>
       <c r="F119">
-        <v>29.816690641263627</v>
+        <v>29.740867750499902</v>
       </c>
       <c r="G119">
-        <v>1.6880738836949871</v>
+        <v>1.6841011662790841</v>
       </c>
       <c r="H119">
-        <v>34.524491377642747</v>
+        <v>34.279071149513676</v>
       </c>
       <c r="I119" t="s">
         <v>33</v>
@@ -5461,22 +5461,22 @@
         <v>4082513</v>
       </c>
       <c r="C120">
-        <v>185795907.60991323</v>
+        <v>185723560.66567254</v>
       </c>
       <c r="D120">
-        <v>10832953.202448929</v>
+        <v>10814688.287894975</v>
       </c>
       <c r="E120">
-        <v>5538347.3247520141</v>
+        <v>5529009.3871863084</v>
       </c>
       <c r="F120">
-        <v>45.510181500931715</v>
+        <v>45.492460321785266</v>
       </c>
       <c r="G120">
-        <v>2.6535012141906047</v>
+        <v>2.6490272750864419</v>
       </c>
       <c r="H120">
-        <v>1.3566024957549465</v>
+        <v>1.3543151943879439</v>
       </c>
       <c r="I120" t="s">
         <v>33</v>
@@ -5502,22 +5502,22 @@
         <v>7658910</v>
       </c>
       <c r="C121">
-        <v>264021932.73654303</v>
+        <v>262386231.98365167</v>
       </c>
       <c r="D121">
-        <v>20551058.575101476</v>
+        <v>20494119.999728046</v>
       </c>
       <c r="E121">
-        <v>154409583.33145738</v>
+        <v>153502159.85608864</v>
       </c>
       <c r="F121">
-        <v>34.472520598432808</v>
+        <v>34.258952250862286</v>
       </c>
       <c r="G121">
-        <v>2.6832876447303176</v>
+        <v>2.6758533524650434</v>
       </c>
       <c r="H121">
-        <v>20.16077788242157</v>
+        <v>20.042298428378011</v>
       </c>
       <c r="I121" t="s">
         <v>33</v>
@@ -5543,22 +5543,22 @@
         <v>500630</v>
       </c>
       <c r="C122">
-        <v>8370440.9813960576</v>
+        <v>8075148.8293843679</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>34339122.666525692</v>
+        <v>34003993.943465583</v>
       </c>
       <c r="F122">
-        <v>16.719814995897284</v>
+        <v>16.129973891665237</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>68.591819640304607</v>
+        <v>67.922405655804852</v>
       </c>
       <c r="I122" t="s">
         <v>34</v>
@@ -5584,22 +5584,22 @@
         <v>3581670</v>
       </c>
       <c r="C123">
-        <v>247392322.00358513</v>
+        <v>247448249.41736829</v>
       </c>
       <c r="D123">
-        <v>1939588.844717263</v>
+        <v>1950032.3876464579</v>
       </c>
       <c r="E123">
-        <v>33958824.584000275</v>
+        <v>34272625.469913319</v>
       </c>
       <c r="F123">
-        <v>69.071779924891217</v>
+        <v>69.087394823467349</v>
       </c>
       <c r="G123">
-        <v>0.54153197941665843</v>
+        <v>0.54444781000104925</v>
       </c>
       <c r="H123">
-        <v>9.4812823582296168</v>
+        <v>9.5688953672206871</v>
       </c>
       <c r="I123" t="s">
         <v>34</v>
@@ -5625,22 +5625,22 @@
         <v>4902363</v>
       </c>
       <c r="C124">
-        <v>419512242.44447994</v>
+        <v>397664488.60667229</v>
       </c>
       <c r="D124">
-        <v>3562915.6277759625</v>
+        <v>3386125.0856923116</v>
       </c>
       <c r="E124">
-        <v>64884680.907579958</v>
+        <v>63523774.770715393</v>
       </c>
       <c r="F124">
-        <v>85.57347598382249</v>
+        <v>81.116899871892855</v>
       </c>
       <c r="G124">
-        <v>0.72677515471130194</v>
+        <v>0.69071284311102865</v>
       </c>
       <c r="H124">
-        <v>13.235388915015056</v>
+        <v>12.95778684090007</v>
       </c>
       <c r="I124" t="s">
         <v>34</v>
@@ -5666,22 +5666,22 @@
         <v>8835500</v>
       </c>
       <c r="C125">
-        <v>443645820.27341533</v>
+        <v>448197134.11029601</v>
       </c>
       <c r="D125">
-        <v>45760474.904746845</v>
+        <v>46319660.266164131</v>
       </c>
       <c r="E125">
-        <v>23395042.795051835</v>
+        <v>23680926.311076403</v>
       </c>
       <c r="F125">
-        <v>50.211739038358367</v>
+        <v>50.726855764845908</v>
       </c>
       <c r="G125">
-        <v>5.1791607611054093</v>
+        <v>5.2424492406953913</v>
       </c>
       <c r="H125">
-        <v>2.6478459391151419</v>
+        <v>2.680202174305518</v>
       </c>
       <c r="I125" t="s">
         <v>35</v>
@@ -5707,22 +5707,22 @@
         <v>6233147</v>
       </c>
       <c r="C126">
-        <v>232328197.05186653</v>
+        <v>236506524.20639414</v>
       </c>
       <c r="D126">
-        <v>22398226.277939249</v>
+        <v>22780002.520308524</v>
       </c>
       <c r="E126">
-        <v>11451093.184596434</v>
+        <v>11646276.288507748</v>
       </c>
       <c r="F126">
-        <v>37.273017474458172</v>
+        <v>37.943357377323871</v>
       </c>
       <c r="G126">
-        <v>3.5934057512103035</v>
+        <v>3.654655107654051</v>
       </c>
       <c r="H126">
-        <v>1.8371286903062665</v>
+        <v>1.8684424237881361</v>
       </c>
       <c r="I126" t="s">
         <v>35</v>
@@ -5748,22 +5748,22 @@
         <v>2753681</v>
       </c>
       <c r="C127">
-        <v>31138681.362244371</v>
+        <v>30994020.882316336</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>124401798.54167312</v>
+        <v>123222981.96777812</v>
       </c>
       <c r="F127">
-        <v>11.308020559478157</v>
+        <v>11.255487067062719</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>45.17654679015947</v>
+        <v>44.748459232488486</v>
       </c>
       <c r="I127" t="s">
         <v>35</v>
@@ -5789,22 +5789,22 @@
         <v>5168266</v>
       </c>
       <c r="C128">
-        <v>250682842.46955356</v>
+        <v>251025897.64373457</v>
       </c>
       <c r="D128">
-        <v>21273773.110660743</v>
+        <v>21218033.809216931</v>
       </c>
       <c r="E128">
-        <v>93062679.675988838</v>
+        <v>92645461.624746561</v>
       </c>
       <c r="F128">
-        <v>48.504245421879126</v>
+        <v>48.570622650562989</v>
       </c>
       <c r="G128">
-        <v>4.1162303005806482</v>
+        <v>4.1054453871408576</v>
       </c>
       <c r="H128">
-        <v>18.006557649313876</v>
+        <v>17.925830757307491</v>
       </c>
       <c r="I128" t="s">
         <v>35</v>
@@ -5830,22 +5830,22 @@
         <v>9849064</v>
       </c>
       <c r="C129">
-        <v>386675846.279378</v>
+        <v>388101393.18242913</v>
       </c>
       <c r="D129">
-        <v>37020967.243124314</v>
+        <v>37329324.91932746</v>
       </c>
       <c r="E129">
-        <v>18926969.503047321</v>
+        <v>19084617.365006171</v>
       </c>
       <c r="F129">
-        <v>39.260161806175489</v>
+        <v>39.40490113399904</v>
       </c>
       <c r="G129">
-        <v>3.7588310161376057</v>
+        <v>3.790139339060794</v>
       </c>
       <c r="H129">
-        <v>1.9217023570003526</v>
+        <v>1.9377087370948316</v>
       </c>
       <c r="I129" t="s">
         <v>35</v>
@@ -5871,22 +5871,22 @@
         <v>8843344</v>
       </c>
       <c r="C130">
-        <v>390360300.80528867</v>
+        <v>389201133.35312653</v>
       </c>
       <c r="D130">
-        <v>28664997.534616329</v>
+        <v>28485107.087923147</v>
       </c>
       <c r="E130">
-        <v>75462104.656848311</v>
+        <v>74962438.745117709</v>
       </c>
       <c r="F130">
-        <v>44.141707119534047</v>
+        <v>44.010629163936912</v>
       </c>
       <c r="G130">
-        <v>3.2414206135842196</v>
+        <v>3.2210787104881531</v>
       </c>
       <c r="H130">
-        <v>8.5332092313550518</v>
+        <v>8.4767073117496849</v>
       </c>
       <c r="I130" t="s">
         <v>35</v>
@@ -5912,22 +5912,22 @@
         <v>3681044</v>
       </c>
       <c r="C131">
-        <v>179749359.23982462</v>
+        <v>179191293.87249583</v>
       </c>
       <c r="D131">
-        <v>17584455.280379433</v>
+        <v>17378610.419746924</v>
       </c>
       <c r="E131">
-        <v>8990052.7620939817</v>
+        <v>8884814.577095611</v>
       </c>
       <c r="F131">
-        <v>48.831081410552173</v>
+        <v>48.679476222641142</v>
       </c>
       <c r="G131">
-        <v>4.7770293645985848</v>
+        <v>4.7211091254945403</v>
       </c>
       <c r="H131">
-        <v>2.4422562626510254</v>
+        <v>2.4136670404090825</v>
       </c>
       <c r="I131" t="s">
         <v>35</v>
@@ -5953,22 +5953,22 @@
         <v>4626240</v>
       </c>
       <c r="C132">
-        <v>61306228.095710427</v>
+        <v>61056254.138107009</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>241716191.50842601</v>
+        <v>241838906.27568442</v>
       </c>
       <c r="F132">
-        <v>13.25184774151588</v>
+        <v>13.197813805186719</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>52.248951958485947</v>
+        <v>52.27547776935144</v>
       </c>
       <c r="I132" t="s">
         <v>18</v>
@@ -5994,22 +5994,22 @@
         <v>6322841</v>
       </c>
       <c r="C133">
-        <v>81122041.915146887</v>
+        <v>81462805.231219649</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>339405730.58558935</v>
+        <v>339086783.97266281</v>
       </c>
       <c r="F133">
-        <v>12.829998716581184</v>
+        <v>12.883892736069063</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>53.679308175800934</v>
+        <v>53.628864615235905</v>
       </c>
       <c r="I133" t="s">
         <v>18</v>
@@ -6035,22 +6035,22 @@
         <v>9036684</v>
       </c>
       <c r="C134">
-        <v>431221250.25426364</v>
+        <v>432435992.674528</v>
       </c>
       <c r="D134">
-        <v>29340356.006452471</v>
+        <v>29509182.468298115</v>
       </c>
       <c r="E134">
-        <v>465996663.25184733</v>
+        <v>466797997.27455306</v>
       </c>
       <c r="F134">
-        <v>47.718969729854848</v>
+        <v>47.853393199820644</v>
       </c>
       <c r="G134">
-        <v>3.2468055767416977</v>
+        <v>3.2654879232579246</v>
       </c>
       <c r="H134">
-        <v>51.567219043163107</v>
+        <v>51.655894714759647</v>
       </c>
       <c r="I134" t="s">
         <v>36</v>
@@ -6076,22 +6076,22 @@
         <v>916991</v>
       </c>
       <c r="C135">
-        <v>13845439.218533818</v>
+        <v>13568128.189222993</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>66847843.287640207</v>
+        <v>65943089.633727849</v>
       </c>
       <c r="F135">
-        <v>15.098773290614432</v>
+        <v>14.796359167345146</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>72.89912691361225</v>
+        <v>71.912472023965179</v>
       </c>
       <c r="I135" t="s">
         <v>36</v>
@@ -6117,22 +6117,22 @@
         <v>317344</v>
       </c>
       <c r="C136">
-        <v>5704469.9523493219</v>
+        <v>5609533.3007582668</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>22705230.691757299</v>
+        <v>22642582.02193325</v>
       </c>
       <c r="F136">
-        <v>17.975666634155118</v>
+        <v>17.676506569395567</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>71.547691753293904</v>
+        <v>71.35027611025653</v>
       </c>
       <c r="I136" t="s">
         <v>36</v>
@@ -6158,22 +6158,22 @@
         <v>4850745</v>
       </c>
       <c r="C137">
-        <v>156309144.21216989</v>
+        <v>157811958.33044255</v>
       </c>
       <c r="D137">
-        <v>8113899.3154068431</v>
+        <v>8125436.194874363</v>
       </c>
       <c r="E137">
-        <v>144215106.58432269</v>
+        <v>145699633.61839128</v>
       </c>
       <c r="F137">
-        <v>32.223739696102328</v>
+        <v>32.533550687666029</v>
       </c>
       <c r="G137">
-        <v>1.6727119886547002</v>
+        <v>1.6750903613515786</v>
       </c>
       <c r="H137">
-        <v>29.730506671515961</v>
+        <v>30.036547709350064</v>
       </c>
       <c r="I137" t="s">
         <v>36</v>
@@ -6199,22 +6199,22 @@
         <v>3399679</v>
       </c>
       <c r="C138">
-        <v>168890377.05886006</v>
+        <v>169655444.41020989</v>
       </c>
       <c r="D138">
-        <v>16633178.094932131</v>
+        <v>16512432.488618001</v>
       </c>
       <c r="E138">
-        <v>8503712.3010340557</v>
+        <v>8441981.1098059528</v>
       </c>
       <c r="F138">
-        <v>49.678330530282437</v>
+        <v>49.903371586026182</v>
       </c>
       <c r="G138">
-        <v>4.8925731208540961</v>
+        <v>4.85705635403166</v>
       </c>
       <c r="H138">
-        <v>2.5013280080366576</v>
+        <v>2.4831700609986864</v>
       </c>
       <c r="I138" t="s">
         <v>36</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>5243264.4019799996</v>
+        <v>5284263.7208700003</v>
       </c>
       <c r="F139">
         <v>7.4120636211861282</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>5.5797513043913183</v>
+        <v>5.623381757772469</v>
       </c>
       <c r="I139" t="s">
         <v>16</v>
@@ -6281,22 +6281,22 @@
         <v>3198891</v>
       </c>
       <c r="C140">
-        <v>132668849.85724692</v>
+        <v>135164559.53083163</v>
       </c>
       <c r="D140">
-        <v>5340495.0697210655</v>
+        <v>5440958.1793475961</v>
       </c>
       <c r="E140">
-        <v>2730328.1043948857</v>
+        <v>2781689.8691914491</v>
       </c>
       <c r="F140">
-        <v>41.473388701661584</v>
+        <v>42.253568355668151</v>
       </c>
       <c r="G140">
-        <v>1.6694832895903817</v>
+        <v>1.7008888953539198</v>
       </c>
       <c r="H140">
-        <v>0.85352333180307982</v>
+        <v>0.86957944774968865</v>
       </c>
       <c r="I140" t="s">
         <v>16</v>
@@ -6322,22 +6322,22 @@
         <v>3734928</v>
       </c>
       <c r="C141">
-        <v>178624825.52195227</v>
+        <v>177577603.72973916</v>
       </c>
       <c r="D141">
-        <v>3845973.5059274398</v>
+        <v>3823425.7595214602</v>
       </c>
       <c r="E141">
-        <v>1966253.9549054014</v>
+        <v>1954726.4195553442</v>
       </c>
       <c r="F141">
-        <v>47.82550708392565</v>
+        <v>47.545121011633732</v>
       </c>
       <c r="G141">
-        <v>1.0297316322904859</v>
+        <v>1.0236946360201482</v>
       </c>
       <c r="H141">
-        <v>0.52645029700851032</v>
+        <v>0.5233638826653001</v>
       </c>
       <c r="I141" t="s">
         <v>16</v>
@@ -6363,22 +6363,22 @@
         <v>2487210</v>
       </c>
       <c r="C142">
-        <v>84334226.36844863</v>
+        <v>83629372.658896402</v>
       </c>
       <c r="D142">
-        <v>7990990.5000438318</v>
+        <v>8001631.889671538</v>
       </c>
       <c r="E142">
-        <v>4085393.8931474178</v>
+        <v>4090834.3035945743</v>
       </c>
       <c r="F142">
-        <v>33.907159575769086</v>
+        <v>33.623768261986882</v>
       </c>
       <c r="G142">
-        <v>3.2128330539213947</v>
+        <v>3.2171114982938867</v>
       </c>
       <c r="H142">
-        <v>1.6425608988173166</v>
+        <v>1.6447482535027498</v>
       </c>
       <c r="I142" t="s">
         <v>37</v>
@@ -6404,22 +6404,22 @@
         <v>14438617</v>
       </c>
       <c r="C143">
-        <v>461010856.29684305</v>
+        <v>462742447.13807869</v>
       </c>
       <c r="D143">
-        <v>43183470.642138965</v>
+        <v>43399824.878204048</v>
       </c>
       <c r="E143">
-        <v>22077549.365793552</v>
+        <v>22188160.468981847</v>
       </c>
       <c r="F143">
-        <v>31.929017598904593</v>
+        <v>32.048945348303008</v>
       </c>
       <c r="G143">
-        <v>2.9908315070715545</v>
+        <v>3.005815922550203</v>
       </c>
       <c r="H143">
-        <v>1.5290626079903327</v>
+        <v>1.5367233904037934</v>
       </c>
       <c r="I143" t="s">
         <v>37</v>
@@ -6445,22 +6445,22 @@
         <v>3826403</v>
       </c>
       <c r="C144">
-        <v>179982337.40332341</v>
+        <v>179130082.74204627</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>85631761.671438277</v>
+        <v>85355217.956023648</v>
       </c>
       <c r="F144">
-        <v>47.036952825753957</v>
+        <v>46.814222846377206</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>22.37918004753767</v>
+        <v>22.306907546336245</v>
       </c>
       <c r="I144" t="s">
         <v>37</v>
@@ -6486,22 +6486,22 @@
         <v>3857821</v>
       </c>
       <c r="C145">
-        <v>213422057.30285388</v>
+        <v>214338955.5833056</v>
       </c>
       <c r="D145">
-        <v>20326133.457648393</v>
+        <v>20394247.248429388</v>
       </c>
       <c r="E145">
-        <v>10391735.730222737</v>
+        <v>10426558.905759519</v>
       </c>
       <c r="F145">
-        <v>55.321918073143848</v>
+        <v>55.559590655788746</v>
       </c>
       <c r="G145">
-        <v>5.2688119686342088</v>
+        <v>5.2864679953863565</v>
       </c>
       <c r="H145">
-        <v>2.6936801189642385</v>
+        <v>2.7027067626412733</v>
       </c>
       <c r="I145" t="s">
         <v>37</v>
@@ -6527,22 +6527,22 @@
         <v>15093419</v>
       </c>
       <c r="C146">
-        <v>803833846.30310988</v>
+        <v>797504445.9385184</v>
       </c>
       <c r="D146">
-        <v>10658238.585215442</v>
+        <v>10574315.446749179</v>
       </c>
       <c r="E146">
-        <v>309874373.05383968</v>
+        <v>307434417.36050242</v>
       </c>
       <c r="F146">
-        <v>53.25724054325331</v>
+        <v>52.837892192519028</v>
       </c>
       <c r="G146">
-        <v>0.70615137532559336</v>
+        <v>0.70059112827578551</v>
       </c>
       <c r="H146">
-        <v>20.530429391368497</v>
+        <v>20.368772467027014</v>
       </c>
       <c r="I146" t="s">
         <v>15</v>
@@ -6568,22 +6568,22 @@
         <v>7629351</v>
       </c>
       <c r="C147">
-        <v>722615799.16266012</v>
+        <v>718542359.17441428</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>65010612.678690843</v>
+        <v>64641350.537990436</v>
       </c>
       <c r="F147">
-        <v>94.715238447236217</v>
+        <v>94.181321474711837</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <v>8.5211196442123107</v>
+        <v>8.4727194407480315</v>
       </c>
       <c r="I147" t="s">
         <v>15</v>
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>9642593.6083402373</v>
+        <v>9611078.5878446214</v>
       </c>
       <c r="F148">
         <v>6.3724918355344986</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>24.526874652392603</v>
+        <v>24.446713132706137</v>
       </c>
       <c r="I148" t="s">
         <v>38</v>
@@ -6650,22 +6650,22 @@
         <v>6581975</v>
       </c>
       <c r="C149">
-        <v>338739546.37777621</v>
+        <v>336358425.78877318</v>
       </c>
       <c r="D149">
-        <v>19459358.714998573</v>
+        <v>19217147.336804133</v>
       </c>
       <c r="E149">
-        <v>13604908.268960187</v>
+        <v>13411347.244556721</v>
       </c>
       <c r="F149">
-        <v>51.464726982064839</v>
+        <v>51.102963136258218</v>
       </c>
       <c r="G149">
-        <v>2.9564619608853837</v>
+        <v>2.9196627663891359</v>
       </c>
       <c r="H149">
-        <v>2.0669948258630861</v>
+        <v>2.0375870835967502</v>
       </c>
       <c r="I149" t="s">
         <v>38</v>
@@ -6691,22 +6691,22 @@
         <v>261201</v>
       </c>
       <c r="C150">
-        <v>1542910.3118021849</v>
+        <v>1599603.9500616328</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>5969072.8967045397</v>
+        <v>6017091.0529797925</v>
       </c>
       <c r="F150">
-        <v>5.9069847045079644</v>
+        <v>6.1240345559995282</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>22.852412114442668</v>
+        <v>23.036248149814863</v>
       </c>
       <c r="I150" t="s">
         <v>38</v>
@@ -6732,22 +6732,22 @@
         <v>14072154</v>
       </c>
       <c r="C151">
-        <v>618037157.69943571</v>
+        <v>615001608.01012075</v>
       </c>
       <c r="D151">
-        <v>59084706.826026931</v>
+        <v>59016613.027633734</v>
       </c>
       <c r="E151">
-        <v>30207056.36480628</v>
+        <v>30172243.410377763</v>
       </c>
       <c r="F151">
-        <v>43.919158197063204</v>
+        <v>43.703444974388482</v>
       </c>
       <c r="G151">
-        <v>4.1986967187842694</v>
+        <v>4.1938578150604187</v>
       </c>
       <c r="H151">
-        <v>2.1465836974784587</v>
+        <v>2.1441098079496403</v>
       </c>
       <c r="I151" t="s">
         <v>39</v>
@@ -6773,22 +6773,22 @@
         <v>543145</v>
       </c>
       <c r="C152">
-        <v>2958865.953429942</v>
+        <v>2931695.1610348495</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>13652148.691110604</v>
+        <v>13623175.384898251</v>
       </c>
       <c r="F152">
-        <v>5.4476538556553811</v>
+        <v>5.3976289223593135</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>25.135366598441674</v>
+        <v>25.082023004719275</v>
       </c>
       <c r="I152" t="s">
         <v>39</v>
@@ -6814,22 +6814,22 @@
         <v>7296430</v>
       </c>
       <c r="C153">
-        <v>196384613.95897502</v>
+        <v>195427516.27060866</v>
       </c>
       <c r="D153">
-        <v>12255828.932634398</v>
+        <v>12350429.127256148</v>
       </c>
       <c r="E153">
-        <v>217328648.4176237</v>
+        <v>216655758.59569007</v>
       </c>
       <c r="F153">
-        <v>26.915164533748012</v>
+        <v>26.783991112175222</v>
       </c>
       <c r="G153">
-        <v>1.6797021190684209</v>
+        <v>1.6926673903890186</v>
       </c>
       <c r="H153">
-        <v>29.785614117811544</v>
+        <v>29.693392329631077</v>
       </c>
       <c r="I153" t="s">
         <v>39</v>
@@ -6858,19 +6858,19 @@
         <v>400954470.90730453</v>
       </c>
       <c r="D154">
-        <v>39061174.778188996</v>
+        <v>39003819.144317999</v>
       </c>
       <c r="E154">
-        <v>19970025.605349131</v>
+        <v>19940702.537532568</v>
       </c>
       <c r="F154">
         <v>35.577291205448873</v>
       </c>
       <c r="G154">
-        <v>3.4659565879534564</v>
+        <v>3.4608673365881231</v>
       </c>
       <c r="H154">
-        <v>1.7719703055912053</v>
+        <v>1.769368425830677</v>
       </c>
       <c r="I154" t="s">
         <v>39</v>
@@ -6896,22 +6896,22 @@
         <v>5367819</v>
       </c>
       <c r="C155">
-        <v>242037040.33768719</v>
+        <v>237842206.77842695</v>
       </c>
       <c r="D155">
-        <v>23080911.285624061</v>
+        <v>22783010.136133857</v>
       </c>
       <c r="E155">
-        <v>11800115.894775305</v>
+        <v>11647813.932098432</v>
       </c>
       <c r="F155">
-        <v>45.090387797667397</v>
+        <v>44.308909592224879</v>
       </c>
       <c r="G155">
-        <v>4.2998676530680449</v>
+        <v>4.2443700385824963</v>
       </c>
       <c r="H155">
-        <v>2.1983073376310389</v>
+        <v>2.1699341822253007</v>
       </c>
       <c r="I155" t="s">
         <v>39</v>
@@ -6937,22 +6937,22 @@
         <v>9846148</v>
       </c>
       <c r="C156">
-        <v>647402607.40077043</v>
+        <v>640386679.45984447</v>
       </c>
       <c r="D156">
-        <v>61618861.485414989</v>
+        <v>60977595.325600185</v>
       </c>
       <c r="E156">
-        <v>31502642.934418421</v>
+        <v>31174795.610213075</v>
       </c>
       <c r="F156">
-        <v>65.751866354311389</v>
+        <v>65.039310749731214</v>
       </c>
       <c r="G156">
-        <v>6.2581693354005026</v>
+        <v>6.1930407023741854</v>
       </c>
       <c r="H156">
-        <v>3.1994890727235079</v>
+        <v>3.1661920590888006</v>
       </c>
       <c r="I156" t="s">
         <v>39</v>
@@ -6978,22 +6978,22 @@
         <v>5178344</v>
       </c>
       <c r="C157">
-        <v>299651586.59807289</v>
+        <v>300486360.24360734</v>
       </c>
       <c r="D157">
-        <v>28010400.800984077</v>
+        <v>28233674.357258141</v>
       </c>
       <c r="E157">
-        <v>14320317.409503121</v>
+        <v>14434466.01514823</v>
       </c>
       <c r="F157">
-        <v>57.866295981509317</v>
+        <v>58.02750073065971</v>
       </c>
       <c r="G157">
-        <v>5.4091425368774413</v>
+        <v>5.452259324073129</v>
       </c>
       <c r="H157">
-        <v>2.7654241219785942</v>
+        <v>2.7874675794323882</v>
       </c>
       <c r="I157" t="s">
         <v>40</v>
@@ -7019,22 +7019,22 @@
         <v>3896653</v>
       </c>
       <c r="C158">
-        <v>149308027.73918414</v>
+        <v>148916093.67534554</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>108045012.76949297</v>
+        <v>107659072.36059274</v>
       </c>
       <c r="F158">
-        <v>38.316993517047614</v>
+        <v>38.216411283053823</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>27.727645435580989</v>
+        <v>27.628601356238992</v>
       </c>
       <c r="I158" t="s">
         <v>40</v>
@@ -7060,22 +7060,22 @@
         <v>419820</v>
       </c>
       <c r="C159">
-        <v>20172297.387691133</v>
+        <v>19776651.06747926</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>4990651.5366637073</v>
+        <v>4892768.1435135771</v>
       </c>
       <c r="F159">
-        <v>48.049872296915659</v>
+        <v>47.107453354959887</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>11.887598343727568</v>
+        <v>11.654442721913146</v>
       </c>
       <c r="I159" t="s">
         <v>40</v>
@@ -7101,22 +7101,22 @@
         <v>4404857</v>
       </c>
       <c r="C160">
-        <v>155561683.06325459</v>
+        <v>156937314.86183527</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>96404714.687323064</v>
+        <v>97620818.707505003</v>
       </c>
       <c r="F160">
-        <v>35.315943982575277</v>
+        <v>35.628242837811825</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>21.886003265786623</v>
+        <v>22.16208578564639</v>
       </c>
       <c r="I160" t="s">
         <v>40</v>
@@ -7142,22 +7142,22 @@
         <v>1376677</v>
       </c>
       <c r="C161">
-        <v>90362650.228856564</v>
+        <v>91074167.159792453</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>7758615.9502945719</v>
+        <v>7586202.2625102513</v>
       </c>
       <c r="F161">
-        <v>65.63823629570085</v>
+        <v>66.155072801966227</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>5.6357562088235458</v>
+        <v>5.5105171819608021</v>
       </c>
       <c r="I161" t="s">
         <v>40</v>
@@ -7224,22 +7224,22 @@
         <v>4899321</v>
       </c>
       <c r="C163">
-        <v>27553381.232749283</v>
+        <v>27336758.558836073</v>
       </c>
       <c r="D163">
-        <v>1073283.6002712999</v>
+        <v>1056620.7498561291</v>
       </c>
       <c r="E163">
-        <v>59581027.001086071</v>
+        <v>59630002.578716472</v>
       </c>
       <c r="F163">
-        <v>5.6239183414904401</v>
+        <v>5.5797035056155888</v>
       </c>
       <c r="G163">
-        <v>0.21906782598472319</v>
+        <v>0.21566677297856765</v>
       </c>
       <c r="H163">
-        <v>12.16107844354066</v>
+        <v>12.171074844599174</v>
       </c>
       <c r="I163" t="s">
         <v>41</v>
@@ -7265,22 +7265,22 @@
         <v>214384</v>
       </c>
       <c r="C164">
-        <v>5779051.5441228235</v>
+        <v>5758419.4829580374</v>
       </c>
       <c r="D164">
-        <v>366775.06994343339</v>
+        <v>357804.10596057429</v>
       </c>
       <c r="E164">
-        <v>6515986.8158240328</v>
+        <v>6501469.92614392</v>
       </c>
       <c r="F164">
-        <v>26.956543138120491</v>
+        <v>26.860304327552605</v>
       </c>
       <c r="G164">
-        <v>1.710832291325068</v>
+        <v>1.6689869857852</v>
       </c>
       <c r="H164">
-        <v>30.393997760206137</v>
+        <v>30.326283333382715</v>
       </c>
       <c r="I164" t="s">
         <v>27</v>
@@ -7306,22 +7306,22 @@
         <v>1502812</v>
       </c>
       <c r="C165">
-        <v>72067986.341822192</v>
+        <v>71837635.736061841</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>38814538.647037759</v>
+        <v>38511300.063857779</v>
       </c>
       <c r="F165">
-        <v>47.955423793410084</v>
+        <v>47.802144071288915</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <v>25.827940319240039</v>
+        <v>25.626159535495976</v>
       </c>
       <c r="I165" t="s">
         <v>40</v>
@@ -7347,22 +7347,22 @@
         <v>13572760</v>
       </c>
       <c r="C166">
-        <v>79944232.982752502</v>
+        <v>78456142.812872857</v>
       </c>
       <c r="D166">
-        <v>8688485.5387229156</v>
+        <v>8311293.4308448266</v>
       </c>
       <c r="E166">
-        <v>198874343.11182553</v>
+        <v>198765598.55366945</v>
       </c>
       <c r="F166">
-        <v>5.8900498485755666</v>
+        <v>5.7804118552801977</v>
       </c>
       <c r="G166">
-        <v>0.64014139634996237</v>
+        <v>0.61235102004638897</v>
       </c>
       <c r="H166">
-        <v>14.652461482544856</v>
+        <v>14.644449511644607</v>
       </c>
       <c r="I166" t="s">
         <v>14</v>
@@ -7388,22 +7388,22 @@
         <v>17815891</v>
       </c>
       <c r="C167">
-        <v>958854771.52882051</v>
+        <v>968198760.36451447</v>
       </c>
       <c r="D167">
-        <v>89957494.908491179</v>
+        <v>90316550.25717479</v>
       </c>
       <c r="E167">
-        <v>45990769.271966189</v>
+        <v>46174336.318980671</v>
       </c>
       <c r="F167">
-        <v>53.820197459044877</v>
+        <v>54.344672425561789</v>
       </c>
       <c r="G167">
-        <v>5.0492840862402657</v>
+        <v>5.0694377428092023</v>
       </c>
       <c r="H167">
-        <v>2.5814464890903404</v>
+        <v>2.5917500460112084</v>
       </c>
       <c r="I167" t="s">
         <v>9</v>
@@ -7429,22 +7429,22 @@
         <v>7047532</v>
       </c>
       <c r="C168">
-        <v>349303706.49011648</v>
+        <v>348019962.65094823</v>
       </c>
       <c r="D168">
-        <v>34297586.04191532</v>
+        <v>34148102.158312336</v>
       </c>
       <c r="E168">
-        <v>17534640.863929212</v>
+        <v>17458217.228437182</v>
       </c>
       <c r="F168">
-        <v>49.563975940813961</v>
+        <v>49.381820848908276</v>
       </c>
       <c r="G168">
-        <v>4.8666094800158861</v>
+        <v>4.8453986669819074</v>
       </c>
       <c r="H168">
-        <v>2.4880540966581224</v>
+        <v>2.4772100684945002</v>
       </c>
       <c r="I168" t="s">
         <v>39</v>
@@ -7470,22 +7470,22 @@
         <v>6223129</v>
       </c>
       <c r="C169">
-        <v>78324103.451800674</v>
+        <v>75609244.298973143</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>329261311.28292012</v>
+        <v>329773169.51720536</v>
       </c>
       <c r="F169">
-        <v>12.585968160358025</v>
+        <v>12.149715086891682</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <v>52.909285872576341</v>
+        <v>52.991536816480156</v>
       </c>
       <c r="I169" t="s">
         <v>42</v>
@@ -7511,22 +7511,22 @@
         <v>2129192</v>
       </c>
       <c r="C170">
-        <v>124837046.8386724</v>
+        <v>125319951.13163429</v>
       </c>
       <c r="D170">
-        <v>11704691.20292121</v>
+        <v>11716407.610531742</v>
       </c>
       <c r="E170">
-        <v>5984023.3774934607</v>
+        <v>5990013.3908843659</v>
       </c>
       <c r="F170">
-        <v>58.631183490578771</v>
+        <v>58.857985156638904</v>
       </c>
       <c r="G170">
-        <v>5.4972455292529796</v>
+        <v>5.5027482775305101</v>
       </c>
       <c r="H170">
-        <v>2.810466776830582</v>
+        <v>2.8132800568874794</v>
       </c>
       <c r="I170" t="s">
         <v>23</v>
@@ -7552,22 +7552,22 @@
         <v>4998069</v>
       </c>
       <c r="C171">
-        <v>220399479.22640461</v>
+        <v>222321627.19336408</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>54527106.087197781</v>
+        <v>55002647.891913325</v>
       </c>
       <c r="F171">
-        <v>44.096926078132299</v>
+        <v>44.481504195593153</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <v>10.90963451829052</v>
+        <v>11.00477962427356</v>
       </c>
       <c r="I171" t="s">
         <v>23</v>
@@ -7593,22 +7593,22 @@
         <v>4031692</v>
       </c>
       <c r="C172">
-        <v>174399085.36644071</v>
+        <v>173351498.75908709</v>
       </c>
       <c r="D172">
-        <v>21016509.91450071</v>
+        <v>20899610.054598257</v>
       </c>
       <c r="E172">
-        <v>10744690.69378848</v>
+        <v>10684925.640413355</v>
       </c>
       <c r="F172">
-        <v>43.257045767990391</v>
+        <v>42.997207812275114</v>
       </c>
       <c r="G172">
-        <v>5.2128262561973262</v>
+        <v>5.1838310204743463</v>
       </c>
       <c r="H172">
-        <v>2.665057423480881</v>
+        <v>2.6502336092175085</v>
       </c>
       <c r="I172" t="s">
         <v>26</v>
@@ -7634,22 +7634,22 @@
         <v>5936999</v>
       </c>
       <c r="C173">
-        <v>229215604.87295645</v>
+        <v>228100835.38491631</v>
       </c>
       <c r="D173">
-        <v>21937711.989287205</v>
+        <v>21815012.446634598</v>
       </c>
       <c r="E173">
-        <v>11215655.254523085</v>
+        <v>11152925.113341952</v>
       </c>
       <c r="F173">
-        <v>38.607991153940979</v>
+        <v>38.420224659784566</v>
       </c>
       <c r="G173">
-        <v>3.6950843328906076</v>
+        <v>3.6744174029058447</v>
       </c>
       <c r="H173">
-        <v>1.8891118651903236</v>
+        <v>1.8785458972356155</v>
       </c>
       <c r="I173" t="s">
         <v>35</v>
@@ -7675,22 +7675,22 @@
         <v>8020477</v>
       </c>
       <c r="C174">
-        <v>97430946.634407118</v>
+        <v>99201433.189962819</v>
       </c>
       <c r="D174">
-        <v>1355170.2072768882</v>
+        <v>1363206.5443104678</v>
       </c>
       <c r="E174">
-        <v>39062726.559350863</v>
+        <v>40161580.959375456</v>
       </c>
       <c r="F174">
-        <v>12.147774581786983</v>
+        <v>12.368520374781053</v>
       </c>
       <c r="G174">
-        <v>0.16896379196360617</v>
+        <v>0.16996576940629191</v>
       </c>
       <c r="H174">
-        <v>4.8703744876209809</v>
+        <v>5.0073806033450952</v>
       </c>
       <c r="I174" t="s">
         <v>19</v>
@@ -7722,7 +7722,7 @@
         <v>12534093.81721722</v>
       </c>
       <c r="E175">
-        <v>272888586.39841658</v>
+        <v>274381644.74520826</v>
       </c>
       <c r="F175">
         <v>25.924338237776094</v>
@@ -7731,7 +7731,7 @@
         <v>1.4188202731550685</v>
       </c>
       <c r="H175">
-        <v>30.890135684389062</v>
+        <v>31.059145226069813</v>
       </c>
       <c r="I175" t="s">
         <v>34</v>
@@ -7757,22 +7757,22 @@
         <v>3440952</v>
       </c>
       <c r="C176">
-        <v>112961310.24674776</v>
+        <v>113375405.80399108</v>
       </c>
       <c r="D176">
-        <v>13618427.942519158</v>
+        <v>13665522.604635846</v>
       </c>
       <c r="E176">
-        <v>6962421.2856129147</v>
+        <v>6986498.4316200744</v>
       </c>
       <c r="F176">
-        <v>32.828505090087788</v>
+        <v>32.948848401253805</v>
       </c>
       <c r="G176">
-        <v>3.9577500478121048</v>
+        <v>3.9714365689018174</v>
       </c>
       <c r="H176">
-        <v>2.0233997119439371</v>
+        <v>2.0303969458510536</v>
       </c>
       <c r="I176" t="s">
         <v>35</v>
@@ -7798,22 +7798,22 @@
         <v>5568642</v>
       </c>
       <c r="C177">
-        <v>208937746.47811776</v>
+        <v>240561980.1466144</v>
       </c>
       <c r="D177">
-        <v>16273143.847323583</v>
+        <v>20273645.363956269</v>
       </c>
       <c r="E177">
-        <v>97499014.081012577</v>
+        <v>63902730.117626719</v>
       </c>
       <c r="F177">
-        <v>37.520412782527188</v>
+        <v>43.199397653254493</v>
       </c>
       <c r="G177">
-        <v>2.922282281267782</v>
+        <v>3.6406803245667918</v>
       </c>
       <c r="H177">
-        <v>17.508580023821352</v>
+        <v>11.475460285941656</v>
       </c>
       <c r="I177" t="s">
         <v>26</v>
@@ -7921,22 +7921,22 @@
         <v>245854</v>
       </c>
       <c r="C180">
-        <v>2824363.3430584958</v>
+        <v>2796310.4036084497</v>
       </c>
       <c r="D180">
-        <v>324908.54534607136</v>
+        <v>315050.80416651873</v>
       </c>
       <c r="E180">
-        <v>5010839.9822247569</v>
+        <v>5038177.4576542359</v>
       </c>
       <c r="F180">
-        <v>11.487969864466292</v>
+        <v>11.373865804942973</v>
       </c>
       <c r="G180">
-        <v>1.3215507795117076</v>
+        <v>1.2814548641328543</v>
       </c>
       <c r="H180">
-        <v>20.381364477392097</v>
+        <v>20.492558419445018</v>
       </c>
       <c r="I180" t="s">
         <v>29</v>
@@ -7962,22 +7962,22 @@
         <v>1204962</v>
       </c>
       <c r="C181">
-        <v>17578859.258300398</v>
+        <v>17235024.05778183</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>74383774.063620001</v>
+        <v>73714320.097047418</v>
       </c>
       <c r="F181">
-        <v>14.588725004025353</v>
+        <v>14.303375590086517</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>61.731219792507979</v>
+        <v>61.175638814375404</v>
       </c>
       <c r="I181" t="s">
         <v>13</v>
@@ -8003,22 +8003,22 @@
         <v>9406012</v>
       </c>
       <c r="C182">
-        <v>502547046.18258852</v>
+        <v>508019284.529948</v>
       </c>
       <c r="D182">
-        <v>20229692.390707009</v>
+        <v>20449973.654514279</v>
       </c>
       <c r="E182">
-        <v>10342430.234748922</v>
+        <v>10455049.030870391</v>
       </c>
       <c r="F182">
-        <v>53.428280357561583</v>
+        <v>54.010061281013463</v>
       </c>
       <c r="G182">
-        <v>2.1507193899717549</v>
+        <v>2.1741385886509903</v>
       </c>
       <c r="H182">
-        <v>1.0995552881230559</v>
+        <v>1.1115283534478151</v>
       </c>
       <c r="I182" t="s">
         <v>30</v>
@@ -8044,22 +8044,22 @@
         <v>11346108</v>
       </c>
       <c r="C183">
-        <v>494585355.89059889</v>
+        <v>497118335.60861927</v>
       </c>
       <c r="D183">
-        <v>38418629.318849869</v>
+        <v>38632143.521256544</v>
       </c>
       <c r="E183">
-        <v>267184683.74906558</v>
+        <v>268899495.50404453</v>
       </c>
       <c r="F183">
-        <v>43.590749875692957</v>
+        <v>43.813996447823278</v>
       </c>
       <c r="G183">
-        <v>3.3860623677167423</v>
+        <v>3.4048806446454187</v>
       </c>
       <c r="H183">
-        <v>23.548575753823741</v>
+        <v>23.699712315804199</v>
       </c>
       <c r="I183" t="s">
         <v>13</v>
@@ -8085,22 +8085,22 @@
         <v>8278514</v>
       </c>
       <c r="C184">
-        <v>319404904.70066077</v>
+        <v>319503602.80728805</v>
       </c>
       <c r="D184">
-        <v>2817089.7094343682</v>
+        <v>2831248.5881579481</v>
       </c>
       <c r="E184">
-        <v>1440237.113948321</v>
+        <v>1447475.8406957509</v>
       </c>
       <c r="F184">
-        <v>38.582395910746875</v>
+        <v>38.594318111594433</v>
       </c>
       <c r="G184">
-        <v>0.34028929702050009</v>
+        <v>0.34199961347627705</v>
       </c>
       <c r="H184">
-        <v>0.17397290310173069</v>
+        <v>0.17484730238974663</v>
       </c>
       <c r="I184" t="s">
         <v>26</v>
@@ -8126,22 +8126,22 @@
         <v>2439887</v>
       </c>
       <c r="C185">
-        <v>90148394.355987251</v>
+        <v>90204790.632341161</v>
       </c>
       <c r="D185">
-        <v>697096.93004190049</v>
+        <v>700924.06582730927</v>
       </c>
       <c r="E185">
-        <v>12850385.762783406</v>
+        <v>12674190.246301072</v>
       </c>
       <c r="F185">
-        <v>36.947774366594537</v>
+        <v>36.970888665065701</v>
       </c>
       <c r="G185">
-        <v>0.2857086947231165</v>
+        <v>0.28727726563865835</v>
       </c>
       <c r="H185">
-        <v>5.2667954551925584</v>
+        <v>5.1945808335800274</v>
       </c>
       <c r="I185" t="s">
         <v>29</v>
@@ -8167,22 +8167,22 @@
         <v>14844275</v>
       </c>
       <c r="C186">
-        <v>170171858.31872311</v>
+        <v>168162391.66971862</v>
       </c>
       <c r="D186">
-        <v>21271482.289840393</v>
+        <v>21020298.958714828</v>
       </c>
       <c r="E186">
-        <v>354429726.11987913</v>
+        <v>355087343.81359094</v>
       </c>
       <c r="F186">
-        <v>11.463803945879683</v>
+        <v>11.328434138394675</v>
       </c>
       <c r="G186">
-        <v>1.4329754932349605</v>
+        <v>1.4160542672993344</v>
       </c>
       <c r="H186">
-        <v>23.876526547768695</v>
+        <v>23.920827646590414</v>
       </c>
       <c r="I186" t="s">
         <v>43</v>
@@ -8208,22 +8208,22 @@
         <v>8797020</v>
       </c>
       <c r="C187">
-        <v>319496852.80937815</v>
+        <v>317737438.48003256</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>237162028.85172001</v>
+        <v>233397552.20328003</v>
       </c>
       <c r="F187">
-        <v>36.318759399134954</v>
+        <v>36.11875822494806</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>26.959359970958349</v>
+        <v>26.53143362221298</v>
       </c>
       <c r="I187" t="s">
         <v>11</v>
@@ -8249,22 +8249,22 @@
         <v>614883</v>
       </c>
       <c r="C188">
-        <v>31554518.284749527</v>
+        <v>30987958.603795961</v>
       </c>
       <c r="D188">
-        <v>2922782.943180494</v>
+        <v>2909020.8746689479</v>
       </c>
       <c r="E188">
-        <v>1494272.7797010276</v>
+        <v>1487236.9221744961</v>
       </c>
       <c r="F188">
-        <v>51.317922734486928</v>
+        <v>50.396512188165815</v>
       </c>
       <c r="G188">
-        <v>4.7533968953125942</v>
+        <v>4.7310152901754448</v>
       </c>
       <c r="H188">
-        <v>2.430174162728564</v>
+        <v>2.4187315671021903</v>
       </c>
       <c r="I188" t="s">
         <v>32</v>
@@ -8290,22 +8290,22 @@
         <v>5372955</v>
       </c>
       <c r="C189">
-        <v>144370165.58964998</v>
+        <v>142856151.03150949</v>
       </c>
       <c r="D189">
-        <v>9562871.1353274565</v>
+        <v>9575345.4009746574</v>
       </c>
       <c r="E189">
-        <v>134724863.60078681</v>
+        <v>133730854.67519762</v>
       </c>
       <c r="F189">
-        <v>26.869788708382998</v>
+        <v>26.588004372176854</v>
       </c>
       <c r="G189">
-        <v>1.77981597376629</v>
+        <v>1.7821376506921531</v>
       </c>
       <c r="H189">
-        <v>25.074630924842438</v>
+        <v>24.889628644795575</v>
       </c>
       <c r="I189" t="s">
         <v>24</v>
@@ -8337,7 +8337,7 @@
         <v>540448.50446506951</v>
       </c>
       <c r="E190">
-        <v>8874989.4847726561</v>
+        <v>9046321.328108035</v>
       </c>
       <c r="F190">
         <v>19.458880133401241</v>
@@ -8346,7 +8346,7 @@
         <v>2.4323600166751556</v>
       </c>
       <c r="H190">
-        <v>39.943064682064779</v>
+        <v>40.714166316853678</v>
       </c>
       <c r="I190" t="s">
         <v>43</v>
@@ -8372,22 +8372,22 @@
         <v>12160150</v>
       </c>
       <c r="C191">
-        <v>263405116.31899521</v>
+        <v>262005420.7447966</v>
       </c>
       <c r="D191">
-        <v>12705485.216627458</v>
+        <v>12673750.714048732</v>
       </c>
       <c r="E191">
-        <v>326022852.74605203</v>
+        <v>323109848.27455437</v>
       </c>
       <c r="F191">
-        <v>21.661337756441753</v>
+        <v>21.546232632393234</v>
       </c>
       <c r="G191">
-        <v>1.0448460929040726</v>
+        <v>1.0422363798184013</v>
       </c>
       <c r="H191">
-        <v>26.810759139159636</v>
+        <v>26.571205805401608</v>
       </c>
       <c r="I191" t="s">
         <v>28</v>
@@ -8413,22 +8413,22 @@
         <v>13610817</v>
       </c>
       <c r="C192">
-        <v>304639741.71669286</v>
+        <v>306627232.84782064</v>
       </c>
       <c r="D192">
-        <v>32620395.005850874</v>
+        <v>32873837.515105724</v>
       </c>
       <c r="E192">
-        <v>253776874.82226631</v>
+        <v>256015267.19981974</v>
       </c>
       <c r="F192">
-        <v>22.382178947574776</v>
+        <v>22.528201859434347</v>
       </c>
       <c r="G192">
-        <v>2.396652236662272</v>
+        <v>2.415272905006784</v>
       </c>
       <c r="H192">
-        <v>18.645234508866462</v>
+        <v>18.809691380011923</v>
       </c>
       <c r="I192" t="s">
         <v>36</v>
@@ -8454,22 +8454,22 @@
         <v>5621453</v>
       </c>
       <c r="C193">
-        <v>69326045.264986455</v>
+        <v>70007086.195575267</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>274290171.48611236</v>
+        <v>274882493.69808012</v>
       </c>
       <c r="F193">
-        <v>12.332406811012465</v>
+        <v>12.453557148939121</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>48.793465227960162</v>
+        <v>48.898833397358324</v>
       </c>
       <c r="I193" t="s">
         <v>18</v>
@@ -8495,22 +8495,22 @@
         <v>8681175</v>
       </c>
       <c r="C194">
-        <v>225186074.8961724</v>
+        <v>223322627.20644116</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>347291640.19403791</v>
+        <v>347690765.29030859</v>
       </c>
       <c r="F194">
-        <v>25.939584779269211</v>
+        <v>25.724930923111348</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
       <c r="H194">
-        <v>40.00514218340696</v>
+        <v>40.051118113654958</v>
       </c>
       <c r="I194" t="s">
         <v>11</v>
@@ -8659,22 +8659,22 @@
         <v>14585886</v>
       </c>
       <c r="C198">
-        <v>402317047.71138555</v>
+        <v>403715604.79897356</v>
       </c>
       <c r="D198">
-        <v>38761318.345077753</v>
+        <v>39052354.608011268</v>
       </c>
       <c r="E198">
-        <v>19816724.003921017</v>
+        <v>19965516.293345775</v>
       </c>
       <c r="F198">
-        <v>27.582626637242711</v>
+        <v>27.678510911094023</v>
       </c>
       <c r="G198">
-        <v>2.6574538115187347</v>
+        <v>2.6774070912120984</v>
       </c>
       <c r="H198">
-        <v>1.3586232611389544</v>
+        <v>1.3688243753821863</v>
       </c>
       <c r="I198" t="s">
         <v>24</v>
@@ -8700,22 +8700,22 @@
         <v>93260</v>
       </c>
       <c r="C199">
-        <v>6278453.5068146521</v>
+        <v>6386507.2007386023</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>1553297.2293366804</v>
+        <v>1580029.8479997781</v>
       </c>
       <c r="F199">
-        <v>67.322040604917987</v>
+        <v>68.480669105067577</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
       <c r="H199">
-        <v>16.655556823254134</v>
+        <v>16.942202959465774</v>
       </c>
       <c r="I199" t="s">
         <v>22</v>
@@ -8741,22 +8741,22 @@
         <v>2184313</v>
       </c>
       <c r="C200">
-        <v>69479121.89214021</v>
+        <v>69099992.636038795</v>
       </c>
       <c r="D200">
         <v>4220247.8022358669</v>
       </c>
       <c r="E200">
-        <v>74978586.493861213</v>
+        <v>73578441.880933031</v>
       </c>
       <c r="F200">
-        <v>31.808226152634816</v>
+        <v>31.634657045963099</v>
       </c>
       <c r="G200">
         <v>1.9320710000058905</v>
       </c>
       <c r="H200">
-        <v>34.325935199699501</v>
+        <v>33.684935208888575</v>
       </c>
       <c r="I200" t="s">
         <v>15</v>
@@ -8785,19 +8785,19 @@
         <v>108799115.31307428</v>
       </c>
       <c r="D201">
-        <v>7162589.7215714846</v>
+        <v>7265911.697896136</v>
       </c>
       <c r="E201">
-        <v>3661873.9951534211</v>
+        <v>3714697.3555494011</v>
       </c>
       <c r="F201">
         <v>44.237119112694685</v>
       </c>
       <c r="G201">
-        <v>2.9122694036322243</v>
+        <v>2.9542795482963635</v>
       </c>
       <c r="H201">
-        <v>1.4888977326069743</v>
+        <v>1.5103754190665164</v>
       </c>
       <c r="I201" t="s">
         <v>24</v>
@@ -8823,7 +8823,7 @@
         <v>3041196</v>
       </c>
       <c r="C202">
-        <v>5796345.3553269589</v>
+        <v>5735259.7485378003</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -8832,7 +8832,7 @@
         <v>209523631.28681877</v>
       </c>
       <c r="F202">
-        <v>1.9059427131059488</v>
+        <v>1.8858566657781348</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>439562011.91620314</v>
+        <v>441867747.27720964</v>
       </c>
       <c r="F203">
         <v>1.9826048037774777</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>71.701543758066819</v>
+        <v>72.077656298277063</v>
       </c>
       <c r="I203" t="s">
         <v>15</v>
@@ -8905,22 +8905,22 @@
         <v>9975515</v>
       </c>
       <c r="C204">
-        <v>1782253419.576663</v>
+        <v>1778673153.4068475</v>
       </c>
       <c r="D204">
-        <v>13382911.318424176</v>
+        <v>13405327.390898889</v>
       </c>
       <c r="E204">
-        <v>227574915.42113206</v>
+        <v>226747344.33036315</v>
       </c>
       <c r="F204">
-        <v>178.66279781812398</v>
+        <v>178.30389242127825</v>
       </c>
       <c r="G204">
-        <v>1.3415759806309926</v>
+        <v>1.3438230899255716</v>
       </c>
       <c r="H204">
-        <v>22.813350029660832</v>
+        <v>22.730389792443113</v>
       </c>
       <c r="I204" t="s">
         <v>15</v>
@@ -8946,22 +8946,22 @@
         <v>4778869</v>
       </c>
       <c r="C205">
-        <v>489039735.49966121</v>
+        <v>486912403.99494362</v>
       </c>
       <c r="D205">
-        <v>1758930.9805737212</v>
+        <v>1745305.5819125199</v>
       </c>
       <c r="E205">
-        <v>55477022.597707123</v>
+        <v>55209091.806503251</v>
       </c>
       <c r="F205">
-        <v>102.33378138209297</v>
+        <v>101.88862762192134</v>
       </c>
       <c r="G205">
-        <v>0.3680642806014815</v>
+        <v>0.36521310417015407</v>
       </c>
       <c r="H205">
-        <v>11.608818445893185</v>
+        <v>11.552752713351893</v>
       </c>
       <c r="I205" t="s">
         <v>15</v>
@@ -8987,22 +8987,22 @@
         <v>7465222</v>
       </c>
       <c r="C206">
-        <v>403430152.36999965</v>
+        <v>401184763.65076196</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>99809122.935613155</v>
+        <v>99253610.965573072</v>
       </c>
       <c r="F206">
-        <v>54.041280000782244</v>
+        <v>53.740500101773527</v>
       </c>
       <c r="G206">
         <v>0</v>
       </c>
       <c r="H206">
-        <v>13.369880083353603</v>
+        <v>13.295466761145626</v>
       </c>
       <c r="I206" t="s">
         <v>30</v>
@@ -9028,22 +9028,22 @@
         <v>9630419</v>
       </c>
       <c r="C207">
-        <v>171724167.20755896</v>
+        <v>171133582.1610339</v>
       </c>
       <c r="D207">
-        <v>3370336.4982686974</v>
+        <v>3439274.8259473676</v>
       </c>
       <c r="E207">
-        <v>58065837.499939971</v>
+        <v>58593252.218103752</v>
       </c>
       <c r="F207">
-        <v>17.831432589543503</v>
+        <v>17.770107630938373</v>
       </c>
       <c r="G207">
-        <v>0.34996779457557325</v>
+        <v>0.35712618796205725</v>
       </c>
       <c r="H207">
-        <v>6.0294196441442445</v>
+        <v>6.0841851448108075</v>
       </c>
       <c r="I207" t="s">
         <v>46</v>
@@ -9069,22 +9069,22 @@
         <v>12442473</v>
       </c>
       <c r="C208">
-        <v>623042820.07084465</v>
+        <v>631795623.0835557</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>154141570.86991784</v>
+        <v>156307025.25351995</v>
       </c>
       <c r="F208">
-        <v>50.073873583719624</v>
+        <v>50.777335267961256</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>12.388338786824599</v>
+        <v>12.562376085004963</v>
       </c>
       <c r="I208" t="s">
         <v>24</v>
@@ -9110,22 +9110,22 @@
         <v>6659324</v>
       </c>
       <c r="C209">
-        <v>441988681.40292668</v>
+        <v>446115727.01326728</v>
       </c>
       <c r="D209">
-        <v>41089391.722650066</v>
+        <v>41355517.394465178</v>
       </c>
       <c r="E209">
-        <v>21006951.518204875</v>
+        <v>21143008.26792036</v>
       </c>
       <c r="F209">
-        <v>66.371403674446043</v>
+        <v>66.991143096997121</v>
       </c>
       <c r="G209">
-        <v>6.1702046217679252</v>
+        <v>6.2101674876406641</v>
       </c>
       <c r="H209">
-        <v>3.1545171128788563</v>
+        <v>3.174948128056295</v>
       </c>
       <c r="I209" t="s">
         <v>40</v>
@@ -9151,22 +9151,22 @@
         <v>4935387</v>
       </c>
       <c r="C210">
-        <v>263295055.59276217</v>
+        <v>262323572.49147558</v>
       </c>
       <c r="D210">
-        <v>9058168.6974850707</v>
+        <v>8997198.1430891324</v>
       </c>
       <c r="E210">
-        <v>37976096.786251731</v>
+        <v>38237467.073859856</v>
       </c>
       <c r="F210">
-        <v>53.348411298397103</v>
+        <v>53.151570989564867</v>
       </c>
       <c r="G210">
-        <v>1.8353512495545072</v>
+        <v>1.8229974960604167</v>
       </c>
       <c r="H210">
-        <v>7.6946542968670402</v>
+        <v>7.7476127148407725</v>
       </c>
       <c r="I210" t="s">
         <v>14</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>82372450.507867783</v>
+        <v>84005898.534936011</v>
       </c>
       <c r="F211">
         <v>34.125663568685042</v>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>25.646921949639808</v>
+        <v>26.155501138442869</v>
       </c>
       <c r="I211" t="s">
         <v>15</v>
@@ -9233,22 +9233,22 @@
         <v>8727176</v>
       </c>
       <c r="C212">
-        <v>266776519.8739796</v>
+        <v>271364244.78902578</v>
       </c>
       <c r="D212">
-        <v>16162137.605700657</v>
+        <v>16351941.667045265</v>
       </c>
       <c r="E212">
-        <v>287813070.41635096</v>
+        <v>289855383.64895344</v>
       </c>
       <c r="F212">
-        <v>30.568481702899035</v>
+        <v>31.094164342397331</v>
       </c>
       <c r="G212">
-        <v>1.8519321262342661</v>
+        <v>1.8736807493105749</v>
       </c>
       <c r="H212">
-        <v>32.978946501863945</v>
+        <v>33.212964153461947</v>
       </c>
       <c r="I212" t="s">
         <v>15</v>
@@ -9274,22 +9274,22 @@
         <v>11925993</v>
       </c>
       <c r="C213">
-        <v>2462331178.2981005</v>
+        <v>2374390779.0731683</v>
       </c>
       <c r="D213">
-        <v>99119480.811592773</v>
+        <v>95579499.354035884</v>
       </c>
       <c r="E213">
-        <v>50674834.564926632</v>
+        <v>48865019.044750676</v>
       </c>
       <c r="F213">
-        <v>206.46760217770549</v>
+        <v>199.09375924278743</v>
       </c>
       <c r="G213">
-        <v>8.3112140692680914</v>
+        <v>8.0143849953656598</v>
       </c>
       <c r="H213">
-        <v>4.2491081929132974</v>
+        <v>4.0973543288806793</v>
       </c>
       <c r="I213" t="s">
         <v>15</v>
@@ -9315,22 +9315,22 @@
         <v>3197035</v>
       </c>
       <c r="C214">
-        <v>142972576.3853308</v>
+        <v>143249584.14050022</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>80741231.143249929</v>
+        <v>80897666.36848031</v>
       </c>
       <c r="F214">
-        <v>44.720366334848009</v>
+        <v>44.807011540536848</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214">
-        <v>25.255035100726118</v>
+        <v>25.303966446560739</v>
       </c>
       <c r="I214" t="s">
         <v>15</v>
@@ -9356,22 +9356,22 @@
         <v>2169628</v>
       </c>
       <c r="C215">
-        <v>305066703.04500508</v>
+        <v>303351712.34457284</v>
       </c>
       <c r="D215">
-        <v>18501447.834193397</v>
+        <v>18800789.992363721</v>
       </c>
       <c r="E215">
-        <v>322362999.20638996</v>
+        <v>325047780.60588431</v>
       </c>
       <c r="F215">
-        <v>140.60783832297753</v>
+        <v>139.8173845214815</v>
       </c>
       <c r="G215">
-        <v>8.5274746796194538</v>
+        <v>8.6654440265168589</v>
       </c>
       <c r="H215">
-        <v>148.57984834561037</v>
+        <v>149.8172869293189</v>
       </c>
       <c r="I215" t="s">
         <v>15</v>
@@ -9397,22 +9397,22 @@
         <v>2005494</v>
       </c>
       <c r="C216">
-        <v>92084954.381573409</v>
+        <v>93570633.626900956</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>49707607.097615696</v>
+        <v>50366610.44415389</v>
       </c>
       <c r="F216">
-        <v>45.91634499109616</v>
+        <v>46.657149623434904</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>24.785717183704215</v>
+        <v>25.114316195487941</v>
       </c>
       <c r="I216" t="s">
         <v>10</v>
@@ -9438,22 +9438,22 @@
         <v>5753937</v>
       </c>
       <c r="C217">
-        <v>157042710.20905483</v>
+        <v>161839286.01731399</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>206527375.91516942</v>
+        <v>207326509.88370895</v>
       </c>
       <c r="F217">
-        <v>27.29308822968601</v>
+        <v>28.126704553302197</v>
       </c>
       <c r="G217">
         <v>0</v>
       </c>
       <c r="H217">
-        <v>35.893228569442002</v>
+        <v>36.032113296288948</v>
       </c>
       <c r="I217" t="s">
         <v>15</v>
@@ -9479,22 +9479,22 @@
         <v>6488120</v>
       </c>
       <c r="C218">
-        <v>225267980.9401432</v>
+        <v>227706073.89230275</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>167868924.86709604</v>
+        <v>169628841.01489618</v>
       </c>
       <c r="F218">
-        <v>34.720070057295978</v>
+        <v>35.095848087320014</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
       <c r="H218">
-        <v>25.873276830128919</v>
+        <v>26.14452892592865</v>
       </c>
       <c r="I218" t="s">
         <v>15</v>
@@ -9520,22 +9520,22 @@
         <v>1861832</v>
       </c>
       <c r="C219">
-        <v>88640739.639818981</v>
+        <v>89233598.045237154</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>35558411.585150972</v>
+        <v>35817948.585378416</v>
       </c>
       <c r="F219">
-        <v>47.609418916324877</v>
+        <v>47.92784636059384</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>19.098614474963892</v>
+        <v>19.238013196345545</v>
       </c>
       <c r="I219" t="s">
         <v>30</v>
@@ -9561,22 +9561,22 @@
         <v>10724956</v>
       </c>
       <c r="C220">
-        <v>467215274.30570859</v>
+        <v>455199740.9261564</v>
       </c>
       <c r="D220">
-        <v>5619352.3020850047</v>
+        <v>5533600.5108321989</v>
       </c>
       <c r="E220">
-        <v>206139363.07755354</v>
+        <v>199694838.04444978</v>
       </c>
       <c r="F220">
-        <v>43.563374460996258</v>
+        <v>42.44304041211511</v>
       </c>
       <c r="G220">
-        <v>0.52395108213823949</v>
+        <v>0.5159555443241165</v>
       </c>
       <c r="H220">
-        <v>19.22053228727032</v>
+        <v>18.619641707103487</v>
       </c>
       <c r="I220" t="s">
         <v>41</v>
@@ -9602,22 +9602,22 @@
         <v>5178428</v>
       </c>
       <c r="C221">
-        <v>182953338.44904837</v>
+        <v>183515399.26584983</v>
       </c>
       <c r="D221">
-        <v>18302924.089255627</v>
+        <v>18307025.347578634</v>
       </c>
       <c r="E221">
-        <v>9357369.9406319521</v>
+        <v>9359466.7089495976</v>
       </c>
       <c r="F221">
-        <v>35.329899044468391</v>
+        <v>35.43843793248643</v>
       </c>
       <c r="G221">
-        <v>3.5344556474002586</v>
+        <v>3.5352476364600673</v>
       </c>
       <c r="H221">
-        <v>1.8069904497333849</v>
+        <v>1.8073953541402135</v>
       </c>
       <c r="I221" t="s">
         <v>24</v>
@@ -9684,22 +9684,22 @@
         <v>3910602</v>
       </c>
       <c r="C223">
-        <v>192937237.91925696</v>
+        <v>190169386.20674834</v>
       </c>
       <c r="D223">
-        <v>18504091.660913054</v>
+        <v>18269194.973282594</v>
       </c>
       <c r="E223">
-        <v>9460216.8616418</v>
+        <v>9340125.9300907329</v>
       </c>
       <c r="F223">
-        <v>49.336966001463956</v>
+        <v>48.629184510913753</v>
       </c>
       <c r="G223">
-        <v>4.7317757370637699</v>
+        <v>4.6717091059848572</v>
       </c>
       <c r="H223">
-        <v>2.419120345573853</v>
+        <v>2.3884112804347599</v>
       </c>
       <c r="I223" t="s">
         <v>16</v>
@@ -9725,22 +9725,22 @@
         <v>3855966</v>
       </c>
       <c r="C224">
-        <v>163023671.00715315</v>
+        <v>163736631.554784</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>87920763.258474201</v>
+        <v>88200132.097191274</v>
       </c>
       <c r="F224">
-        <v>42.2782957648364</v>
+        <v>42.463193802742033</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224">
-        <v>22.801228864174167</v>
+        <v>22.873679927984654</v>
       </c>
       <c r="I224" t="s">
         <v>25</v>
@@ -9766,22 +9766,22 @@
         <v>16989297</v>
       </c>
       <c r="C225">
-        <v>1183680225.6487513</v>
+        <v>1185880584.1486757</v>
       </c>
       <c r="D225">
-        <v>26921175.782156438</v>
+        <v>27023842.171313155</v>
       </c>
       <c r="E225">
-        <v>13763451.1186275</v>
+        <v>13815939.31008384</v>
       </c>
       <c r="F225">
-        <v>69.672113310441929</v>
+        <v>69.801627704117223</v>
       </c>
       <c r="G225">
-        <v>1.5845962185578626</v>
+        <v>1.5906392225242254</v>
       </c>
       <c r="H225">
-        <v>0.81012481673770842</v>
+        <v>0.81321430251550963</v>
       </c>
       <c r="I225" t="s">
         <v>22</v>
@@ -9807,22 +9807,22 @@
         <v>7463219</v>
       </c>
       <c r="C226">
-        <v>357250282.88579452</v>
+        <v>355157386.03675103</v>
       </c>
       <c r="D226">
-        <v>34056001.178817973</v>
+        <v>33995874.50745628</v>
       </c>
       <c r="E226">
-        <v>17411130.602670696</v>
+        <v>17380390.841937035</v>
       </c>
       <c r="F226">
-        <v>47.868122707613772</v>
+        <v>47.587694537270181</v>
       </c>
       <c r="G226">
-        <v>4.5631785934216822</v>
+        <v>4.5551221942510702</v>
       </c>
       <c r="H226">
-        <v>2.332925055886836</v>
+        <v>2.3288062218108614</v>
       </c>
       <c r="I226" t="s">
         <v>39</v>
@@ -9848,7 +9848,7 @@
         <v>6662529</v>
       </c>
       <c r="C227">
-        <v>271393030.59180975</v>
+        <v>271177048.28819513</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -9857,7 +9857,7 @@
         <v>206874779.78008285</v>
       </c>
       <c r="F227">
-        <v>40.734236292526418</v>
+        <v>40.701818827084303</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -9889,22 +9889,22 @@
         <v>10860909</v>
       </c>
       <c r="C228">
-        <v>211637343.70194429</v>
+        <v>211528355.14741898</v>
       </c>
       <c r="D228">
-        <v>4256059.8972821301</v>
+        <v>4296568.6130653089</v>
       </c>
       <c r="E228">
-        <v>74988750.442146152</v>
+        <v>74800573.593586922</v>
       </c>
       <c r="F228">
-        <v>19.486153847891028</v>
+        <v>19.476118909330609</v>
       </c>
       <c r="G228">
-        <v>0.3918695845147151</v>
+        <v>0.39559935665286478</v>
       </c>
       <c r="H228">
-        <v>6.9044635621333494</v>
+        <v>6.8871374940704246</v>
       </c>
       <c r="I228" t="s">
         <v>46</v>
@@ -9930,22 +9930,22 @@
         <v>2584028</v>
       </c>
       <c r="C229">
-        <v>33279023.04835853</v>
+        <v>33282566.683109712</v>
       </c>
       <c r="D229">
-        <v>1956561.330005191</v>
+        <v>1957175.7520935605</v>
       </c>
       <c r="E229">
-        <v>37710199.516208299</v>
+        <v>37539713.771757998</v>
       </c>
       <c r="F229">
-        <v>12.878739335780622</v>
+        <v>12.880110696598377</v>
       </c>
       <c r="G229">
-        <v>0.75717497256422572</v>
+        <v>0.75741274943365955</v>
       </c>
       <c r="H229">
-        <v>14.593572328244237</v>
+        <v>14.527595587879851</v>
       </c>
       <c r="I229" t="s">
         <v>26</v>
@@ -9971,22 +9971,22 @@
         <v>5184267</v>
       </c>
       <c r="C230">
-        <v>297579892.69250703</v>
+        <v>298277114.22935003</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>73621636.653655544</v>
+        <v>73794130.131585523</v>
       </c>
       <c r="F230">
-        <v>57.40057228775197</v>
+        <v>57.535060256223304</v>
       </c>
       <c r="G230">
         <v>0</v>
       </c>
       <c r="H230">
-        <v>14.200973185535302</v>
+        <v>14.234245676695572</v>
       </c>
       <c r="I230" t="s">
         <v>42</v>
@@ -10012,22 +10012,22 @@
         <v>4104611</v>
       </c>
       <c r="C231">
-        <v>964240637.01106954</v>
+        <v>999953253.19666481</v>
       </c>
       <c r="D231">
-        <v>20761078.044145767</v>
+        <v>21530006.860595614</v>
       </c>
       <c r="E231">
-        <v>10614101.150069511</v>
+        <v>11007216.007479494</v>
       </c>
       <c r="F231">
-        <v>234.91644811434494</v>
+        <v>243.61705730376516</v>
       </c>
       <c r="G231">
-        <v>5.0579891843942741</v>
+        <v>5.2453221171496187</v>
       </c>
       <c r="H231">
-        <v>2.5858969705215697</v>
+        <v>2.6816709323927395</v>
       </c>
       <c r="I231" t="s">
         <v>15</v>
@@ -10053,22 +10053,22 @@
         <v>3995922</v>
       </c>
       <c r="C232">
-        <v>178308091.65994474</v>
+        <v>178695818.06698671</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>96177410.721518204</v>
+        <v>96387944.987793788</v>
       </c>
       <c r="F232">
-        <v>44.622515569609405</v>
+        <v>44.7195460939895</v>
       </c>
       <c r="G232">
         <v>0</v>
       </c>
       <c r="H232">
-        <v>24.068890914667055</v>
+        <v>24.121578195919188</v>
       </c>
       <c r="I232" t="s">
         <v>25</v>
@@ -10094,22 +10094,22 @@
         <v>5491581</v>
       </c>
       <c r="C233">
-        <v>144450001.85999081</v>
+        <v>143738998.91631711</v>
       </c>
       <c r="D233">
-        <v>11219559.01254572</v>
+        <v>11153837.985372407</v>
       </c>
       <c r="E233">
-        <v>84171040.478121042</v>
+        <v>83580907.276766017</v>
       </c>
       <c r="F233">
-        <v>26.303900800150412</v>
+        <v>26.17442935218785</v>
       </c>
       <c r="G233">
-        <v>2.0430471684831235</v>
+        <v>2.031079571688446</v>
       </c>
       <c r="H233">
-        <v>15.327287438375404</v>
+        <v>15.219825998517734</v>
       </c>
       <c r="I233" t="s">
         <v>24</v>
@@ -10176,22 +10176,22 @@
         <v>1299004</v>
       </c>
       <c r="C235">
-        <v>16351444.481766535</v>
+        <v>16866018.2510316</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>70725127.828311175</v>
+        <v>71367434.740979999</v>
       </c>
       <c r="F235">
-        <v>12.587678314898595</v>
+        <v>12.98380778737525</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
       <c r="H235">
-        <v>54.445658233778474</v>
+        <v>54.940119307546396</v>
       </c>
       <c r="I235" t="s">
         <v>30</v>
@@ -10258,22 +10258,22 @@
         <v>3250811</v>
       </c>
       <c r="C237">
-        <v>117109427.99352476</v>
+        <v>118357753.9853384</v>
       </c>
       <c r="D237">
-        <v>11306255.687766585</v>
+        <v>11282798.533924401</v>
       </c>
       <c r="E237">
-        <v>5780323.2203706801</v>
+        <v>5768330.7504688539</v>
       </c>
       <c r="F237">
-        <v>36.024680608477318</v>
+        <v>36.40868508976326</v>
       </c>
       <c r="G237">
-        <v>3.4779800141461887</v>
+        <v>3.4707642289645264</v>
       </c>
       <c r="H237">
-        <v>1.7781172822322431</v>
+        <v>1.7744282120581154</v>
       </c>
       <c r="I237" t="s">
         <v>26</v>
@@ -10299,22 +10299,22 @@
         <v>2434413</v>
       </c>
       <c r="C238">
-        <v>372108730.12929702</v>
+        <v>358819132.62467927</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>210141817.04900295</v>
+        <v>202636752.15439564</v>
       </c>
       <c r="F238">
-        <v>152.85357502169805</v>
+        <v>147.39451877092313</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>86.321350177230798</v>
+        <v>83.238444813758235</v>
       </c>
       <c r="I238" t="s">
         <v>15</v>
@@ -10340,22 +10340,22 @@
         <v>2199703</v>
       </c>
       <c r="C239">
-        <v>55292849.688145578</v>
+        <v>55306256.491727591</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>40135212.272510909</v>
+        <v>40259740.079302073</v>
       </c>
       <c r="F239">
-        <v>25.136506923046237</v>
+        <v>25.142601747475723</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
       <c r="H239">
-        <v>18.245741480786684</v>
+        <v>18.302352671838914</v>
       </c>
       <c r="I239" t="s">
         <v>16</v>
@@ -10381,22 +10381,22 @@
         <v>5484916</v>
       </c>
       <c r="C240">
-        <v>162610789.39877665</v>
+        <v>164322614.03668934</v>
       </c>
       <c r="D240">
-        <v>3266749.1200331291</v>
+        <v>3261762.0475789602</v>
       </c>
       <c r="E240">
-        <v>57851395.788875401</v>
+        <v>58219539.32981725</v>
       </c>
       <c r="F240">
-        <v>29.646906059960926</v>
+        <v>29.959002842831019</v>
       </c>
       <c r="G240">
-        <v>0.59558781210744693</v>
+        <v>0.59467857804549062</v>
       </c>
       <c r="H240">
-        <v>10.547362218286551</v>
+        <v>10.614481485189062</v>
       </c>
       <c r="I240" t="s">
         <v>38</v>
@@ -10422,22 +10422,22 @@
         <v>4229531</v>
       </c>
       <c r="C241">
-        <v>260012182.94546509</v>
+        <v>261255528.62532994</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>22278198.053818729</v>
+        <v>22293079.582744263</v>
       </c>
       <c r="F241">
-        <v>61.475417237860434</v>
+        <v>61.769384980351234</v>
       </c>
       <c r="G241">
         <v>0</v>
       </c>
       <c r="H241">
-        <v>5.2672974979539644</v>
+        <v>5.2708159800091936</v>
       </c>
       <c r="I241" t="s">
         <v>25</v>
@@ -10463,22 +10463,22 @@
         <v>602999</v>
       </c>
       <c r="C242">
-        <v>9911003.0196059979</v>
+        <v>9351375.6834249366</v>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>41438827.66844061</v>
+        <v>41225734.122299999</v>
       </c>
       <c r="F242">
-        <v>16.43618483547402</v>
+        <v>15.50811142875019</v>
       </c>
       <c r="G242">
         <v>0</v>
       </c>
       <c r="H242">
-        <v>68.721221210052775</v>
+        <v>68.367831658593133</v>
       </c>
       <c r="I242" t="s">
         <v>41</v>
@@ -10504,22 +10504,22 @@
         <v>3406721</v>
       </c>
       <c r="C243">
-        <v>39378689.742830291</v>
+        <v>39982395.079205699</v>
       </c>
       <c r="D243">
-        <v>869325.50800531753</v>
+        <v>865578.83664665453</v>
       </c>
       <c r="E243">
-        <v>15184816.836711638</v>
+        <v>14992193.129956651</v>
       </c>
       <c r="F243">
-        <v>11.559117915094982</v>
+        <v>11.736328005494345</v>
       </c>
       <c r="G243">
-        <v>0.25517954302841866</v>
+        <v>0.25407975488648893</v>
       </c>
       <c r="H243">
-        <v>4.4573115428917243</v>
+        <v>4.400769282238449</v>
       </c>
       <c r="I243" t="s">
         <v>46</v>
@@ -10545,22 +10545,22 @@
         <v>4583206</v>
       </c>
       <c r="C244">
-        <v>1571576159.8039138</v>
+        <v>1574443999.511585</v>
       </c>
       <c r="D244">
-        <v>8840765.9552172478</v>
+        <v>8856898.73980706</v>
       </c>
       <c r="E244">
-        <v>167944786.26038951</v>
+        <v>168251254.84845591</v>
       </c>
       <c r="F244">
-        <v>342.89887031128728</v>
+        <v>343.52459817681881</v>
       </c>
       <c r="G244">
-        <v>1.9289479799112779</v>
+        <v>1.9324679579768091</v>
       </c>
       <c r="H244">
-        <v>36.643516843971121</v>
+        <v>36.710384575438219</v>
       </c>
       <c r="I244" t="s">
         <v>15</v>
@@ -10586,22 +10586,22 @@
         <v>4859658</v>
       </c>
       <c r="C245">
-        <v>271483792.49514055</v>
+        <v>269903636.19857728</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>77049230.813185796</v>
+        <v>76511417.850045115</v>
       </c>
       <c r="F245">
-        <v>55.86479387955707</v>
+        <v>55.539635957628562</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
       <c r="H245">
-        <v>15.854866908985322</v>
+        <v>15.744198017647562</v>
       </c>
       <c r="I245" t="s">
         <v>40</v>
@@ -10627,22 +10627,22 @@
         <v>12498933</v>
       </c>
       <c r="C246">
-        <v>746316499.71918547</v>
+        <v>744433473.85258365</v>
       </c>
       <c r="D246">
-        <v>71108106.844566673</v>
+        <v>70905996.16180107</v>
       </c>
       <c r="E246">
-        <v>36354019.624284685</v>
+        <v>36250690.537720829</v>
       </c>
       <c r="F246">
-        <v>59.710416858717899</v>
+        <v>59.559761929484992</v>
       </c>
       <c r="G246">
-        <v>5.6891341720582611</v>
+        <v>5.6729639371457603</v>
       </c>
       <c r="H246">
-        <v>2.9085698454647835</v>
+        <v>2.9003028128657724</v>
       </c>
       <c r="I246" t="s">
         <v>33</v>
@@ -10668,22 +10668,22 @@
         <v>13439341</v>
       </c>
       <c r="C247">
-        <v>565266555.30548275</v>
+        <v>562432482.62387896</v>
       </c>
       <c r="D247">
-        <v>5816063.3376698084</v>
+        <v>5800763.6636125408</v>
       </c>
       <c r="E247">
-        <v>61516299.864288971</v>
+        <v>61082963.735015169</v>
       </c>
       <c r="F247">
-        <v>42.060585805917327</v>
+        <v>41.849706962854725</v>
       </c>
       <c r="G247">
-        <v>0.43276402746755277</v>
+        <v>0.43162560304203462</v>
       </c>
       <c r="H247">
-        <v>4.5773300836915274</v>
+        <v>4.5450862311638023</v>
       </c>
       <c r="I247" t="s">
         <v>41</v>
@@ -10709,22 +10709,22 @@
         <v>5988318</v>
       </c>
       <c r="C248">
-        <v>126693152.18426238</v>
+        <v>127358829.67946072</v>
       </c>
       <c r="D248">
-        <v>2297011.3622046113</v>
+        <v>2279024.263286313</v>
       </c>
       <c r="E248">
-        <v>39411125.69313544</v>
+        <v>38956512.893458568</v>
       </c>
       <c r="F248">
-        <v>21.156717493002606</v>
+        <v>21.267880175946019</v>
       </c>
       <c r="G248">
-        <v>0.38358206130746753</v>
+        <v>0.38057836328770667</v>
       </c>
       <c r="H248">
-        <v>6.5813348077265506</v>
+        <v>6.5054181981415429</v>
       </c>
       <c r="I248" t="s">
         <v>46</v>
@@ -10750,22 +10750,22 @@
         <v>14171621</v>
       </c>
       <c r="C249">
-        <v>724855743.19728112</v>
+        <v>733612345.47088504</v>
       </c>
       <c r="D249">
-        <v>70090959.781362742</v>
+        <v>70334995.373020917</v>
       </c>
       <c r="E249">
-        <v>35834003.188221715</v>
+        <v>35958766.38445697</v>
       </c>
       <c r="F249">
-        <v>51.148400256913526</v>
+        <v>51.766297269090465</v>
       </c>
       <c r="G249">
-        <v>4.9458675038912441</v>
+        <v>4.9630875235106071</v>
       </c>
       <c r="H249">
-        <v>2.5285747613643998</v>
+        <v>2.5373784963947998</v>
       </c>
       <c r="I249" t="s">
         <v>35</v>
@@ -10873,22 +10873,22 @@
         <v>10047182</v>
       </c>
       <c r="C252">
-        <v>237255900.42273396</v>
+        <v>232422642.09443456</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>162882238.75579196</v>
+        <v>159966213.57838988</v>
       </c>
       <c r="F252">
-        <v>23.614173648166616</v>
+        <v>23.133117534293152</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
       <c r="H252">
-        <v>16.211733673759664</v>
+        <v>15.921500534019378</v>
       </c>
       <c r="I252" t="s">
         <v>14</v>
@@ -10914,22 +10914,22 @@
         <v>1425257</v>
       </c>
       <c r="C253">
-        <v>30792015.634526722</v>
+        <v>30710403.485108409</v>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>23166140.3903451</v>
+        <v>22803573.833460968</v>
       </c>
       <c r="F253">
-        <v>21.604535627277553</v>
+        <v>21.54727427061113</v>
       </c>
       <c r="G253">
         <v>0</v>
       </c>
       <c r="H253">
-        <v>16.254009199986459</v>
+        <v>15.999622407370017</v>
       </c>
       <c r="I253" t="s">
         <v>47</v>
@@ -10955,22 +10955,22 @@
         <v>1940463</v>
       </c>
       <c r="C254">
-        <v>49033033.679975294</v>
+        <v>49677815.523331277</v>
       </c>
       <c r="D254">
-        <v>3017155.2065508557</v>
+        <v>3075913.6477648513</v>
       </c>
       <c r="E254">
-        <v>54887486.668053195</v>
+        <v>55300377.959540047</v>
       </c>
       <c r="F254">
-        <v>25.268728999200341</v>
+        <v>25.601011471659742</v>
       </c>
       <c r="G254">
-        <v>1.5548635591355546</v>
+        <v>1.5851441886626292</v>
       </c>
       <c r="H254">
-        <v>28.285768225445779</v>
+        <v>28.498548006089294</v>
       </c>
       <c r="I254" t="s">
         <v>36</v>
@@ -10996,22 +10996,22 @@
         <v>825950</v>
       </c>
       <c r="C255">
-        <v>42270483.264619015</v>
+        <v>42562528.915755019</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>10457770.287920292</v>
+        <v>10530022.746309448</v>
       </c>
       <c r="F255">
-        <v>51.178017149487275</v>
+        <v>51.531604716695945</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>12.661505282305578</v>
+        <v>12.748983287498575</v>
       </c>
       <c r="I255" t="s">
         <v>28</v>
@@ -11037,22 +11037,22 @@
         <v>166824</v>
       </c>
       <c r="C256">
-        <v>3966412.1307219956</v>
+        <v>3969463.8984702076</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>15610775.193705494</v>
+        <v>15544955.885048686</v>
       </c>
       <c r="F256">
-        <v>23.776028213698243</v>
+        <v>23.794321551276841</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>93.576315120758963</v>
+        <v>93.181771717790525</v>
       </c>
       <c r="I256" t="s">
         <v>40</v>
@@ -11078,22 +11078,22 @@
         <v>477436</v>
       </c>
       <c r="C257">
-        <v>13691994.245222997</v>
+        <v>13517167.339863297</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>10161264.643821899</v>
+        <v>9684616.8353696987</v>
       </c>
       <c r="F257">
-        <v>28.678177274489141</v>
+        <v>28.311998550304747</v>
       </c>
       <c r="G257">
         <v>0</v>
       </c>
       <c r="H257">
-        <v>21.282987968695068</v>
+        <v>20.284638852892741</v>
       </c>
       <c r="I257" t="s">
         <v>28</v>
@@ -11160,22 +11160,22 @@
         <v>152235.4</v>
       </c>
       <c r="C259">
-        <v>386194.17018479994</v>
+        <v>376206.38992139994</v>
       </c>
       <c r="D259">
         <v>0</v>
       </c>
       <c r="E259">
-        <v>13024065.463473599</v>
+        <v>12864260.979259199</v>
       </c>
       <c r="F259">
-        <v>2.5368223828675851</v>
+        <v>2.4712149074485956</v>
       </c>
       <c r="G259">
         <v>0</v>
       </c>
       <c r="H259">
-        <v>85.552147946362012</v>
+        <v>84.502428339658181</v>
       </c>
       <c r="I259" t="s">
         <v>36</v>
@@ -11201,22 +11201,22 @@
         <v>334348.61</v>
       </c>
       <c r="C260">
-        <v>3663662.5950414194</v>
+        <v>3670393.8946435717</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>15056936.801943261</v>
+        <v>15202109.780347241</v>
       </c>
       <c r="F260">
-        <v>10.957612759453134</v>
+        <v>10.977745337848337</v>
       </c>
       <c r="G260">
         <v>0</v>
       </c>
       <c r="H260">
-        <v>45.033645577121618</v>
+        <v>45.467842023770466</v>
       </c>
       <c r="I260" t="s">
         <v>39</v>
@@ -11242,7 +11242,7 @@
         <v>323907.27</v>
       </c>
       <c r="C261">
-        <v>109760.53087439999</v>
+        <v>109978.30970550001</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -11251,7 +11251,7 @@
         <v>3244033.4680655999</v>
       </c>
       <c r="F261">
-        <v>0.33886405474752074</v>
+        <v>0.33953640406249602</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -11283,22 +11283,22 @@
         <v>681233</v>
       </c>
       <c r="C262">
-        <v>18143526.484962616</v>
+        <v>18267072.688652933</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>13526993.412442723</v>
+        <v>13621814.197037918</v>
       </c>
       <c r="F262">
-        <v>26.63336403985511</v>
+        <v>26.814720791055237</v>
       </c>
       <c r="G262">
         <v>0</v>
       </c>
       <c r="H262">
-        <v>19.856632624142875</v>
+        <v>19.995822570306956</v>
       </c>
       <c r="I262" t="s">
         <v>17</v>
@@ -11324,22 +11324,22 @@
         <v>335919</v>
       </c>
       <c r="C263">
-        <v>16599896.245573679</v>
+        <v>16474023.113225533</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>12106746.81682872</v>
+        <v>12111411.791805599</v>
       </c>
       <c r="F263">
-        <v>49.416365985769424</v>
+        <v>49.041653235528599</v>
       </c>
       <c r="G263">
         <v>0</v>
       </c>
       <c r="H263">
-        <v>36.040672950409835</v>
+        <v>36.05456015231529</v>
       </c>
       <c r="I263" t="s">
         <v>38</v>
@@ -11365,22 +11365,22 @@
         <v>186061</v>
       </c>
       <c r="C264">
-        <v>3311063.3020553552</v>
+        <v>3207050.842304925</v>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>2463729.4759066496</v>
+        <v>2500501.5576365995</v>
       </c>
       <c r="F264">
-        <v>17.795579417800372</v>
+        <v>17.236555980591984</v>
       </c>
       <c r="G264">
         <v>0</v>
       </c>
       <c r="H264">
-        <v>13.241514750037082</v>
+        <v>13.439149298545098</v>
       </c>
       <c r="I264" t="s">
         <v>33</v>
@@ -11406,22 +11406,22 @@
         <v>560883</v>
       </c>
       <c r="C265">
-        <v>11450065.57608393</v>
+        <v>10939983.230402999</v>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>8445847.1358995996</v>
+        <v>8387320.4766422985</v>
       </c>
       <c r="F265">
-        <v>20.414356605716218</v>
+        <v>19.504929246211773</v>
       </c>
       <c r="G265">
         <v>0</v>
       </c>
       <c r="H265">
-        <v>15.058126446869668</v>
+        <v>14.95377908876236</v>
       </c>
       <c r="I265" t="s">
         <v>38</v>
@@ -11447,22 +11447,22 @@
         <v>23793</v>
       </c>
       <c r="C266">
-        <v>462716.38613159995</v>
+        <v>465493.991556825</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>354226.38599340001</v>
+        <v>357603.08278484992</v>
       </c>
       <c r="F266">
-        <v>19.447584841407135</v>
+        <v>19.564325287135922</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
       <c r="H266">
-        <v>14.887840372941621</v>
+        <v>15.02976013049426</v>
       </c>
       <c r="I266" t="s">
         <v>33</v>
@@ -11488,22 +11488,22 @@
         <v>489990</v>
       </c>
       <c r="C267">
-        <v>13412151.743528029</v>
+        <v>12780272.254091302</v>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
-        <v>7574275.231173967</v>
+        <v>7217432.4771217005</v>
       </c>
       <c r="F267">
-        <v>27.372296870401495</v>
+        <v>26.082720574075598</v>
       </c>
       <c r="G267">
         <v>0</v>
       </c>
       <c r="H267">
-        <v>15.458020023212651</v>
+        <v>14.729754642179842</v>
       </c>
       <c r="I267" t="s">
         <v>43</v>
@@ -11529,22 +11529,22 @@
         <v>11106837</v>
       </c>
       <c r="C268">
-        <v>473722724.54739028</v>
+        <v>375141505.15338898</v>
       </c>
       <c r="D268">
-        <v>10199730.314312432</v>
+        <v>8077176.7618402177</v>
       </c>
       <c r="E268">
-        <v>5214612.1231922247</v>
+        <v>4129456.6194908069</v>
       </c>
       <c r="F268">
-        <v>42.651451943284151</v>
+        <v>33.775727973084415</v>
       </c>
       <c r="G268">
-        <v>0.91832898189758538</v>
+        <v>0.72722565045658072</v>
       </c>
       <c r="H268">
-        <v>0.46949569199513996</v>
+        <v>0.37179411379592653</v>
       </c>
       <c r="I268" t="s">
         <v>23</v>
@@ -11570,22 +11570,22 @@
         <v>7123683</v>
       </c>
       <c r="C269">
-        <v>404545188.39599168</v>
+        <v>406865203.17978406</v>
       </c>
       <c r="D269">
-        <v>18603372.12819837</v>
+        <v>18593033.180388357</v>
       </c>
       <c r="E269">
-        <v>9510974.0005414188</v>
+        <v>9505688.2134735566</v>
       </c>
       <c r="F269">
-        <v>56.788769011197111</v>
+        <v>57.114445319897598</v>
       </c>
       <c r="G269">
-        <v>2.6114823088279433</v>
+        <v>2.610030960163213</v>
       </c>
       <c r="H269">
-        <v>1.3351203303882864</v>
+        <v>1.3343783283834438</v>
       </c>
       <c r="I269" t="s">
         <v>40</v>
@@ -11611,7 +11611,7 @@
         <v>254563</v>
       </c>
       <c r="C270">
-        <v>231602.94508228078</v>
+        <v>232247.3160506248</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -11620,7 +11620,7 @@
         <v>7500942.3915518327</v>
       </c>
       <c r="F270">
-        <v>0.90980600119530641</v>
+        <v>0.91233728409322956</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -11652,22 +11652,22 @@
         <v>4062213</v>
       </c>
       <c r="C271">
-        <v>138377705.39398971</v>
+        <v>137816092.26703915</v>
       </c>
       <c r="D271">
         <v>0</v>
       </c>
       <c r="E271">
-        <v>78146359.104395419</v>
+        <v>77829198.034471169</v>
       </c>
       <c r="F271">
-        <v>34.064610938419456</v>
+        <v>33.926357940127502</v>
       </c>
       <c r="G271">
         <v>0</v>
       </c>
       <c r="H271">
-        <v>19.23738590379072</v>
+        <v>19.159309970814228</v>
       </c>
       <c r="I271" t="s">
         <v>42</v>
@@ -11693,22 +11693,22 @@
         <v>3230316</v>
       </c>
       <c r="C272">
-        <v>120948658.08422044</v>
+        <v>121257225.18151391</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>68303613.222471833</v>
+        <v>68477871.0273996</v>
       </c>
       <c r="F272">
-        <v>37.441741948533966</v>
+        <v>37.537264212390959</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
       <c r="H272">
-        <v>21.144560848682243</v>
+        <v>21.198505355946477</v>
       </c>
       <c r="I272" t="s">
         <v>42</v>
@@ -11775,22 +11775,22 @@
         <v>3492531</v>
       </c>
       <c r="C274">
-        <v>119323453.67721683</v>
+        <v>117130074.96340548</v>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>67385807.808325499</v>
+        <v>66147136.014098145</v>
       </c>
       <c r="F274">
-        <v>34.165324138058281</v>
+        <v>33.537304311230301</v>
       </c>
       <c r="G274">
         <v>0</v>
       </c>
       <c r="H274">
-        <v>19.294261900130735</v>
+        <v>18.939598822200331</v>
       </c>
       <c r="I274" t="s">
         <v>15</v>
@@ -11816,7 +11816,7 @@
         <v>3055709</v>
       </c>
       <c r="C275">
-        <v>167524141.95977882</v>
+        <v>162827434.05273381</v>
       </c>
       <c r="D275">
         <v>7312540.8955111066</v>
@@ -11825,7 +11825,7 @@
         <v>3738536.5328300605</v>
       </c>
       <c r="F275">
-        <v>54.823329695261826</v>
+        <v>53.286302476032176</v>
       </c>
       <c r="G275">
         <v>2.3930750262904965</v>

--- a/r_map/data_boot_cq_remov_Hg.xlsx
+++ b/r_map/data_boot_cq_remov_Hg.xlsx
@@ -623,7 +623,7 @@
         <v>2207648</v>
       </c>
       <c r="C2">
-        <v>4785885.674664</v>
+        <v>4588009.3031235002</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>168193091.823264</v>
       </c>
       <c r="F2">
-        <v>2.1678662878611084</v>
+        <v>2.0782340767746943</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -664,22 +664,22 @@
         <v>6578669</v>
       </c>
       <c r="C3">
-        <v>179326836.77844316</v>
+        <v>182645658.68701577</v>
       </c>
       <c r="D3">
-        <v>19573675.549023539</v>
+        <v>19523640.922768585</v>
       </c>
       <c r="E3">
-        <v>37427280.955590427</v>
+        <v>33934705.200310379</v>
       </c>
       <c r="F3">
-        <v>27.258832566046895</v>
+        <v>27.763314841803982</v>
       </c>
       <c r="G3">
-        <v>2.9753245753850117</v>
+        <v>2.967718990386746</v>
       </c>
       <c r="H3">
-        <v>5.6891874261481199</v>
+        <v>5.1582934481595561</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -705,22 +705,22 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>57439171.549527712</v>
+        <v>54405506.947171733</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>204646538.60959488</v>
+        <v>207763161.89548439</v>
       </c>
       <c r="F4">
-        <v>21.067894892842574</v>
+        <v>19.955188611425147</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>75.061524205539229</v>
+        <v>76.204658586422298</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -746,22 +746,22 @@
         <v>4273045</v>
       </c>
       <c r="C5">
-        <v>309383318.84495318</v>
+        <v>363229274.78341049</v>
       </c>
       <c r="D5">
-        <v>5081767.1835842617</v>
+        <v>3771054.1932824994</v>
       </c>
       <c r="E5">
-        <v>106024142.60296255</v>
+        <v>51536211.084148221</v>
       </c>
       <c r="F5">
-        <v>72.403477811479448</v>
+        <v>85.00478576364408</v>
       </c>
       <c r="G5">
-        <v>1.1892613308739464</v>
+        <v>0.88252152581648435</v>
       </c>
       <c r="H5">
-        <v>24.812315948688244</v>
+        <v>12.060769564595791</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -787,22 +787,22 @@
         <v>1657543</v>
       </c>
       <c r="C6">
-        <v>47242691.258217312</v>
+        <v>46832584.220628828</v>
       </c>
       <c r="D6">
-        <v>5690903.3085659072</v>
+        <v>5640454.1775224479</v>
       </c>
       <c r="E6">
-        <v>2909474.3165043173</v>
+        <v>2883682.1982583506</v>
       </c>
       <c r="F6">
-        <v>28.501638423991</v>
+        <v>28.254219782309615</v>
       </c>
       <c r="G6">
-        <v>3.4333367572158955</v>
+        <v>3.4029006653356491</v>
       </c>
       <c r="H6">
-        <v>1.755293417126625</v>
+        <v>1.7397329651528501</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -828,7 +828,7 @@
         <v>541762</v>
       </c>
       <c r="C7">
-        <v>1100526.3682404598</v>
+        <v>1117538.07191124</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>39885902.145028792</v>
       </c>
       <c r="F7">
-        <v>2.0313834640311792</v>
+        <v>2.0627841596701875</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -869,22 +869,22 @@
         <v>1380537</v>
       </c>
       <c r="C8">
-        <v>53454167.308301874</v>
+        <v>78857766.069837302</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>48192541.1942259</v>
+        <v>21582853.920438293</v>
       </c>
       <c r="F8">
-        <v>38.719836779674772</v>
+        <v>57.121081195098213</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>34.908547321966672</v>
+        <v>15.633665682584597</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -910,22 +910,22 @@
         <v>1368602</v>
       </c>
       <c r="C9">
-        <v>10199312.90292988</v>
+        <v>11313564.437119637</v>
       </c>
       <c r="D9">
-        <v>203743.71645687672</v>
+        <v>97993.176771657119</v>
       </c>
       <c r="E9">
-        <v>2889638.7576524792</v>
+        <v>1261126.6446138935</v>
       </c>
       <c r="F9">
-        <v>7.4523586133367328</v>
+        <v>8.2665116937719194</v>
       </c>
       <c r="G9">
-        <v>0.14886995376075493</v>
+        <v>7.160093056393102E-2</v>
       </c>
       <c r="H9">
-        <v>2.1113799027419797</v>
+        <v>0.92147070120743169</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -951,22 +951,22 @@
         <v>1443465</v>
       </c>
       <c r="C10">
-        <v>49722299.109569192</v>
+        <v>31727158.557475265</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37398111.328737706</v>
+        <v>63692867.179292455</v>
       </c>
       <c r="F10">
-        <v>34.44648752104775</v>
+        <v>21.979859960217439</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>25.908568152838971</v>
+        <v>44.124982025398921</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -992,22 +992,22 @@
         <v>4446401</v>
       </c>
       <c r="C11">
-        <v>32211059.124924317</v>
+        <v>36186284.797990829</v>
       </c>
       <c r="D11">
-        <v>665291.1953722327</v>
+        <v>317370.77890610287</v>
       </c>
       <c r="E11">
-        <v>9286350.1669215076</v>
+        <v>3960524.0880023856</v>
       </c>
       <c r="F11">
-        <v>7.2442991815007955</v>
+        <v>8.138331382615025</v>
       </c>
       <c r="G11">
-        <v>0.14962465044700932</v>
+        <v>7.1377003312589865E-2</v>
       </c>
       <c r="H11">
-        <v>2.0885093735183822</v>
+        <v>0.89072580003521629</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1033,22 +1033,22 @@
         <v>2081937</v>
       </c>
       <c r="C12">
-        <v>130079491.07458487</v>
+        <v>133938667.28622319</v>
       </c>
       <c r="D12">
-        <v>981503.07301556447</v>
+        <v>910521.17226847576</v>
       </c>
       <c r="E12">
-        <v>17225378.93142315</v>
+        <v>12910466.264806295</v>
       </c>
       <c r="F12">
-        <v>62.480032332671385</v>
+        <v>64.333679302602903</v>
       </c>
       <c r="G12">
-        <v>0.47143745128482006</v>
+        <v>0.43734328765398556</v>
       </c>
       <c r="H12">
-        <v>8.2737272700485889</v>
+        <v>6.2011800860478941</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1074,22 +1074,22 @@
         <v>8921964</v>
       </c>
       <c r="C13">
-        <v>360800015.73412365</v>
+        <v>360941230.93692797</v>
       </c>
       <c r="D13">
-        <v>34316667.052619353</v>
+        <v>35093542.189257249</v>
       </c>
       <c r="E13">
-        <v>17544396.030651666</v>
+        <v>17941573.444257762</v>
       </c>
       <c r="F13">
-        <v>40.439528307234106</v>
+        <v>40.455356123038378</v>
       </c>
       <c r="G13">
-        <v>3.8463131046728449</v>
+        <v>3.9333875578580288</v>
       </c>
       <c r="H13">
-        <v>1.9664275747639943</v>
+        <v>2.0109443889549166</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
@@ -1115,22 +1115,22 @@
         <v>7744214</v>
       </c>
       <c r="C14">
-        <v>218180888.05791259</v>
+        <v>254695476.24586654</v>
       </c>
       <c r="D14">
-        <v>21012234.092266962</v>
+        <v>22689955.564967684</v>
       </c>
       <c r="E14">
-        <v>10742504.679671483</v>
+        <v>11600239.782589721</v>
       </c>
       <c r="F14">
-        <v>28.173406372539883</v>
+        <v>32.888486326161249</v>
       </c>
       <c r="G14">
-        <v>2.7132816955041483</v>
+        <v>2.9299236262024375</v>
       </c>
       <c r="H14">
-        <v>1.3871652668264955</v>
+        <v>1.4979234538959951</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -1156,22 +1156,22 @@
         <v>1912394</v>
       </c>
       <c r="C15">
-        <v>12080909.371413531</v>
+        <v>13040044.467653546</v>
       </c>
       <c r="D15">
-        <v>1347609.8179101879</v>
+        <v>1464516.6736143844</v>
       </c>
       <c r="E15">
-        <v>22646627.81311639</v>
+        <v>21295951.691943139</v>
       </c>
       <c r="F15">
-        <v>6.3171654854666617</v>
+        <v>6.8187018300902151</v>
       </c>
       <c r="G15">
-        <v>0.70467164083875389</v>
+        <v>0.76580279671154816</v>
       </c>
       <c r="H15">
-        <v>11.842030362528009</v>
+        <v>11.135755336998097</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1197,22 +1197,22 @@
         <v>3755194</v>
       </c>
       <c r="C16">
-        <v>124986208.1615838</v>
+        <v>176128972.60297304</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>183077317.29720551</v>
+        <v>134166936.074028</v>
       </c>
       <c r="F16">
-        <v>33.283555566392522</v>
+        <v>46.902762574443038</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>48.753091663761047</v>
+        <v>35.728363454465466</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1238,22 +1238,22 @@
         <v>9164672</v>
       </c>
       <c r="C17">
-        <v>526930831.87899399</v>
+        <v>548317781.82155824</v>
       </c>
       <c r="D17">
-        <v>31836745.393947154</v>
+        <v>36025415.382518455</v>
       </c>
       <c r="E17">
-        <v>589561481.185431</v>
+        <v>560710629.25598156</v>
       </c>
       <c r="F17">
-        <v>57.495874580017045</v>
+        <v>59.82950418973622</v>
       </c>
       <c r="G17">
-        <v>3.4738554084583884</v>
+        <v>3.9309006784441882</v>
       </c>
       <c r="H17">
-        <v>64.329796111135352</v>
+        <v>61.181745430276344</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1279,22 +1279,22 @@
         <v>1901037</v>
       </c>
       <c r="C18">
-        <v>12309547.495702378</v>
+        <v>7998302.6770424647</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9622018.2580961995</v>
+        <v>16056742.968198031</v>
       </c>
       <c r="F18">
-        <v>6.4751751258404644</v>
+        <v>4.2073366678515276</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5.0614576455356728</v>
+        <v>8.446307445987653</v>
       </c>
       <c r="I18" t="s">
         <v>19</v>
@@ -1320,22 +1320,22 @@
         <v>8636016</v>
       </c>
       <c r="C19">
-        <v>346055124.13547468</v>
+        <v>539864217.55383003</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>195428504.35053915</v>
+        <v>5453173.9146851581</v>
       </c>
       <c r="F19">
-        <v>40.071153658755925</v>
+        <v>62.513109928678922</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22.629474557543563</v>
+        <v>0.63144555483514131</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -1361,22 +1361,22 @@
         <v>1057147</v>
       </c>
       <c r="C20">
-        <v>6741512.9946999447</v>
+        <v>4359828.2395301275</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5282722.0905971397</v>
+        <v>8752437.1425153706</v>
       </c>
       <c r="F20">
-        <v>6.3770818956114379</v>
+        <v>4.1241456860116212</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.997149961733931</v>
+        <v>8.2792999862037835</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -1402,22 +1402,22 @@
         <v>1387318</v>
       </c>
       <c r="C21">
-        <v>64260934.374454349</v>
+        <v>61643078.259359226</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>37767679.610200644</v>
+        <v>22293021.986029692</v>
       </c>
       <c r="F21">
-        <v>46.320262819666688</v>
+        <v>44.433272154876697</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27.223520209642377</v>
+        <v>16.069150682128893</v>
       </c>
       <c r="I21" t="s">
         <v>19</v>
@@ -1443,22 +1443,22 @@
         <v>2877284</v>
       </c>
       <c r="C22">
-        <v>20285821.864617541</v>
+        <v>13180999.820052195</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15856841.888784599</v>
+        <v>26461104.901909295</v>
       </c>
       <c r="F22">
-        <v>7.0503370069195608</v>
+        <v>4.5810562391658927</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5.5110450997484426</v>
+        <v>9.1965565102052125</v>
       </c>
       <c r="I22" t="s">
         <v>19</v>
@@ -1484,22 +1484,22 @@
         <v>3900879</v>
       </c>
       <c r="C23">
-        <v>107247246.62962906</v>
+        <v>108371668.43864512</v>
       </c>
       <c r="D23">
-        <v>6343242.8017292395</v>
+        <v>6414179.5570211429</v>
       </c>
       <c r="E23">
-        <v>10422470.467327563</v>
+        <v>8704548.1595932189</v>
       </c>
       <c r="F23">
-        <v>27.493097486394493</v>
+        <v>27.781345804021381</v>
       </c>
       <c r="G23">
-        <v>1.6261060139853709</v>
+        <v>1.6442908270215875</v>
       </c>
       <c r="H23">
-        <v>2.6718261364496469</v>
+        <v>2.2314324949820845</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1525,22 +1525,22 @@
         <v>602337</v>
       </c>
       <c r="C24">
-        <v>37471102.786247469</v>
+        <v>40844369.665978551</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>3293927.4326295834</v>
+        <v>328955.56449445471</v>
       </c>
       <c r="F24">
-        <v>62.209531850521337</v>
+        <v>67.809830154844462</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5.4685789394136233</v>
+        <v>0.54613208966816695</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -1566,22 +1566,22 @@
         <v>4962679</v>
       </c>
       <c r="C25">
-        <v>294411721.77663809</v>
+        <v>286907288.82912368</v>
       </c>
       <c r="D25">
-        <v>11461160.973090686</v>
+        <v>6981481.2849038271</v>
       </c>
       <c r="E25">
-        <v>5859518.5474926271</v>
+        <v>3569282.3069070932</v>
       </c>
       <c r="F25">
-        <v>59.325159208693144</v>
+        <v>57.812985451834315</v>
       </c>
       <c r="G25">
-        <v>2.3094705446575703</v>
+        <v>1.4067968701791567</v>
       </c>
       <c r="H25">
-        <v>1.1807168159561856</v>
+        <v>0.71922489987909621</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -1607,22 +1607,22 @@
         <v>9744872</v>
       </c>
       <c r="C26">
-        <v>300304019.16656101</v>
+        <v>297926299.86867571</v>
       </c>
       <c r="D26">
-        <v>26378558.673063926</v>
+        <v>26680980.821988478</v>
       </c>
       <c r="E26">
-        <v>96779191.285813019</v>
+        <v>97496885.837464452</v>
       </c>
       <c r="F26">
-        <v>30.81662018408872</v>
+        <v>30.572623208255141</v>
       </c>
       <c r="G26">
-        <v>2.7069168967087434</v>
+        <v>2.7379508752899451</v>
       </c>
       <c r="H26">
-        <v>9.9312942525887475</v>
+        <v>10.004942685492889</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1648,22 +1648,22 @@
         <v>2476429</v>
       </c>
       <c r="C27">
-        <v>66855019.418369003</v>
+        <v>66478634.938224345</v>
       </c>
       <c r="D27">
-        <v>6092111.8172536585</v>
+        <v>6142962.8064874494</v>
       </c>
       <c r="E27">
-        <v>3114592.1665709317</v>
+        <v>3140589.7348167091</v>
       </c>
       <c r="F27">
-        <v>26.996541963597181</v>
+        <v>26.844555179342652</v>
       </c>
       <c r="G27">
-        <v>2.4600389582150988</v>
+        <v>2.4805729566595485</v>
       </c>
       <c r="H27">
-        <v>1.2576949173874687</v>
+        <v>1.2681929240921945</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1689,22 +1689,22 @@
         <v>786988</v>
       </c>
       <c r="C28">
-        <v>16751929.619693683</v>
+        <v>10663925.381935764</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>11866300.147150971</v>
+        <v>19630230.759395532</v>
       </c>
       <c r="F28">
-        <v>21.28613094442823</v>
+        <v>13.550302395888837</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15.078120819060736</v>
+        <v>24.943494385423325</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1730,22 +1730,22 @@
         <v>12851943</v>
       </c>
       <c r="C29">
-        <v>380577684.82785523</v>
+        <v>379022568.9564299</v>
       </c>
       <c r="D29">
-        <v>24046180.059280291</v>
+        <v>24142269.321390249</v>
       </c>
       <c r="E29">
-        <v>12293609.555307049</v>
+        <v>12342735.190560766</v>
       </c>
       <c r="F29">
-        <v>29.612462864786689</v>
+        <v>29.4914604707187</v>
       </c>
       <c r="G29">
-        <v>1.8710151499489447</v>
+        <v>1.8784917830238004</v>
       </c>
       <c r="H29">
-        <v>0.95655649541139809</v>
+        <v>0.96037892407091796</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -1771,22 +1771,22 @@
         <v>1157290</v>
       </c>
       <c r="C30">
-        <v>36023693.211820774</v>
+        <v>36157775.172769211</v>
       </c>
       <c r="D30">
-        <v>714636.44459044642</v>
+        <v>663584.00350409967</v>
       </c>
       <c r="E30">
-        <v>978114.79851304123</v>
+        <v>811726.68990270304</v>
       </c>
       <c r="F30">
-        <v>31.127628521650387</v>
+        <v>31.243487088602865</v>
       </c>
       <c r="G30">
-        <v>0.61750852819124546</v>
+        <v>0.57339474419039282</v>
       </c>
       <c r="H30">
-        <v>0.8451769206620996</v>
+        <v>0.70140301039731012</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -1812,22 +1812,22 @@
         <v>2981276</v>
       </c>
       <c r="C31">
-        <v>172661369.52862138</v>
+        <v>166664880.812361</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>42716638.199388631</v>
+        <v>35593141.842846006</v>
       </c>
       <c r="F31">
-        <v>57.915258274853244</v>
+        <v>55.903874989219716</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>14.3283071407641</v>
+        <v>11.938895239100978</v>
       </c>
       <c r="I31" t="s">
         <v>23</v>
@@ -1853,22 +1853,22 @@
         <v>1265697</v>
       </c>
       <c r="C32">
-        <v>75966650.494360596</v>
+        <v>72600275.932043999</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>18794244.093199387</v>
+        <v>15557201.985438004</v>
       </c>
       <c r="F32">
-        <v>60.019618039989503</v>
+        <v>57.359917841350658</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>14.848928371639806</v>
+        <v>12.291410966003715</v>
       </c>
       <c r="I32" t="s">
         <v>23</v>
@@ -1894,22 +1894,22 @@
         <v>5057931</v>
       </c>
       <c r="C33">
-        <v>259018536.32104129</v>
+        <v>258519952.49792251</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>64081508.985870883</v>
+        <v>56705039.81111639</v>
       </c>
       <c r="F33">
-        <v>51.210373633219056</v>
+        <v>51.111798974308371</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>12.669510316742336</v>
+        <v>11.211113756023241</v>
       </c>
       <c r="I33" t="s">
         <v>23</v>
@@ -1935,22 +1935,22 @@
         <v>1796131</v>
       </c>
       <c r="C34">
-        <v>85473399.255999297</v>
+        <v>78612834.030490503</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>42814079.179130681</v>
+        <v>34405221.785858095</v>
       </c>
       <c r="F34">
-        <v>47.587508514690349</v>
+        <v>43.767873295706437</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>23.836835497594929</v>
+        <v>19.155185109470352</v>
       </c>
       <c r="I34" t="s">
         <v>23</v>
@@ -1976,22 +1976,22 @@
         <v>2372033</v>
       </c>
       <c r="C35">
-        <v>121719455.50618035</v>
+        <v>116706556.43771473</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>30113545.125229631</v>
+        <v>25088595.818618704</v>
       </c>
       <c r="F35">
-        <v>51.314402247430934</v>
+        <v>49.201067791938279</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>12.695247125663778</v>
+        <v>10.57683253926851</v>
       </c>
       <c r="I35" t="s">
         <v>23</v>
@@ -2017,22 +2017,22 @@
         <v>4881045</v>
       </c>
       <c r="C36">
-        <v>224455066.20697066</v>
+        <v>222784195.86719394</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>55530463.365134083</v>
+        <v>50952450.00794898</v>
       </c>
       <c r="F36">
-        <v>45.985043409141007</v>
+        <v>45.642725249858159</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>11.376757101221989</v>
+        <v>10.43884045485116</v>
       </c>
       <c r="I36" t="s">
         <v>23</v>
@@ -2058,22 +2058,22 @@
         <v>10305807</v>
       </c>
       <c r="C37">
-        <v>634681195.76213872</v>
+        <v>688242533.81369829</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>53553676.802022062</v>
+        <v>5485803.5393581539</v>
       </c>
       <c r="F37">
-        <v>61.584812888708157</v>
+        <v>66.782012686022384</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>5.1964564057935556</v>
+        <v>0.53230218064030832</v>
       </c>
       <c r="I37" t="s">
         <v>23</v>
@@ -2099,22 +2099,22 @@
         <v>1880003</v>
       </c>
       <c r="C38">
-        <v>96674861.670085058</v>
+        <v>146478973.15099415</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>52067365.066824056</v>
+        <v>1426689.8796546522</v>
       </c>
       <c r="F38">
-        <v>51.422716703156887</v>
+        <v>77.914223089534516</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>27.695362755710526</v>
+        <v>0.75887638458803108</v>
       </c>
       <c r="I38" t="s">
         <v>23</v>
@@ -2140,22 +2140,22 @@
         <v>1542905</v>
       </c>
       <c r="C39">
-        <v>100612108.66530222</v>
+        <v>104981784.71393451</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>8551617.5414645746</v>
+        <v>3315191.6805444025</v>
       </c>
       <c r="F39">
-        <v>65.209529209706503</v>
+        <v>68.041638800791048</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>5.5425431516940931</v>
+        <v>2.1486686999811409</v>
       </c>
       <c r="I39" t="s">
         <v>23</v>
@@ -2181,22 +2181,22 @@
         <v>2219933</v>
       </c>
       <c r="C40">
-        <v>124411959.5667039</v>
+        <v>118487580.53971797</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>30779673.988436084</v>
+        <v>25279370.444793798</v>
       </c>
       <c r="F40">
-        <v>56.043114619542074</v>
+        <v>53.374394875754348</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>13.865136465125786</v>
+        <v>11.387447479177885</v>
       </c>
       <c r="I40" t="s">
         <v>23</v>
@@ -2222,22 +2222,22 @@
         <v>1928627</v>
       </c>
       <c r="C41">
-        <v>61933216.405289382</v>
+        <v>72498780.150573224</v>
       </c>
       <c r="D41">
-        <v>4755352.9531742353</v>
+        <v>4444586.3972545099</v>
       </c>
       <c r="E41">
-        <v>2431174.1973103215</v>
+        <v>2272294.7955963714</v>
       </c>
       <c r="F41">
-        <v>32.112594299099506</v>
+        <v>37.590876903918293</v>
       </c>
       <c r="G41">
-        <v>2.4656675205595668</v>
+        <v>2.3045339494129813</v>
       </c>
       <c r="H41">
-        <v>1.2605725198860751</v>
+        <v>1.1781929816373884</v>
       </c>
       <c r="I41" t="s">
         <v>23</v>
@@ -2263,22 +2263,22 @@
         <v>1066912</v>
       </c>
       <c r="C42">
-        <v>60578153.326089144</v>
+        <v>59961499.842582464</v>
       </c>
       <c r="D42">
-        <v>5719089.9450843437</v>
+        <v>5757288.3631836455</v>
       </c>
       <c r="E42">
-        <v>2923884.7344243657</v>
+        <v>2943413.6756776357</v>
       </c>
       <c r="F42">
-        <v>56.778959582504598</v>
+        <v>56.200979877049342</v>
       </c>
       <c r="G42">
-        <v>5.3604139283130605</v>
+        <v>5.3962167106412204</v>
       </c>
       <c r="H42">
-        <v>2.7405116208500475</v>
+        <v>2.7588157933153208</v>
       </c>
       <c r="I42" t="s">
         <v>23</v>
@@ -2304,22 +2304,22 @@
         <v>5225154</v>
       </c>
       <c r="C43">
-        <v>130645517.34921041</v>
+        <v>130792330.54869604</v>
       </c>
       <c r="D43">
-        <v>12327458.261704206</v>
+        <v>12580586.060035758</v>
       </c>
       <c r="E43">
-        <v>19821440.242453858</v>
+        <v>18774362.509240158</v>
       </c>
       <c r="F43">
-        <v>25.003189829277837</v>
+        <v>25.031287221141433</v>
       </c>
       <c r="G43">
-        <v>2.3592526194834078</v>
+        <v>2.4076967033001817</v>
       </c>
       <c r="H43">
-        <v>3.7934652724979703</v>
+        <v>3.593073526491307</v>
       </c>
       <c r="I43" t="s">
         <v>24</v>
@@ -2345,22 +2345,22 @@
         <v>2992958</v>
       </c>
       <c r="C44">
-        <v>87835865.522569403</v>
+        <v>87742972.536471561</v>
       </c>
       <c r="D44">
-        <v>8148455.186209742</v>
+        <v>8164641.9396711616</v>
       </c>
       <c r="E44">
-        <v>25958247.312843941</v>
+        <v>26004633.799916469</v>
       </c>
       <c r="F44">
-        <v>29.347510229869382</v>
+        <v>29.316473046555135</v>
       </c>
       <c r="G44">
-        <v>2.7225424433653069</v>
+        <v>2.7279507228872446</v>
       </c>
       <c r="H44">
-        <v>8.6731077792751989</v>
+        <v>8.6886063218783782</v>
       </c>
       <c r="I44" t="s">
         <v>24</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>5414450.671604231</v>
+        <v>5698945.1772584282</v>
       </c>
       <c r="F45">
         <v>6.0070062724411093</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>23.59299446436173</v>
+        <v>24.832654349387905</v>
       </c>
       <c r="I45" t="s">
         <v>24</v>
@@ -2427,22 +2427,22 @@
         <v>8966852</v>
       </c>
       <c r="C46">
-        <v>246512030.71021384</v>
+        <v>250961488.80873662</v>
       </c>
       <c r="D46">
-        <v>15003830.753155988</v>
+        <v>14794490.555750292</v>
       </c>
       <c r="E46">
-        <v>96919888.45323436</v>
+        <v>91961860.051489368</v>
       </c>
       <c r="F46">
-        <v>27.491479809214407</v>
+        <v>27.987691645712076</v>
       </c>
       <c r="G46">
-        <v>1.6732550903211056</v>
+        <v>1.6499090824461351</v>
       </c>
       <c r="H46">
-        <v>10.808686086625983</v>
+        <v>10.255757544731347</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
@@ -2468,22 +2468,22 @@
         <v>1441562</v>
       </c>
       <c r="C47">
-        <v>74988032.771859944</v>
+        <v>74910181.969154984</v>
       </c>
       <c r="D47">
-        <v>1614568.3359491851</v>
+        <v>1368230.992439724</v>
       </c>
       <c r="E47">
-        <v>825448.06175401993</v>
+        <v>699508.09488480818</v>
       </c>
       <c r="F47">
-        <v>52.018597030068733</v>
+        <v>51.964592552491659</v>
       </c>
       <c r="G47">
-        <v>1.1200131079684295</v>
+        <v>0.94913086807208014</v>
       </c>
       <c r="H47">
-        <v>0.57260670144885895</v>
+        <v>0.4852431563018505</v>
       </c>
       <c r="I47" t="s">
         <v>24</v>
@@ -2509,22 +2509,22 @@
         <v>1650341</v>
       </c>
       <c r="C48">
-        <v>22197335.335242502</v>
+        <v>20835987.739260189</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>88560831.692962378</v>
+        <v>89764847.47531049</v>
       </c>
       <c r="F48">
-        <v>13.450150808373847</v>
+        <v>12.625262136285889</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>53.662141153229776</v>
+        <v>54.391696913129159</v>
       </c>
       <c r="I48" t="s">
         <v>24</v>
@@ -2553,19 +2553,19 @@
         <v>156249329.60702288</v>
       </c>
       <c r="D49">
-        <v>14675539.778493367</v>
+        <v>14836367.611682337</v>
       </c>
       <c r="E49">
-        <v>7502869.7117547402</v>
+        <v>7585092.9414726011</v>
       </c>
       <c r="F49">
         <v>31.348632924295863</v>
       </c>
       <c r="G49">
-        <v>2.9443845336102661</v>
+        <v>2.9766517613758583</v>
       </c>
       <c r="H49">
-        <v>1.5053165928082497</v>
+        <v>1.5218132130034088</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
@@ -2591,22 +2591,22 @@
         <v>508325</v>
       </c>
       <c r="C50">
-        <v>21128163.714831494</v>
+        <v>26563120.195070319</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>15551890.201524317</v>
+        <v>10342074.395065164</v>
       </c>
       <c r="F50">
-        <v>41.564282132162482</v>
+        <v>52.256175075139566</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>30.594383910931622</v>
+        <v>20.345397914848107</v>
       </c>
       <c r="I50" t="s">
         <v>24</v>
@@ -2632,22 +2632,22 @@
         <v>2093626</v>
       </c>
       <c r="C51">
-        <v>11210680.744764382</v>
+        <v>10163316.107710272</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>62348408.346173145</v>
+        <v>62479506.208441921</v>
       </c>
       <c r="F51">
-        <v>5.3546721070355368</v>
+        <v>4.8544086229872345</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>29.780107978298485</v>
+        <v>29.842725591123688</v>
       </c>
       <c r="I51" t="s">
         <v>24</v>
@@ -2673,22 +2673,22 @@
         <v>1408704</v>
       </c>
       <c r="C52">
-        <v>67598974.889740586</v>
+        <v>68169778.138546661</v>
       </c>
       <c r="D52">
-        <v>3079501.99429612</v>
+        <v>1871119.6457283576</v>
       </c>
       <c r="E52">
-        <v>4027620.5182725983</v>
+        <v>3113177.6247135201</v>
       </c>
       <c r="F52">
-        <v>47.98664225397286</v>
+        <v>48.391839689918292</v>
       </c>
       <c r="G52">
-        <v>2.1860532761290661</v>
+        <v>1.3282560748946248</v>
       </c>
       <c r="H52">
-        <v>2.8590963880791125</v>
+        <v>2.2099586745785631</v>
       </c>
       <c r="I52" t="s">
         <v>24</v>
@@ -2714,22 +2714,22 @@
         <v>53291</v>
       </c>
       <c r="C53">
-        <v>4713468.8284251047</v>
+        <v>5534417.0181114776</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>2353673.9551126966</v>
+        <v>1767966.3921735983</v>
       </c>
       <c r="F53">
-        <v>88.447745931303686</v>
+        <v>103.85275221165821</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>44.166443773107964</v>
+        <v>33.175703067564847</v>
       </c>
       <c r="I53" t="s">
         <v>24</v>
@@ -2755,22 +2755,22 @@
         <v>860420</v>
       </c>
       <c r="C54">
-        <v>44278566.703290001</v>
+        <v>67838902.688375011</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54">
-        <v>23737211.716893066</v>
+        <v>662877.64679270762</v>
       </c>
       <c r="F54">
-        <v>51.461573072790031</v>
+        <v>78.84393980657704</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>27.587935795184986</v>
+        <v>0.77041171380570839</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
@@ -2796,22 +2796,22 @@
         <v>245567</v>
       </c>
       <c r="C55">
-        <v>9915989.4564065207</v>
+        <v>9668001.4561328832</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>2453228.1607325892</v>
+        <v>2126534.9021082562</v>
       </c>
       <c r="F55">
-        <v>40.379975552116207</v>
+        <v>39.370116734467103</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>9.9900563216254188</v>
+        <v>8.6596932898486205</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -2837,22 +2837,22 @@
         <v>9501203</v>
       </c>
       <c r="C56">
-        <v>480412217.32417023</v>
+        <v>627842851.44454169</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>154374424.57896408</v>
+        <v>5755519.1735469848</v>
       </c>
       <c r="F56">
-        <v>50.563304175710194</v>
+        <v>66.080353345207101</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>16.247881934420736</v>
+        <v>0.60576741424712055</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -2878,22 +2878,22 @@
         <v>2526066</v>
       </c>
       <c r="C57">
-        <v>123220383.66485953</v>
+        <v>131815712.96177082</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>52351181.411325887</v>
+        <v>43951467.985628575</v>
       </c>
       <c r="F57">
-        <v>48.779558279498453</v>
+        <v>52.182212563634842</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>20.72439176621905</v>
+        <v>17.399176421213291</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -2919,22 +2919,22 @@
         <v>1081826</v>
       </c>
       <c r="C58">
-        <v>60126054.072370656</v>
+        <v>57917682.023974501</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58">
-        <v>14875260.778819343</v>
+        <v>12571648.965532802</v>
       </c>
       <c r="F58">
-        <v>55.578303786718621</v>
+        <v>53.536966225598661</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>13.750141685279651</v>
+        <v>11.620768002925427</v>
       </c>
       <c r="I58" t="s">
         <v>25</v>
@@ -2960,22 +2960,22 @@
         <v>250729</v>
       </c>
       <c r="C59">
-        <v>1342508.8520068033</v>
+        <v>1286672.4472785359</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>17321712.154365599</v>
+        <v>17637549.1201392</v>
       </c>
       <c r="F59">
-        <v>5.3544219137267861</v>
+        <v>5.1317256770398956</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>69.08539560388148</v>
+        <v>70.345070255691212</v>
       </c>
       <c r="I59" t="s">
         <v>25</v>
@@ -3001,22 +3001,22 @@
         <v>750815</v>
       </c>
       <c r="C60">
-        <v>25059866.388389118</v>
+        <v>25965185.124380793</v>
       </c>
       <c r="D60">
-        <v>1501186.0078646615</v>
+        <v>1679584.1307754423</v>
       </c>
       <c r="E60">
-        <v>28149919.280881464</v>
+        <v>26672008.585201081</v>
       </c>
       <c r="F60">
-        <v>33.376885635461619</v>
+        <v>34.582667001033272</v>
       </c>
       <c r="G60">
-        <v>1.9994086530831983</v>
+        <v>2.2370146184818394</v>
       </c>
       <c r="H60">
-        <v>37.492483875364059</v>
+        <v>35.524075285124937</v>
       </c>
       <c r="I60" t="s">
         <v>25</v>
@@ -3042,22 +3042,22 @@
         <v>6981232</v>
       </c>
       <c r="C61">
-        <v>448966383.83095282</v>
+        <v>440217203.38911498</v>
       </c>
       <c r="D61">
-        <v>18072838.966341026</v>
+        <v>11122619.550937664</v>
       </c>
       <c r="E61">
-        <v>9239738.9215418175</v>
+        <v>5686439.2454168852</v>
       </c>
       <c r="F61">
-        <v>64.310480418205955</v>
+        <v>63.057237374307995</v>
       </c>
       <c r="G61">
-        <v>2.5887750136854106</v>
+        <v>1.593217293299759</v>
       </c>
       <c r="H61">
-        <v>1.3235112257466615</v>
+        <v>0.81453234119950246</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
@@ -3083,22 +3083,22 @@
         <v>2191143</v>
       </c>
       <c r="C62">
-        <v>102539091.41192675</v>
+        <v>120917991.58820361</v>
       </c>
       <c r="D62">
-        <v>2092394.753567338</v>
+        <v>1307888.4693959714</v>
       </c>
       <c r="E62">
-        <v>35782524.267965302</v>
+        <v>19324343.384653211</v>
       </c>
       <c r="F62">
-        <v>46.797078699074753</v>
+        <v>55.184892810831428</v>
       </c>
       <c r="G62">
-        <v>0.95493299778578489</v>
+        <v>0.5968978151567339</v>
       </c>
       <c r="H62">
-        <v>16.330528983259104</v>
+        <v>8.8192981401274171</v>
       </c>
       <c r="I62" t="s">
         <v>13</v>
@@ -3124,22 +3124,22 @@
         <v>384251</v>
       </c>
       <c r="C63">
-        <v>5038105.9294385994</v>
+        <v>4691363.6697529238</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>21318410.23683</v>
+        <v>21744778.441566594</v>
       </c>
       <c r="F63">
-        <v>13.111497249034093</v>
+        <v>12.209112454496992</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>55.480428773978467</v>
+        <v>56.590037349458022</v>
       </c>
       <c r="I63" t="s">
         <v>13</v>
@@ -3165,22 +3165,22 @@
         <v>1245893</v>
       </c>
       <c r="C64">
-        <v>22881635.194072772</v>
+        <v>21094586.883023668</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>80457017.228655905</v>
+        <v>81698476.656967789</v>
       </c>
       <c r="F64">
-        <v>18.365650336002187</v>
+        <v>16.931298982355361</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>64.577790571626863</v>
+        <v>65.574232022306717</v>
       </c>
       <c r="I64" t="s">
         <v>26</v>
@@ -3206,22 +3206,22 @@
         <v>2032750</v>
       </c>
       <c r="C65">
-        <v>79672525.770184875</v>
+        <v>80635465.382337123</v>
       </c>
       <c r="D65">
-        <v>1676725.5090553006</v>
+        <v>1502822.5746739325</v>
       </c>
       <c r="E65">
-        <v>20979187.551073838</v>
+        <v>20253452.168897916</v>
       </c>
       <c r="F65">
-        <v>39.19445370566222</v>
+        <v>39.668166465299286</v>
       </c>
       <c r="G65">
-        <v>0.82485574175638943</v>
+        <v>0.73930516525590084</v>
       </c>
       <c r="H65">
-        <v>10.320594048000904</v>
+        <v>9.9635725833958499</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
@@ -3247,22 +3247,22 @@
         <v>11367897</v>
       </c>
       <c r="C66">
-        <v>483793557.61612153</v>
+        <v>481392542.67167807</v>
       </c>
       <c r="D66">
-        <v>13307845.343032412</v>
+        <v>7955305.6230828427</v>
       </c>
       <c r="E66">
-        <v>30300290.895096183</v>
+        <v>18125649.29226017</v>
       </c>
       <c r="F66">
-        <v>42.557876590201474</v>
+        <v>42.346666465369807</v>
       </c>
       <c r="G66">
-        <v>1.1706514708069937</v>
+        <v>0.69980451292643153</v>
       </c>
       <c r="H66">
-        <v>2.665426234517799</v>
+        <v>1.5944593175202213</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
@@ -3288,22 +3288,22 @@
         <v>7935224</v>
       </c>
       <c r="C67">
-        <v>300386980.4539268</v>
+        <v>308874055.09623194</v>
       </c>
       <c r="D67">
-        <v>8737161.9962302372</v>
+        <v>8224857.8782670805</v>
       </c>
       <c r="E67">
-        <v>9959138.9246036354</v>
+        <v>6405293.5540786386</v>
       </c>
       <c r="F67">
-        <v>37.854883548835772</v>
+        <v>38.924427980386177</v>
       </c>
       <c r="G67">
-        <v>1.1010605366943942</v>
+        <v>1.0364997734490016</v>
       </c>
       <c r="H67">
-        <v>1.2550545422036776</v>
+        <v>0.8071975730084795</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
@@ -3329,22 +3329,22 @@
         <v>2300225</v>
       </c>
       <c r="C68">
-        <v>69748810.383368194</v>
+        <v>71133978.851501316</v>
       </c>
       <c r="D68">
-        <v>5670346.8436112236</v>
+        <v>5985598.7788858162</v>
       </c>
       <c r="E68">
-        <v>33932011.992502399</v>
+        <v>32977269.065222532</v>
       </c>
       <c r="F68">
-        <v>30.322603390263211</v>
+        <v>30.924791640600947</v>
       </c>
       <c r="G68">
-        <v>2.465127039142355</v>
+        <v>2.6021796906327932</v>
       </c>
       <c r="H68">
-        <v>14.75160560054012</v>
+        <v>14.33654058417004</v>
       </c>
       <c r="I68" t="s">
         <v>26</v>
@@ -3370,22 +3370,22 @@
         <v>12008149</v>
       </c>
       <c r="C69">
-        <v>512639325.79990131</v>
+        <v>500939855.29903764</v>
       </c>
       <c r="D69">
-        <v>48836878.132606924</v>
+        <v>48778953.572247632</v>
       </c>
       <c r="E69">
-        <v>24967853.945295278</v>
+        <v>24938240.013811603</v>
       </c>
       <c r="F69">
-        <v>42.690953101922808</v>
+        <v>41.716658853836478</v>
       </c>
       <c r="G69">
-        <v>4.0669780273884779</v>
+        <v>4.0621542564343294</v>
       </c>
       <c r="H69">
-        <v>2.0792425165023585</v>
+        <v>2.0767763636020509</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
@@ -3411,22 +3411,22 @@
         <v>6141807</v>
       </c>
       <c r="C70">
-        <v>237308296.80420595</v>
+        <v>300090225.22815728</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>174928855.2548553</v>
+        <v>105274396.31916186</v>
       </c>
       <c r="F70">
-        <v>38.638188533798925</v>
+        <v>48.860249960338592</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>28.481659429359357</v>
+        <v>17.140622673288473</v>
       </c>
       <c r="I70" t="s">
         <v>26</v>
@@ -3452,22 +3452,22 @@
         <v>1488285</v>
       </c>
       <c r="C71">
-        <v>47473052.031806074</v>
+        <v>47680882.758876383</v>
       </c>
       <c r="D71">
-        <v>4592006.0873211697</v>
+        <v>4656434.5559454365</v>
       </c>
       <c r="E71">
-        <v>2347663.1121429475</v>
+        <v>2380602.1667271066</v>
       </c>
       <c r="F71">
-        <v>31.897823354939462</v>
+        <v>32.037467796071574</v>
       </c>
       <c r="G71">
-        <v>3.0854346360550364</v>
+        <v>3.1287250465773937</v>
       </c>
       <c r="H71">
-        <v>1.577428457683137</v>
+        <v>1.599560680062694</v>
       </c>
       <c r="I71" t="s">
         <v>26</v>
@@ -3493,22 +3493,22 @@
         <v>524509</v>
       </c>
       <c r="C72">
-        <v>18980320.581889778</v>
+        <v>12475658.928477904</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>12225661.204740601</v>
+        <v>20457115.313592128</v>
       </c>
       <c r="F72">
-        <v>36.186834891088196</v>
+        <v>23.785404880522364</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>23.308772975755613</v>
+        <v>39.002410470730013</v>
       </c>
       <c r="I72" t="s">
         <v>26</v>
@@ -3534,22 +3534,22 @@
         <v>48329</v>
       </c>
       <c r="C73">
-        <v>463525.55575730704</v>
+        <v>428291.56565916934</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>2067073.6784009887</v>
+        <v>2135216.5173237431</v>
       </c>
       <c r="F73">
-        <v>9.5910437989055648</v>
+        <v>8.861999330819371</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>42.770876252374116</v>
+        <v>44.180854503998489</v>
       </c>
       <c r="I73" t="s">
         <v>26</v>
@@ -3575,22 +3575,22 @@
         <v>402573</v>
       </c>
       <c r="C74">
-        <v>16710575.332447035</v>
+        <v>21517671.003789917</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>12720329.925497668</v>
+        <v>7605261.7630242482</v>
       </c>
       <c r="F74">
-        <v>41.509428929528397</v>
+        <v>53.450358081117997</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>31.597573422702634</v>
+        <v>18.891633972035503</v>
       </c>
       <c r="I74" t="s">
         <v>21</v>
@@ -3616,22 +3616,22 @@
         <v>1336530</v>
       </c>
       <c r="C75">
-        <v>25723769.930219129</v>
+        <v>25085180.486306388</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>9654568.9256459642</v>
+        <v>9017258.8748580199</v>
       </c>
       <c r="F75">
-        <v>19.24668352391576</v>
+        <v>18.768886958247393</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>7.2236080938295171</v>
+        <v>6.7467687779982644</v>
       </c>
       <c r="I75" t="s">
         <v>21</v>
@@ -3657,22 +3657,22 @@
         <v>1349171</v>
       </c>
       <c r="C76">
-        <v>73086125.148088276</v>
+        <v>77082619.191067576</v>
       </c>
       <c r="D76">
-        <v>2083830.6547101384</v>
+        <v>1306992.9585927029</v>
       </c>
       <c r="E76">
-        <v>7840259.7750948807</v>
+        <v>4387141.1782402107</v>
       </c>
       <c r="F76">
-        <v>54.17113556998207</v>
+        <v>57.133320528730295</v>
       </c>
       <c r="G76">
-        <v>1.5445267165616059</v>
+        <v>0.96873780906401252</v>
       </c>
       <c r="H76">
-        <v>5.8111683212097507</v>
+        <v>3.2517310098128487</v>
       </c>
       <c r="I76" t="s">
         <v>21</v>
@@ -3698,22 +3698,22 @@
         <v>518992</v>
       </c>
       <c r="C77">
-        <v>29840134.425845914</v>
+        <v>33200390.683988407</v>
       </c>
       <c r="D77">
-        <v>434699.58187601302</v>
+        <v>277539.4088680842</v>
       </c>
       <c r="E77">
-        <v>7422167.4544305298</v>
+        <v>4059656.8941378174</v>
       </c>
       <c r="F77">
-        <v>57.496328316902598</v>
+        <v>63.970910310733899</v>
       </c>
       <c r="G77">
-        <v>0.83758435944294518</v>
+        <v>0.53476625625844754</v>
       </c>
       <c r="H77">
-        <v>14.301121124083858</v>
+        <v>7.8221955138765482</v>
       </c>
       <c r="I77" t="s">
         <v>21</v>
@@ -3739,22 +3739,22 @@
         <v>4238250</v>
       </c>
       <c r="C78">
-        <v>228172184.09465513</v>
+        <v>227518118.68191522</v>
       </c>
       <c r="D78">
-        <v>21932551.053885162</v>
+        <v>22123894.014504835</v>
       </c>
       <c r="E78">
-        <v>11213016.726298796</v>
+        <v>11310840.814915609</v>
       </c>
       <c r="F78">
-        <v>53.836414580228897</v>
+        <v>53.682090174462388</v>
       </c>
       <c r="G78">
-        <v>5.1749073447496396</v>
+        <v>5.22005403515716</v>
       </c>
       <c r="H78">
-        <v>2.6456713800032552</v>
+        <v>2.668752625474101</v>
       </c>
       <c r="I78" t="s">
         <v>21</v>
@@ -3780,22 +3780,22 @@
         <v>1825199</v>
       </c>
       <c r="C79">
-        <v>11376235.09683034</v>
+        <v>10659272.216310449</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>49552756.608433291</v>
+        <v>49611052.052448109</v>
       </c>
       <c r="F79">
-        <v>6.2328738383213773</v>
+        <v>5.8400602982526557</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27.149235019542139</v>
+        <v>27.181174245903108</v>
       </c>
       <c r="I79" t="s">
         <v>27</v>
@@ -3821,22 +3821,22 @@
         <v>8749914</v>
       </c>
       <c r="C80">
-        <v>134761986.27761382</v>
+        <v>142789667.91137397</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>353497396.32072175</v>
+        <v>341183576.31564164</v>
       </c>
       <c r="F80">
-        <v>15.401521235250291</v>
+        <v>16.318979582127774</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>40.400099511917688</v>
+        <v>38.992791965228648</v>
       </c>
       <c r="I80" t="s">
         <v>27</v>
@@ -3862,22 +3862,22 @@
         <v>992174</v>
       </c>
       <c r="C81">
-        <v>11382005.128420226</v>
+        <v>10798206.352655798</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>45156352.700389773</v>
+        <v>45869394.286851078</v>
       </c>
       <c r="F81">
-        <v>11.471783304561725</v>
+        <v>10.883379682047503</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>45.512533789828971</v>
+        <v>46.231199655353876</v>
       </c>
       <c r="I81" t="s">
         <v>27</v>
@@ -3903,22 +3903,22 @@
         <v>1769518</v>
       </c>
       <c r="C82">
-        <v>22723087.758065283</v>
+        <v>21146399.314238053</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>95414446.284000233</v>
+        <v>96518460.711907119</v>
       </c>
       <c r="F82">
-        <v>12.841399611682551</v>
+        <v>11.950372538871067</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>53.921150439837419</v>
+        <v>54.545057304818101</v>
       </c>
       <c r="I82" t="s">
         <v>27</v>
@@ -3944,22 +3944,22 @@
         <v>16149545</v>
       </c>
       <c r="C83">
-        <v>778641071.03260207</v>
+        <v>781023553.6901387</v>
       </c>
       <c r="D83">
-        <v>74003060.032374591</v>
+        <v>75226102.980854988</v>
       </c>
       <c r="E83">
-        <v>37834064.441551566</v>
+        <v>38459345.148962118</v>
       </c>
       <c r="F83">
-        <v>48.214427776918917</v>
+        <v>48.3619540792102</v>
       </c>
       <c r="G83">
-        <v>4.5823619199410626</v>
+        <v>4.6580942671050476</v>
       </c>
       <c r="H83">
-        <v>2.3427325315698719</v>
+        <v>2.381450694057456</v>
       </c>
       <c r="I83" t="s">
         <v>27</v>
@@ -3985,22 +3985,22 @@
         <v>1806150</v>
       </c>
       <c r="C84">
-        <v>20305831.219400261</v>
+        <v>18901481.042859614</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>74840745.683510482</v>
+        <v>75641298.144752145</v>
       </c>
       <c r="F84">
-        <v>11.242605109985472</v>
+        <v>10.465067155474138</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>41.436616938521432</v>
+        <v>41.879853912882176</v>
       </c>
       <c r="I84" t="s">
         <v>27</v>
@@ -4026,22 +4026,22 @@
         <v>5446539</v>
       </c>
       <c r="C85">
-        <v>154607684.13689339</v>
+        <v>144147948.15336585</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>288198798.20468724</v>
+        <v>286657284.2899999</v>
       </c>
       <c r="F85">
-        <v>28.386409082335295</v>
+        <v>26.465971904977796</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>52.914116323170958</v>
+        <v>52.631089998621128</v>
       </c>
       <c r="I85" t="s">
         <v>27</v>
@@ -4067,22 +4067,22 @@
         <v>2101351</v>
       </c>
       <c r="C86">
-        <v>26012828.757789001</v>
+        <v>24367454.050502487</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>98965203.137587681</v>
+        <v>99815335.506753027</v>
       </c>
       <c r="F86">
-        <v>12.379097427221344</v>
+        <v>11.596089397012916</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>47.095988788920877</v>
+        <v>47.500553456682404</v>
       </c>
       <c r="I86" t="s">
         <v>27</v>
@@ -4108,22 +4108,22 @@
         <v>1738999</v>
       </c>
       <c r="C87">
-        <v>59159829.722179323</v>
+        <v>63008823.295444235</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>31166999.350200884</v>
+        <v>19786562.840925112</v>
       </c>
       <c r="F87">
-        <v>34.019473111933543</v>
+        <v>36.23281168962388</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>17.922379110166759</v>
+        <v>11.378133535973921</v>
       </c>
       <c r="I87" t="s">
         <v>27</v>
@@ -4149,22 +4149,22 @@
         <v>205407</v>
       </c>
       <c r="C88">
-        <v>3759673.4112314214</v>
+        <v>3787373.4490073551</v>
       </c>
       <c r="D88">
-        <v>219496.86674069721</v>
+        <v>242049.83090708614</v>
       </c>
       <c r="E88">
-        <v>4103292.8693771143</v>
+        <v>3924315.9540970307</v>
       </c>
       <c r="F88">
-        <v>18.303531093056328</v>
+        <v>18.438385493227372</v>
       </c>
       <c r="G88">
-        <v>1.0685948713563667</v>
+        <v>1.1783913445359027</v>
       </c>
       <c r="H88">
-        <v>19.976402310423278</v>
+        <v>19.105074092397196</v>
       </c>
       <c r="I88" t="s">
         <v>27</v>
@@ -4190,22 +4190,22 @@
         <v>500876</v>
       </c>
       <c r="C89">
-        <v>7034239.453791745</v>
+        <v>6409342.2790354406</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>29257104.525180005</v>
+        <v>29357197.835003257</v>
       </c>
       <c r="F89">
-        <v>14.043874040264946</v>
+        <v>12.796265500913281</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>58.411871451576843</v>
+        <v>58.611707957664684</v>
       </c>
       <c r="I89" t="s">
         <v>27</v>
@@ -4231,22 +4231,22 @@
         <v>869762</v>
       </c>
       <c r="C90">
-        <v>11291203.858479597</v>
+        <v>10366245.308103297</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>47302284.415616989</v>
+        <v>48090895.449111402</v>
       </c>
       <c r="F90">
-        <v>12.981946622730812</v>
+        <v>11.91848495117434</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>54.385319680115927</v>
+        <v>55.292017182989603</v>
       </c>
       <c r="I90" t="s">
         <v>27</v>
@@ -4272,22 +4272,22 @@
         <v>285146</v>
       </c>
       <c r="C91">
-        <v>7641725.9169278359</v>
+        <v>4632059.8032386024</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>5610991.5186483758</v>
+        <v>9298947.1237947904</v>
       </c>
       <c r="F91">
-        <v>26.7993446056681</v>
+        <v>16.244519660940718</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>19.677609079728896</v>
+        <v>32.611178567452427</v>
       </c>
       <c r="I91" t="s">
         <v>27</v>
@@ -4313,22 +4313,22 @@
         <v>6959580</v>
       </c>
       <c r="C92">
-        <v>292981062.93374437</v>
+        <v>367286746.65396869</v>
       </c>
       <c r="D92">
-        <v>5498616.3154760431</v>
+        <v>3295154.9840922691</v>
       </c>
       <c r="E92">
-        <v>96861980.810737431</v>
+        <v>19497766.480953932</v>
       </c>
       <c r="F92">
-        <v>42.097520674199359</v>
+        <v>52.774268943523701</v>
       </c>
       <c r="G92">
-        <v>0.7900787569761456</v>
+        <v>0.47347037954765503</v>
       </c>
       <c r="H92">
-        <v>13.917791132616829</v>
+        <v>2.8015722904189522</v>
       </c>
       <c r="I92" t="s">
         <v>28</v>
@@ -4354,22 +4354,22 @@
         <v>3030017</v>
       </c>
       <c r="C93">
-        <v>179143180.17891493</v>
+        <v>191675154.02921706</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>15272577.386854194</v>
+        <v>1514183.6071574977</v>
       </c>
       <c r="F93">
-        <v>59.122830062971573</v>
+        <v>63.258771825114202</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>5.0404263035006718</v>
+        <v>0.49972775966520905</v>
       </c>
       <c r="I93" t="s">
         <v>28</v>
@@ -4395,22 +4395,22 @@
         <v>296202</v>
       </c>
       <c r="C94">
-        <v>8726362.622366026</v>
+        <v>8366111.8339760993</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>2158912.9980489742</v>
+        <v>1786640.9832900004</v>
       </c>
       <c r="F94">
-        <v>29.460849765923342</v>
+        <v>28.244616288803247</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>7.2886509815901794</v>
+        <v>6.0318329494399103</v>
       </c>
       <c r="I94" t="s">
         <v>28</v>
@@ -4436,22 +4436,22 @@
         <v>1615868</v>
       </c>
       <c r="C95">
-        <v>4083493.8041881709</v>
+        <v>3850232.5830506645</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>15449549.02685675</v>
+        <v>15484970.350273266</v>
       </c>
       <c r="F95">
-        <v>2.5271209060320343</v>
+        <v>2.3827642994667042</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>9.5611454814729608</v>
+        <v>9.5830664078212244</v>
       </c>
       <c r="I95" t="s">
         <v>29</v>
@@ -4477,22 +4477,22 @@
         <v>1079076</v>
       </c>
       <c r="C96">
-        <v>45948964.887074411</v>
+        <v>70835822.75511229</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>25948864.38040714</v>
+        <v>715513.3611627511</v>
       </c>
       <c r="F96">
-        <v>42.581768927373432</v>
+        <v>65.644887621550552</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>24.047300079333745</v>
+        <v>0.66307967294495573</v>
       </c>
       <c r="I96" t="s">
         <v>30</v>
@@ -4518,22 +4518,22 @@
         <v>3480059</v>
       </c>
       <c r="C97">
-        <v>119416225.38193396</v>
+        <v>75203630.60239017</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>89048860.972690493</v>
+        <v>150972702.03637725</v>
       </c>
       <c r="F97">
-        <v>34.314425526099974</v>
+        <v>21.609872304575919</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>25.588319328117855</v>
+        <v>43.382224852043386</v>
       </c>
       <c r="I97" t="s">
         <v>30</v>
@@ -4559,22 +4559,22 @@
         <v>1420063</v>
       </c>
       <c r="C98">
-        <v>19982700.397992559</v>
+        <v>18508001.205981884</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>83229181.046643287</v>
+        <v>83092494.180970833</v>
       </c>
       <c r="F98">
-        <v>14.071699916125242</v>
+        <v>13.033225431534998</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>58.609499048030465</v>
+        <v>58.513244962350846</v>
       </c>
       <c r="I98" t="s">
         <v>30</v>
@@ -4600,22 +4600,22 @@
         <v>2037047</v>
       </c>
       <c r="C99">
-        <v>23328711.01638424</v>
+        <v>22017038.073039006</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>90306202.411409259</v>
+        <v>91463048.965572864</v>
       </c>
       <c r="F99">
-        <v>11.452220305365678</v>
+        <v>10.808311282478513</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>44.331918905852078</v>
+        <v>44.899822618512417</v>
       </c>
       <c r="I99" t="s">
         <v>30</v>
@@ -4641,22 +4641,22 @@
         <v>233500</v>
       </c>
       <c r="C100">
-        <v>2296970.4967858535</v>
+        <v>2106438.381845091</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>8842529.3793622628</v>
+        <v>9021590.5992943477</v>
       </c>
       <c r="F100">
-        <v>9.8371327485475533</v>
+        <v>9.0211493869168784</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>37.869504836669222</v>
+        <v>38.636362309611769</v>
       </c>
       <c r="I100" t="s">
         <v>30</v>
@@ -4682,22 +4682,22 @@
         <v>16042082</v>
       </c>
       <c r="C101">
-        <v>200524613.89287922</v>
+        <v>186411140.9714005</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>822720954.60674024</v>
+        <v>824647703.52468479</v>
       </c>
       <c r="F101">
-        <v>12.49991203715822</v>
+        <v>11.620133906022952</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>51.285173246635956</v>
+        <v>51.405279160440948</v>
       </c>
       <c r="I101" t="s">
         <v>30</v>
@@ -4723,22 +4723,22 @@
         <v>2119428</v>
       </c>
       <c r="C102">
-        <v>27277017.605313107</v>
+        <v>25498849.598615371</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>116619422.58091334</v>
+        <v>118660288.40421367</v>
       </c>
       <c r="F102">
-        <v>12.869990207411201</v>
+        <v>12.031005346072323</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>55.024007694959835</v>
+        <v>55.986940063174437</v>
       </c>
       <c r="I102" t="s">
         <v>30</v>
@@ -4764,22 +4764,22 @@
         <v>4495381</v>
       </c>
       <c r="C103">
-        <v>124371013.77310467</v>
+        <v>129288264.79991738</v>
       </c>
       <c r="D103">
-        <v>7629267.8448112179</v>
+        <v>8644198.6549555324</v>
       </c>
       <c r="E103">
-        <v>136502561.68168008</v>
+        <v>130872752.46944705</v>
       </c>
       <c r="F103">
-        <v>27.666401084380759</v>
+        <v>28.760246306134537</v>
       </c>
       <c r="G103">
-        <v>1.6971348690603127</v>
+        <v>1.9229067914278084</v>
       </c>
       <c r="H103">
-        <v>30.365070654006875</v>
+        <v>29.112716468180793</v>
       </c>
       <c r="I103" t="s">
         <v>30</v>
@@ -4805,22 +4805,22 @@
         <v>201976</v>
       </c>
       <c r="C104">
-        <v>12365016.179837154</v>
+        <v>12753093.642359067</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1044177.2319425466</v>
+        <v>417975.57335402753</v>
       </c>
       <c r="F104">
-        <v>61.220225075440418</v>
+        <v>63.141628918084656</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>5.1698084522049479</v>
+        <v>2.0694318797977358</v>
       </c>
       <c r="I104" t="s">
         <v>30</v>
@@ -4846,22 +4846,22 @@
         <v>6594728</v>
       </c>
       <c r="C105">
-        <v>78108017.389793307</v>
+        <v>73706820.741568342</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>332024953.82136822</v>
+        <v>337319132.49096835</v>
       </c>
       <c r="F105">
-        <v>11.844008940140261</v>
+        <v>11.176627867224902</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>50.347027780579914</v>
+        <v>51.149817322407891</v>
       </c>
       <c r="I105" t="s">
         <v>30</v>
@@ -4887,22 +4887,22 @@
         <v>7672769</v>
       </c>
       <c r="C106">
-        <v>92268165.667989105</v>
+        <v>83796030.296816021</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>390904984.41659307</v>
+        <v>392121132.61702543</v>
       </c>
       <c r="F106">
-        <v>12.025406429932806</v>
+        <v>10.921224175628906</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>50.947055022325458</v>
+        <v>51.105556887875217</v>
       </c>
       <c r="I106" t="s">
         <v>30</v>
@@ -4928,22 +4928,22 @@
         <v>423587</v>
       </c>
       <c r="C107">
-        <v>4643642.4501766823</v>
+        <v>5972004.2751412867</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>19206233.42484767</v>
+        <v>18432525.034748733</v>
       </c>
       <c r="F107">
-        <v>10.962665167195127</v>
+        <v>14.098648625055271</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>45.341885905015189</v>
+        <v>43.51532279023845</v>
       </c>
       <c r="I107" t="s">
         <v>11</v>
@@ -4969,22 +4969,22 @@
         <v>969633</v>
       </c>
       <c r="C108">
-        <v>39976148.291942991</v>
+        <v>50026104.021532498</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>29508331.466810696</v>
+        <v>17400627.932575651</v>
       </c>
       <c r="F108">
-        <v>41.228122693785167</v>
+        <v>51.592823286266558</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>30.432474417445256</v>
+        <v>17.945581403041821</v>
       </c>
       <c r="I108" t="s">
         <v>11</v>
@@ -5010,22 +5010,22 @@
         <v>3095082</v>
       </c>
       <c r="C109">
-        <v>42461695.694286987</v>
+        <v>38801586.086046554</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>178997610.47182286</v>
+        <v>180697912.545829</v>
       </c>
       <c r="F109">
-        <v>13.719085857591814</v>
+        <v>12.536529269998841</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>57.832913787687325</v>
+        <v>58.38226985450757</v>
       </c>
       <c r="I109" t="s">
         <v>11</v>
@@ -5051,22 +5051,22 @@
         <v>134547</v>
       </c>
       <c r="C110">
-        <v>7793573.1609217105</v>
+        <v>7873289.649934453</v>
       </c>
       <c r="D110">
-        <v>63999.817190400427</v>
+        <v>59028.14157242002</v>
       </c>
       <c r="E110">
-        <v>1108460.4045769018</v>
+        <v>865227.94485743064</v>
       </c>
       <c r="F110">
-        <v>57.924540576316907</v>
+        <v>58.517021189134304</v>
       </c>
       <c r="G110">
-        <v>0.47566885319182461</v>
+        <v>0.43871763452488738</v>
       </c>
       <c r="H110">
-        <v>8.2384624300571687</v>
+        <v>6.4306743729509437</v>
       </c>
       <c r="I110" t="s">
         <v>31</v>
@@ -5092,22 +5092,22 @@
         <v>265550</v>
       </c>
       <c r="C111">
-        <v>7397010.2183843832</v>
+        <v>8166468.5479000453</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>739313.07924515929</v>
+        <v>68143.597880117246</v>
       </c>
       <c r="F111">
-        <v>27.855432944396096</v>
+        <v>30.753035390322143</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>2.7840823921866287</v>
+        <v>0.25661305923599037</v>
       </c>
       <c r="I111" t="s">
         <v>31</v>
@@ -5133,22 +5133,22 @@
         <v>10172252</v>
       </c>
       <c r="C112">
-        <v>244950521.87621167</v>
+        <v>273122706.55255175</v>
       </c>
       <c r="D112">
-        <v>4967925.9005899392</v>
+        <v>2917181.0194115443</v>
       </c>
       <c r="E112">
-        <v>84989333.316110313</v>
+        <v>42805337.103148632</v>
       </c>
       <c r="F112">
-        <v>24.080264810212299</v>
+        <v>26.849777861632976</v>
       </c>
       <c r="G112">
-        <v>0.48838014439574828</v>
+        <v>0.28677828856496518</v>
       </c>
       <c r="H112">
-        <v>8.3550165013716047</v>
+        <v>4.2080492208754396</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -5174,22 +5174,22 @@
         <v>9007455</v>
       </c>
       <c r="C113">
-        <v>149935789.14087537</v>
+        <v>143985649.94307902</v>
       </c>
       <c r="D113">
-        <v>2783523.0374058629</v>
+        <v>1917878.1164529109</v>
       </c>
       <c r="E113">
-        <v>43159192.036465332</v>
+        <v>27107247.82037168</v>
       </c>
       <c r="F113">
-        <v>16.645743902231583</v>
+        <v>15.985164504632998</v>
       </c>
       <c r="G113">
-        <v>0.30902436230942737</v>
+        <v>0.21292119876845467</v>
       </c>
       <c r="H113">
-        <v>4.7914968252925307</v>
+        <v>3.009423618588345</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -5215,22 +5215,22 @@
         <v>531521</v>
       </c>
       <c r="C114">
-        <v>20898607.334094033</v>
+        <v>21251797.590813901</v>
       </c>
       <c r="D114">
-        <v>1493102.0048894761</v>
+        <v>1622987.5602551969</v>
       </c>
       <c r="E114">
-        <v>16641716.175471142</v>
+        <v>15672167.155140815</v>
       </c>
       <c r="F114">
-        <v>39.318497922178111</v>
+        <v>39.982987672761567</v>
       </c>
       <c r="G114">
-        <v>2.8091119727903058</v>
+        <v>3.0534777746414474</v>
       </c>
       <c r="H114">
-        <v>31.309611803618562</v>
+        <v>29.485508860686249</v>
       </c>
       <c r="I114" t="s">
         <v>32</v>
@@ -5256,22 +5256,22 @@
         <v>387114</v>
       </c>
       <c r="C115">
-        <v>15981886.599964198</v>
+        <v>20084406.724056598</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>11738494.6523082</v>
+        <v>7053764.5440004049</v>
       </c>
       <c r="F115">
-        <v>41.284703213947822</v>
+        <v>51.882408603296696</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>30.323095140729087</v>
+        <v>18.221414219068297</v>
       </c>
       <c r="I115" t="s">
         <v>32</v>
@@ -5297,22 +5297,22 @@
         <v>439947</v>
       </c>
       <c r="C116">
-        <v>21822388.891080454</v>
+        <v>19991893.531987872</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>12323807.754599551</v>
+        <v>7448423.6949776635</v>
       </c>
       <c r="F116">
-        <v>49.602313212910772</v>
+        <v>45.441595310316636</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>28.012028163845986</v>
+        <v>16.930274998983204</v>
       </c>
       <c r="I116" t="s">
         <v>32</v>
@@ -5338,22 +5338,22 @@
         <v>1438500</v>
       </c>
       <c r="C117">
-        <v>75365354.635603756</v>
+        <v>75413265.339679077</v>
       </c>
       <c r="D117">
-        <v>7217678.1995562902</v>
+        <v>7329288.5895201098</v>
       </c>
       <c r="E117">
-        <v>3690037.9795231507</v>
+        <v>3747098.7913921564</v>
       </c>
       <c r="F117">
-        <v>52.391626441156589</v>
+        <v>52.424932457197826</v>
       </c>
       <c r="G117">
-        <v>5.0175030931917206</v>
+        <v>5.0950911293153354</v>
       </c>
       <c r="H117">
-        <v>2.5651984563942651</v>
+        <v>2.6048653398624655</v>
       </c>
       <c r="I117" t="s">
         <v>33</v>
@@ -5379,22 +5379,22 @@
         <v>4871389</v>
       </c>
       <c r="C118">
-        <v>229118905.5248543</v>
+        <v>228111146.25748408</v>
       </c>
       <c r="D118">
-        <v>21874495.364343647</v>
+        <v>22096991.602463361</v>
       </c>
       <c r="E118">
-        <v>11183335.755020689</v>
+        <v>11297086.956759384</v>
       </c>
       <c r="F118">
-        <v>47.033588474427788</v>
+        <v>46.826715390104155</v>
       </c>
       <c r="G118">
-        <v>4.4904020936007463</v>
+        <v>4.5360761791890081</v>
       </c>
       <c r="H118">
-        <v>2.2957180703533817</v>
+        <v>2.3190689466103782</v>
       </c>
       <c r="I118" t="s">
         <v>33</v>
@@ -5420,22 +5420,22 @@
         <v>1656996</v>
       </c>
       <c r="C119">
-        <v>49280498.899107337</v>
+        <v>51376699.899967171</v>
       </c>
       <c r="D119">
-        <v>2790548.8961197771</v>
+        <v>3197623.8034288408</v>
       </c>
       <c r="E119">
-        <v>56800283.778459564</v>
+        <v>54526330.411123954</v>
       </c>
       <c r="F119">
-        <v>29.740867750499902</v>
+        <v>31.00592874090654</v>
       </c>
       <c r="G119">
-        <v>1.6841011662790841</v>
+        <v>1.929771588723715</v>
       </c>
       <c r="H119">
-        <v>34.279071149513676</v>
+        <v>32.906736293342867</v>
       </c>
       <c r="I119" t="s">
         <v>33</v>
@@ -5461,22 +5461,22 @@
         <v>4082513</v>
       </c>
       <c r="C120">
-        <v>185723560.66567254</v>
+        <v>190151917.35571331</v>
       </c>
       <c r="D120">
-        <v>10814688.287894975</v>
+        <v>9064736.7442150842</v>
       </c>
       <c r="E120">
-        <v>5529009.3871863084</v>
+        <v>4634346.6604799666</v>
       </c>
       <c r="F120">
-        <v>45.492460321785266</v>
+        <v>46.577173754428536</v>
       </c>
       <c r="G120">
-        <v>2.6490272750864419</v>
+        <v>2.2203815993274447</v>
       </c>
       <c r="H120">
-        <v>1.3543151943879439</v>
+        <v>1.1351700926561572</v>
       </c>
       <c r="I120" t="s">
         <v>33</v>
@@ -5502,22 +5502,22 @@
         <v>7658910</v>
       </c>
       <c r="C121">
-        <v>262386231.98365167</v>
+        <v>269828314.68084139</v>
       </c>
       <c r="D121">
-        <v>20494119.999728046</v>
+        <v>21847904.738786265</v>
       </c>
       <c r="E121">
-        <v>153502159.85608864</v>
+        <v>147070083.64034805</v>
       </c>
       <c r="F121">
-        <v>34.258952250862286</v>
+        <v>35.230641785951448</v>
       </c>
       <c r="G121">
-        <v>2.6758533524650434</v>
+        <v>2.8526128050579347</v>
       </c>
       <c r="H121">
-        <v>20.042298428378011</v>
+        <v>19.202482290606373</v>
       </c>
       <c r="I121" t="s">
         <v>33</v>
@@ -5543,22 +5543,22 @@
         <v>500630</v>
       </c>
       <c r="C122">
-        <v>8075148.8293843679</v>
+        <v>7420367.7819547039</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>34003993.943465583</v>
+        <v>34188843.562374145</v>
       </c>
       <c r="F122">
-        <v>16.129973891665237</v>
+        <v>14.822059768600971</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>67.922405655804852</v>
+        <v>68.291639658778223</v>
       </c>
       <c r="I122" t="s">
         <v>34</v>
@@ -5584,22 +5584,22 @@
         <v>3581670</v>
       </c>
       <c r="C123">
-        <v>247448249.41736829</v>
+        <v>252456400.93717682</v>
       </c>
       <c r="D123">
-        <v>1950032.3876464579</v>
+        <v>1823957.8567915868</v>
       </c>
       <c r="E123">
-        <v>34272625.469913319</v>
+        <v>26067851.953279719</v>
       </c>
       <c r="F123">
-        <v>69.087394823467349</v>
+        <v>70.485667562108404</v>
       </c>
       <c r="G123">
-        <v>0.54444781000104925</v>
+        <v>0.50924788067900917</v>
       </c>
       <c r="H123">
-        <v>9.5688953672206871</v>
+        <v>7.2781277876743866</v>
       </c>
       <c r="I123" t="s">
         <v>34</v>
@@ -5625,22 +5625,22 @@
         <v>4902363</v>
       </c>
       <c r="C124">
-        <v>397664488.60667229</v>
+        <v>409874234.93612063</v>
       </c>
       <c r="D124">
-        <v>3386125.0856923116</v>
+        <v>3179628.9793429384</v>
       </c>
       <c r="E124">
-        <v>63523774.770715393</v>
+        <v>43563108.020027027</v>
       </c>
       <c r="F124">
-        <v>81.116899871892855</v>
+        <v>83.607483765710668</v>
       </c>
       <c r="G124">
-        <v>0.69071284311102865</v>
+        <v>0.64859109358954825</v>
       </c>
       <c r="H124">
-        <v>12.95778684090007</v>
+        <v>8.8861449101233472</v>
       </c>
       <c r="I124" t="s">
         <v>34</v>
@@ -5666,22 +5666,22 @@
         <v>8835500</v>
       </c>
       <c r="C125">
-        <v>448197134.11029601</v>
+        <v>443652655.87885469</v>
       </c>
       <c r="D125">
-        <v>46319660.266164131</v>
+        <v>46260376.538961582</v>
       </c>
       <c r="E125">
-        <v>23680926.311076403</v>
+        <v>23650617.505544111</v>
       </c>
       <c r="F125">
-        <v>50.726855764845908</v>
+        <v>50.212512690719791</v>
       </c>
       <c r="G125">
-        <v>5.2424492406953913</v>
+        <v>5.2357395211319773</v>
       </c>
       <c r="H125">
-        <v>2.680202174305518</v>
+        <v>2.6767718301787236</v>
       </c>
       <c r="I125" t="s">
         <v>35</v>
@@ -5707,22 +5707,22 @@
         <v>6233147</v>
       </c>
       <c r="C126">
-        <v>236506524.20639414</v>
+        <v>232390728.90057239</v>
       </c>
       <c r="D126">
-        <v>22780002.520308524</v>
+        <v>22729421.724350199</v>
       </c>
       <c r="E126">
-        <v>11646276.288507748</v>
+        <v>11620416.856574042</v>
       </c>
       <c r="F126">
-        <v>37.943357377323871</v>
+        <v>37.2830496217356</v>
       </c>
       <c r="G126">
-        <v>3.654655107654051</v>
+        <v>3.6465402988811588</v>
       </c>
       <c r="H126">
-        <v>1.8684424237881361</v>
+        <v>1.864293727802993</v>
       </c>
       <c r="I126" t="s">
         <v>35</v>
@@ -5748,22 +5748,22 @@
         <v>2753681</v>
       </c>
       <c r="C127">
-        <v>30994020.882316336</v>
+        <v>29321089.325633954</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>123222981.96777812</v>
+        <v>126191645.77214386</v>
       </c>
       <c r="F127">
-        <v>11.255487067062719</v>
+        <v>10.647961519738109</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>44.748459232488486</v>
+        <v>45.826530296045135</v>
       </c>
       <c r="I127" t="s">
         <v>35</v>
@@ -5789,22 +5789,22 @@
         <v>5168266</v>
       </c>
       <c r="C128">
-        <v>251025897.64373457</v>
+        <v>256175019.04871213</v>
       </c>
       <c r="D128">
-        <v>21218033.809216931</v>
+        <v>22307836.442471661</v>
       </c>
       <c r="E128">
-        <v>92645461.624746561</v>
+        <v>89662857.454674482</v>
       </c>
       <c r="F128">
-        <v>48.570622650562989</v>
+        <v>49.566918391722126</v>
       </c>
       <c r="G128">
-        <v>4.1054453871408576</v>
+        <v>4.3163096563666929</v>
       </c>
       <c r="H128">
-        <v>17.925830757307491</v>
+        <v>17.348731171088037</v>
       </c>
       <c r="I128" t="s">
         <v>35</v>
@@ -5830,22 +5830,22 @@
         <v>9849064</v>
       </c>
       <c r="C129">
-        <v>388101393.18242913</v>
+        <v>386989136.77496219</v>
       </c>
       <c r="D129">
-        <v>37329324.91932746</v>
+        <v>37587563.389334783</v>
       </c>
       <c r="E129">
-        <v>19084617.365006171</v>
+        <v>19216641.782797411</v>
       </c>
       <c r="F129">
-        <v>39.40490113399904</v>
+        <v>39.291970970537115</v>
       </c>
       <c r="G129">
-        <v>3.790139339060794</v>
+        <v>3.8163589341418418</v>
       </c>
       <c r="H129">
-        <v>1.9377087370948316</v>
+        <v>1.9511135050800168</v>
       </c>
       <c r="I129" t="s">
         <v>35</v>
@@ -5871,22 +5871,22 @@
         <v>8843344</v>
       </c>
       <c r="C130">
-        <v>389201133.35312653</v>
+        <v>406606997.87979949</v>
       </c>
       <c r="D130">
-        <v>28485107.087923147</v>
+        <v>28353933.000770826</v>
       </c>
       <c r="E130">
-        <v>74962438.745117709</v>
+        <v>57540734.214668982</v>
       </c>
       <c r="F130">
-        <v>44.010629163936912</v>
+        <v>45.978873815131415</v>
       </c>
       <c r="G130">
-        <v>3.2210787104881531</v>
+        <v>3.2062456239145312</v>
       </c>
       <c r="H130">
-        <v>8.4767073117496849</v>
+        <v>6.506671482492254</v>
       </c>
       <c r="I130" t="s">
         <v>35</v>
@@ -5912,22 +5912,22 @@
         <v>3681044</v>
       </c>
       <c r="C131">
-        <v>179191293.87249583</v>
+        <v>179315177.18010032</v>
       </c>
       <c r="D131">
-        <v>17378610.419746924</v>
+        <v>17829176.797515508</v>
       </c>
       <c r="E131">
-        <v>8884814.577095611</v>
+        <v>9115166.6377298068</v>
       </c>
       <c r="F131">
-        <v>48.679476222641142</v>
+        <v>48.713130617319521</v>
       </c>
       <c r="G131">
-        <v>4.7211091254945403</v>
+        <v>4.843510916336645</v>
       </c>
       <c r="H131">
-        <v>2.4136670404090825</v>
+        <v>2.4762449559771107</v>
       </c>
       <c r="I131" t="s">
         <v>35</v>
@@ -5953,22 +5953,22 @@
         <v>4626240</v>
       </c>
       <c r="C132">
-        <v>61056254.138107009</v>
+        <v>56667891.709982499</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>241838906.27568442</v>
+        <v>246942653.77692729</v>
       </c>
       <c r="F132">
-        <v>13.197813805186719</v>
+        <v>12.249233007795207</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>52.27547776935144</v>
+        <v>53.378694961119031</v>
       </c>
       <c r="I132" t="s">
         <v>18</v>
@@ -5994,22 +5994,22 @@
         <v>6322841</v>
       </c>
       <c r="C133">
-        <v>81462805.231219649</v>
+        <v>72907411.778039694</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>339086783.97266281</v>
+        <v>341369009.5004921</v>
       </c>
       <c r="F133">
-        <v>12.883892736069063</v>
+        <v>11.530799489982382</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>53.628864615235905</v>
+        <v>53.989813993502622</v>
       </c>
       <c r="I133" t="s">
         <v>18</v>
@@ -6035,22 +6035,22 @@
         <v>9036684</v>
       </c>
       <c r="C134">
-        <v>432435992.674528</v>
+        <v>425673465.13358933</v>
       </c>
       <c r="D134">
-        <v>29509182.468298115</v>
+        <v>29918234.501131684</v>
       </c>
       <c r="E134">
-        <v>466797997.27455306</v>
+        <v>473034858.57887906</v>
       </c>
       <c r="F134">
-        <v>47.853393199820644</v>
+        <v>47.105051491630043</v>
       </c>
       <c r="G134">
-        <v>3.2654879232579246</v>
+        <v>3.3107536460422522</v>
       </c>
       <c r="H134">
-        <v>51.655894714759647</v>
+        <v>52.346066165296811</v>
       </c>
       <c r="I134" t="s">
         <v>36</v>
@@ -6076,22 +6076,22 @@
         <v>916991</v>
       </c>
       <c r="C135">
-        <v>13568128.189222993</v>
+        <v>12482998.476650406</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>65943089.633727849</v>
+        <v>67840557.254586056</v>
       </c>
       <c r="F135">
-        <v>14.796359167345146</v>
+        <v>13.61299999307562</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>71.912472023965179</v>
+        <v>73.98170456916813</v>
       </c>
       <c r="I135" t="s">
         <v>36</v>
@@ -6117,22 +6117,22 @@
         <v>317344</v>
       </c>
       <c r="C136">
-        <v>5609533.3007582668</v>
+        <v>5154983.2674562177</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>22642582.02193325</v>
+        <v>22863469.529346313</v>
       </c>
       <c r="F136">
-        <v>17.676506569395567</v>
+        <v>16.244149148735183</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>71.35027611025653</v>
+        <v>72.046326791577314</v>
       </c>
       <c r="I136" t="s">
         <v>36</v>
@@ -6158,22 +6158,22 @@
         <v>4850745</v>
       </c>
       <c r="C137">
-        <v>157811958.33044255</v>
+        <v>168630386.34426135</v>
       </c>
       <c r="D137">
-        <v>8125436.194874363</v>
+        <v>8718680.0011902191</v>
       </c>
       <c r="E137">
-        <v>145699633.61839128</v>
+        <v>133661352.40006083</v>
       </c>
       <c r="F137">
-        <v>32.533550687666029</v>
+        <v>34.763811815352355</v>
       </c>
       <c r="G137">
-        <v>1.6750903613515786</v>
+        <v>1.7973898857165691</v>
       </c>
       <c r="H137">
-        <v>30.036547709350064</v>
+        <v>27.554809086039533</v>
       </c>
       <c r="I137" t="s">
         <v>36</v>
@@ -6199,22 +6199,22 @@
         <v>3399679</v>
       </c>
       <c r="C138">
-        <v>169655444.41020989</v>
+        <v>172031231.83953482</v>
       </c>
       <c r="D138">
-        <v>16512432.488618001</v>
+        <v>17165519.792915817</v>
       </c>
       <c r="E138">
-        <v>8441981.1098059528</v>
+        <v>8775871.9941282105</v>
       </c>
       <c r="F138">
-        <v>49.903371586026182</v>
+        <v>50.602198572140139</v>
       </c>
       <c r="G138">
-        <v>4.85705635403166</v>
+        <v>5.0491589920447835</v>
       </c>
       <c r="H138">
-        <v>2.4831700609986864</v>
+        <v>2.5813825346828954</v>
       </c>
       <c r="I138" t="s">
         <v>36</v>
@@ -6240,22 +6240,22 @@
         <v>939695</v>
       </c>
       <c r="C139">
-        <v>6965079.1245104987</v>
+        <v>8757890.9162482508</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <v>5284263.7208700003</v>
+        <v>3298633.5902388748</v>
       </c>
       <c r="F139">
-        <v>7.4120636211861282</v>
+        <v>9.3199292496482915</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
       <c r="H139">
-        <v>5.623381757772469</v>
+        <v>3.5103236584624531</v>
       </c>
       <c r="I139" t="s">
         <v>16</v>
@@ -6281,22 +6281,22 @@
         <v>3198891</v>
       </c>
       <c r="C140">
-        <v>135164559.53083163</v>
+        <v>131289449.8962274</v>
       </c>
       <c r="D140">
-        <v>5440958.1793475961</v>
+        <v>3132500.4825730789</v>
       </c>
       <c r="E140">
-        <v>2781689.8691914491</v>
+        <v>1601490.8717154828</v>
       </c>
       <c r="F140">
-        <v>42.253568355668151</v>
+        <v>41.042176771958594</v>
       </c>
       <c r="G140">
-        <v>1.7008888953539198</v>
+        <v>0.97924577066648377</v>
       </c>
       <c r="H140">
-        <v>0.86957944774968865</v>
+        <v>0.50063940025323861</v>
       </c>
       <c r="I140" t="s">
         <v>16</v>
@@ -6322,22 +6322,22 @@
         <v>3734928</v>
       </c>
       <c r="C141">
-        <v>177577603.72973916</v>
+        <v>177888392.6751245</v>
       </c>
       <c r="D141">
-        <v>3823425.7595214602</v>
+        <v>3474207.1053802939</v>
       </c>
       <c r="E141">
-        <v>1954726.4195553442</v>
+        <v>1776188.3826256762</v>
       </c>
       <c r="F141">
-        <v>47.545121011633732</v>
+        <v>47.628332507380193</v>
       </c>
       <c r="G141">
-        <v>1.0236946360201482</v>
+        <v>0.9301938632766934</v>
       </c>
       <c r="H141">
-        <v>0.5233638826653001</v>
+        <v>0.47556161260020974</v>
       </c>
       <c r="I141" t="s">
         <v>16</v>
@@ -6363,22 +6363,22 @@
         <v>2487210</v>
       </c>
       <c r="C142">
-        <v>83629372.658896402</v>
+        <v>83738838.793611616</v>
       </c>
       <c r="D142">
-        <v>8001631.889671538</v>
+        <v>8116190.5632597506</v>
       </c>
       <c r="E142">
-        <v>4090834.3035945743</v>
+        <v>4149402.4254665379</v>
       </c>
       <c r="F142">
-        <v>33.623768261986882</v>
+        <v>33.667779879307183</v>
       </c>
       <c r="G142">
-        <v>3.2171114982938867</v>
+        <v>3.2631706061248349</v>
       </c>
       <c r="H142">
-        <v>1.6447482535027498</v>
+        <v>1.668295972381318</v>
       </c>
       <c r="I142" t="s">
         <v>37</v>
@@ -6404,22 +6404,22 @@
         <v>14438617</v>
       </c>
       <c r="C143">
-        <v>462742447.13807869</v>
+        <v>461918642.7435497</v>
       </c>
       <c r="D143">
-        <v>43399824.878204048</v>
+        <v>43963495.586630791</v>
       </c>
       <c r="E143">
-        <v>22188160.468981847</v>
+        <v>22476337.118664984</v>
       </c>
       <c r="F143">
-        <v>32.048945348303008</v>
+        <v>31.991889717938339</v>
       </c>
       <c r="G143">
-        <v>3.005815922550203</v>
+        <v>3.0448550291645518</v>
       </c>
       <c r="H143">
-        <v>1.5367233904037934</v>
+        <v>1.5566821336603764</v>
       </c>
       <c r="I143" t="s">
         <v>37</v>
@@ -6445,22 +6445,22 @@
         <v>3826403</v>
       </c>
       <c r="C144">
-        <v>179130082.74204627</v>
+        <v>207826940.73734435</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144">
-        <v>85355217.956023648</v>
+        <v>56320013.267791606</v>
       </c>
       <c r="F144">
-        <v>46.814222846377206</v>
+        <v>54.313918512332435</v>
       </c>
       <c r="G144">
         <v>0</v>
       </c>
       <c r="H144">
-        <v>22.306907546336245</v>
+        <v>14.718787662405555</v>
       </c>
       <c r="I144" t="s">
         <v>37</v>
@@ -6486,22 +6486,22 @@
         <v>3857821</v>
       </c>
       <c r="C145">
-        <v>214338955.5833056</v>
+        <v>211918848.04135743</v>
       </c>
       <c r="D145">
-        <v>20394247.248429388</v>
+        <v>20544433.361007333</v>
       </c>
       <c r="E145">
-        <v>10426558.905759519</v>
+        <v>10503341.555814998</v>
       </c>
       <c r="F145">
-        <v>55.559590655788746</v>
+        <v>54.932265660163452</v>
       </c>
       <c r="G145">
-        <v>5.2864679953863565</v>
+        <v>5.3253982911615996</v>
       </c>
       <c r="H145">
-        <v>2.7027067626412733</v>
+        <v>2.7226098763563678</v>
       </c>
       <c r="I145" t="s">
         <v>37</v>
@@ -6527,22 +6527,22 @@
         <v>15093419</v>
       </c>
       <c r="C146">
-        <v>797504445.9385184</v>
+        <v>761622571.51377201</v>
       </c>
       <c r="D146">
-        <v>10574315.446749179</v>
+        <v>6210134.3104431294</v>
       </c>
       <c r="E146">
-        <v>307434417.36050242</v>
+        <v>182687671.78331816</v>
       </c>
       <c r="F146">
-        <v>52.837892192519028</v>
+        <v>50.46057301621137</v>
       </c>
       <c r="G146">
-        <v>0.70059112827578551</v>
+        <v>0.41144649270275541</v>
       </c>
       <c r="H146">
-        <v>20.368772467027014</v>
+        <v>12.10379648132197</v>
       </c>
       <c r="I146" t="s">
         <v>15</v>
@@ -6568,22 +6568,22 @@
         <v>7629351</v>
       </c>
       <c r="C147">
-        <v>718542359.17441428</v>
+        <v>743208010.18433595</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>64641350.537990436</v>
+        <v>26261609.460112486</v>
       </c>
       <c r="F147">
-        <v>94.181321474711837</v>
+        <v>97.414316130472429</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <v>8.4727194407480315</v>
+        <v>3.4421813153061755</v>
       </c>
       <c r="I147" t="s">
         <v>15</v>
@@ -6609,22 +6609,22 @@
         <v>393144</v>
       </c>
       <c r="C148">
-        <v>2505306.9301893748</v>
+        <v>2391325.0271059494</v>
       </c>
       <c r="D148">
         <v>0</v>
       </c>
       <c r="E148">
-        <v>9611078.5878446214</v>
+        <v>10323088.519124744</v>
       </c>
       <c r="F148">
-        <v>6.3724918355344986</v>
+        <v>6.0825677795055997</v>
       </c>
       <c r="G148">
         <v>0</v>
       </c>
       <c r="H148">
-        <v>24.446713132706137</v>
+        <v>26.257779640856135</v>
       </c>
       <c r="I148" t="s">
         <v>38</v>
@@ -6650,22 +6650,22 @@
         <v>6581975</v>
       </c>
       <c r="C149">
-        <v>336358425.78877318</v>
+        <v>341102494.60388422</v>
       </c>
       <c r="D149">
-        <v>19217147.336804133</v>
+        <v>17080421.503823712</v>
       </c>
       <c r="E149">
-        <v>13411347.244556721</v>
+        <v>12118562.773541158</v>
       </c>
       <c r="F149">
-        <v>51.102963136258218</v>
+        <v>51.823729899290747</v>
       </c>
       <c r="G149">
-        <v>2.9196627663891359</v>
+        <v>2.5950298358507458</v>
       </c>
       <c r="H149">
-        <v>2.0375870835967502</v>
+        <v>1.8411742331961392</v>
       </c>
       <c r="I149" t="s">
         <v>38</v>
@@ -6691,22 +6691,22 @@
         <v>261201</v>
       </c>
       <c r="C150">
-        <v>1599603.9500616328</v>
+        <v>1488827.2148816194</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>6017091.0529797925</v>
+        <v>6069242.4903135542</v>
       </c>
       <c r="F150">
-        <v>6.1240345559995282</v>
+        <v>5.6999292302924545</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>23.036248149814863</v>
+        <v>23.235908324675457</v>
       </c>
       <c r="I150" t="s">
         <v>38</v>
@@ -6732,22 +6732,22 @@
         <v>14072154</v>
       </c>
       <c r="C151">
-        <v>615001608.01012075</v>
+        <v>619747531.56267297</v>
       </c>
       <c r="D151">
-        <v>59016613.027633734</v>
+        <v>59832058.237742007</v>
       </c>
       <c r="E151">
-        <v>30172243.410377763</v>
+        <v>30589139.774045639</v>
       </c>
       <c r="F151">
-        <v>43.703444974388482</v>
+        <v>44.040701342713632</v>
       </c>
       <c r="G151">
-        <v>4.1938578150604187</v>
+        <v>4.2518052487019409</v>
       </c>
       <c r="H151">
-        <v>2.1441098079496403</v>
+        <v>2.1737354333988699</v>
       </c>
       <c r="I151" t="s">
         <v>39</v>
@@ -6773,22 +6773,22 @@
         <v>543145</v>
       </c>
       <c r="C152">
-        <v>2931695.1610348495</v>
+        <v>2654653.9819257567</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>13623175.384898251</v>
+        <v>13676915.961711925</v>
       </c>
       <c r="F152">
-        <v>5.3976289223593135</v>
+        <v>4.8875603787676525</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>25.082023004719275</v>
+        <v>25.180966338108469</v>
       </c>
       <c r="I152" t="s">
         <v>39</v>
@@ -6814,22 +6814,22 @@
         <v>7296430</v>
       </c>
       <c r="C153">
-        <v>195427516.27060866</v>
+        <v>202455079.89458516</v>
       </c>
       <c r="D153">
-        <v>12350429.127256148</v>
+        <v>13856034.450673055</v>
       </c>
       <c r="E153">
-        <v>216655758.59569007</v>
+        <v>202866574.84657323</v>
       </c>
       <c r="F153">
-        <v>26.783991112175222</v>
+        <v>27.747142081070493</v>
       </c>
       <c r="G153">
-        <v>1.6926673903890186</v>
+        <v>1.8990156077250182</v>
       </c>
       <c r="H153">
-        <v>29.693392329631077</v>
+        <v>27.803538832905026</v>
       </c>
       <c r="I153" t="s">
         <v>39</v>
@@ -6858,19 +6858,19 @@
         <v>400954470.90730453</v>
       </c>
       <c r="D154">
-        <v>39003819.144317999</v>
+        <v>39355063.349563211</v>
       </c>
       <c r="E154">
-        <v>19940702.537532568</v>
+        <v>20120276.137464222</v>
       </c>
       <c r="F154">
         <v>35.577291205448873</v>
       </c>
       <c r="G154">
-        <v>3.4608673365881231</v>
+        <v>3.49203376140927</v>
       </c>
       <c r="H154">
-        <v>1.769368425830677</v>
+        <v>1.785302260520492</v>
       </c>
       <c r="I154" t="s">
         <v>39</v>
@@ -6896,22 +6896,22 @@
         <v>5367819</v>
       </c>
       <c r="C155">
-        <v>237842206.77842695</v>
+        <v>237047694.19993597</v>
       </c>
       <c r="D155">
-        <v>22783010.136133857</v>
+        <v>22853258.452771634</v>
       </c>
       <c r="E155">
-        <v>11647813.932098432</v>
+        <v>11683728.383979514</v>
       </c>
       <c r="F155">
-        <v>44.308909592224879</v>
+        <v>44.16089555179412</v>
       </c>
       <c r="G155">
-        <v>4.2443700385824963</v>
+        <v>4.2574569769904</v>
       </c>
       <c r="H155">
-        <v>2.1699341822253007</v>
+        <v>2.1766248794863454</v>
       </c>
       <c r="I155" t="s">
         <v>39</v>
@@ -6937,22 +6937,22 @@
         <v>9846148</v>
       </c>
       <c r="C156">
-        <v>640386679.45984447</v>
+        <v>641265058.10040092</v>
       </c>
       <c r="D156">
-        <v>60977595.325600185</v>
+        <v>61773736.73382958</v>
       </c>
       <c r="E156">
-        <v>31174795.610213075</v>
+        <v>31581822.905170392</v>
       </c>
       <c r="F156">
-        <v>65.039310749731214</v>
+        <v>65.128521133381398</v>
       </c>
       <c r="G156">
-        <v>6.1930407023741854</v>
+        <v>6.273898862157016</v>
       </c>
       <c r="H156">
-        <v>3.1661920590888006</v>
+        <v>3.2075307932777766</v>
       </c>
       <c r="I156" t="s">
         <v>39</v>
@@ -6978,22 +6978,22 @@
         <v>5178344</v>
       </c>
       <c r="C157">
-        <v>300486360.24360734</v>
+        <v>299877012.18753773</v>
       </c>
       <c r="D157">
-        <v>28233674.357258141</v>
+        <v>28465480.141147614</v>
       </c>
       <c r="E157">
-        <v>14434466.01514823</v>
+        <v>14552976.722161729</v>
       </c>
       <c r="F157">
-        <v>58.02750073065971</v>
+        <v>57.909828351986221</v>
       </c>
       <c r="G157">
-        <v>5.452259324073129</v>
+        <v>5.4970237862041635</v>
       </c>
       <c r="H157">
-        <v>2.7874675794323882</v>
+        <v>2.810353410696881</v>
       </c>
       <c r="I157" t="s">
         <v>40</v>
@@ -7019,22 +7019,22 @@
         <v>3896653</v>
       </c>
       <c r="C158">
-        <v>148916093.67534554</v>
+        <v>143081454.24507892</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>107659072.36059274</v>
+        <v>103949225.85403517</v>
       </c>
       <c r="F158">
-        <v>38.216411283053823</v>
+        <v>36.719064860299063</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>27.628601356238992</v>
+        <v>26.676541599684438</v>
       </c>
       <c r="I158" t="s">
         <v>40</v>
@@ -7060,22 +7060,22 @@
         <v>419820</v>
       </c>
       <c r="C159">
-        <v>19776651.06747926</v>
+        <v>19850958.611385092</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>4892768.1435135771</v>
+        <v>4354155.276303459</v>
       </c>
       <c r="F159">
-        <v>47.107453354959887</v>
+        <v>47.284451935079538</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>11.654442721913146</v>
+        <v>10.371481292705109</v>
       </c>
       <c r="I159" t="s">
         <v>40</v>
@@ -7101,22 +7101,22 @@
         <v>4404857</v>
       </c>
       <c r="C160">
-        <v>156937314.86183527</v>
+        <v>226527876.25073904</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>97620818.707505003</v>
+        <v>24017874.447229229</v>
       </c>
       <c r="F160">
-        <v>35.628242837811825</v>
+        <v>51.426840020172968</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>22.16208578564639</v>
+        <v>5.4525889142892101</v>
       </c>
       <c r="I160" t="s">
         <v>40</v>
@@ -7142,22 +7142,22 @@
         <v>1376677</v>
       </c>
       <c r="C161">
-        <v>91074167.159792453</v>
+        <v>97107717.413007364</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>7586202.2625102513</v>
+        <v>772601.67236127367</v>
       </c>
       <c r="F161">
-        <v>66.155072801966227</v>
+        <v>70.537764060129831</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>5.5105171819608021</v>
+        <v>0.56120765608873657</v>
       </c>
       <c r="I161" t="s">
         <v>40</v>
@@ -7183,22 +7183,22 @@
         <v>5140970</v>
       </c>
       <c r="C162">
-        <v>286971446.03086066</v>
+        <v>383574095.3482995</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>128992437.1921093</v>
+        <v>24327541.267040707</v>
       </c>
       <c r="F162">
-        <v>55.820486412264742</v>
+        <v>74.611230049640341</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <v>25.091069816028746</v>
+        <v>4.7320916611146746</v>
       </c>
       <c r="I162" t="s">
         <v>41</v>
@@ -7224,22 +7224,22 @@
         <v>4899321</v>
       </c>
       <c r="C163">
-        <v>27336758.558836073</v>
+        <v>26416201.421126135</v>
       </c>
       <c r="D163">
-        <v>1056620.7498561291</v>
+        <v>1258670.4857220345</v>
       </c>
       <c r="E163">
-        <v>59630002.578716472</v>
+        <v>59962927.938456081</v>
       </c>
       <c r="F163">
-        <v>5.5797035056155888</v>
+        <v>5.3918086651448505</v>
       </c>
       <c r="G163">
-        <v>0.21566677297856765</v>
+        <v>0.25690712768606805</v>
       </c>
       <c r="H163">
-        <v>12.171074844599174</v>
+        <v>12.239028211961633</v>
       </c>
       <c r="I163" t="s">
         <v>41</v>
@@ -7265,22 +7265,22 @@
         <v>214384</v>
       </c>
       <c r="C164">
-        <v>5758419.4829580374</v>
+        <v>6000553.6381739937</v>
       </c>
       <c r="D164">
-        <v>357804.10596057429</v>
+        <v>421591.82860324136</v>
       </c>
       <c r="E164">
-        <v>6501469.92614392</v>
+        <v>6233071.3861633167</v>
       </c>
       <c r="F164">
-        <v>26.860304327552605</v>
+        <v>27.989745681459407</v>
       </c>
       <c r="G164">
-        <v>1.6689869857852</v>
+        <v>1.9665265533026781</v>
       </c>
       <c r="H164">
-        <v>30.326283333382715</v>
+        <v>29.07433104225743</v>
       </c>
       <c r="I164" t="s">
         <v>27</v>
@@ -7306,22 +7306,22 @@
         <v>1502812</v>
       </c>
       <c r="C165">
-        <v>71837635.736061841</v>
+        <v>66308567.456439443</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>38511300.063857779</v>
+        <v>23292800.890529305</v>
       </c>
       <c r="F165">
-        <v>47.802144071288915</v>
+        <v>44.122995728300971</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <v>25.626159535495976</v>
+        <v>15.499477573062569</v>
       </c>
       <c r="I165" t="s">
         <v>40</v>
@@ -7347,22 +7347,22 @@
         <v>13572760</v>
       </c>
       <c r="C166">
-        <v>78456142.812872857</v>
+        <v>88830953.361820191</v>
       </c>
       <c r="D166">
-        <v>8311293.4308448266</v>
+        <v>10059807.215665404</v>
       </c>
       <c r="E166">
-        <v>198765598.55366945</v>
+        <v>174253215.78732902</v>
       </c>
       <c r="F166">
-        <v>5.7804118552801977</v>
+        <v>6.5447965897739433</v>
       </c>
       <c r="G166">
-        <v>0.61235102004638897</v>
+        <v>0.74117623944322331</v>
       </c>
       <c r="H166">
-        <v>14.644449511644607</v>
+        <v>12.83845111733568</v>
       </c>
       <c r="I166" t="s">
         <v>14</v>
@@ -7388,22 +7388,22 @@
         <v>17815891</v>
       </c>
       <c r="C167">
-        <v>968198760.36451447</v>
+        <v>954312625.64184844</v>
       </c>
       <c r="D167">
-        <v>90316550.25717479</v>
+        <v>90842627.623127997</v>
       </c>
       <c r="E167">
-        <v>46174336.318980671</v>
+        <v>46443293.372324221</v>
       </c>
       <c r="F167">
-        <v>54.344672425561789</v>
+        <v>53.565248330372498</v>
       </c>
       <c r="G167">
-        <v>5.0694377428092023</v>
+        <v>5.0989662893159817</v>
       </c>
       <c r="H167">
-        <v>2.5917500460112084</v>
+        <v>2.6068465154127973</v>
       </c>
       <c r="I167" t="s">
         <v>9</v>
@@ -7429,22 +7429,22 @@
         <v>7047532</v>
       </c>
       <c r="C168">
-        <v>348019962.65094823</v>
+        <v>350427376.69326562</v>
       </c>
       <c r="D168">
-        <v>34148102.158312336</v>
+        <v>34883729.85430631</v>
       </c>
       <c r="E168">
-        <v>17458217.228437182</v>
+        <v>17834306.8880141</v>
       </c>
       <c r="F168">
-        <v>49.381820848908276</v>
+        <v>49.723417601121305</v>
       </c>
       <c r="G168">
-        <v>4.8453986669819074</v>
+        <v>4.9497795617396712</v>
       </c>
       <c r="H168">
-        <v>2.4772100684945002</v>
+        <v>2.5305748009394069</v>
       </c>
       <c r="I168" t="s">
         <v>39</v>
@@ -7470,22 +7470,22 @@
         <v>6223129</v>
       </c>
       <c r="C169">
-        <v>75609244.298973143</v>
+        <v>73738804.084188938</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>329773169.51720536</v>
+        <v>333718594.348333</v>
       </c>
       <c r="F169">
-        <v>12.149715086891682</v>
+        <v>11.849152425442078</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <v>52.991536816480156</v>
+        <v>53.625530556787915</v>
       </c>
       <c r="I169" t="s">
         <v>42</v>
@@ -7511,22 +7511,22 @@
         <v>2129192</v>
       </c>
       <c r="C170">
-        <v>125319951.13163429</v>
+        <v>125827817.05167772</v>
       </c>
       <c r="D170">
-        <v>11716407.610531742</v>
+        <v>11985526.320034873</v>
       </c>
       <c r="E170">
-        <v>5990013.3908843659</v>
+        <v>6127600.3311178144</v>
       </c>
       <c r="F170">
-        <v>58.857985156638904</v>
+        <v>59.096510343678595</v>
       </c>
       <c r="G170">
-        <v>5.5027482775305101</v>
+        <v>5.6291430364358277</v>
       </c>
       <c r="H170">
-        <v>2.8132800568874794</v>
+        <v>2.8778993773778101</v>
       </c>
       <c r="I170" t="s">
         <v>23</v>
@@ -7552,22 +7552,22 @@
         <v>4998069</v>
       </c>
       <c r="C171">
-        <v>222321627.19336408</v>
+        <v>220327811.27805752</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>55002647.891913325</v>
+        <v>50141070.81949833</v>
       </c>
       <c r="F171">
-        <v>44.481504195593153</v>
+        <v>44.082586950691862</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <v>11.00477962427356</v>
+        <v>10.032088556500186</v>
       </c>
       <c r="I171" t="s">
         <v>23</v>
@@ -7593,22 +7593,22 @@
         <v>4031692</v>
       </c>
       <c r="C172">
-        <v>173351498.75908709</v>
+        <v>174494909.57689261</v>
       </c>
       <c r="D172">
-        <v>20899610.054598257</v>
+        <v>21019789.492930077</v>
       </c>
       <c r="E172">
-        <v>10684925.640413355</v>
+        <v>10746367.378260495</v>
       </c>
       <c r="F172">
-        <v>42.997207812275114</v>
+        <v>43.280813508792988</v>
       </c>
       <c r="G172">
-        <v>5.1838310204743463</v>
+        <v>5.2136397058431241</v>
       </c>
       <c r="H172">
-        <v>2.6502336092175085</v>
+        <v>2.6654732996122954</v>
       </c>
       <c r="I172" t="s">
         <v>26</v>
@@ -7634,22 +7634,22 @@
         <v>5936999</v>
       </c>
       <c r="C173">
-        <v>228100835.38491631</v>
+        <v>228162359.63769734</v>
       </c>
       <c r="D173">
-        <v>21815012.446634598</v>
+        <v>22316214.885822713</v>
       </c>
       <c r="E173">
-        <v>11152925.113341952</v>
+        <v>11409164.860376861</v>
       </c>
       <c r="F173">
-        <v>38.420224659784566</v>
+        <v>38.430587513607016</v>
       </c>
       <c r="G173">
-        <v>3.6744174029058447</v>
+        <v>3.7588375685801383</v>
       </c>
       <c r="H173">
-        <v>1.8785458972356155</v>
+        <v>1.9217057069365955</v>
       </c>
       <c r="I173" t="s">
         <v>35</v>
@@ -7675,22 +7675,22 @@
         <v>8020477</v>
       </c>
       <c r="C174">
-        <v>99201433.189962819</v>
+        <v>124196267.91274843</v>
       </c>
       <c r="D174">
-        <v>1363206.5443104678</v>
+        <v>750471.37420729152</v>
       </c>
       <c r="E174">
-        <v>40161580.959375456</v>
+        <v>11046721.70363646</v>
       </c>
       <c r="F174">
-        <v>12.368520374781053</v>
+        <v>15.484897957159959</v>
       </c>
       <c r="G174">
-        <v>0.16996576940629191</v>
+        <v>9.3569419151415992E-2</v>
       </c>
       <c r="H174">
-        <v>5.0073806033450952</v>
+        <v>1.3773148035505196</v>
       </c>
       <c r="I174" t="s">
         <v>19</v>
@@ -7716,22 +7716,22 @@
         <v>8834166</v>
       </c>
       <c r="C175">
-        <v>229019907.4326615</v>
+        <v>233135599.28946865</v>
       </c>
       <c r="D175">
-        <v>12534093.81721722</v>
+        <v>13618087.463722285</v>
       </c>
       <c r="E175">
-        <v>274381644.74520826</v>
+        <v>266536381.03214043</v>
       </c>
       <c r="F175">
-        <v>25.924338237776094</v>
+        <v>26.390221701682837</v>
       </c>
       <c r="G175">
-        <v>1.4188202731550685</v>
+        <v>1.5415249683696555</v>
       </c>
       <c r="H175">
-        <v>31.059145226069813</v>
+        <v>30.171085876373667</v>
       </c>
       <c r="I175" t="s">
         <v>34</v>
@@ -7757,22 +7757,22 @@
         <v>3440952</v>
       </c>
       <c r="C176">
-        <v>113375405.80399108</v>
+        <v>113496843.1479665</v>
       </c>
       <c r="D176">
-        <v>13665522.604635846</v>
+        <v>13694209.264275083</v>
       </c>
       <c r="E176">
-        <v>6986498.4316200744</v>
+        <v>7001164.4863606282</v>
       </c>
       <c r="F176">
-        <v>32.948848401253805</v>
+        <v>32.984140187938252</v>
       </c>
       <c r="G176">
-        <v>3.9714365689018174</v>
+        <v>3.9797734069743149</v>
       </c>
       <c r="H176">
-        <v>2.0303969458510536</v>
+        <v>2.0346591543156163</v>
       </c>
       <c r="I176" t="s">
         <v>35</v>
@@ -7798,22 +7798,22 @@
         <v>5568642</v>
       </c>
       <c r="C177">
-        <v>240561980.1466144</v>
+        <v>208068233.69258198</v>
       </c>
       <c r="D177">
-        <v>20273645.363956269</v>
+        <v>20128626.276665203</v>
       </c>
       <c r="E177">
-        <v>63902730.117626719</v>
+        <v>96379074.721377581</v>
       </c>
       <c r="F177">
-        <v>43.199397653254493</v>
+        <v>37.364268288854262</v>
       </c>
       <c r="G177">
-        <v>3.6406803245667918</v>
+        <v>3.6146382325646367</v>
       </c>
       <c r="H177">
-        <v>11.475460285941656</v>
+        <v>17.307464678350229</v>
       </c>
       <c r="I177" t="s">
         <v>26</v>
@@ -7839,22 +7839,22 @@
         <v>4469578</v>
       </c>
       <c r="C178">
-        <v>117402305.36308378</v>
+        <v>116493937.83386438</v>
       </c>
       <c r="D178">
-        <v>2527790.606047268</v>
+        <v>2311564.7684808373</v>
       </c>
       <c r="E178">
-        <v>1292332.9473416645</v>
+        <v>1181787.48788583</v>
       </c>
       <c r="F178">
-        <v>26.266977634820062</v>
+        <v>26.063744235778945</v>
       </c>
       <c r="G178">
-        <v>0.56555464655662524</v>
+        <v>0.5171774088025396</v>
       </c>
       <c r="H178">
-        <v>0.28913981305207437</v>
+        <v>0.26440695025029881</v>
       </c>
       <c r="I178" t="s">
         <v>22</v>
@@ -7880,22 +7880,22 @@
         <v>5464804</v>
       </c>
       <c r="C179">
-        <v>334051115.61067152</v>
+        <v>323568670.38205504</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>82644662.697858408</v>
+        <v>68251851.538440347</v>
       </c>
       <c r="F179">
-        <v>61.12773955125774</v>
+        <v>59.209565499888932</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>15.123079015799727</v>
+        <v>12.489350311271977</v>
       </c>
       <c r="I179" t="s">
         <v>10</v>
@@ -7921,22 +7921,22 @@
         <v>245854</v>
       </c>
       <c r="C180">
-        <v>2796310.4036084497</v>
+        <v>3183486.9958516536</v>
       </c>
       <c r="D180">
-        <v>315050.80416651873</v>
+        <v>370660.41791331972</v>
       </c>
       <c r="E180">
-        <v>5038177.4576542359</v>
+        <v>4933185.982751362</v>
       </c>
       <c r="F180">
-        <v>11.373865804942973</v>
+        <v>12.948689042487223</v>
       </c>
       <c r="G180">
-        <v>1.2814548641328543</v>
+        <v>1.5076444471650643</v>
       </c>
       <c r="H180">
-        <v>20.492558419445018</v>
+        <v>20.065510354728261</v>
       </c>
       <c r="I180" t="s">
         <v>29</v>
@@ -7962,22 +7962,22 @@
         <v>1204962</v>
       </c>
       <c r="C181">
-        <v>17235024.05778183</v>
+        <v>16068270.022984527</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>73714320.097047418</v>
+        <v>74915086.735502973</v>
       </c>
       <c r="F181">
-        <v>14.303375590086517</v>
+        <v>13.335084444973806</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>61.175638814375404</v>
+        <v>62.172157076740156</v>
       </c>
       <c r="I181" t="s">
         <v>13</v>
@@ -8003,22 +8003,22 @@
         <v>9406012</v>
       </c>
       <c r="C182">
-        <v>508019284.529948</v>
+        <v>511620753.15731835</v>
       </c>
       <c r="D182">
-        <v>20449973.654514279</v>
+        <v>12686213.199698169</v>
       </c>
       <c r="E182">
-        <v>10455049.030870391</v>
+        <v>6485826.4983457047</v>
       </c>
       <c r="F182">
-        <v>54.010061281013463</v>
+        <v>54.392951354656823</v>
       </c>
       <c r="G182">
-        <v>2.1741385886509903</v>
+        <v>1.3487345327327001</v>
       </c>
       <c r="H182">
-        <v>1.1115283534478151</v>
+        <v>0.68954052985959458</v>
       </c>
       <c r="I182" t="s">
         <v>30</v>
@@ -8044,22 +8044,22 @@
         <v>11346108</v>
       </c>
       <c r="C183">
-        <v>497118335.60861927</v>
+        <v>511975239.33863521</v>
       </c>
       <c r="D183">
-        <v>38632143.521256544</v>
+        <v>40902618.983758584</v>
       </c>
       <c r="E183">
-        <v>268899495.50404453</v>
+        <v>260973493.058391</v>
       </c>
       <c r="F183">
-        <v>43.813996447823278</v>
+        <v>45.123423762459794</v>
       </c>
       <c r="G183">
-        <v>3.4048806446454187</v>
+        <v>3.6049911550073896</v>
       </c>
       <c r="H183">
-        <v>23.699712315804199</v>
+        <v>23.001146565711434</v>
       </c>
       <c r="I183" t="s">
         <v>13</v>
@@ -8085,22 +8085,22 @@
         <v>8278514</v>
       </c>
       <c r="C184">
-        <v>319503602.80728805</v>
+        <v>320773370.49272847</v>
       </c>
       <c r="D184">
-        <v>2831248.5881579481</v>
+        <v>1148554.7427864757</v>
       </c>
       <c r="E184">
-        <v>1447475.8406957509</v>
+        <v>587198.61224958685</v>
       </c>
       <c r="F184">
-        <v>38.594318111594433</v>
+        <v>38.747699223885888</v>
       </c>
       <c r="G184">
-        <v>0.34199961347627705</v>
+        <v>0.1387392402533203</v>
       </c>
       <c r="H184">
-        <v>0.17484730238974663</v>
+        <v>7.0930436579510148E-2</v>
       </c>
       <c r="I184" t="s">
         <v>26</v>
@@ -8126,22 +8126,22 @@
         <v>2439887</v>
       </c>
       <c r="C185">
-        <v>90204790.632341161</v>
+        <v>89795447.241037801</v>
       </c>
       <c r="D185">
-        <v>700924.06582730927</v>
+        <v>670868.79063773761</v>
       </c>
       <c r="E185">
-        <v>12674190.246301072</v>
+        <v>9754866.8701147735</v>
       </c>
       <c r="F185">
-        <v>36.970888665065701</v>
+        <v>36.803117210361712</v>
       </c>
       <c r="G185">
-        <v>0.28727726563865835</v>
+        <v>0.27495895942629212</v>
       </c>
       <c r="H185">
-        <v>5.1945808335800274</v>
+        <v>3.9980814152929103</v>
       </c>
       <c r="I185" t="s">
         <v>29</v>
@@ -8167,22 +8167,22 @@
         <v>14844275</v>
       </c>
       <c r="C186">
-        <v>168162391.66971862</v>
+        <v>177656995.1667133</v>
       </c>
       <c r="D186">
-        <v>21020298.958714828</v>
+        <v>22207124.39583917</v>
       </c>
       <c r="E186">
-        <v>355087343.81359094</v>
+        <v>333882992.71903294</v>
       </c>
       <c r="F186">
-        <v>11.328434138394675</v>
+        <v>11.968047962376962</v>
       </c>
       <c r="G186">
-        <v>1.4160542672993344</v>
+        <v>1.496005995297121</v>
       </c>
       <c r="H186">
-        <v>23.920827646590414</v>
+        <v>22.492374516036179</v>
       </c>
       <c r="I186" t="s">
         <v>43</v>
@@ -8208,22 +8208,22 @@
         <v>8797020</v>
       </c>
       <c r="C187">
-        <v>317737438.48003256</v>
+        <v>401591198.57512677</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>233397552.20328003</v>
+        <v>139648425.47438943</v>
       </c>
       <c r="F187">
-        <v>36.11875822494806</v>
+        <v>45.650822502975643</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>26.53143362221298</v>
+        <v>15.874514946469308</v>
       </c>
       <c r="I187" t="s">
         <v>11</v>
@@ -8252,19 +8252,19 @@
         <v>30987958.603795961</v>
       </c>
       <c r="D188">
-        <v>2909020.8746689479</v>
+        <v>2952229.423550033</v>
       </c>
       <c r="E188">
-        <v>1487236.9221744961</v>
+        <v>1509327.2927899554</v>
       </c>
       <c r="F188">
         <v>50.396512188165815</v>
       </c>
       <c r="G188">
-        <v>4.7310152901754448</v>
+        <v>4.8012864618960567</v>
       </c>
       <c r="H188">
-        <v>2.4187315671021903</v>
+        <v>2.4546577036443606</v>
       </c>
       <c r="I188" t="s">
         <v>32</v>
@@ -8290,22 +8290,22 @@
         <v>5372955</v>
       </c>
       <c r="C189">
-        <v>142856151.03150949</v>
+        <v>148134590.00001961</v>
       </c>
       <c r="D189">
-        <v>9575345.4009746574</v>
+        <v>10648034.489986295</v>
       </c>
       <c r="E189">
-        <v>133730854.67519762</v>
+        <v>127879411.48637833</v>
       </c>
       <c r="F189">
-        <v>26.588004372176854</v>
+        <v>27.570413301436474</v>
       </c>
       <c r="G189">
-        <v>1.7821376506921531</v>
+        <v>1.9817836721108393</v>
       </c>
       <c r="H189">
-        <v>24.889628644795575</v>
+        <v>23.800573704112232</v>
       </c>
       <c r="I189" t="s">
         <v>24</v>
@@ -8331,22 +8331,22 @@
         <v>222191</v>
       </c>
       <c r="C190">
-        <v>4323588.0357205551</v>
+        <v>4500375.7398433238</v>
       </c>
       <c r="D190">
-        <v>540448.50446506951</v>
+        <v>562546.96748041548</v>
       </c>
       <c r="E190">
-        <v>9046321.328108035</v>
+        <v>8123811.0899057174</v>
       </c>
       <c r="F190">
-        <v>19.458880133401241</v>
+        <v>20.25453659168609</v>
       </c>
       <c r="G190">
-        <v>2.4323600166751556</v>
+        <v>2.5318170739607613</v>
       </c>
       <c r="H190">
-        <v>40.714166316853678</v>
+        <v>36.562286905886005</v>
       </c>
       <c r="I190" t="s">
         <v>43</v>
@@ -8372,22 +8372,22 @@
         <v>12160150</v>
       </c>
       <c r="C191">
-        <v>262005420.7447966</v>
+        <v>366884119.1357429</v>
       </c>
       <c r="D191">
-        <v>12673750.714048732</v>
+        <v>14412563.512401521</v>
       </c>
       <c r="E191">
-        <v>323109848.27455437</v>
+        <v>222223058.32791626</v>
       </c>
       <c r="F191">
-        <v>21.546232632393234</v>
+        <v>30.171019200893319</v>
       </c>
       <c r="G191">
-        <v>1.0422363798184013</v>
+        <v>1.1852290894768174</v>
       </c>
       <c r="H191">
-        <v>26.571205805401608</v>
+        <v>18.27469713185415</v>
       </c>
       <c r="I191" t="s">
         <v>28</v>
@@ -8413,22 +8413,22 @@
         <v>13610817</v>
       </c>
       <c r="C192">
-        <v>306627232.84782064</v>
+        <v>516357892.15226167</v>
       </c>
       <c r="D192">
-        <v>32873837.515105724</v>
+        <v>59457916.085027806</v>
       </c>
       <c r="E192">
-        <v>256015267.19981974</v>
+        <v>30397859.598470472</v>
       </c>
       <c r="F192">
-        <v>22.528201859434347</v>
+        <v>37.937317954701889</v>
       </c>
       <c r="G192">
-        <v>2.415272905006784</v>
+        <v>4.3684310857333406</v>
       </c>
       <c r="H192">
-        <v>18.809691380011923</v>
+        <v>2.2333603925811705</v>
       </c>
       <c r="I192" t="s">
         <v>36</v>
@@ -8454,22 +8454,22 @@
         <v>5621453</v>
       </c>
       <c r="C193">
-        <v>70007086.195575267</v>
+        <v>64303457.240047231</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>274882493.69808012</v>
+        <v>277378644.03039312</v>
       </c>
       <c r="F193">
-        <v>12.453557148939121</v>
+        <v>11.438938872218131</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>48.898833397358324</v>
+        <v>49.342873458231018</v>
       </c>
       <c r="I193" t="s">
         <v>18</v>
@@ -8495,22 +8495,22 @@
         <v>8681175</v>
       </c>
       <c r="C194">
-        <v>223322627.20644116</v>
+        <v>310671140.18914711</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>347690765.29030859</v>
+        <v>258137418.6626628</v>
       </c>
       <c r="F194">
-        <v>25.724930923111348</v>
+        <v>35.786761606481512</v>
       </c>
       <c r="G194">
         <v>0</v>
       </c>
       <c r="H194">
-        <v>40.051118113654958</v>
+        <v>29.735308718308616</v>
       </c>
       <c r="I194" t="s">
         <v>11</v>
@@ -8536,22 +8536,22 @@
         <v>1498688</v>
       </c>
       <c r="C195">
-        <v>72318915.232633173</v>
+        <v>112917257.02135889</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>40840826.950546823</v>
+        <v>1140578.3537511011</v>
       </c>
       <c r="F195">
-        <v>48.254817035055446</v>
+        <v>75.344072296140951</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
       <c r="H195">
-        <v>27.251053555207505</v>
+        <v>0.76105123531455587</v>
       </c>
       <c r="I195" t="s">
         <v>44</v>
@@ -8577,22 +8577,22 @@
         <v>2563582</v>
       </c>
       <c r="C196">
-        <v>141984559.56100982</v>
+        <v>219946147.43888655</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>80183266.134835184</v>
+        <v>2221678.2569584521</v>
       </c>
       <c r="F196">
-        <v>55.385222536673226</v>
+        <v>85.79641588951965</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
       <c r="H196">
-        <v>31.277823816376923</v>
+        <v>0.86663046353050222</v>
       </c>
       <c r="I196" t="s">
         <v>41</v>
@@ -8618,22 +8618,22 @@
         <v>2383346</v>
       </c>
       <c r="C197">
-        <v>129367505.40005404</v>
+        <v>123634733.49902849</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>32005682.209160961</v>
+        <v>26683755.431445006</v>
       </c>
       <c r="F197">
-        <v>54.279783715857469</v>
+        <v>51.874437659923693</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
       <c r="H197">
-        <v>13.428886199973046</v>
+        <v>11.195921797105836</v>
       </c>
       <c r="I197" t="s">
         <v>45</v>
@@ -8659,22 +8659,22 @@
         <v>14585886</v>
       </c>
       <c r="C198">
-        <v>403715604.79897356</v>
+        <v>404442384.87053597</v>
       </c>
       <c r="D198">
-        <v>39052354.608011268</v>
+        <v>39519335.170195758</v>
       </c>
       <c r="E198">
-        <v>19965516.293345775</v>
+        <v>20204260.105762579</v>
       </c>
       <c r="F198">
-        <v>27.678510911094023</v>
+        <v>27.728338537030659</v>
       </c>
       <c r="G198">
-        <v>2.6774070912120984</v>
+        <v>2.7094230114095064</v>
       </c>
       <c r="H198">
-        <v>1.3688243753821863</v>
+        <v>1.3851925145831099</v>
       </c>
       <c r="I198" t="s">
         <v>24</v>
@@ -8700,22 +8700,22 @@
         <v>93260</v>
       </c>
       <c r="C199">
-        <v>6386507.2007386023</v>
+        <v>6396372.1537193619</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>1580029.8479997781</v>
+        <v>1454046.3903731978</v>
       </c>
       <c r="F199">
-        <v>68.480669105067577</v>
+        <v>68.586448141961853</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
       <c r="H199">
-        <v>16.942202959465774</v>
+        <v>15.591318790190842</v>
       </c>
       <c r="I199" t="s">
         <v>22</v>
@@ -8741,22 +8741,22 @@
         <v>2184313</v>
       </c>
       <c r="C200">
-        <v>69099992.636038795</v>
+        <v>71087563.162162766</v>
       </c>
       <c r="D200">
-        <v>4220247.8022358669</v>
+        <v>4714150.2567648441</v>
       </c>
       <c r="E200">
-        <v>73578441.880933031</v>
+        <v>70396561.763680831</v>
       </c>
       <c r="F200">
-        <v>31.634657045963099</v>
+        <v>32.544586404129248</v>
       </c>
       <c r="G200">
-        <v>1.9320710000058905</v>
+        <v>2.1581844070720835</v>
       </c>
       <c r="H200">
-        <v>33.684935208888575</v>
+        <v>32.228239159717873</v>
       </c>
       <c r="I200" t="s">
         <v>15</v>
@@ -8782,22 +8782,22 @@
         <v>2459453</v>
       </c>
       <c r="C201">
-        <v>108799115.31307428</v>
+        <v>110801913.38917714</v>
       </c>
       <c r="D201">
-        <v>7265911.697896136</v>
+        <v>6282600.2113317866</v>
       </c>
       <c r="E201">
-        <v>3714697.3555494011</v>
+        <v>3211979.3580433773</v>
       </c>
       <c r="F201">
-        <v>44.237119112694685</v>
+        <v>45.051445743902057</v>
       </c>
       <c r="G201">
-        <v>2.9542795482963635</v>
+        <v>2.5544705311838798</v>
       </c>
       <c r="H201">
-        <v>1.5103754190665164</v>
+        <v>1.3059730590677592</v>
       </c>
       <c r="I201" t="s">
         <v>24</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>209523631.28681877</v>
+        <v>208505537.84033278</v>
       </c>
       <c r="F202">
         <v>1.8858566657781348</v>
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>68.895142334403559</v>
+        <v>68.560374878939982</v>
       </c>
       <c r="I202" t="s">
         <v>42</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>441867747.27720964</v>
+        <v>438415655.50160635</v>
       </c>
       <c r="F203">
         <v>1.9826048037774777</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>72.077656298277063</v>
+        <v>71.514549608446757</v>
       </c>
       <c r="I203" t="s">
         <v>15</v>
@@ -8905,22 +8905,22 @@
         <v>9975515</v>
       </c>
       <c r="C204">
-        <v>1778673153.4068475</v>
+        <v>1715834726.3006501</v>
       </c>
       <c r="D204">
-        <v>13405327.390898889</v>
+        <v>12203723.698967127</v>
       </c>
       <c r="E204">
-        <v>226747344.33036315</v>
+        <v>168027376.64242774</v>
       </c>
       <c r="F204">
-        <v>178.30389242127825</v>
+        <v>172.00462595672005</v>
       </c>
       <c r="G204">
-        <v>1.3438230899255716</v>
+        <v>1.2233677859205392</v>
       </c>
       <c r="H204">
-        <v>22.730389792443113</v>
+        <v>16.843980149639165</v>
       </c>
       <c r="I204" t="s">
         <v>15</v>
@@ -8946,22 +8946,22 @@
         <v>4778869</v>
       </c>
       <c r="C205">
-        <v>486912403.99494362</v>
+        <v>493490828.94438106</v>
       </c>
       <c r="D205">
-        <v>1745305.5819125199</v>
+        <v>1668720.3257821104</v>
       </c>
       <c r="E205">
-        <v>55209091.806503251</v>
+        <v>34090115.534430861</v>
       </c>
       <c r="F205">
-        <v>101.88862762192134</v>
+        <v>103.26519286140321</v>
       </c>
       <c r="G205">
-        <v>0.36521310417015407</v>
+        <v>0.34918729217773292</v>
       </c>
       <c r="H205">
-        <v>11.552752713351893</v>
+        <v>7.1335111999158922</v>
       </c>
       <c r="I205" t="s">
         <v>15</v>
@@ -8987,22 +8987,22 @@
         <v>7465222</v>
       </c>
       <c r="C206">
-        <v>401184763.65076196</v>
+        <v>386910118.91254324</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>99253610.965573072</v>
+        <v>83252793.108742148</v>
       </c>
       <c r="F206">
-        <v>53.740500101773527</v>
+        <v>51.828347356922976</v>
       </c>
       <c r="G206">
         <v>0</v>
       </c>
       <c r="H206">
-        <v>13.295466761145626</v>
+        <v>11.152085377868488</v>
       </c>
       <c r="I206" t="s">
         <v>30</v>
@@ -9028,22 +9028,22 @@
         <v>9630419</v>
       </c>
       <c r="C207">
-        <v>171133582.1610339</v>
+        <v>195496730.30059996</v>
       </c>
       <c r="D207">
-        <v>3439274.8259473676</v>
+        <v>2072422.5735350493</v>
       </c>
       <c r="E207">
-        <v>58593252.218103752</v>
+        <v>32248947.754483253</v>
       </c>
       <c r="F207">
-        <v>17.770107630938373</v>
+        <v>20.299919484354728</v>
       </c>
       <c r="G207">
-        <v>0.35712618796205725</v>
+        <v>0.21519547317048712</v>
       </c>
       <c r="H207">
-        <v>6.0841851448108075</v>
+        <v>3.348654690360124</v>
       </c>
       <c r="I207" t="s">
         <v>46</v>
@@ -9069,22 +9069,22 @@
         <v>12442473</v>
       </c>
       <c r="C208">
-        <v>631795623.0835557</v>
+        <v>625564756.319893</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>156307025.25351995</v>
+        <v>141350662.18041137</v>
       </c>
       <c r="F208">
-        <v>50.777335267961256</v>
+        <v>50.276561284874234</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>12.562376085004963</v>
+        <v>11.360335054005049</v>
       </c>
       <c r="I208" t="s">
         <v>24</v>
@@ -9110,22 +9110,22 @@
         <v>6659324</v>
       </c>
       <c r="C209">
-        <v>446115727.01326728</v>
+        <v>446117778.91064513</v>
       </c>
       <c r="D209">
-        <v>41355517.394465178</v>
+        <v>42428677.454744183</v>
       </c>
       <c r="E209">
-        <v>21143008.26792036</v>
+        <v>21691661.348737977</v>
       </c>
       <c r="F209">
-        <v>66.991143096997121</v>
+        <v>66.991451220971541</v>
       </c>
       <c r="G209">
-        <v>6.2101674876406641</v>
+        <v>6.3713189889460526</v>
       </c>
       <c r="H209">
-        <v>3.174948128056295</v>
+        <v>3.2573368330986714</v>
       </c>
       <c r="I209" t="s">
         <v>40</v>
@@ -9151,22 +9151,22 @@
         <v>4935387</v>
       </c>
       <c r="C210">
-        <v>262323572.49147558</v>
+        <v>259839491.63905388</v>
       </c>
       <c r="D210">
-        <v>8997198.1430891324</v>
+        <v>7772555.4766887594</v>
       </c>
       <c r="E210">
-        <v>38237467.073859856</v>
+        <v>29763876.51489687</v>
       </c>
       <c r="F210">
-        <v>53.151570989564867</v>
+        <v>52.648250611158531</v>
       </c>
       <c r="G210">
-        <v>1.8229974960604167</v>
+        <v>1.5748624123475543</v>
       </c>
       <c r="H210">
-        <v>7.7476127148407725</v>
+        <v>6.0307077266477522</v>
       </c>
       <c r="I210" t="s">
         <v>14</v>
@@ -9192,22 +9192,22 @@
         <v>3211787</v>
       </c>
       <c r="C211">
-        <v>109604362.61627623</v>
+        <v>141414929.55157885</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>84005898.534936011</v>
+        <v>50616887.434701107</v>
       </c>
       <c r="F211">
-        <v>34.125663568685042</v>
+        <v>44.029983791446583</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
       <c r="H211">
-        <v>26.155501138442869</v>
+        <v>15.759727352623667</v>
       </c>
       <c r="I211" t="s">
         <v>15</v>
@@ -9233,22 +9233,22 @@
         <v>8727176</v>
       </c>
       <c r="C212">
-        <v>271364244.78902578</v>
+        <v>274356398.19925433</v>
       </c>
       <c r="D212">
-        <v>16351941.667045265</v>
+        <v>18071974.289789535</v>
       </c>
       <c r="E212">
-        <v>289855383.64895344</v>
+        <v>275903071.70552903</v>
       </c>
       <c r="F212">
-        <v>31.094164342397331</v>
+        <v>31.437019053959073</v>
       </c>
       <c r="G212">
-        <v>1.8736807493105749</v>
+        <v>2.0707700050726072</v>
       </c>
       <c r="H212">
-        <v>33.212964153461947</v>
+        <v>31.614244024129803</v>
       </c>
       <c r="I212" t="s">
         <v>15</v>
@@ -9274,22 +9274,22 @@
         <v>11925993</v>
       </c>
       <c r="C213">
-        <v>2374390779.0731683</v>
+        <v>2344257298.8099794</v>
       </c>
       <c r="D213">
-        <v>95579499.354035884</v>
+        <v>53829963.615285307</v>
       </c>
       <c r="E213">
-        <v>48865019.044750676</v>
+        <v>27520568.898314536</v>
       </c>
       <c r="F213">
-        <v>199.09375924278743</v>
+        <v>196.56705305880857</v>
       </c>
       <c r="G213">
-        <v>8.0143849953656598</v>
+        <v>4.5136672154080006</v>
       </c>
       <c r="H213">
-        <v>4.0973543288806793</v>
+        <v>2.3076123638773338</v>
       </c>
       <c r="I213" t="s">
         <v>15</v>
@@ -9315,22 +9315,22 @@
         <v>3197035</v>
       </c>
       <c r="C214">
-        <v>143249584.14050022</v>
+        <v>131794238.36140847</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>80897666.36848031</v>
+        <v>48473962.951744333</v>
       </c>
       <c r="F214">
-        <v>44.807011540536848</v>
+        <v>41.223896004081432</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214">
-        <v>25.303966446560739</v>
+        <v>15.162162113253165</v>
       </c>
       <c r="I214" t="s">
         <v>15</v>
@@ -9356,22 +9356,22 @@
         <v>2169628</v>
       </c>
       <c r="C215">
-        <v>303351712.34457284</v>
+        <v>309077401.15147924</v>
       </c>
       <c r="D215">
-        <v>18800789.992363721</v>
+        <v>20420908.363102924</v>
       </c>
       <c r="E215">
-        <v>325047780.60588431</v>
+        <v>308325084.08593029</v>
       </c>
       <c r="F215">
-        <v>139.8173845214815</v>
+        <v>142.45640319514646</v>
       </c>
       <c r="G215">
-        <v>8.6654440265168589</v>
+        <v>9.4121703642757755</v>
       </c>
       <c r="H215">
-        <v>149.8172869293189</v>
+        <v>142.10965386044532</v>
       </c>
       <c r="I215" t="s">
         <v>15</v>
@@ -9397,22 +9397,22 @@
         <v>2005494</v>
       </c>
       <c r="C216">
-        <v>93570633.626900956</v>
+        <v>89975526.830693215</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>50366610.44415389</v>
+        <v>29302072.144079071</v>
       </c>
       <c r="F216">
-        <v>46.657149623434904</v>
+        <v>44.864520577320711</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>25.114316195487941</v>
+        <v>14.610899929932012</v>
       </c>
       <c r="I216" t="s">
         <v>10</v>
@@ -9438,22 +9438,22 @@
         <v>5753937</v>
       </c>
       <c r="C217">
-        <v>161839286.01731399</v>
+        <v>195032176.98087204</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>207326509.88370895</v>
+        <v>166611220.54472768</v>
       </c>
       <c r="F217">
-        <v>28.126704553302197</v>
+        <v>33.895431420412152</v>
       </c>
       <c r="G217">
         <v>0</v>
       </c>
       <c r="H217">
-        <v>36.032113296288948</v>
+        <v>28.956038368985912</v>
       </c>
       <c r="I217" t="s">
         <v>15</v>
@@ -9479,22 +9479,22 @@
         <v>6488120</v>
       </c>
       <c r="C218">
-        <v>227706073.89230275</v>
+        <v>286499475.80238724</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>169628841.01489618</v>
+        <v>101359629.66594255</v>
       </c>
       <c r="F218">
-        <v>35.095848087320014</v>
+        <v>44.157548843484278</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
       <c r="H218">
-        <v>26.14452892592865</v>
+        <v>15.62234201370236</v>
       </c>
       <c r="I218" t="s">
         <v>15</v>
@@ -9520,22 +9520,22 @@
         <v>1861832</v>
       </c>
       <c r="C219">
-        <v>89233598.045237154</v>
+        <v>122366010.80125724</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>35817948.585378416</v>
+        <v>1909809.7679492631</v>
       </c>
       <c r="F219">
-        <v>47.92784636059384</v>
+        <v>65.723443791522129</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>19.238013196345545</v>
+        <v>1.0257691177019532</v>
       </c>
       <c r="I219" t="s">
         <v>30</v>
@@ -9561,22 +9561,22 @@
         <v>10724956</v>
       </c>
       <c r="C220">
-        <v>455199740.9261564</v>
+        <v>560470412.3425374</v>
       </c>
       <c r="D220">
-        <v>5533600.5108321989</v>
+        <v>5649457.2570115793</v>
       </c>
       <c r="E220">
-        <v>199694838.04444978</v>
+        <v>83067069.300381929</v>
       </c>
       <c r="F220">
-        <v>42.44304041211511</v>
+        <v>52.258527899092307</v>
       </c>
       <c r="G220">
-        <v>0.5159555443241165</v>
+        <v>0.52675808245848088</v>
       </c>
       <c r="H220">
-        <v>18.619641707103487</v>
+        <v>7.745213061981973</v>
       </c>
       <c r="I220" t="s">
         <v>41</v>
@@ -9602,22 +9602,22 @@
         <v>5178428</v>
       </c>
       <c r="C221">
-        <v>183515399.26584983</v>
+        <v>183620008.72079277</v>
       </c>
       <c r="D221">
-        <v>18307025.347578634</v>
+        <v>18579529.561384726</v>
       </c>
       <c r="E221">
-        <v>9359466.7089495976</v>
+        <v>9498784.488257952</v>
       </c>
       <c r="F221">
-        <v>35.43843793248643</v>
+        <v>35.458638938456374</v>
       </c>
       <c r="G221">
-        <v>3.5352476364600673</v>
+        <v>3.5878705972902831</v>
       </c>
       <c r="H221">
-        <v>1.8073953541402135</v>
+        <v>1.8342988428646594</v>
       </c>
       <c r="I221" t="s">
         <v>24</v>
@@ -9643,22 +9643,22 @@
         <v>3427166</v>
       </c>
       <c r="C222">
-        <v>160675600.28237617</v>
+        <v>248900157.72703621</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>90738700.452003837</v>
+        <v>2514143.0073438021</v>
       </c>
       <c r="F222">
-        <v>46.882934845401763</v>
+        <v>72.625649801333296</v>
       </c>
       <c r="G222">
         <v>0</v>
       </c>
       <c r="H222">
-        <v>26.47630737816722</v>
+        <v>0.73359242223569043</v>
       </c>
       <c r="I222" t="s">
         <v>19</v>
@@ -9684,22 +9684,22 @@
         <v>3910602</v>
       </c>
       <c r="C223">
-        <v>190169386.20674834</v>
+        <v>191324958.04700729</v>
       </c>
       <c r="D223">
-        <v>18269194.973282594</v>
+        <v>18588536.502331164</v>
       </c>
       <c r="E223">
-        <v>9340125.9300907329</v>
+        <v>9503389.2868168037</v>
       </c>
       <c r="F223">
-        <v>48.629184510913753</v>
+        <v>48.92468168507235</v>
       </c>
       <c r="G223">
-        <v>4.6717091059848572</v>
+        <v>4.7533695585311833</v>
       </c>
       <c r="H223">
-        <v>2.3884112804347599</v>
+        <v>2.4301601867990668</v>
       </c>
       <c r="I223" t="s">
         <v>16</v>
@@ -9725,22 +9725,22 @@
         <v>3855966</v>
       </c>
       <c r="C224">
-        <v>163736631.554784</v>
+        <v>248703800.48726574</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>88200132.097191274</v>
+        <v>2440075.0465199249</v>
       </c>
       <c r="F224">
-        <v>42.463193802742033</v>
+        <v>64.498442280680308</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224">
-        <v>22.873679927984654</v>
+        <v>0.63280512497255548</v>
       </c>
       <c r="I224" t="s">
         <v>25</v>
@@ -9766,22 +9766,22 @@
         <v>16989297</v>
       </c>
       <c r="C225">
-        <v>1185880584.1486757</v>
+        <v>1206264586.7704494</v>
       </c>
       <c r="D225">
-        <v>27023842.171313155</v>
+        <v>14893677.666343644</v>
       </c>
       <c r="E225">
-        <v>13815939.31008384</v>
+        <v>7614392.7069182079</v>
       </c>
       <c r="F225">
-        <v>69.801627704117223</v>
+        <v>71.001442070878468</v>
       </c>
       <c r="G225">
-        <v>1.5906392225242254</v>
+        <v>0.87665061516928244</v>
       </c>
       <c r="H225">
-        <v>0.81321430251550963</v>
+        <v>0.4481876270052968</v>
       </c>
       <c r="I225" t="s">
         <v>22</v>
@@ -9807,22 +9807,22 @@
         <v>7463219</v>
       </c>
       <c r="C226">
-        <v>355157386.03675103</v>
+        <v>354345928.60499656</v>
       </c>
       <c r="D226">
-        <v>33995874.50745628</v>
+        <v>34352427.547930844</v>
       </c>
       <c r="E226">
-        <v>17380390.841937035</v>
+        <v>17562678.583879661</v>
       </c>
       <c r="F226">
-        <v>47.587694537270181</v>
+        <v>47.478966998690048</v>
       </c>
       <c r="G226">
-        <v>4.5551221942510702</v>
+        <v>4.6028968931409953</v>
       </c>
       <c r="H226">
-        <v>2.3288062218108614</v>
+        <v>2.353231036618336</v>
       </c>
       <c r="I226" t="s">
         <v>39</v>
@@ -9848,22 +9848,22 @@
         <v>6662529</v>
       </c>
       <c r="C227">
-        <v>271177048.28819513</v>
+        <v>169696440.93709409</v>
       </c>
       <c r="D227">
         <v>0</v>
       </c>
       <c r="E227">
-        <v>206874779.78008285</v>
+        <v>340668794.9639408</v>
       </c>
       <c r="F227">
-        <v>40.701818827084303</v>
+        <v>25.470274266287486</v>
       </c>
       <c r="G227">
         <v>0</v>
       </c>
       <c r="H227">
-        <v>31.050488452670578</v>
+        <v>51.132054354126005</v>
       </c>
       <c r="I227" t="s">
         <v>34</v>
@@ -9889,22 +9889,22 @@
         <v>10860909</v>
       </c>
       <c r="C228">
-        <v>211528355.14741898</v>
+        <v>246761554.06202024</v>
       </c>
       <c r="D228">
-        <v>4296568.6130653089</v>
+        <v>2825724.1609673239</v>
       </c>
       <c r="E228">
-        <v>74800573.593586922</v>
+        <v>44380582.459141329</v>
       </c>
       <c r="F228">
-        <v>19.476118909330609</v>
+        <v>22.720156670313713</v>
       </c>
       <c r="G228">
-        <v>0.39559935665286478</v>
+        <v>0.26017381795274447</v>
       </c>
       <c r="H228">
-        <v>6.8871374940704246</v>
+        <v>4.0862677754818986</v>
       </c>
       <c r="I228" t="s">
         <v>46</v>
@@ -9930,22 +9930,22 @@
         <v>2584028</v>
       </c>
       <c r="C229">
-        <v>33282566.683109712</v>
+        <v>34472347.02976907</v>
       </c>
       <c r="D229">
-        <v>1957175.7520935605</v>
+        <v>2284401.1436259449</v>
       </c>
       <c r="E229">
-        <v>37539713.771757998</v>
+        <v>36090366.89626471</v>
       </c>
       <c r="F229">
-        <v>12.880110696598377</v>
+        <v>13.340547017977</v>
       </c>
       <c r="G229">
-        <v>0.75741274943365955</v>
+        <v>0.88404659068165858</v>
       </c>
       <c r="H229">
-        <v>14.527595587879851</v>
+        <v>13.966708911925378</v>
       </c>
       <c r="I229" t="s">
         <v>26</v>
@@ -9971,22 +9971,22 @@
         <v>5184267</v>
       </c>
       <c r="C230">
-        <v>298277114.22935003</v>
+        <v>286650445.35010421</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>73794130.131585523</v>
+        <v>61214923.278593734</v>
       </c>
       <c r="F230">
-        <v>57.535060256223304</v>
+        <v>55.292376984075901</v>
       </c>
       <c r="G230">
         <v>0</v>
       </c>
       <c r="H230">
-        <v>14.234245676695572</v>
+        <v>11.807826116709215</v>
       </c>
       <c r="I230" t="s">
         <v>42</v>
@@ -10012,22 +10012,22 @@
         <v>4104611</v>
       </c>
       <c r="C231">
-        <v>999953253.19666481</v>
+        <v>986124165.35661471</v>
       </c>
       <c r="D231">
-        <v>21530006.860595614</v>
+        <v>16283198.465996694</v>
       </c>
       <c r="E231">
-        <v>11007216.007479494</v>
+        <v>8324785.2157408213</v>
       </c>
       <c r="F231">
-        <v>243.61705730376516</v>
+        <v>240.24789812155518</v>
       </c>
       <c r="G231">
-        <v>5.2453221171496187</v>
+        <v>3.9670503407013951</v>
       </c>
       <c r="H231">
-        <v>2.6816709323927395</v>
+        <v>2.028154486683591</v>
       </c>
       <c r="I231" t="s">
         <v>15</v>
@@ -10053,22 +10053,22 @@
         <v>3995922</v>
       </c>
       <c r="C232">
-        <v>178695818.06698671</v>
+        <v>272228090.82731384</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>96387944.987793788</v>
+        <v>2659537.531643515</v>
       </c>
       <c r="F232">
-        <v>44.7195460939895</v>
+        <v>68.126477650793447</v>
       </c>
       <c r="G232">
         <v>0</v>
       </c>
       <c r="H232">
-        <v>24.121578195919188</v>
+        <v>0.66556292431221509</v>
       </c>
       <c r="I232" t="s">
         <v>25</v>
@@ -10094,22 +10094,22 @@
         <v>5491581</v>
       </c>
       <c r="C233">
-        <v>143738998.91631711</v>
+        <v>147659085.7477352</v>
       </c>
       <c r="D233">
-        <v>11153837.985372407</v>
+        <v>11841455.907470278</v>
       </c>
       <c r="E233">
-        <v>83580907.276766017</v>
+        <v>81088148.915661141</v>
       </c>
       <c r="F233">
-        <v>26.17442935218785</v>
+        <v>26.888265100293559</v>
       </c>
       <c r="G233">
-        <v>2.031079571688446</v>
+        <v>2.15629267918843</v>
       </c>
       <c r="H233">
-        <v>15.219825998517734</v>
+        <v>14.765902372315212</v>
       </c>
       <c r="I233" t="s">
         <v>24</v>
@@ -10135,22 +10135,22 @@
         <v>1933371</v>
       </c>
       <c r="C234">
-        <v>47836883.763890035</v>
+        <v>74103397.734796643</v>
       </c>
       <c r="D234">
         <v>0</v>
       </c>
       <c r="E234">
-        <v>27015033.139944967</v>
+        <v>748519.16903835069</v>
       </c>
       <c r="F234">
-        <v>24.742733683235155</v>
+        <v>38.328596909127448</v>
       </c>
       <c r="G234">
         <v>0</v>
       </c>
       <c r="H234">
-        <v>13.973020770428938</v>
+        <v>0.38715754453664131</v>
       </c>
       <c r="I234" t="s">
         <v>19</v>
@@ -10176,22 +10176,22 @@
         <v>1299004</v>
       </c>
       <c r="C235">
-        <v>16866018.2510316</v>
+        <v>15705232.558517549</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>71367434.740979999</v>
+        <v>72554464.522896305</v>
       </c>
       <c r="F235">
-        <v>12.98380778737525</v>
+        <v>12.090211083659133</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
       <c r="H235">
-        <v>54.940119307546396</v>
+        <v>55.853919251131103</v>
       </c>
       <c r="I235" t="s">
         <v>30</v>
@@ -10217,22 +10217,22 @@
         <v>2477354</v>
       </c>
       <c r="C236">
-        <v>147800081.82704312</v>
+        <v>142064250.51566792</v>
       </c>
       <c r="D236">
         <v>0</v>
       </c>
       <c r="E236">
-        <v>36565924.610016882</v>
+        <v>30508184.398513503</v>
       </c>
       <c r="F236">
-        <v>59.66046105120347</v>
+        <v>57.345155563422878</v>
       </c>
       <c r="G236">
         <v>0</v>
       </c>
       <c r="H236">
-        <v>14.760072484601265</v>
+        <v>12.314826382710546</v>
       </c>
       <c r="I236" t="s">
         <v>18</v>
@@ -10258,22 +10258,22 @@
         <v>3250811</v>
       </c>
       <c r="C237">
-        <v>118357753.9853384</v>
+        <v>117953829.11406308</v>
       </c>
       <c r="D237">
-        <v>11282798.533924401</v>
+        <v>11493444.478558894</v>
       </c>
       <c r="E237">
-        <v>5768330.7504688539</v>
+        <v>5876023.4896632303</v>
       </c>
       <c r="F237">
-        <v>36.40868508976326</v>
+        <v>36.284431520030871</v>
       </c>
       <c r="G237">
-        <v>3.4707642289645264</v>
+        <v>3.5355621961900874</v>
       </c>
       <c r="H237">
-        <v>1.7744282120581154</v>
+        <v>1.8075561728021807</v>
       </c>
       <c r="I237" t="s">
         <v>26</v>
@@ -10299,22 +10299,22 @@
         <v>2434413</v>
       </c>
       <c r="C238">
-        <v>358819132.62467927</v>
+        <v>326781508.1130228</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>202636752.15439564</v>
+        <v>114276861.20456733</v>
       </c>
       <c r="F238">
-        <v>147.39451877092313</v>
+        <v>134.23421092190307</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>83.238444813758235</v>
+        <v>46.942265426847179</v>
       </c>
       <c r="I238" t="s">
         <v>15</v>
@@ -10340,22 +10340,22 @@
         <v>2199703</v>
       </c>
       <c r="C239">
-        <v>55306256.491727591</v>
+        <v>32681128.22244212</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>40259740.079302073</v>
+        <v>65607979.213474035</v>
       </c>
       <c r="F239">
-        <v>25.142601747475723</v>
+        <v>14.857063986566423</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
       <c r="H239">
-        <v>18.302352671838914</v>
+        <v>29.825835221152143</v>
       </c>
       <c r="I239" t="s">
         <v>16</v>
@@ -10381,22 +10381,22 @@
         <v>5484916</v>
       </c>
       <c r="C240">
-        <v>164322614.03668934</v>
+        <v>187760253.57010436</v>
       </c>
       <c r="D240">
-        <v>3261762.0475789602</v>
+        <v>2211256.24200586</v>
       </c>
       <c r="E240">
-        <v>58219539.32981725</v>
+        <v>33663237.900644489</v>
       </c>
       <c r="F240">
-        <v>29.959002842831019</v>
+        <v>34.232111042375919</v>
       </c>
       <c r="G240">
-        <v>0.59467857804549062</v>
+        <v>0.40315225283411088</v>
       </c>
       <c r="H240">
-        <v>10.614481485189062</v>
+        <v>6.1374208649037634</v>
       </c>
       <c r="I240" t="s">
         <v>38</v>
@@ -10422,22 +10422,22 @@
         <v>4229531</v>
       </c>
       <c r="C241">
-        <v>261255528.62532994</v>
+        <v>277865593.65247416</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>22293079.582744263</v>
+        <v>2189380.0587404515</v>
       </c>
       <c r="F241">
-        <v>61.769384980351234</v>
+        <v>65.696549724419597</v>
       </c>
       <c r="G241">
         <v>0</v>
       </c>
       <c r="H241">
-        <v>5.2708159800091936</v>
+        <v>0.51764133156618342</v>
       </c>
       <c r="I241" t="s">
         <v>25</v>
@@ -10463,22 +10463,22 @@
         <v>602999</v>
       </c>
       <c r="C242">
-        <v>9351375.6834249366</v>
+        <v>17763874.363769621</v>
       </c>
       <c r="D242">
         <v>0</v>
       </c>
       <c r="E242">
-        <v>41225734.122299999</v>
+        <v>35661311.692680374</v>
       </c>
       <c r="F242">
-        <v>15.50811142875019</v>
+        <v>29.459210320033069</v>
       </c>
       <c r="G242">
         <v>0</v>
       </c>
       <c r="H242">
-        <v>68.367831658593133</v>
+        <v>59.139918462021285</v>
       </c>
       <c r="I242" t="s">
         <v>41</v>
@@ -10504,22 +10504,22 @@
         <v>3406721</v>
       </c>
       <c r="C243">
-        <v>39982395.079205699</v>
+        <v>46962105.203988805</v>
       </c>
       <c r="D243">
-        <v>865578.83664665453</v>
+        <v>523230.39980257361</v>
       </c>
       <c r="E243">
-        <v>14992193.129956651</v>
+        <v>8754769.4956649821</v>
       </c>
       <c r="F243">
-        <v>11.736328005494345</v>
+        <v>13.785133917332475</v>
       </c>
       <c r="G243">
-        <v>0.25407975488648893</v>
+        <v>0.15358768733998868</v>
       </c>
       <c r="H243">
-        <v>4.400769282238449</v>
+        <v>2.5698522114564071</v>
       </c>
       <c r="I243" t="s">
         <v>46</v>
@@ -10545,22 +10545,22 @@
         <v>4583206</v>
       </c>
       <c r="C244">
-        <v>1574443999.511585</v>
+        <v>1472329166.9820445</v>
       </c>
       <c r="D244">
-        <v>8856898.73980706</v>
+        <v>8915058.1061014365</v>
       </c>
       <c r="E244">
-        <v>168251254.84845591</v>
+        <v>113764600.97804253</v>
       </c>
       <c r="F244">
-        <v>343.52459817681881</v>
+        <v>321.24437936720375</v>
       </c>
       <c r="G244">
-        <v>1.9324679579768091</v>
+        <v>1.9451576268012907</v>
       </c>
       <c r="H244">
-        <v>36.710384575438219</v>
+        <v>24.822057087995287</v>
       </c>
       <c r="I244" t="s">
         <v>15</v>
@@ -10586,22 +10586,22 @@
         <v>4859658</v>
       </c>
       <c r="C245">
-        <v>269903636.19857728</v>
+        <v>346552267.6304704</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>76511417.850045115</v>
+        <v>3086217.4912778297</v>
       </c>
       <c r="F245">
-        <v>55.539635957628562</v>
+        <v>71.312069209493842</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
       <c r="H245">
-        <v>15.744198017647562</v>
+        <v>0.63506886519130146</v>
       </c>
       <c r="I245" t="s">
         <v>40</v>
@@ -10627,22 +10627,22 @@
         <v>12498933</v>
       </c>
       <c r="C246">
-        <v>744433473.85258365</v>
+        <v>742052078.53011167</v>
       </c>
       <c r="D246">
-        <v>70905996.16180107</v>
+        <v>72064315.747683898</v>
       </c>
       <c r="E246">
-        <v>36250690.537720829</v>
+        <v>36842881.426003389</v>
       </c>
       <c r="F246">
-        <v>59.559761929484992</v>
+        <v>59.369234040226608</v>
       </c>
       <c r="G246">
-        <v>5.6729639371457603</v>
+        <v>5.7656374146244245</v>
       </c>
       <c r="H246">
-        <v>2.9003028128657724</v>
+        <v>2.9476821282267367</v>
       </c>
       <c r="I246" t="s">
         <v>33</v>
@@ -10668,22 +10668,22 @@
         <v>13439341</v>
       </c>
       <c r="C247">
-        <v>562432482.62387896</v>
+        <v>571816248.79717803</v>
       </c>
       <c r="D247">
-        <v>5800763.6636125408</v>
+        <v>5261493.2827606397</v>
       </c>
       <c r="E247">
-        <v>61082963.735015169</v>
+        <v>46793263.011841007</v>
       </c>
       <c r="F247">
-        <v>41.849706962854725</v>
+        <v>42.547938086932838</v>
       </c>
       <c r="G247">
-        <v>0.43162560304203462</v>
+        <v>0.39149935125246393</v>
       </c>
       <c r="H247">
-        <v>4.5450862311638023</v>
+        <v>3.4818123159343162</v>
       </c>
       <c r="I247" t="s">
         <v>41</v>
@@ -10709,22 +10709,22 @@
         <v>5988318</v>
       </c>
       <c r="C248">
-        <v>127358829.67946072</v>
+        <v>142039471.90007609</v>
       </c>
       <c r="D248">
-        <v>2279024.263286313</v>
+        <v>1379821.2123195776</v>
       </c>
       <c r="E248">
-        <v>38956512.893458568</v>
+        <v>21425668.419190053</v>
       </c>
       <c r="F248">
-        <v>21.267880175946019</v>
+        <v>23.719427041128426</v>
       </c>
       <c r="G248">
-        <v>0.38057836328770667</v>
+        <v>0.23041882751042572</v>
       </c>
       <c r="H248">
-        <v>6.5054181981415429</v>
+        <v>3.5779109291106539</v>
       </c>
       <c r="I248" t="s">
         <v>46</v>
@@ -10750,22 +10750,22 @@
         <v>14171621</v>
       </c>
       <c r="C249">
-        <v>733612345.47088504</v>
+        <v>733128520.8933394</v>
       </c>
       <c r="D249">
-        <v>70334995.373020917</v>
+        <v>71418101.568149358</v>
       </c>
       <c r="E249">
-        <v>35958766.38445697</v>
+        <v>36512504.426716372</v>
       </c>
       <c r="F249">
-        <v>51.766297269090465</v>
+        <v>51.732156885464221</v>
       </c>
       <c r="G249">
-        <v>4.9630875235106071</v>
+        <v>5.0395153503010954</v>
       </c>
       <c r="H249">
-        <v>2.5373784963947998</v>
+        <v>2.5764522228414357</v>
       </c>
       <c r="I249" t="s">
         <v>35</v>
@@ -10791,22 +10791,22 @@
         <v>1551911</v>
       </c>
       <c r="C250">
-        <v>67224628.417509094</v>
+        <v>62673339.944627956</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>37963918.667510904</v>
+        <v>22751280.938803293</v>
       </c>
       <c r="F250">
-        <v>43.317321945336488</v>
+        <v>40.384622536104168</v>
       </c>
       <c r="G250">
         <v>0</v>
       </c>
       <c r="H250">
-        <v>24.462690623051774</v>
+        <v>14.660171194613152</v>
       </c>
       <c r="I250" t="s">
         <v>19</v>
@@ -10832,22 +10832,22 @@
         <v>1921138</v>
       </c>
       <c r="C251">
-        <v>97166251.725015834</v>
+        <v>150518780.31013066</v>
       </c>
       <c r="D251">
         <v>0</v>
       </c>
       <c r="E251">
-        <v>54872920.305419162</v>
+        <v>1520391.7203043513</v>
       </c>
       <c r="F251">
-        <v>50.577445100256114</v>
+        <v>78.348760115166456</v>
       </c>
       <c r="G251">
         <v>0</v>
       </c>
       <c r="H251">
-        <v>28.562716632235251</v>
+        <v>0.79140161732491432</v>
       </c>
       <c r="I251" t="s">
         <v>34</v>
@@ -10873,22 +10873,22 @@
         <v>10047182</v>
       </c>
       <c r="C252">
-        <v>232422642.09443456</v>
+        <v>210571272.17230999</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>159966213.57838988</v>
+        <v>199101638.84108323</v>
       </c>
       <c r="F252">
-        <v>23.133117534293152</v>
+        <v>20.958242039639572</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
       <c r="H252">
-        <v>15.921500534019378</v>
+        <v>19.816664895796972</v>
       </c>
       <c r="I252" t="s">
         <v>14</v>
@@ -10914,22 +10914,22 @@
         <v>1425257</v>
       </c>
       <c r="C253">
-        <v>30710403.485108409</v>
+        <v>34726940.542154439</v>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>22803573.833460968</v>
+        <v>19892917.997496858</v>
       </c>
       <c r="F253">
-        <v>21.54727427061113</v>
+        <v>24.365388517407343</v>
       </c>
       <c r="G253">
         <v>0</v>
       </c>
       <c r="H253">
-        <v>15.999622407370017</v>
+        <v>13.957425220501888</v>
       </c>
       <c r="I253" t="s">
         <v>47</v>
@@ -10955,22 +10955,22 @@
         <v>1940463</v>
       </c>
       <c r="C254">
-        <v>49677815.523331277</v>
+        <v>50528310.74703297</v>
       </c>
       <c r="D254">
-        <v>3075913.6477648513</v>
+        <v>3387897.5368689643</v>
       </c>
       <c r="E254">
-        <v>55300377.959540047</v>
+        <v>52151065.22658959</v>
       </c>
       <c r="F254">
-        <v>25.601011471659742</v>
+        <v>26.039306468112493</v>
       </c>
       <c r="G254">
-        <v>1.5851441886626292</v>
+        <v>1.7459222550849793</v>
       </c>
       <c r="H254">
-        <v>28.498548006089294</v>
+        <v>26.875578264872658</v>
       </c>
       <c r="I254" t="s">
         <v>36</v>
@@ -10996,22 +10996,22 @@
         <v>825950</v>
       </c>
       <c r="C255">
-        <v>42562528.915755019</v>
+        <v>41201048.57098183</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>10530022.746309448</v>
+        <v>9040008.981902644</v>
       </c>
       <c r="F255">
-        <v>51.531604716695945</v>
+        <v>49.883223646687853</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>12.748983287498575</v>
+        <v>10.944983330592219</v>
       </c>
       <c r="I255" t="s">
         <v>28</v>
@@ -11037,22 +11037,22 @@
         <v>166824</v>
       </c>
       <c r="C256">
-        <v>3969463.8984702076</v>
+        <v>3747854.1023345767</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>15544955.885048686</v>
+        <v>15748514.585030116</v>
       </c>
       <c r="F256">
-        <v>23.794321551276841</v>
+        <v>22.46591678855906</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>93.181771717790525</v>
+        <v>94.401972048566847</v>
       </c>
       <c r="I256" t="s">
         <v>40</v>
@@ -11078,22 +11078,22 @@
         <v>477436</v>
       </c>
       <c r="C257">
-        <v>13517167.339863297</v>
+        <v>18165648.713302977</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>9684616.8353696987</v>
+        <v>6817627.3030761573</v>
       </c>
       <c r="F257">
-        <v>28.311998550304747</v>
+        <v>38.048343051849834</v>
       </c>
       <c r="G257">
         <v>0</v>
       </c>
       <c r="H257">
-        <v>20.284638852892741</v>
+        <v>14.279667438308291</v>
       </c>
       <c r="I257" t="s">
         <v>28</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="E259">
-        <v>12864260.979259199</v>
+        <v>13024065.463473599</v>
       </c>
       <c r="F259">
         <v>2.4712149074485956</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>84.502428339658181</v>
+        <v>85.552147946362012</v>
       </c>
       <c r="I259" t="s">
         <v>36</v>
@@ -11201,22 +11201,22 @@
         <v>334348.61</v>
       </c>
       <c r="C260">
-        <v>3670393.8946435717</v>
+        <v>3426661.8369223336</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>15202109.780347241</v>
+        <v>15168213.069878327</v>
       </c>
       <c r="F260">
-        <v>10.977745337848337</v>
+        <v>10.248769501157291</v>
       </c>
       <c r="G260">
         <v>0</v>
       </c>
       <c r="H260">
-        <v>45.467842023770466</v>
+        <v>45.366460682693813</v>
       </c>
       <c r="I260" t="s">
         <v>39</v>
@@ -11283,22 +11283,22 @@
         <v>681233</v>
       </c>
       <c r="C262">
-        <v>18267072.688652933</v>
+        <v>10989517.53556129</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>13621814.197037918</v>
+        <v>22061663.022517778</v>
       </c>
       <c r="F262">
-        <v>26.814720791055237</v>
+        <v>16.131804442182467</v>
       </c>
       <c r="G262">
         <v>0</v>
       </c>
       <c r="H262">
-        <v>19.995822570306956</v>
+        <v>32.384900647088116</v>
       </c>
       <c r="I262" t="s">
         <v>17</v>
@@ -11324,22 +11324,22 @@
         <v>335919</v>
       </c>
       <c r="C263">
-        <v>16474023.113225533</v>
+        <v>9716484.6910765283</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>12111411.791805599</v>
+        <v>19506025.658025816</v>
       </c>
       <c r="F263">
-        <v>49.041653235528599</v>
+        <v>28.925082210522561</v>
       </c>
       <c r="G263">
         <v>0</v>
       </c>
       <c r="H263">
-        <v>36.05456015231529</v>
+        <v>58.067646242176885</v>
       </c>
       <c r="I263" t="s">
         <v>38</v>
@@ -11365,22 +11365,22 @@
         <v>186061</v>
       </c>
       <c r="C264">
-        <v>3207050.842304925</v>
+        <v>2083532.4165916308</v>
       </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>2500501.5576365995</v>
+        <v>4182730.4904508684</v>
       </c>
       <c r="F264">
-        <v>17.236555980591984</v>
+        <v>11.198114685998844</v>
       </c>
       <c r="G264">
         <v>0</v>
       </c>
       <c r="H264">
-        <v>13.439149298545098</v>
+        <v>22.480425723020236</v>
       </c>
       <c r="I264" t="s">
         <v>33</v>
@@ -11406,22 +11406,22 @@
         <v>560883</v>
       </c>
       <c r="C265">
-        <v>10939983.230402999</v>
+        <v>7020610.4317165408</v>
       </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>8387320.4766422985</v>
+        <v>14094007.408032455</v>
       </c>
       <c r="F265">
-        <v>19.504929246211773</v>
+        <v>12.517067608960408</v>
       </c>
       <c r="G265">
         <v>0</v>
       </c>
       <c r="H265">
-        <v>14.95377908876236</v>
+        <v>25.128248508213755</v>
       </c>
       <c r="I265" t="s">
         <v>38</v>
@@ -11447,22 +11447,22 @@
         <v>23793</v>
       </c>
       <c r="C266">
-        <v>465493.991556825</v>
+        <v>301694.24260318867</v>
       </c>
       <c r="D266">
         <v>0</v>
       </c>
       <c r="E266">
-        <v>357603.08278484992</v>
+        <v>605656.86297031119</v>
       </c>
       <c r="F266">
-        <v>19.564325287135922</v>
+        <v>12.679958080241612</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
       <c r="H266">
-        <v>15.02976013049426</v>
+        <v>25.455254191161735</v>
       </c>
       <c r="I266" t="s">
         <v>33</v>
@@ -11488,22 +11488,22 @@
         <v>489990</v>
       </c>
       <c r="C267">
-        <v>12780272.254091302</v>
+        <v>20776562.704954978</v>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
-        <v>7217432.4771217005</v>
+        <v>209864.26974702015</v>
       </c>
       <c r="F267">
-        <v>26.082720574075598</v>
+        <v>42.402013724678007</v>
       </c>
       <c r="G267">
         <v>0</v>
       </c>
       <c r="H267">
-        <v>14.729754642179842</v>
+        <v>0.42830316893614184</v>
       </c>
       <c r="I267" t="s">
         <v>43</v>
@@ -11529,22 +11529,22 @@
         <v>11106837</v>
       </c>
       <c r="C268">
-        <v>375141505.15338898</v>
+        <v>383655375.49498963</v>
       </c>
       <c r="D268">
-        <v>8077176.7618402177</v>
+        <v>7427732.2590261027</v>
       </c>
       <c r="E268">
-        <v>4129456.6194908069</v>
+        <v>3797428.1174270995</v>
       </c>
       <c r="F268">
-        <v>33.775727973084415</v>
+        <v>34.542271170000028</v>
       </c>
       <c r="G268">
-        <v>0.72722565045658072</v>
+        <v>0.66875315258755508</v>
       </c>
       <c r="H268">
-        <v>0.37179411379592653</v>
+        <v>0.34190004926038797</v>
       </c>
       <c r="I268" t="s">
         <v>23</v>
@@ -11570,22 +11570,22 @@
         <v>7123683</v>
       </c>
       <c r="C269">
-        <v>406865203.17978406</v>
+        <v>413271414.42631495</v>
       </c>
       <c r="D269">
-        <v>18593033.180388357</v>
+        <v>12290411.924706191</v>
       </c>
       <c r="E269">
-        <v>9505688.2134735566</v>
+        <v>6283473.0965060415</v>
       </c>
       <c r="F269">
-        <v>57.114445319897598</v>
+        <v>58.013728913304391</v>
       </c>
       <c r="G269">
-        <v>2.610030960163213</v>
+        <v>1.7252890007466912</v>
       </c>
       <c r="H269">
-        <v>1.3343783283834438</v>
+        <v>0.88205400163174608</v>
       </c>
       <c r="I269" t="s">
         <v>40</v>
@@ -11652,22 +11652,22 @@
         <v>4062213</v>
       </c>
       <c r="C271">
-        <v>137816092.26703915</v>
+        <v>213766599.42245033</v>
       </c>
       <c r="D271">
         <v>0</v>
       </c>
       <c r="E271">
-        <v>77829198.034471169</v>
+        <v>2159258.5800247528</v>
       </c>
       <c r="F271">
-        <v>33.926357940127502</v>
+        <v>52.623188252917892</v>
       </c>
       <c r="G271">
         <v>0</v>
       </c>
       <c r="H271">
-        <v>19.159309970814228</v>
+        <v>0.53154735609008019</v>
       </c>
       <c r="I271" t="s">
         <v>42</v>
@@ -11693,22 +11693,22 @@
         <v>3230316</v>
       </c>
       <c r="C272">
-        <v>121257225.18151391</v>
+        <v>188214357.41978508</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>68477871.0273996</v>
+        <v>1901155.1254523762</v>
       </c>
       <c r="F272">
-        <v>37.537264212390959</v>
+        <v>58.264998662603006</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
       <c r="H272">
-        <v>21.198505355946477</v>
+        <v>0.58853534002629349</v>
       </c>
       <c r="I272" t="s">
         <v>42</v>
@@ -11734,22 +11734,22 @@
         <v>773802</v>
       </c>
       <c r="C273">
-        <v>40905003.439576775</v>
+        <v>62866386.52273979</v>
       </c>
       <c r="D273">
         <v>0</v>
       </c>
       <c r="E273">
-        <v>23100376.457713224</v>
+        <v>635014.00528020051</v>
       </c>
       <c r="F273">
-        <v>52.862364583674861</v>
+        <v>81.243504827772213</v>
       </c>
       <c r="G273">
         <v>0</v>
       </c>
       <c r="H273">
-        <v>29.85308445534287</v>
+        <v>0.82064146290679074</v>
       </c>
       <c r="I273" t="s">
         <v>41</v>
@@ -11775,22 +11775,22 @@
         <v>3492531</v>
       </c>
       <c r="C274">
-        <v>117130074.96340548</v>
+        <v>182209326.36376497</v>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>66147136.014098145</v>
+        <v>1840498.2460986378</v>
       </c>
       <c r="F274">
-        <v>33.537304311230301</v>
+        <v>52.171140746858072</v>
       </c>
       <c r="G274">
         <v>0</v>
       </c>
       <c r="H274">
-        <v>18.939598822200331</v>
+        <v>0.52698121966523359</v>
       </c>
       <c r="I274" t="s">
         <v>15</v>
@@ -11816,22 +11816,22 @@
         <v>3055709</v>
       </c>
       <c r="C275">
-        <v>162827434.05273381</v>
+        <v>170565289.13377747</v>
       </c>
       <c r="D275">
-        <v>7312540.8955111066</v>
+        <v>4582132.4804936526</v>
       </c>
       <c r="E275">
-        <v>3738536.5328300605</v>
+        <v>2342615.2306523854</v>
       </c>
       <c r="F275">
-        <v>53.286302476032176</v>
+        <v>55.81856424606449</v>
       </c>
       <c r="G275">
-        <v>2.3930750262904965</v>
+        <v>1.4995316898610609</v>
       </c>
       <c r="H275">
-        <v>1.2234596071910186</v>
+        <v>0.76663557644146918</v>
       </c>
       <c r="I275" t="s">
         <v>39</v>
@@ -11857,22 +11857,22 @@
         <v>208875</v>
       </c>
       <c r="C276">
-        <v>15982105.857838169</v>
+        <v>24757640.001563039</v>
       </c>
       <c r="D276">
         <v>0</v>
       </c>
       <c r="E276">
-        <v>9025611.3154578283</v>
+        <v>250077.17173296018</v>
       </c>
       <c r="F276">
-        <v>76.515168679057666</v>
+        <v>118.52849791292897</v>
       </c>
       <c r="G276">
         <v>0</v>
       </c>
       <c r="H276">
-        <v>43.210586788547353</v>
+        <v>1.1972575546760511</v>
       </c>
       <c r="I276" t="s">
         <v>34</v>

--- a/r_map/data_boot_cq_remov_Hg.xlsx
+++ b/r_map/data_boot_cq_remov_Hg.xlsx
@@ -623,22 +623,22 @@
         <v>2207648</v>
       </c>
       <c r="C2">
-        <v>4588009.3031235002</v>
+        <v>4632628.1994449999</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>168193091.823264</v>
+        <v>162763671.15419549</v>
       </c>
       <c r="F2">
-        <v>2.0782340767746943</v>
+        <v>2.0984451323059652</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>76.186553211048135</v>
+        <v>73.727184385461584</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -664,22 +664,22 @@
         <v>6578669</v>
       </c>
       <c r="C3">
-        <v>182645658.68701577</v>
+        <v>182311742.25880402</v>
       </c>
       <c r="D3">
-        <v>19523640.922768585</v>
+        <v>19487194.221850388</v>
       </c>
       <c r="E3">
-        <v>33934705.200310379</v>
+        <v>33792290.662514552</v>
       </c>
       <c r="F3">
-        <v>27.763314841803982</v>
+        <v>27.712557397066796</v>
       </c>
       <c r="G3">
-        <v>2.967718990386746</v>
+        <v>2.9621788574330745</v>
       </c>
       <c r="H3">
-        <v>5.1582934481595561</v>
+        <v>5.1366455224475578</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
@@ -705,22 +705,22 @@
         <v>2726384</v>
       </c>
       <c r="C4">
-        <v>54405506.947171733</v>
+        <v>54169276.538422823</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>207763161.89548439</v>
+        <v>208003295.55060083</v>
       </c>
       <c r="F4">
-        <v>19.955188611425147</v>
+        <v>19.868542559823862</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>76.204658586422298</v>
+        <v>76.292736294887604</v>
       </c>
       <c r="I4" t="s">
         <v>9</v>
@@ -752,7 +752,7 @@
         <v>3771054.1932824994</v>
       </c>
       <c r="E5">
-        <v>51536211.084148221</v>
+        <v>53599628.538709953</v>
       </c>
       <c r="F5">
         <v>85.00478576364408</v>
@@ -761,7 +761,7 @@
         <v>0.88252152581648435</v>
       </c>
       <c r="H5">
-        <v>12.060769564595791</v>
+        <v>12.543661145321417</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
@@ -787,22 +787,22 @@
         <v>1657543</v>
       </c>
       <c r="C6">
-        <v>46832584.220628828</v>
+        <v>47296472.194999047</v>
       </c>
       <c r="D6">
-        <v>5640454.1775224479</v>
+        <v>5701353.2962016417</v>
       </c>
       <c r="E6">
-        <v>2883682.1982583506</v>
+        <v>2914816.8726830883</v>
       </c>
       <c r="F6">
-        <v>28.254219782309615</v>
+        <v>28.534084602932804</v>
       </c>
       <c r="G6">
-        <v>3.4029006653356491</v>
+        <v>3.4396412619169707</v>
       </c>
       <c r="H6">
-        <v>1.7397329651528501</v>
+        <v>1.7585165951550508</v>
       </c>
       <c r="I6" t="s">
         <v>9</v>
@@ -828,22 +828,22 @@
         <v>541762</v>
       </c>
       <c r="C7">
-        <v>1117538.07191124</v>
+        <v>1105760.7386007002</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>39885902.145028792</v>
+        <v>40396253.255152196</v>
       </c>
       <c r="F7">
-        <v>2.0627841596701875</v>
+        <v>2.04104521653549</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>73.622554082842271</v>
+        <v>74.564574952012492</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -869,22 +869,22 @@
         <v>1380537</v>
       </c>
       <c r="C8">
-        <v>78857766.069837302</v>
+        <v>79557978.337608367</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>21582853.920438293</v>
+        <v>21616043.862447333</v>
       </c>
       <c r="F8">
-        <v>57.121081195098213</v>
+        <v>57.628284021079018</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15.633665682584597</v>
+        <v>15.657707009987659</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -910,19 +910,19 @@
         <v>1368602</v>
       </c>
       <c r="C9">
-        <v>11313564.437119637</v>
+        <v>11308428.488548355</v>
       </c>
       <c r="D9">
-        <v>97993.176771657119</v>
+        <v>99759.880679799986</v>
       </c>
       <c r="E9">
         <v>1261126.6446138935</v>
       </c>
       <c r="F9">
-        <v>8.2665116937719194</v>
+        <v>8.2627589968072197</v>
       </c>
       <c r="G9">
-        <v>7.160093056393102E-2</v>
+        <v>7.2891812725540364E-2</v>
       </c>
       <c r="H9">
         <v>0.92147070120743169</v>
@@ -951,22 +951,22 @@
         <v>1443465</v>
       </c>
       <c r="C10">
-        <v>31727158.557475265</v>
+        <v>31672599.060900152</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>63692867.179292455</v>
+        <v>63583337.964363463</v>
       </c>
       <c r="F10">
-        <v>21.979859960217439</v>
+        <v>21.942062371377311</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>44.124982025398921</v>
+        <v>44.04910265532137</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -992,22 +992,22 @@
         <v>4446401</v>
       </c>
       <c r="C11">
-        <v>36186284.797990829</v>
+        <v>35444112.752508298</v>
       </c>
       <c r="D11">
-        <v>317370.77890610287</v>
+        <v>309906.83059007174</v>
       </c>
       <c r="E11">
-        <v>3960524.0880023856</v>
+        <v>3915027.887134376</v>
       </c>
       <c r="F11">
-        <v>8.138331382615025</v>
+        <v>7.9714161526385716</v>
       </c>
       <c r="G11">
-        <v>7.1377003312589865E-2</v>
+        <v>6.9698353924909542E-2</v>
       </c>
       <c r="H11">
-        <v>0.89072580003521629</v>
+        <v>0.8804936592840763</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -1033,22 +1033,22 @@
         <v>2081937</v>
       </c>
       <c r="C12">
-        <v>133938667.28622319</v>
+        <v>133131672.28764868</v>
       </c>
       <c r="D12">
-        <v>910521.17226847576</v>
+        <v>929823.60880498437</v>
       </c>
       <c r="E12">
-        <v>12910466.264806295</v>
+        <v>13328613.968804611</v>
       </c>
       <c r="F12">
-        <v>64.333679302602903</v>
+        <v>63.946061906603646</v>
       </c>
       <c r="G12">
-        <v>0.43734328765398556</v>
+        <v>0.44661467124364684</v>
       </c>
       <c r="H12">
-        <v>6.2011800860478941</v>
+        <v>6.4020255986634611</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -1074,22 +1074,22 @@
         <v>8921964</v>
       </c>
       <c r="C13">
-        <v>360941230.93692797</v>
+        <v>359792614.74088579</v>
       </c>
       <c r="D13">
-        <v>35093542.189257249</v>
+        <v>34930278.908755809</v>
       </c>
       <c r="E13">
-        <v>17941573.444257762</v>
+        <v>17858105.092101414</v>
       </c>
       <c r="F13">
-        <v>40.455356123038378</v>
+        <v>40.326615837150406</v>
       </c>
       <c r="G13">
-        <v>3.9333875578580288</v>
+        <v>3.9150885285746289</v>
       </c>
       <c r="H13">
-        <v>2.0109443889549166</v>
+        <v>2.0015890102337797</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
@@ -1115,22 +1115,22 @@
         <v>7744214</v>
       </c>
       <c r="C14">
-        <v>254695476.24586654</v>
+        <v>237006079.00334543</v>
       </c>
       <c r="D14">
-        <v>22689955.564967684</v>
+        <v>22648236.826456577</v>
       </c>
       <c r="E14">
-        <v>11600239.782589721</v>
+        <v>11578911.077525923</v>
       </c>
       <c r="F14">
-        <v>32.888486326161249</v>
+        <v>30.60427811051521</v>
       </c>
       <c r="G14">
-        <v>2.9299236262024375</v>
+        <v>2.9245365412754061</v>
       </c>
       <c r="H14">
-        <v>1.4979234538959951</v>
+        <v>1.4951693067270511</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -1156,22 +1156,22 @@
         <v>1912394</v>
       </c>
       <c r="C15">
-        <v>13040044.467653546</v>
+        <v>13086244.866675634</v>
       </c>
       <c r="D15">
-        <v>1464516.6736143844</v>
+        <v>1469453.5074321306</v>
       </c>
       <c r="E15">
-        <v>21295951.691943139</v>
+        <v>21718741.374178067</v>
       </c>
       <c r="F15">
-        <v>6.8187018300902151</v>
+        <v>6.8428602404502596</v>
       </c>
       <c r="G15">
-        <v>0.76580279671154816</v>
+        <v>0.76838429080625159</v>
       </c>
       <c r="H15">
-        <v>11.135755336998097</v>
+        <v>11.356834090766895</v>
       </c>
       <c r="I15" t="s">
         <v>14</v>
@@ -1197,22 +1197,22 @@
         <v>3755194</v>
       </c>
       <c r="C16">
-        <v>176128972.60297304</v>
+        <v>177070471.64719695</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>134166936.074028</v>
+        <v>135724970.35635719</v>
       </c>
       <c r="F16">
-        <v>46.902762574443038</v>
+        <v>47.153481723500022</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>35.728363454465466</v>
+        <v>36.143264597343624</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1238,22 +1238,22 @@
         <v>9164672</v>
       </c>
       <c r="C17">
-        <v>548317781.82155824</v>
+        <v>546218770.05375695</v>
       </c>
       <c r="D17">
-        <v>36025415.382518455</v>
+        <v>35700227.312754884</v>
       </c>
       <c r="E17">
-        <v>560710629.25598156</v>
+        <v>558771411.33639252</v>
       </c>
       <c r="F17">
-        <v>59.82950418973622</v>
+        <v>59.600471250226626</v>
       </c>
       <c r="G17">
-        <v>3.9309006784441882</v>
+        <v>3.895417895234536</v>
       </c>
       <c r="H17">
-        <v>61.181745430276344</v>
+        <v>60.970148340976365</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
@@ -1320,22 +1320,22 @@
         <v>8636016</v>
       </c>
       <c r="C19">
-        <v>539864217.55383003</v>
+        <v>535161329.8595674</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5453173.9146851581</v>
+        <v>5405669.9985814942</v>
       </c>
       <c r="F19">
-        <v>62.513109928678922</v>
+        <v>61.968543117517079</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.63144555483514131</v>
+        <v>0.62594487997492065</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -1402,22 +1402,22 @@
         <v>1387318</v>
       </c>
       <c r="C21">
-        <v>61643078.259359226</v>
+        <v>63060367.287668854</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>22293021.986029692</v>
+        <v>22560974.455196276</v>
       </c>
       <c r="F21">
-        <v>44.433272154876697</v>
+        <v>45.454875729766968</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.069150682128893</v>
+        <v>16.2622949137806</v>
       </c>
       <c r="I21" t="s">
         <v>19</v>
@@ -1484,22 +1484,22 @@
         <v>3900879</v>
       </c>
       <c r="C23">
-        <v>108371668.43864512</v>
+        <v>108459907.36498614</v>
       </c>
       <c r="D23">
-        <v>6414179.5570211429</v>
+        <v>6403756.8016073983</v>
       </c>
       <c r="E23">
-        <v>8704548.1595932189</v>
+        <v>8810071.7920438088</v>
       </c>
       <c r="F23">
-        <v>27.781345804021381</v>
+        <v>27.803966071489562</v>
       </c>
       <c r="G23">
-        <v>1.6442908270215875</v>
+        <v>1.6416189278384175</v>
       </c>
       <c r="H23">
-        <v>2.2314324949820845</v>
+        <v>2.258483739701695</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -1525,22 +1525,22 @@
         <v>602337</v>
       </c>
       <c r="C24">
-        <v>40844369.665978551</v>
+        <v>40746512.066475667</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>328955.56449445471</v>
+        <v>325036.29122166225</v>
       </c>
       <c r="F24">
-        <v>67.809830154844462</v>
+        <v>67.647366949856419</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.54613208966816695</v>
+        <v>0.53962531144801373</v>
       </c>
       <c r="I24" t="s">
         <v>20</v>
@@ -1566,22 +1566,22 @@
         <v>4962679</v>
       </c>
       <c r="C25">
-        <v>286907288.82912368</v>
+        <v>284879727.70024484</v>
       </c>
       <c r="D25">
-        <v>6981481.2849038271</v>
+        <v>6822949.118508596</v>
       </c>
       <c r="E25">
-        <v>3569282.3069070932</v>
+        <v>3488232.7368375254</v>
       </c>
       <c r="F25">
-        <v>57.812985451834315</v>
+        <v>57.404423638975004</v>
       </c>
       <c r="G25">
-        <v>1.4067968701791567</v>
+        <v>1.3748519939549981</v>
       </c>
       <c r="H25">
-        <v>0.71922489987909621</v>
+        <v>0.70289308190949396</v>
       </c>
       <c r="I25" t="s">
         <v>21</v>
@@ -1607,22 +1607,22 @@
         <v>9744872</v>
       </c>
       <c r="C26">
-        <v>297926299.86867571</v>
+        <v>299231483.37421292</v>
       </c>
       <c r="D26">
-        <v>26680980.821988478</v>
+        <v>26850652.942293353</v>
       </c>
       <c r="E26">
-        <v>97496885.837464452</v>
+        <v>98365359.12602523</v>
       </c>
       <c r="F26">
-        <v>30.572623208255141</v>
+        <v>30.706558626343469</v>
       </c>
       <c r="G26">
-        <v>2.7379508752899451</v>
+        <v>2.7553623015564854</v>
       </c>
       <c r="H26">
-        <v>10.004942685492889</v>
+        <v>10.094063742040452</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -1648,22 +1648,22 @@
         <v>2476429</v>
       </c>
       <c r="C27">
-        <v>66478634.938224345</v>
+        <v>66518622.550921187</v>
       </c>
       <c r="D27">
-        <v>6142962.8064874494</v>
+        <v>6123546.6808288191</v>
       </c>
       <c r="E27">
-        <v>3140589.7348167091</v>
+        <v>3130663.2405737345</v>
       </c>
       <c r="F27">
-        <v>26.844555179342652</v>
+        <v>26.860702467513175</v>
       </c>
       <c r="G27">
-        <v>2.4805729566595485</v>
+        <v>2.4727325842286692</v>
       </c>
       <c r="H27">
-        <v>1.2681929240921945</v>
+        <v>1.2641845336869075</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1689,22 +1689,22 @@
         <v>786988</v>
       </c>
       <c r="C28">
-        <v>10663925.381935764</v>
+        <v>10572809.079665191</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>19630230.759395532</v>
+        <v>19415933.031162951</v>
       </c>
       <c r="F28">
-        <v>13.550302395888837</v>
+        <v>13.434523880497785</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>24.943494385423325</v>
+        <v>24.671193247118065</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1730,22 +1730,22 @@
         <v>12851943</v>
       </c>
       <c r="C29">
-        <v>379022568.9564299</v>
+        <v>376772752.67430669</v>
       </c>
       <c r="D29">
-        <v>24142269.321390249</v>
+        <v>23885972.544849306</v>
       </c>
       <c r="E29">
-        <v>12342735.190560766</v>
+        <v>12211703.463554215</v>
       </c>
       <c r="F29">
-        <v>29.4914604707187</v>
+        <v>29.316403961199228</v>
       </c>
       <c r="G29">
-        <v>1.8784917830238004</v>
+        <v>1.8585495239785381</v>
       </c>
       <c r="H29">
-        <v>0.96037892407091796</v>
+        <v>0.95018344413402822</v>
       </c>
       <c r="I29" t="s">
         <v>22</v>
@@ -1771,22 +1771,22 @@
         <v>1157290</v>
       </c>
       <c r="C30">
-        <v>36157775.172769211</v>
+        <v>36345472.154029503</v>
       </c>
       <c r="D30">
-        <v>663584.00350409967</v>
+        <v>665425.76577884075</v>
       </c>
       <c r="E30">
-        <v>811726.68990270304</v>
+        <v>816176.04485746624</v>
       </c>
       <c r="F30">
-        <v>31.243487088602865</v>
+        <v>31.40567373262493</v>
       </c>
       <c r="G30">
-        <v>0.57339474419039282</v>
+        <v>0.57498618823185266</v>
       </c>
       <c r="H30">
-        <v>0.70140301039731012</v>
+        <v>0.70524764307776466</v>
       </c>
       <c r="I30" t="s">
         <v>22</v>
@@ -1812,22 +1812,22 @@
         <v>2981276</v>
       </c>
       <c r="C31">
-        <v>166664880.812361</v>
+        <v>164597688.01438123</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>35593141.842846006</v>
+        <v>35335918.943604454</v>
       </c>
       <c r="F31">
-        <v>55.903874989219716</v>
+        <v>55.210483032896391</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>11.938895239100978</v>
+        <v>11.852615773784263</v>
       </c>
       <c r="I31" t="s">
         <v>23</v>
@@ -1853,22 +1853,22 @@
         <v>1265697</v>
       </c>
       <c r="C32">
-        <v>72600275.932043999</v>
+        <v>73234502.391881987</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>15557201.985438004</v>
+        <v>15552725.092780322</v>
       </c>
       <c r="F32">
-        <v>57.359917841350658</v>
+        <v>57.861006537806432</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>12.291410966003715</v>
+        <v>12.28787386932285</v>
       </c>
       <c r="I32" t="s">
         <v>23</v>
@@ -1894,22 +1894,22 @@
         <v>5057931</v>
       </c>
       <c r="C33">
-        <v>258519952.49792251</v>
+        <v>256829530.00630999</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>56705039.81111639</v>
+        <v>56646123.916560419</v>
       </c>
       <c r="F33">
-        <v>51.111798974308371</v>
+        <v>50.777586725937937</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>11.211113756023241</v>
+        <v>11.1994655357221</v>
       </c>
       <c r="I33" t="s">
         <v>23</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>34405221.785858095</v>
+        <v>34413250.982736416</v>
       </c>
       <c r="F34">
         <v>43.767873295706437</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>19.155185109470352</v>
+        <v>19.159655383007372</v>
       </c>
       <c r="I34" t="s">
         <v>23</v>
@@ -1976,22 +1976,22 @@
         <v>2372033</v>
       </c>
       <c r="C35">
-        <v>116706556.43771473</v>
+        <v>116995762.15320314</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>25088595.818618704</v>
+        <v>24654787.245386124</v>
       </c>
       <c r="F35">
-        <v>49.201067791938279</v>
+        <v>49.322990933601325</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>10.57683253926851</v>
+        <v>10.393947826773964</v>
       </c>
       <c r="I35" t="s">
         <v>23</v>
@@ -2017,22 +2017,22 @@
         <v>4881045</v>
       </c>
       <c r="C36">
-        <v>222784195.86719394</v>
+        <v>224169647.16065931</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>50952450.00794898</v>
+        <v>51221084.792441726</v>
       </c>
       <c r="F36">
-        <v>45.642725249858159</v>
+        <v>45.926568421446497</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>10.43884045485116</v>
+        <v>10.493876780984753</v>
       </c>
       <c r="I36" t="s">
         <v>23</v>
@@ -2058,22 +2058,22 @@
         <v>10305807</v>
       </c>
       <c r="C37">
-        <v>688242533.81369829</v>
+        <v>683613506.6722281</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>5485803.5393581539</v>
+        <v>5392721.5195694435</v>
       </c>
       <c r="F37">
-        <v>66.782012686022384</v>
+        <v>66.332845809379904</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.53230218064030832</v>
+        <v>0.52327018345768006</v>
       </c>
       <c r="I37" t="s">
         <v>23</v>
@@ -2099,22 +2099,22 @@
         <v>1880003</v>
       </c>
       <c r="C38">
-        <v>146478973.15099415</v>
+        <v>146508558.88582569</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1426689.8796546522</v>
+        <v>1431386.0280406158</v>
       </c>
       <c r="F38">
-        <v>77.914223089534516</v>
+        <v>77.929960157417668</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.75887638458803108</v>
+        <v>0.76137433187107462</v>
       </c>
       <c r="I38" t="s">
         <v>23</v>
@@ -2140,22 +2140,22 @@
         <v>1542905</v>
       </c>
       <c r="C39">
-        <v>104981784.71393451</v>
+        <v>105667553.55179256</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3315191.6805444025</v>
+        <v>3361988.8514280603</v>
       </c>
       <c r="F39">
-        <v>68.041638800791048</v>
+        <v>68.486104816429119</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>2.1486686999811409</v>
+        <v>2.1789992588189553</v>
       </c>
       <c r="I39" t="s">
         <v>23</v>
@@ -2181,22 +2181,22 @@
         <v>2219933</v>
       </c>
       <c r="C40">
-        <v>118487580.53971797</v>
+        <v>119337291.79565911</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>25279370.444793798</v>
+        <v>25680520.314481504</v>
       </c>
       <c r="F40">
-        <v>53.374394875754348</v>
+        <v>53.7571592456435</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>11.387447479177885</v>
+        <v>11.568151072343852</v>
       </c>
       <c r="I40" t="s">
         <v>23</v>
@@ -2222,22 +2222,22 @@
         <v>1928627</v>
       </c>
       <c r="C41">
-        <v>72498780.150573224</v>
+        <v>63460586.528703809</v>
       </c>
       <c r="D41">
-        <v>4444586.3972545099</v>
+        <v>4426680.8378261086</v>
       </c>
       <c r="E41">
-        <v>2272294.7955963714</v>
+        <v>2263140.5783386026</v>
       </c>
       <c r="F41">
-        <v>37.590876903918293</v>
+        <v>32.904541172919288</v>
       </c>
       <c r="G41">
-        <v>2.3045339494129813</v>
+        <v>2.2952498527844463</v>
       </c>
       <c r="H41">
-        <v>1.1781929816373884</v>
+        <v>1.1734464872360506</v>
       </c>
       <c r="I41" t="s">
         <v>23</v>
@@ -2263,22 +2263,22 @@
         <v>1066912</v>
       </c>
       <c r="C42">
-        <v>59961499.842582464</v>
+        <v>60543969.1996288</v>
       </c>
       <c r="D42">
-        <v>5757288.3631836455</v>
+        <v>5785461.4008716363</v>
       </c>
       <c r="E42">
-        <v>2943413.6756776357</v>
+        <v>2957817.1411956223</v>
       </c>
       <c r="F42">
-        <v>56.200979877049342</v>
+        <v>56.746919333205362</v>
       </c>
       <c r="G42">
-        <v>5.3962167106412204</v>
+        <v>5.4226228600593451</v>
       </c>
       <c r="H42">
-        <v>2.7588157933153208</v>
+        <v>2.7723159372053385</v>
       </c>
       <c r="I42" t="s">
         <v>23</v>
@@ -2304,22 +2304,22 @@
         <v>5225154</v>
       </c>
       <c r="C43">
-        <v>130792330.54869604</v>
+        <v>130806708.62153317</v>
       </c>
       <c r="D43">
-        <v>12580586.060035758</v>
+        <v>12536791.549145887</v>
       </c>
       <c r="E43">
-        <v>18774362.509240158</v>
+        <v>18808762.473091628</v>
       </c>
       <c r="F43">
-        <v>25.031287221141433</v>
+        <v>25.034038924313652</v>
       </c>
       <c r="G43">
-        <v>2.4076967033001817</v>
+        <v>2.3993152257609798</v>
       </c>
       <c r="H43">
-        <v>3.593073526491307</v>
+        <v>3.5996570575894276</v>
       </c>
       <c r="I43" t="s">
         <v>24</v>
@@ -2345,22 +2345,22 @@
         <v>2992958</v>
       </c>
       <c r="C44">
-        <v>87742972.536471561</v>
+        <v>87735382.830028638</v>
       </c>
       <c r="D44">
-        <v>8164641.9396711616</v>
+        <v>8244454.1734019211</v>
       </c>
       <c r="E44">
-        <v>26004633.799916469</v>
+        <v>26145230.068259217</v>
       </c>
       <c r="F44">
-        <v>29.316473046555135</v>
+        <v>29.313937191911361</v>
       </c>
       <c r="G44">
-        <v>2.7279507228872446</v>
+        <v>2.7546173963690506</v>
       </c>
       <c r="H44">
-        <v>8.6886063218783782</v>
+        <v>8.7355820122631922</v>
       </c>
       <c r="I44" t="s">
         <v>24</v>
@@ -2386,22 +2386,22 @@
         <v>229494</v>
       </c>
       <c r="C45">
-        <v>1378571.8974875999</v>
+        <v>1328024.2612463878</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45">
-        <v>5698945.1772584282</v>
+        <v>5549560.0770945232</v>
       </c>
       <c r="F45">
-        <v>6.0070062724411093</v>
+        <v>5.7867493757849351</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>24.832654349387905</v>
+        <v>24.181721862421341</v>
       </c>
       <c r="I45" t="s">
         <v>24</v>
@@ -2427,22 +2427,22 @@
         <v>8966852</v>
       </c>
       <c r="C46">
-        <v>250961488.80873662</v>
+        <v>249413264.17501193</v>
       </c>
       <c r="D46">
-        <v>14794490.555750292</v>
+        <v>14685360.690855244</v>
       </c>
       <c r="E46">
-        <v>91961860.051489368</v>
+        <v>92265186.543077052</v>
       </c>
       <c r="F46">
-        <v>27.987691645712076</v>
+        <v>27.815030757172298</v>
       </c>
       <c r="G46">
-        <v>1.6499090824461351</v>
+        <v>1.6377387170943876</v>
       </c>
       <c r="H46">
-        <v>10.255757544731347</v>
+        <v>10.289585078807708</v>
       </c>
       <c r="I46" t="s">
         <v>24</v>
@@ -2468,22 +2468,22 @@
         <v>1441562</v>
       </c>
       <c r="C47">
-        <v>74910181.969154984</v>
+        <v>74693927.413737953</v>
       </c>
       <c r="D47">
-        <v>1368230.992439724</v>
+        <v>1442294.3914954106</v>
       </c>
       <c r="E47">
-        <v>699508.09488480818</v>
+        <v>737373.00765202916</v>
       </c>
       <c r="F47">
-        <v>51.964592552491659</v>
+        <v>51.814578501471289</v>
       </c>
       <c r="G47">
-        <v>0.94913086807208014</v>
+        <v>1.0005080541075657</v>
       </c>
       <c r="H47">
-        <v>0.4852431563018505</v>
+        <v>0.51150974266249327</v>
       </c>
       <c r="I47" t="s">
         <v>24</v>
@@ -2509,22 +2509,22 @@
         <v>1650341</v>
       </c>
       <c r="C48">
-        <v>20835987.739260189</v>
+        <v>21193090.144958027</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>89764847.47531049</v>
+        <v>89794004.937518701</v>
       </c>
       <c r="F48">
-        <v>12.625262136285889</v>
+        <v>12.841643117972605</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>54.391696913129159</v>
+        <v>54.409364451055083</v>
       </c>
       <c r="I48" t="s">
         <v>24</v>
@@ -2550,22 +2550,22 @@
         <v>4984247</v>
       </c>
       <c r="C49">
-        <v>156249329.60702288</v>
+        <v>161435460.84623548</v>
       </c>
       <c r="D49">
-        <v>14836367.611682337</v>
+        <v>14971766.540782657</v>
       </c>
       <c r="E49">
-        <v>7585092.9414726011</v>
+        <v>7654315.6439751238</v>
       </c>
       <c r="F49">
-        <v>31.348632924295863</v>
+        <v>32.389137385493832</v>
       </c>
       <c r="G49">
-        <v>2.9766517613758583</v>
+        <v>3.0038171344202356</v>
       </c>
       <c r="H49">
-        <v>1.5218132130034088</v>
+        <v>1.5357015099723437</v>
       </c>
       <c r="I49" t="s">
         <v>24</v>
@@ -2591,22 +2591,22 @@
         <v>508325</v>
       </c>
       <c r="C50">
-        <v>26563120.195070319</v>
+        <v>26504089.006230123</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>10342074.395065164</v>
+        <v>10367174.895030959</v>
       </c>
       <c r="F50">
-        <v>52.256175075139566</v>
+        <v>52.140046242522253</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>20.345397914848107</v>
+        <v>20.394776757056921</v>
       </c>
       <c r="I50" t="s">
         <v>24</v>
@@ -2632,22 +2632,22 @@
         <v>2093626</v>
       </c>
       <c r="C51">
-        <v>10163316.107710272</v>
+        <v>8509518.0805677585</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>62479506.208441921</v>
+        <v>62348408.346173145</v>
       </c>
       <c r="F51">
-        <v>4.8544086229872345</v>
+        <v>4.0644881562264503</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>29.842725591123688</v>
+        <v>29.780107978298485</v>
       </c>
       <c r="I51" t="s">
         <v>24</v>
@@ -2676,19 +2676,19 @@
         <v>68169778.138546661</v>
       </c>
       <c r="D52">
-        <v>1871119.6457283576</v>
+        <v>1897388.0783534413</v>
       </c>
       <c r="E52">
-        <v>3113177.6247135201</v>
+        <v>3133267.0131673431</v>
       </c>
       <c r="F52">
         <v>48.391839689918292</v>
       </c>
       <c r="G52">
-        <v>1.3282560748946248</v>
+        <v>1.3469033085399356</v>
       </c>
       <c r="H52">
-        <v>2.2099586745785631</v>
+        <v>2.2242195757003196</v>
       </c>
       <c r="I52" t="s">
         <v>24</v>
@@ -2714,22 +2714,22 @@
         <v>53291</v>
       </c>
       <c r="C53">
-        <v>5534417.0181114776</v>
+        <v>5553590.1993730515</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1767966.3921735983</v>
+        <v>1738674.6646410048</v>
       </c>
       <c r="F53">
-        <v>103.85275221165821</v>
+        <v>104.21253493785163</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>33.175703067564847</v>
+        <v>32.626046886735182</v>
       </c>
       <c r="I53" t="s">
         <v>24</v>
@@ -2796,22 +2796,22 @@
         <v>245567</v>
       </c>
       <c r="C55">
-        <v>9668001.4561328832</v>
+        <v>9600854.2735675853</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>2126534.9021082562</v>
+        <v>2080962.410815472</v>
       </c>
       <c r="F55">
-        <v>39.370116734467103</v>
+        <v>39.096679413632877</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>8.6596932898486205</v>
+        <v>8.4741126080274309</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -2837,22 +2837,22 @@
         <v>9501203</v>
       </c>
       <c r="C56">
-        <v>627842851.44454169</v>
+        <v>623516490.47695851</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>5755519.1735469848</v>
+        <v>5723690.6014841748</v>
       </c>
       <c r="F56">
-        <v>66.080353345207101</v>
+        <v>65.625004589098722</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0.60576741424712055</v>
+        <v>0.60241746245019445</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -2878,22 +2878,22 @@
         <v>2526066</v>
       </c>
       <c r="C57">
-        <v>131815712.96177082</v>
+        <v>131973467.64012168</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57">
-        <v>43951467.985628575</v>
+        <v>43956926.305074312</v>
       </c>
       <c r="F57">
-        <v>52.182212563634842</v>
+        <v>52.244663298631821</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>17.399176421213291</v>
+        <v>17.401337219642841</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>12571648.965532802</v>
+        <v>12410931.862280253</v>
       </c>
       <c r="F58">
         <v>53.536966225598661</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>11.620768002925427</v>
+        <v>11.472207048342574</v>
       </c>
       <c r="I58" t="s">
         <v>25</v>
@@ -2960,22 +2960,22 @@
         <v>250729</v>
       </c>
       <c r="C59">
-        <v>1286672.4472785359</v>
+        <v>1245433.1801332799</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>17637549.1201392</v>
+        <v>17374301.7413904</v>
       </c>
       <c r="F59">
-        <v>5.1317256770398956</v>
+        <v>4.9672482247098655</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>70.345070255691212</v>
+        <v>69.295142330525792</v>
       </c>
       <c r="I59" t="s">
         <v>25</v>
@@ -3001,22 +3001,22 @@
         <v>750815</v>
       </c>
       <c r="C60">
-        <v>25965185.124380793</v>
+        <v>25863126.510887187</v>
       </c>
       <c r="D60">
-        <v>1679584.1307754423</v>
+        <v>1671382.2718399267</v>
       </c>
       <c r="E60">
-        <v>26672008.585201081</v>
+        <v>27230289.946034119</v>
       </c>
       <c r="F60">
-        <v>34.582667001033272</v>
+        <v>34.44673656078686</v>
       </c>
       <c r="G60">
-        <v>2.2370146184818394</v>
+        <v>2.2260906772506233</v>
       </c>
       <c r="H60">
-        <v>35.524075285124937</v>
+        <v>36.267642423278865</v>
       </c>
       <c r="I60" t="s">
         <v>25</v>
@@ -3042,22 +3042,22 @@
         <v>6981232</v>
       </c>
       <c r="C61">
-        <v>440217203.38911498</v>
+        <v>438373605.65321815</v>
       </c>
       <c r="D61">
-        <v>11122619.550937664</v>
+        <v>11062027.614355341</v>
       </c>
       <c r="E61">
-        <v>5686439.2454168852</v>
+        <v>5655461.6178391632</v>
       </c>
       <c r="F61">
-        <v>63.057237374307995</v>
+        <v>62.793158235282561</v>
       </c>
       <c r="G61">
-        <v>1.593217293299759</v>
+        <v>1.5845380320200417</v>
       </c>
       <c r="H61">
-        <v>0.81453234119950246</v>
+        <v>0.81009506887024574</v>
       </c>
       <c r="I61" t="s">
         <v>13</v>
@@ -3083,22 +3083,22 @@
         <v>2191143</v>
       </c>
       <c r="C62">
-        <v>120917991.58820361</v>
+        <v>120469864.39377211</v>
       </c>
       <c r="D62">
-        <v>1307888.4693959714</v>
+        <v>1339797.7989303069</v>
       </c>
       <c r="E62">
-        <v>19324343.384653211</v>
+        <v>19723348.601960883</v>
       </c>
       <c r="F62">
-        <v>55.184892810831428</v>
+        <v>54.980375262487257</v>
       </c>
       <c r="G62">
-        <v>0.5968978151567339</v>
+        <v>0.61146068464281289</v>
       </c>
       <c r="H62">
-        <v>8.8192981401274171</v>
+        <v>9.0013972625067744</v>
       </c>
       <c r="I62" t="s">
         <v>13</v>
@@ -3124,22 +3124,22 @@
         <v>384251</v>
       </c>
       <c r="C63">
-        <v>4691363.6697529238</v>
+        <v>4793205.2534730565</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>21744778.441566594</v>
+        <v>21470684.595664494</v>
       </c>
       <c r="F63">
-        <v>12.209112454496992</v>
+        <v>12.47415167032241</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>56.590037349458022</v>
+        <v>55.876717550935439</v>
       </c>
       <c r="I63" t="s">
         <v>13</v>
@@ -3165,22 +3165,22 @@
         <v>1245893</v>
       </c>
       <c r="C64">
-        <v>21094586.883023668</v>
+        <v>21435114.003483161</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>81698476.656967789</v>
+        <v>82093538.916254848</v>
       </c>
       <c r="F64">
-        <v>16.931298982355361</v>
+        <v>17.204618697980614</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>65.574232022306717</v>
+        <v>65.891323666041018</v>
       </c>
       <c r="I64" t="s">
         <v>26</v>
@@ -3206,22 +3206,22 @@
         <v>2032750</v>
       </c>
       <c r="C65">
-        <v>80635465.382337123</v>
+        <v>80804299.099191755</v>
       </c>
       <c r="D65">
-        <v>1502822.5746739325</v>
+        <v>1498352.1500415318</v>
       </c>
       <c r="E65">
-        <v>20253452.168897916</v>
+        <v>20205554.360555202</v>
       </c>
       <c r="F65">
-        <v>39.668166465299286</v>
+        <v>39.751223268572993</v>
       </c>
       <c r="G65">
-        <v>0.73930516525590084</v>
+        <v>0.737105964846406</v>
       </c>
       <c r="H65">
-        <v>9.9635725833958499</v>
+        <v>9.9400095243169115</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
@@ -3247,22 +3247,22 @@
         <v>11367897</v>
       </c>
       <c r="C66">
-        <v>481392542.67167807</v>
+        <v>477371707.5244596</v>
       </c>
       <c r="D66">
-        <v>7955305.6230828427</v>
+        <v>8038713.7999965567</v>
       </c>
       <c r="E66">
-        <v>18125649.29226017</v>
+        <v>17430417.958276112</v>
       </c>
       <c r="F66">
-        <v>42.346666465369807</v>
+        <v>41.992965587606889</v>
       </c>
       <c r="G66">
-        <v>0.69980451292643153</v>
+        <v>0.70714168152619228</v>
       </c>
       <c r="H66">
-        <v>1.5944593175202213</v>
+        <v>1.5333018902507747</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
@@ -3288,22 +3288,22 @@
         <v>7935224</v>
       </c>
       <c r="C67">
-        <v>308874055.09623194</v>
+        <v>311641127.34604478</v>
       </c>
       <c r="D67">
-        <v>8224857.8782670805</v>
+        <v>8192199.3421343602</v>
       </c>
       <c r="E67">
-        <v>6405293.5540786386</v>
+        <v>6318175.1996274609</v>
       </c>
       <c r="F67">
-        <v>38.924427980386177</v>
+        <v>39.273135496369704</v>
       </c>
       <c r="G67">
-        <v>1.0364997734490016</v>
+        <v>1.0323841320842815</v>
       </c>
       <c r="H67">
-        <v>0.8071975730084795</v>
+        <v>0.79621888425928</v>
       </c>
       <c r="I67" t="s">
         <v>26</v>
@@ -3329,22 +3329,22 @@
         <v>2300225</v>
       </c>
       <c r="C68">
-        <v>71133978.851501316</v>
+        <v>70898697.772931263</v>
       </c>
       <c r="D68">
-        <v>5985598.7788858162</v>
+        <v>6027472.9920835979</v>
       </c>
       <c r="E68">
-        <v>32977269.065222532</v>
+        <v>32968940.640069161</v>
       </c>
       <c r="F68">
-        <v>30.924791640600947</v>
+        <v>30.822505525733902</v>
       </c>
       <c r="G68">
-        <v>2.6021796906327932</v>
+        <v>2.6203840894189039</v>
       </c>
       <c r="H68">
-        <v>14.33654058417004</v>
+        <v>14.332919883954466</v>
       </c>
       <c r="I68" t="s">
         <v>26</v>
@@ -3370,22 +3370,22 @@
         <v>12008149</v>
       </c>
       <c r="C69">
-        <v>500939855.29903764</v>
+        <v>507150905.45537972</v>
       </c>
       <c r="D69">
-        <v>48778953.572247632</v>
+        <v>49383772.522247128</v>
       </c>
       <c r="E69">
-        <v>24938240.013811603</v>
+        <v>25247453.701998852</v>
       </c>
       <c r="F69">
-        <v>41.716658853836478</v>
+        <v>42.23389512033701</v>
       </c>
       <c r="G69">
-        <v>4.0621542564343294</v>
+        <v>4.1125216319556932</v>
       </c>
       <c r="H69">
-        <v>2.0767763636020509</v>
+        <v>2.1025266843373491</v>
       </c>
       <c r="I69" t="s">
         <v>26</v>
@@ -3411,22 +3411,22 @@
         <v>6141807</v>
       </c>
       <c r="C70">
-        <v>300090225.22815728</v>
+        <v>299967923.29501706</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>105274396.31916186</v>
+        <v>105552071.61469743</v>
       </c>
       <c r="F70">
-        <v>48.860249960338592</v>
+        <v>48.840336939115325</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>17.140622673288473</v>
+        <v>17.185833357299803</v>
       </c>
       <c r="I70" t="s">
         <v>26</v>
@@ -3452,22 +3452,22 @@
         <v>1488285</v>
       </c>
       <c r="C71">
-        <v>47680882.758876383</v>
+        <v>47007922.600329071</v>
       </c>
       <c r="D71">
-        <v>4656434.5559454365</v>
+        <v>4600038.2311233934</v>
       </c>
       <c r="E71">
-        <v>2380602.1667271066</v>
+        <v>2351769.5456618341</v>
       </c>
       <c r="F71">
-        <v>32.037467796071574</v>
+        <v>31.585296230445831</v>
       </c>
       <c r="G71">
-        <v>3.1287250465773937</v>
+        <v>3.0908315484758586</v>
       </c>
       <c r="H71">
-        <v>1.599560680062694</v>
+        <v>1.5801876291582821</v>
       </c>
       <c r="I71" t="s">
         <v>26</v>
@@ -3493,22 +3493,22 @@
         <v>524509</v>
       </c>
       <c r="C72">
-        <v>12475658.928477904</v>
+        <v>12546289.562182719</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>20457115.313592128</v>
+        <v>20539205.543289311</v>
       </c>
       <c r="F72">
-        <v>23.785404880522364</v>
+        <v>23.920065360523306</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>39.002410470730013</v>
+        <v>39.158919185923047</v>
       </c>
       <c r="I72" t="s">
         <v>26</v>
@@ -3534,22 +3534,22 @@
         <v>48329</v>
       </c>
       <c r="C73">
-        <v>428291.56565916934</v>
+        <v>431316.25331855955</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>2135216.5173237431</v>
+        <v>2126611.866202306</v>
       </c>
       <c r="F73">
-        <v>8.861999330819371</v>
+        <v>8.9245846865972727</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>44.180854503998489</v>
+        <v>44.002811276920816</v>
       </c>
       <c r="I73" t="s">
         <v>26</v>
@@ -3575,22 +3575,22 @@
         <v>402573</v>
       </c>
       <c r="C74">
-        <v>21517671.003789917</v>
+        <v>21491452.972629689</v>
       </c>
       <c r="D74">
         <v>0</v>
       </c>
       <c r="E74">
-        <v>7605261.7630242482</v>
+        <v>7623178.2433072086</v>
       </c>
       <c r="F74">
-        <v>53.450358081117997</v>
+        <v>53.38523192720249</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>18.891633972035503</v>
+        <v>18.936138894827046</v>
       </c>
       <c r="I74" t="s">
         <v>21</v>
@@ -3616,22 +3616,22 @@
         <v>1336530</v>
       </c>
       <c r="C75">
-        <v>25085180.486306388</v>
+        <v>25363133.017582502</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75">
-        <v>9017258.8748580199</v>
+        <v>9185421.5848766305</v>
       </c>
       <c r="F75">
-        <v>18.768886958247393</v>
+        <v>18.976852758697898</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>6.7467687779982644</v>
+        <v>6.8725891561555894</v>
       </c>
       <c r="I75" t="s">
         <v>21</v>
@@ -3657,22 +3657,22 @@
         <v>1349171</v>
       </c>
       <c r="C76">
-        <v>77082619.191067576</v>
+        <v>77385464.331181318</v>
       </c>
       <c r="D76">
-        <v>1306992.9585927029</v>
+        <v>1314887.6523924463</v>
       </c>
       <c r="E76">
-        <v>4387141.1782402107</v>
+        <v>4467385.8591663316</v>
       </c>
       <c r="F76">
-        <v>57.133320528730295</v>
+        <v>57.357788101865012</v>
       </c>
       <c r="G76">
-        <v>0.96873780906401252</v>
+        <v>0.97458932366056361</v>
       </c>
       <c r="H76">
-        <v>3.2517310098128487</v>
+        <v>3.3112080375032753</v>
       </c>
       <c r="I76" t="s">
         <v>21</v>
@@ -3698,22 +3698,22 @@
         <v>518992</v>
       </c>
       <c r="C77">
-        <v>33200390.683988407</v>
+        <v>33439689.260225456</v>
       </c>
       <c r="D77">
-        <v>277539.4088680842</v>
+        <v>277567.79722852667</v>
       </c>
       <c r="E77">
-        <v>4059656.8941378174</v>
+        <v>4116019.1342415134</v>
       </c>
       <c r="F77">
-        <v>63.970910310733899</v>
+        <v>64.431993672783889</v>
       </c>
       <c r="G77">
-        <v>0.53476625625844754</v>
+        <v>0.53482095529126972</v>
       </c>
       <c r="H77">
-        <v>7.8221955138765482</v>
+        <v>7.9307949529887036</v>
       </c>
       <c r="I77" t="s">
         <v>21</v>
@@ -3739,22 +3739,22 @@
         <v>4238250</v>
       </c>
       <c r="C78">
-        <v>227518118.68191522</v>
+        <v>228063727.003326</v>
       </c>
       <c r="D78">
-        <v>22123894.014504835</v>
+        <v>22111203.898829382</v>
       </c>
       <c r="E78">
-        <v>11310840.814915609</v>
+        <v>11304352.993276518</v>
       </c>
       <c r="F78">
-        <v>53.682090174462388</v>
+        <v>53.810824515619892</v>
       </c>
       <c r="G78">
-        <v>5.22005403515716</v>
+        <v>5.2170598475383425</v>
       </c>
       <c r="H78">
-        <v>2.668752625474101</v>
+        <v>2.6672218470539768</v>
       </c>
       <c r="I78" t="s">
         <v>21</v>
@@ -3780,22 +3780,22 @@
         <v>1825199</v>
       </c>
       <c r="C79">
-        <v>10659272.216310449</v>
+        <v>10556487.315103129</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79">
-        <v>49611052.052448109</v>
+        <v>49102394.583617717</v>
       </c>
       <c r="F79">
-        <v>5.8400602982526557</v>
+        <v>5.7837459450192164</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79">
-        <v>27.181174245903108</v>
+        <v>26.902488212856635</v>
       </c>
       <c r="I79" t="s">
         <v>27</v>
@@ -3821,22 +3821,22 @@
         <v>8749914</v>
       </c>
       <c r="C80">
-        <v>142789667.91137397</v>
+        <v>144095809.09995773</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80">
-        <v>341183576.31564164</v>
+        <v>341860641.06332231</v>
       </c>
       <c r="F80">
-        <v>16.318979582127774</v>
+        <v>16.468254327980564</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>38.992791965228648</v>
+        <v>39.070171554065823</v>
       </c>
       <c r="I80" t="s">
         <v>27</v>
@@ -3862,22 +3862,22 @@
         <v>992174</v>
       </c>
       <c r="C81">
-        <v>10798206.352655798</v>
+        <v>10680818.774346644</v>
       </c>
       <c r="D81">
         <v>0</v>
       </c>
       <c r="E81">
-        <v>45869394.286851078</v>
+        <v>45884164.572154067</v>
       </c>
       <c r="F81">
-        <v>10.883379682047503</v>
+        <v>10.765066182289239</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81">
-        <v>46.231199655353876</v>
+        <v>46.246086444670055</v>
       </c>
       <c r="I81" t="s">
         <v>27</v>
@@ -3903,22 +3903,22 @@
         <v>1769518</v>
       </c>
       <c r="C82">
-        <v>21146399.314238053</v>
+        <v>21600759.958078895</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>96518460.711907119</v>
+        <v>97548313.174534202</v>
       </c>
       <c r="F82">
-        <v>11.950372538871067</v>
+        <v>12.207143390504587</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>54.545057304818101</v>
+        <v>55.127053341381213</v>
       </c>
       <c r="I82" t="s">
         <v>27</v>
@@ -3944,22 +3944,22 @@
         <v>16149545</v>
       </c>
       <c r="C83">
-        <v>781023553.6901387</v>
+        <v>778299166.31212544</v>
       </c>
       <c r="D83">
-        <v>75226102.980854988</v>
+        <v>74976692.132363468</v>
       </c>
       <c r="E83">
-        <v>38459345.148962118</v>
+        <v>38331833.852670819</v>
       </c>
       <c r="F83">
-        <v>48.3619540792102</v>
+        <v>48.193256609528348</v>
       </c>
       <c r="G83">
-        <v>4.6580942671050476</v>
+        <v>4.6426504358087781</v>
       </c>
       <c r="H83">
-        <v>2.381450694057456</v>
+        <v>2.3735550353072372</v>
       </c>
       <c r="I83" t="s">
         <v>27</v>
@@ -3985,22 +3985,22 @@
         <v>1806150</v>
       </c>
       <c r="C84">
-        <v>18901481.042859614</v>
+        <v>18687908.017598834</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84">
-        <v>75641298.144752145</v>
+        <v>75279757.233415812</v>
       </c>
       <c r="F84">
-        <v>10.465067155474138</v>
+        <v>10.346819487638809</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>41.879853912882176</v>
+        <v>41.679681772508268</v>
       </c>
       <c r="I84" t="s">
         <v>27</v>
@@ -4026,22 +4026,22 @@
         <v>5446539</v>
       </c>
       <c r="C85">
-        <v>144147948.15336585</v>
+        <v>142303729.28314444</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>286657284.2899999</v>
+        <v>285212389.30500215</v>
       </c>
       <c r="F85">
-        <v>26.465971904977796</v>
+        <v>26.127368092497722</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>52.631089998621128</v>
+        <v>52.365803183453224</v>
       </c>
       <c r="I85" t="s">
         <v>27</v>
@@ -4067,22 +4067,22 @@
         <v>2101351</v>
       </c>
       <c r="C86">
-        <v>24367454.050502487</v>
+        <v>24303300.54746104</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>99815335.506753027</v>
+        <v>99635257.527447432</v>
       </c>
       <c r="F86">
-        <v>11.596089397012916</v>
+        <v>11.565559750589522</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>47.500553456682404</v>
+        <v>47.41485716924371</v>
       </c>
       <c r="I86" t="s">
         <v>27</v>
@@ -4108,22 +4108,22 @@
         <v>1738999</v>
       </c>
       <c r="C87">
-        <v>63008823.295444235</v>
+        <v>63084799.147521347</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87">
-        <v>19786562.840925112</v>
+        <v>20102954.137052663</v>
       </c>
       <c r="F87">
-        <v>36.23281168962388</v>
+        <v>36.276501106395891</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>11.378133535973921</v>
+        <v>11.560072281267939</v>
       </c>
       <c r="I87" t="s">
         <v>27</v>
@@ -4155,7 +4155,7 @@
         <v>242049.83090708614</v>
       </c>
       <c r="E88">
-        <v>3924315.9540970307</v>
+        <v>3927134.527387022</v>
       </c>
       <c r="F88">
         <v>18.438385493227372</v>
@@ -4164,7 +4164,7 @@
         <v>1.1783913445359027</v>
       </c>
       <c r="H88">
-        <v>19.105074092397196</v>
+        <v>19.118795987415336</v>
       </c>
       <c r="I88" t="s">
         <v>27</v>
@@ -4190,22 +4190,22 @@
         <v>500876</v>
       </c>
       <c r="C89">
-        <v>6409342.2790354406</v>
+        <v>6543756.1086948272</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>29357197.835003257</v>
+        <v>30091864.265555397</v>
       </c>
       <c r="F89">
-        <v>12.796265500913281</v>
+        <v>13.064622997897338</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89">
-        <v>58.611707957664684</v>
+        <v>60.078471049831485</v>
       </c>
       <c r="I89" t="s">
         <v>27</v>
@@ -4231,22 +4231,22 @@
         <v>869762</v>
       </c>
       <c r="C90">
-        <v>10366245.308103297</v>
+        <v>10145698.440924905</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90">
-        <v>48090895.449111402</v>
+        <v>47364108.070020393</v>
       </c>
       <c r="F90">
-        <v>11.91848495117434</v>
+        <v>11.664913437152814</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>55.292017182989603</v>
+        <v>54.456400797023086</v>
       </c>
       <c r="I90" t="s">
         <v>27</v>
@@ -4272,22 +4272,22 @@
         <v>285146</v>
       </c>
       <c r="C91">
-        <v>4632059.8032386024</v>
+        <v>4648712.6556857498</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>9298947.1237947904</v>
+        <v>9332378.0381059796</v>
       </c>
       <c r="F91">
-        <v>16.244519660940718</v>
+        <v>16.302920804380037</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>32.611178567452427</v>
+        <v>32.72841996067271</v>
       </c>
       <c r="I91" t="s">
         <v>27</v>
@@ -4313,22 +4313,22 @@
         <v>6959580</v>
       </c>
       <c r="C92">
-        <v>367286746.65396869</v>
+        <v>368412775.99882299</v>
       </c>
       <c r="D92">
-        <v>3295154.9840922691</v>
+        <v>3413149.3207183219</v>
       </c>
       <c r="E92">
-        <v>19497766.480953932</v>
+        <v>19650946.700697072</v>
       </c>
       <c r="F92">
-        <v>52.774268943523701</v>
+        <v>52.936064532460719</v>
       </c>
       <c r="G92">
-        <v>0.47347037954765503</v>
+        <v>0.49042461193323761</v>
       </c>
       <c r="H92">
-        <v>2.8015722904189522</v>
+        <v>2.8235822708693732</v>
       </c>
       <c r="I92" t="s">
         <v>28</v>
@@ -4354,22 +4354,22 @@
         <v>3030017</v>
       </c>
       <c r="C93">
-        <v>191675154.02921706</v>
+        <v>191696389.27878472</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>1514183.6071574977</v>
+        <v>1512207.1661804111</v>
       </c>
       <c r="F93">
-        <v>63.258771825114202</v>
+        <v>63.265780118984388</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0.49972775966520905</v>
+        <v>0.49907547257339185</v>
       </c>
       <c r="I93" t="s">
         <v>28</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>1786640.9832900004</v>
+        <v>1717160.5006065015</v>
       </c>
       <c r="F94">
         <v>28.244616288803247</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>6.0318329494399103</v>
+        <v>5.7972616680728066</v>
       </c>
       <c r="I94" t="s">
         <v>28</v>
@@ -4436,22 +4436,22 @@
         <v>1615868</v>
       </c>
       <c r="C95">
-        <v>3850232.5830506645</v>
+        <v>3871134.6998285642</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>15484970.350273266</v>
+        <v>15574814.759356705</v>
       </c>
       <c r="F95">
-        <v>2.3827642994667042</v>
+        <v>2.3956998342863183</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>9.5830664078212244</v>
+        <v>9.6386677373131384</v>
       </c>
       <c r="I95" t="s">
         <v>29</v>
@@ -4477,22 +4477,22 @@
         <v>1079076</v>
       </c>
       <c r="C96">
-        <v>70835822.75511229</v>
+        <v>70848853.339511275</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>715513.3611627511</v>
+        <v>715644.9832273873</v>
       </c>
       <c r="F96">
-        <v>65.644887621550552</v>
+        <v>65.656963308896934</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0.66307967294495573</v>
+        <v>0.6632016495848182</v>
       </c>
       <c r="I96" t="s">
         <v>30</v>
@@ -4518,22 +4518,22 @@
         <v>3480059</v>
       </c>
       <c r="C97">
-        <v>75203630.60239017</v>
+        <v>75536646.45779717</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>150972702.03637725</v>
+        <v>151641237.62580335</v>
       </c>
       <c r="F97">
-        <v>21.609872304575919</v>
+        <v>21.705564893525416</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>43.382224852043386</v>
+        <v>43.574329523092381</v>
       </c>
       <c r="I97" t="s">
         <v>30</v>
@@ -4559,22 +4559,22 @@
         <v>1420063</v>
       </c>
       <c r="C98">
-        <v>18508001.205981884</v>
+        <v>18399428.104686696</v>
       </c>
       <c r="D98">
         <v>0</v>
       </c>
       <c r="E98">
-        <v>83092494.180970833</v>
+        <v>82875692.022263065</v>
       </c>
       <c r="F98">
-        <v>13.033225431534998</v>
+        <v>12.956768893131288</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>58.513244962350846</v>
+        <v>58.360574159219041</v>
       </c>
       <c r="I98" t="s">
         <v>30</v>
@@ -4600,22 +4600,22 @@
         <v>2037047</v>
       </c>
       <c r="C99">
-        <v>22017038.073039006</v>
+        <v>21879259.191018023</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>91463048.965572864</v>
+        <v>90957228.51132974</v>
       </c>
       <c r="F99">
-        <v>10.808311282478513</v>
+        <v>10.740674707563459</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>44.899822618512417</v>
+        <v>44.651511973621496</v>
       </c>
       <c r="I99" t="s">
         <v>30</v>
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>9021590.5992943477</v>
+        <v>8842529.3793622628</v>
       </c>
       <c r="F100">
         <v>9.0211493869168784</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>38.636362309611769</v>
+        <v>37.869504836669222</v>
       </c>
       <c r="I100" t="s">
         <v>30</v>
@@ -4682,22 +4682,22 @@
         <v>16042082</v>
       </c>
       <c r="C101">
-        <v>186411140.9714005</v>
+        <v>189429239.38649073</v>
       </c>
       <c r="D101">
         <v>0</v>
       </c>
       <c r="E101">
-        <v>824647703.52468479</v>
+        <v>833219211.89387357</v>
       </c>
       <c r="F101">
-        <v>11.620133906022952</v>
+        <v>11.808270234904093</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>51.405279160440948</v>
+        <v>51.9395931210097</v>
       </c>
       <c r="I101" t="s">
         <v>30</v>
@@ -4723,22 +4723,22 @@
         <v>2119428</v>
       </c>
       <c r="C102">
-        <v>25498849.598615371</v>
+        <v>25200469.456794612</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>118660288.40421367</v>
+        <v>118264981.3500402</v>
       </c>
       <c r="F102">
-        <v>12.031005346072323</v>
+        <v>11.890222011219354</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>55.986940063174437</v>
+        <v>55.800424147477621</v>
       </c>
       <c r="I102" t="s">
         <v>30</v>
@@ -4764,22 +4764,22 @@
         <v>4495381</v>
       </c>
       <c r="C103">
-        <v>129288264.79991738</v>
+        <v>129553224.85156658</v>
       </c>
       <c r="D103">
-        <v>8644198.6549555324</v>
+        <v>8521962.8063729778</v>
       </c>
       <c r="E103">
-        <v>130872752.46944705</v>
+        <v>129228724.62975773</v>
       </c>
       <c r="F103">
-        <v>28.760246306134537</v>
+        <v>28.819186816771833</v>
       </c>
       <c r="G103">
-        <v>1.9229067914278084</v>
+        <v>1.8957153590258484</v>
       </c>
       <c r="H103">
-        <v>29.112716468180793</v>
+        <v>28.747001562216358</v>
       </c>
       <c r="I103" t="s">
         <v>30</v>
@@ -4805,22 +4805,22 @@
         <v>201976</v>
       </c>
       <c r="C104">
-        <v>12753093.642359067</v>
+        <v>12685165.218176078</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>417975.57335402753</v>
+        <v>413228.33652727806</v>
       </c>
       <c r="F104">
-        <v>63.141628918084656</v>
+        <v>62.805309631719005</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>2.0694318797977358</v>
+        <v>2.0459279148377929</v>
       </c>
       <c r="I104" t="s">
         <v>30</v>
@@ -4846,22 +4846,22 @@
         <v>6594728</v>
       </c>
       <c r="C105">
-        <v>73706820.741568342</v>
+        <v>72733690.51347059</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>337319132.49096835</v>
+        <v>341908365.22922587</v>
       </c>
       <c r="F105">
-        <v>11.176627867224902</v>
+        <v>11.029066022657885</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>51.149817322407891</v>
+        <v>51.845711487907593</v>
       </c>
       <c r="I105" t="s">
         <v>30</v>
@@ -4887,22 +4887,22 @@
         <v>7672769</v>
       </c>
       <c r="C106">
-        <v>83796030.296816021</v>
+        <v>86118966.882602781</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>392121132.61702543</v>
+        <v>398189642.85445952</v>
       </c>
       <c r="F106">
-        <v>10.921224175628906</v>
+        <v>11.223974927774156</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>51.105556887875217</v>
+        <v>51.896472167278795</v>
       </c>
       <c r="I106" t="s">
         <v>30</v>
@@ -4928,22 +4928,22 @@
         <v>423587</v>
       </c>
       <c r="C107">
-        <v>5972004.2751412867</v>
+        <v>5998557.7228029566</v>
       </c>
       <c r="D107">
         <v>0</v>
       </c>
       <c r="E107">
-        <v>18432525.034748733</v>
+        <v>18392671.401083536</v>
       </c>
       <c r="F107">
-        <v>14.098648625055271</v>
+        <v>14.161335741660997</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>43.51532279023845</v>
+        <v>43.421236726064627</v>
       </c>
       <c r="I107" t="s">
         <v>11</v>
@@ -4969,22 +4969,22 @@
         <v>969633</v>
       </c>
       <c r="C108">
-        <v>50026104.021532498</v>
+        <v>50421059.802590996</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>17400627.932575651</v>
+        <v>17535348.86584536</v>
       </c>
       <c r="F108">
-        <v>51.592823286266558</v>
+        <v>52.000148306205539</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>17.945581403041821</v>
+        <v>18.084521531182787</v>
       </c>
       <c r="I108" t="s">
         <v>11</v>
@@ -5010,22 +5010,22 @@
         <v>3095082</v>
       </c>
       <c r="C109">
-        <v>38801586.086046554</v>
+        <v>38796589.468800895</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>180697912.545829</v>
+        <v>180111611.60722739</v>
       </c>
       <c r="F109">
-        <v>12.536529269998841</v>
+        <v>12.534914896859242</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>58.38226985450757</v>
+        <v>58.192839998173682</v>
       </c>
       <c r="I109" t="s">
         <v>11</v>
@@ -5051,22 +5051,22 @@
         <v>134547</v>
       </c>
       <c r="C110">
-        <v>7873289.649934453</v>
+        <v>7855717.789060547</v>
       </c>
       <c r="D110">
-        <v>59028.14157242002</v>
+        <v>58916.031753634226</v>
       </c>
       <c r="E110">
-        <v>865227.94485743064</v>
+        <v>848697.55194119527</v>
       </c>
       <c r="F110">
-        <v>58.517021189134304</v>
+        <v>58.386421020613966</v>
       </c>
       <c r="G110">
-        <v>0.43871763452488738</v>
+        <v>0.43788439544273916</v>
       </c>
       <c r="H110">
-        <v>6.4306743729509437</v>
+        <v>6.3078147557447979</v>
       </c>
       <c r="I110" t="s">
         <v>31</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>68143.597880117246</v>
+        <v>67032.563165108761</v>
       </c>
       <c r="F111">
         <v>30.753035390322143</v>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>0.25661305923599037</v>
+        <v>0.25242915897235457</v>
       </c>
       <c r="I111" t="s">
         <v>31</v>
@@ -5133,22 +5133,22 @@
         <v>10172252</v>
       </c>
       <c r="C112">
-        <v>273122706.55255175</v>
+        <v>278652168.7463671</v>
       </c>
       <c r="D112">
-        <v>2917181.0194115443</v>
+        <v>2917042.7271848768</v>
       </c>
       <c r="E112">
-        <v>42805337.103148632</v>
+        <v>43670152.163218103</v>
       </c>
       <c r="F112">
-        <v>26.849777861632976</v>
+        <v>27.393360756926498</v>
       </c>
       <c r="G112">
-        <v>0.28677828856496518</v>
+        <v>0.2867646935196726</v>
       </c>
       <c r="H112">
-        <v>4.2080492208754396</v>
+        <v>4.2930662908486834</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -5174,22 +5174,22 @@
         <v>9007455</v>
       </c>
       <c r="C113">
-        <v>143985649.94307902</v>
+        <v>144587724.94490039</v>
       </c>
       <c r="D113">
-        <v>1917878.1164529109</v>
+        <v>1924843.1442729533</v>
       </c>
       <c r="E113">
-        <v>27107247.82037168</v>
+        <v>27423924.039168421</v>
       </c>
       <c r="F113">
-        <v>15.985164504632998</v>
+        <v>16.052006359720963</v>
       </c>
       <c r="G113">
-        <v>0.21292119876845467</v>
+        <v>0.21369445023849171</v>
       </c>
       <c r="H113">
-        <v>3.009423618588345</v>
+        <v>3.044580743303011</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -5215,22 +5215,22 @@
         <v>531521</v>
       </c>
       <c r="C114">
-        <v>21251797.590813901</v>
+        <v>21351230.349867634</v>
       </c>
       <c r="D114">
-        <v>1622987.5602551969</v>
+        <v>1617498.6901473636</v>
       </c>
       <c r="E114">
-        <v>15672167.155140815</v>
+        <v>15879331.921016226</v>
       </c>
       <c r="F114">
-        <v>39.982987672761567</v>
+        <v>40.17005979042716</v>
       </c>
       <c r="G114">
-        <v>3.0534777746414474</v>
+        <v>3.0431510516938438</v>
       </c>
       <c r="H114">
-        <v>29.485508860686249</v>
+        <v>29.875267244410335</v>
       </c>
       <c r="I114" t="s">
         <v>32</v>
@@ -5256,22 +5256,22 @@
         <v>387114</v>
       </c>
       <c r="C115">
-        <v>20084406.724056598</v>
+        <v>20128068.875861548</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
       <c r="E115">
-        <v>7053764.5440004049</v>
+        <v>7079572.3397395499</v>
       </c>
       <c r="F115">
-        <v>51.882408603296696</v>
+        <v>51.995197476354633</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>18.221414219068297</v>
+        <v>18.288081391371922</v>
       </c>
       <c r="I115" t="s">
         <v>32</v>
@@ -5297,22 +5297,22 @@
         <v>439947</v>
       </c>
       <c r="C116">
-        <v>19991893.531987872</v>
+        <v>20512108.1278692</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>7448423.6949776635</v>
+        <v>7282082.9370322824</v>
       </c>
       <c r="F116">
-        <v>45.441595310316636</v>
+        <v>46.624043641323162</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>16.930274998983204</v>
+        <v>16.552182278847866</v>
       </c>
       <c r="I116" t="s">
         <v>32</v>
@@ -5338,22 +5338,22 @@
         <v>1438500</v>
       </c>
       <c r="C117">
-        <v>75413265.339679077</v>
+        <v>74924637.186072439</v>
       </c>
       <c r="D117">
-        <v>7329288.5895201098</v>
+        <v>7275993.1934754485</v>
       </c>
       <c r="E117">
-        <v>3747098.7913921564</v>
+        <v>3719851.5201643226</v>
       </c>
       <c r="F117">
-        <v>52.424932457197826</v>
+        <v>52.085253518298529</v>
       </c>
       <c r="G117">
-        <v>5.0950911293153354</v>
+        <v>5.0580418446127551</v>
       </c>
       <c r="H117">
-        <v>2.6048653398624655</v>
+        <v>2.5859238930582706</v>
       </c>
       <c r="I117" t="s">
         <v>33</v>
@@ -5379,22 +5379,22 @@
         <v>4871389</v>
       </c>
       <c r="C118">
-        <v>228111146.25748408</v>
+        <v>228108730.17180815</v>
       </c>
       <c r="D118">
-        <v>22096991.602463361</v>
+        <v>22135002.106196404</v>
       </c>
       <c r="E118">
-        <v>11297086.956759384</v>
+        <v>11316519.826792903</v>
       </c>
       <c r="F118">
-        <v>46.826715390104155</v>
+        <v>46.826219415408659</v>
       </c>
       <c r="G118">
-        <v>4.5360761791890081</v>
+        <v>4.5438789852743033</v>
       </c>
       <c r="H118">
-        <v>2.3190689466103782</v>
+        <v>2.3230581312214857</v>
       </c>
       <c r="I118" t="s">
         <v>33</v>
@@ -5420,22 +5420,22 @@
         <v>1656996</v>
       </c>
       <c r="C119">
-        <v>51376699.899967171</v>
+        <v>51586621.20739118</v>
       </c>
       <c r="D119">
-        <v>3197623.8034288408</v>
+        <v>3232415.0046075564</v>
       </c>
       <c r="E119">
-        <v>54526330.411123954</v>
+        <v>54621465.16173172</v>
       </c>
       <c r="F119">
-        <v>31.00592874090654</v>
+        <v>31.132616619105406</v>
       </c>
       <c r="G119">
-        <v>1.929771588723715</v>
+        <v>1.9507681398190198</v>
       </c>
       <c r="H119">
-        <v>32.906736293342867</v>
+        <v>32.964150282639018</v>
       </c>
       <c r="I119" t="s">
         <v>33</v>
@@ -5461,22 +5461,22 @@
         <v>4082513</v>
       </c>
       <c r="C120">
-        <v>190151917.35571331</v>
+        <v>190465835.82553345</v>
       </c>
       <c r="D120">
-        <v>9064736.7442150842</v>
+        <v>9124468.287177857</v>
       </c>
       <c r="E120">
-        <v>4634346.6604799666</v>
+        <v>4664884.411819689</v>
       </c>
       <c r="F120">
-        <v>46.577173754428536</v>
+        <v>46.654067194772793</v>
       </c>
       <c r="G120">
-        <v>2.2203815993274447</v>
+        <v>2.2350126716504901</v>
       </c>
       <c r="H120">
-        <v>1.1351700926561572</v>
+        <v>1.1426502283813154</v>
       </c>
       <c r="I120" t="s">
         <v>33</v>
@@ -5502,22 +5502,22 @@
         <v>7658910</v>
       </c>
       <c r="C121">
-        <v>269828314.68084139</v>
+        <v>267643227.57089889</v>
       </c>
       <c r="D121">
-        <v>21847904.738786265</v>
+        <v>21722401.970879734</v>
       </c>
       <c r="E121">
-        <v>147070083.64034805</v>
+        <v>146548379.79341978</v>
       </c>
       <c r="F121">
-        <v>35.230641785951448</v>
+        <v>34.945341774599633</v>
       </c>
       <c r="G121">
-        <v>2.8526128050579347</v>
+        <v>2.8362262999408183</v>
       </c>
       <c r="H121">
-        <v>19.202482290606373</v>
+        <v>19.1343650458642</v>
       </c>
       <c r="I121" t="s">
         <v>33</v>
@@ -5543,22 +5543,22 @@
         <v>500630</v>
       </c>
       <c r="C122">
-        <v>7420367.7819547039</v>
+        <v>7594004.6592679191</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>34188843.562374145</v>
+        <v>34569765.711141028</v>
       </c>
       <c r="F122">
-        <v>14.822059768600971</v>
+        <v>15.16889650893458</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>68.291639658778223</v>
+        <v>69.052525240479056</v>
       </c>
       <c r="I122" t="s">
         <v>34</v>
@@ -5584,22 +5584,22 @@
         <v>3581670</v>
       </c>
       <c r="C123">
-        <v>252456400.93717682</v>
+        <v>250221808.42207441</v>
       </c>
       <c r="D123">
-        <v>1823957.8567915868</v>
+        <v>1803192.3201225768</v>
       </c>
       <c r="E123">
-        <v>26067851.953279719</v>
+        <v>26424387.892676827</v>
       </c>
       <c r="F123">
-        <v>70.485667562108404</v>
+        <v>69.861770744394207</v>
       </c>
       <c r="G123">
-        <v>0.50924788067900917</v>
+        <v>0.50345015596707032</v>
       </c>
       <c r="H123">
-        <v>7.2781277876743866</v>
+        <v>7.3776723965850639</v>
       </c>
       <c r="I123" t="s">
         <v>34</v>
@@ -5628,19 +5628,19 @@
         <v>409874234.93612063</v>
       </c>
       <c r="D124">
-        <v>3179628.9793429384</v>
+        <v>3225191.0766856261</v>
       </c>
       <c r="E124">
-        <v>43563108.020027027</v>
+        <v>44554630.08635103</v>
       </c>
       <c r="F124">
         <v>83.607483765710668</v>
       </c>
       <c r="G124">
-        <v>0.64859109358954825</v>
+        <v>0.65788499886394092</v>
       </c>
       <c r="H124">
-        <v>8.8861449101233472</v>
+        <v>9.0883988163159337</v>
       </c>
       <c r="I124" t="s">
         <v>34</v>
@@ -5666,22 +5666,22 @@
         <v>8835500</v>
       </c>
       <c r="C125">
-        <v>443652655.87885469</v>
+        <v>440677298.20673579</v>
       </c>
       <c r="D125">
-        <v>46260376.538961582</v>
+        <v>46199000.339566737</v>
       </c>
       <c r="E125">
-        <v>23650617.505544111</v>
+        <v>23619238.923603505</v>
       </c>
       <c r="F125">
-        <v>50.212512690719791</v>
+        <v>49.875762345847527</v>
       </c>
       <c r="G125">
-        <v>5.2357395211319773</v>
+        <v>5.2287929760134384</v>
       </c>
       <c r="H125">
-        <v>2.6767718301787236</v>
+        <v>2.6732204089868716</v>
       </c>
       <c r="I125" t="s">
         <v>35</v>
@@ -5707,22 +5707,22 @@
         <v>6233147</v>
       </c>
       <c r="C126">
-        <v>232390728.90057239</v>
+        <v>233974906.14775729</v>
       </c>
       <c r="D126">
-        <v>22729421.724350199</v>
+        <v>22853631.020208802</v>
       </c>
       <c r="E126">
-        <v>11620416.856574042</v>
+        <v>11683918.859081753</v>
       </c>
       <c r="F126">
-        <v>37.2830496217356</v>
+        <v>37.537203301599867</v>
       </c>
       <c r="G126">
-        <v>3.6465402988811588</v>
+        <v>3.6664675195705798</v>
       </c>
       <c r="H126">
-        <v>1.864293727802993</v>
+        <v>1.8744815193804594</v>
       </c>
       <c r="I126" t="s">
         <v>35</v>
@@ -5748,22 +5748,22 @@
         <v>2753681</v>
       </c>
       <c r="C127">
-        <v>29321089.325633954</v>
+        <v>29576184.789020114</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>126191645.77214386</v>
+        <v>125478102.77209385</v>
       </c>
       <c r="F127">
-        <v>10.647961519738109</v>
+        <v>10.740599506268197</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>45.826530296045135</v>
+        <v>45.56740696256896</v>
       </c>
       <c r="I127" t="s">
         <v>35</v>
@@ -5789,22 +5789,22 @@
         <v>5168266</v>
       </c>
       <c r="C128">
-        <v>256175019.04871213</v>
+        <v>253255146.05014843</v>
       </c>
       <c r="D128">
-        <v>22307836.442471661</v>
+        <v>22028438.804076619</v>
       </c>
       <c r="E128">
-        <v>89662857.454674482</v>
+        <v>88802116.125165895</v>
       </c>
       <c r="F128">
-        <v>49.566918391722126</v>
+        <v>49.00195656534482</v>
       </c>
       <c r="G128">
-        <v>4.3163096563666929</v>
+        <v>4.2622494283530719</v>
       </c>
       <c r="H128">
-        <v>17.348731171088037</v>
+        <v>17.182187628339154</v>
       </c>
       <c r="I128" t="s">
         <v>35</v>
@@ -5830,22 +5830,22 @@
         <v>9849064</v>
       </c>
       <c r="C129">
-        <v>386989136.77496219</v>
+        <v>385683427.13085151</v>
       </c>
       <c r="D129">
-        <v>37587563.389334783</v>
+        <v>37483469.5291932</v>
       </c>
       <c r="E129">
-        <v>19216641.782797411</v>
+        <v>19163423.796800032</v>
       </c>
       <c r="F129">
-        <v>39.291970970537115</v>
+        <v>39.159399018104814</v>
       </c>
       <c r="G129">
-        <v>3.8163589341418418</v>
+        <v>3.805790025244348</v>
       </c>
       <c r="H129">
-        <v>1.9511135050800168</v>
+        <v>1.9457101504061738</v>
       </c>
       <c r="I129" t="s">
         <v>35</v>
@@ -5871,22 +5871,22 @@
         <v>8843344</v>
       </c>
       <c r="C130">
-        <v>406606997.87979949</v>
+        <v>405876249.77054453</v>
       </c>
       <c r="D130">
-        <v>28353933.000770826</v>
+        <v>28335772.594942629</v>
       </c>
       <c r="E130">
-        <v>57540734.214668982</v>
+        <v>57692805.538038053</v>
       </c>
       <c r="F130">
-        <v>45.978873815131415</v>
+        <v>45.896241260155044</v>
       </c>
       <c r="G130">
-        <v>3.2062456239145312</v>
+        <v>3.2041920561885449</v>
       </c>
       <c r="H130">
-        <v>6.506671482492254</v>
+        <v>6.5238676159197304</v>
       </c>
       <c r="I130" t="s">
         <v>35</v>
@@ -5912,22 +5912,22 @@
         <v>3681044</v>
       </c>
       <c r="C131">
-        <v>179315177.18010032</v>
+        <v>178889289.9829483</v>
       </c>
       <c r="D131">
-        <v>17829176.797515508</v>
+        <v>17582906.622357115</v>
       </c>
       <c r="E131">
-        <v>9115166.6377298068</v>
+        <v>8989261.0106800757</v>
       </c>
       <c r="F131">
-        <v>48.713130617319521</v>
+        <v>48.597433223549707</v>
       </c>
       <c r="G131">
-        <v>4.843510916336645</v>
+        <v>4.7766086529683198</v>
       </c>
       <c r="H131">
-        <v>2.4762449559771107</v>
+        <v>2.4420411738300536</v>
       </c>
       <c r="I131" t="s">
         <v>35</v>
@@ -5953,22 +5953,22 @@
         <v>4626240</v>
       </c>
       <c r="C132">
-        <v>56667891.709982499</v>
+        <v>56547301.915130287</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>246942653.77692729</v>
+        <v>245660358.42005321</v>
       </c>
       <c r="F132">
-        <v>12.249233007795207</v>
+        <v>12.223166527272751</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>53.378694961119031</v>
+        <v>53.101516224850684</v>
       </c>
       <c r="I132" t="s">
         <v>18</v>
@@ -5994,22 +5994,22 @@
         <v>6322841</v>
       </c>
       <c r="C133">
-        <v>72907411.778039694</v>
+        <v>74899117.241280615</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <v>341369009.5004921</v>
+        <v>346981449.82183194</v>
       </c>
       <c r="F133">
-        <v>11.530799489982382</v>
+        <v>11.845801158257911</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>53.989813993502622</v>
+        <v>54.87745932909462</v>
       </c>
       <c r="I133" t="s">
         <v>18</v>
@@ -6035,22 +6035,22 @@
         <v>9036684</v>
       </c>
       <c r="C134">
-        <v>425673465.13358933</v>
+        <v>422944224.1293239</v>
       </c>
       <c r="D134">
-        <v>29918234.501131684</v>
+        <v>29746822.395678326</v>
       </c>
       <c r="E134">
-        <v>473034858.57887906</v>
+        <v>472590547.43439704</v>
       </c>
       <c r="F134">
-        <v>47.105051491630043</v>
+        <v>46.803033516423049</v>
       </c>
       <c r="G134">
-        <v>3.3107536460422522</v>
+        <v>3.2917851720474376</v>
       </c>
       <c r="H134">
-        <v>52.346066165296811</v>
+        <v>52.296898667077109</v>
       </c>
       <c r="I134" t="s">
         <v>36</v>
@@ -6076,22 +6076,22 @@
         <v>916991</v>
       </c>
       <c r="C135">
-        <v>12482998.476650406</v>
+        <v>12824447.687312797</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <v>67840557.254586056</v>
+        <v>68474404.724819317</v>
       </c>
       <c r="F135">
-        <v>13.61299999307562</v>
+        <v>13.985358293933961</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135">
-        <v>73.98170456916813</v>
+        <v>74.672929968581286</v>
       </c>
       <c r="I135" t="s">
         <v>36</v>
@@ -6117,22 +6117,22 @@
         <v>317344</v>
       </c>
       <c r="C136">
-        <v>5154983.2674562177</v>
+        <v>5202692.31396438</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>22863469.529346313</v>
+        <v>22655300.480965164</v>
       </c>
       <c r="F136">
-        <v>16.244149148735183</v>
+        <v>16.394487729291811</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>72.046326791577314</v>
+        <v>71.39035394072414</v>
       </c>
       <c r="I136" t="s">
         <v>36</v>
@@ -6158,22 +6158,22 @@
         <v>4850745</v>
       </c>
       <c r="C137">
-        <v>168630386.34426135</v>
+        <v>169485914.37225476</v>
       </c>
       <c r="D137">
-        <v>8718680.0011902191</v>
+        <v>8871504.4738620818</v>
       </c>
       <c r="E137">
-        <v>133661352.40006083</v>
+        <v>135193458.4692311</v>
       </c>
       <c r="F137">
-        <v>34.763811815352355</v>
+        <v>34.940182254943267</v>
       </c>
       <c r="G137">
-        <v>1.7973898857165691</v>
+        <v>1.8288952467841706</v>
       </c>
       <c r="H137">
-        <v>27.554809086039533</v>
+        <v>27.870658727521462</v>
       </c>
       <c r="I137" t="s">
         <v>36</v>
@@ -6199,22 +6199,22 @@
         <v>3399679</v>
       </c>
       <c r="C138">
-        <v>172031231.83953482</v>
+        <v>170769040.35286456</v>
       </c>
       <c r="D138">
-        <v>17165519.792915817</v>
+        <v>16762566.898258958</v>
       </c>
       <c r="E138">
-        <v>8775871.9941282105</v>
+        <v>8569862.3267348874</v>
       </c>
       <c r="F138">
-        <v>50.602198572140139</v>
+        <v>50.230930729890844</v>
       </c>
       <c r="G138">
-        <v>5.0491589920447835</v>
+        <v>4.9306322444733626</v>
       </c>
       <c r="H138">
-        <v>2.5813825346828954</v>
+        <v>2.5207857349870055</v>
       </c>
       <c r="I138" t="s">
         <v>36</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>3298633.5902388748</v>
+        <v>3222373.1742752995</v>
       </c>
       <c r="F139">
         <v>9.3199292496482915</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>3.5103236584624531</v>
+        <v>3.4291692243497085</v>
       </c>
       <c r="I139" t="s">
         <v>16</v>
@@ -6281,22 +6281,22 @@
         <v>3198891</v>
       </c>
       <c r="C140">
-        <v>131289449.8962274</v>
+        <v>131319017.33234321</v>
       </c>
       <c r="D140">
-        <v>3132500.4825730789</v>
+        <v>3206181.053522788</v>
       </c>
       <c r="E140">
-        <v>1601490.8717154828</v>
+        <v>1639160.0636135265</v>
       </c>
       <c r="F140">
-        <v>41.042176771958594</v>
+        <v>41.051419799031351</v>
       </c>
       <c r="G140">
-        <v>0.97924577066648377</v>
+        <v>1.0022789315180756</v>
       </c>
       <c r="H140">
-        <v>0.50063940025323861</v>
+        <v>0.51241510373861643</v>
       </c>
       <c r="I140" t="s">
         <v>16</v>
@@ -6322,22 +6322,22 @@
         <v>3734928</v>
       </c>
       <c r="C141">
-        <v>177888392.6751245</v>
+        <v>177991431.32528561</v>
       </c>
       <c r="D141">
-        <v>3474207.1053802939</v>
+        <v>3507731.1632001167</v>
       </c>
       <c r="E141">
-        <v>1776188.3826256762</v>
+        <v>1793327.5571860576</v>
       </c>
       <c r="F141">
-        <v>47.628332507380193</v>
+        <v>47.65592036186122</v>
       </c>
       <c r="G141">
-        <v>0.9301938632766934</v>
+        <v>0.93916968766201558</v>
       </c>
       <c r="H141">
-        <v>0.47556161260020974</v>
+        <v>0.48015050281720495</v>
       </c>
       <c r="I141" t="s">
         <v>16</v>
@@ -6363,22 +6363,22 @@
         <v>2487210</v>
       </c>
       <c r="C142">
-        <v>83738838.793611616</v>
+        <v>83591634.700108439</v>
       </c>
       <c r="D142">
-        <v>8116190.5632597506</v>
+        <v>8114796.5260934597</v>
       </c>
       <c r="E142">
-        <v>4149402.4254665379</v>
+        <v>4148689.7239652826</v>
       </c>
       <c r="F142">
-        <v>33.667779879307183</v>
+        <v>33.608595454388023</v>
       </c>
       <c r="G142">
-        <v>3.2631706061248349</v>
+        <v>3.2626101238309029</v>
       </c>
       <c r="H142">
-        <v>1.668295972381318</v>
+        <v>1.6680094258085496</v>
       </c>
       <c r="I142" t="s">
         <v>37</v>
@@ -6404,22 +6404,22 @@
         <v>14438617</v>
       </c>
       <c r="C143">
-        <v>461918642.7435497</v>
+        <v>457776944.11458242</v>
       </c>
       <c r="D143">
-        <v>43963495.586630791</v>
+        <v>43553270.315530121</v>
       </c>
       <c r="E143">
-        <v>22476337.118664984</v>
+        <v>22266609.448814809</v>
       </c>
       <c r="F143">
-        <v>31.991889717938339</v>
+        <v>31.705041010131538</v>
       </c>
       <c r="G143">
-        <v>3.0448550291645518</v>
+        <v>3.0164433557265298</v>
       </c>
       <c r="H143">
-        <v>1.5566821336603764</v>
+        <v>1.5421566656151908</v>
       </c>
       <c r="I143" t="s">
         <v>37</v>
@@ -6445,7 +6445,7 @@
         <v>3826403</v>
       </c>
       <c r="C144">
-        <v>207826940.73734435</v>
+        <v>207681028.61732614</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>56320013.267791606</v>
       </c>
       <c r="F144">
-        <v>54.313918512332435</v>
+        <v>54.275785539925131</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -6486,22 +6486,22 @@
         <v>3857821</v>
       </c>
       <c r="C145">
-        <v>211918848.04135743</v>
+        <v>212429624.30781925</v>
       </c>
       <c r="D145">
-        <v>20544433.361007333</v>
+        <v>20608588.234272096</v>
       </c>
       <c r="E145">
-        <v>10503341.555814998</v>
+        <v>10536140.734771613</v>
       </c>
       <c r="F145">
-        <v>54.932265660163452</v>
+        <v>55.064665858737158</v>
       </c>
       <c r="G145">
-        <v>5.3253982911615996</v>
+        <v>5.3420281123131677</v>
       </c>
       <c r="H145">
-        <v>2.7226098763563678</v>
+        <v>2.731111872420108</v>
       </c>
       <c r="I145" t="s">
         <v>37</v>
@@ -6527,22 +6527,22 @@
         <v>15093419</v>
       </c>
       <c r="C146">
-        <v>761622571.51377201</v>
+        <v>756481312.61168313</v>
       </c>
       <c r="D146">
-        <v>6210134.3104431294</v>
+        <v>6314865.8579674903</v>
       </c>
       <c r="E146">
-        <v>182687671.78331816</v>
+        <v>182967672.10624295</v>
       </c>
       <c r="F146">
-        <v>50.46057301621137</v>
+        <v>50.11994383854865</v>
       </c>
       <c r="G146">
-        <v>0.41144649270275541</v>
+        <v>0.41838538093771133</v>
       </c>
       <c r="H146">
-        <v>12.10379648132197</v>
+        <v>12.122347634173739</v>
       </c>
       <c r="I146" t="s">
         <v>15</v>
@@ -6568,22 +6568,22 @@
         <v>7629351</v>
       </c>
       <c r="C147">
-        <v>743208010.18433595</v>
+        <v>751859702.07295656</v>
       </c>
       <c r="D147">
         <v>0</v>
       </c>
       <c r="E147">
-        <v>26261609.460112486</v>
+        <v>26161993.872449908</v>
       </c>
       <c r="F147">
-        <v>97.414316130472429</v>
+        <v>98.548317159999129</v>
       </c>
       <c r="G147">
         <v>0</v>
       </c>
       <c r="H147">
-        <v>3.4421813153061755</v>
+        <v>3.4291244265010103</v>
       </c>
       <c r="I147" t="s">
         <v>15</v>
@@ -6650,22 +6650,22 @@
         <v>6581975</v>
       </c>
       <c r="C149">
-        <v>341102494.60388422</v>
+        <v>344397692.68742394</v>
       </c>
       <c r="D149">
-        <v>17080421.503823712</v>
+        <v>17270251.308407456</v>
       </c>
       <c r="E149">
-        <v>12118562.773541158</v>
+        <v>12239209.3303845</v>
       </c>
       <c r="F149">
-        <v>51.823729899290747</v>
+        <v>52.324369613592268</v>
       </c>
       <c r="G149">
-        <v>2.5950298358507458</v>
+        <v>2.6238706935847458</v>
       </c>
       <c r="H149">
-        <v>1.8411742331961392</v>
+        <v>1.8595040744433853</v>
       </c>
       <c r="I149" t="s">
         <v>38</v>
@@ -6691,22 +6691,22 @@
         <v>261201</v>
       </c>
       <c r="C150">
-        <v>1488827.2148816194</v>
+        <v>1471462.7064012</v>
       </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>6069242.4903135542</v>
+        <v>6050980.8715042621</v>
       </c>
       <c r="F150">
-        <v>5.6999292302924545</v>
+        <v>5.6334497433057305</v>
       </c>
       <c r="G150">
         <v>0</v>
       </c>
       <c r="H150">
-        <v>23.235908324675457</v>
+        <v>23.165994278369002</v>
       </c>
       <c r="I150" t="s">
         <v>38</v>
@@ -6732,22 +6732,22 @@
         <v>14072154</v>
       </c>
       <c r="C151">
-        <v>619747531.56267297</v>
+        <v>615296010.7825675</v>
       </c>
       <c r="D151">
-        <v>59832058.237742007</v>
+        <v>59540177.466254011</v>
       </c>
       <c r="E151">
-        <v>30589139.774045639</v>
+        <v>30439915.729622405</v>
       </c>
       <c r="F151">
-        <v>44.040701342713632</v>
+        <v>43.72436592028253</v>
       </c>
       <c r="G151">
-        <v>4.2518052487019409</v>
+        <v>4.2310635220630761</v>
       </c>
       <c r="H151">
-        <v>2.1737354333988699</v>
+        <v>2.1631312256547508</v>
       </c>
       <c r="I151" t="s">
         <v>39</v>
@@ -6773,22 +6773,22 @@
         <v>543145</v>
       </c>
       <c r="C152">
-        <v>2654653.9819257567</v>
+        <v>2723050.7635469944</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>13676915.961711925</v>
+        <v>13707909.622171575</v>
       </c>
       <c r="F152">
-        <v>4.8875603787676525</v>
+        <v>5.0134876755691291</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>25.180966338108469</v>
+        <v>25.238029664586023</v>
       </c>
       <c r="I152" t="s">
         <v>39</v>
@@ -6814,22 +6814,22 @@
         <v>7296430</v>
       </c>
       <c r="C153">
-        <v>202455079.89458516</v>
+        <v>201046217.29606399</v>
       </c>
       <c r="D153">
-        <v>13856034.450673055</v>
+        <v>13702625.143166544</v>
       </c>
       <c r="E153">
-        <v>202866574.84657323</v>
+        <v>204135660.18992487</v>
       </c>
       <c r="F153">
-        <v>27.747142081070493</v>
+        <v>27.554052775955363</v>
       </c>
       <c r="G153">
-        <v>1.8990156077250182</v>
+        <v>1.8779903518798295</v>
       </c>
       <c r="H153">
-        <v>27.803538832905026</v>
+        <v>27.977471200289028</v>
       </c>
       <c r="I153" t="s">
         <v>39</v>
@@ -6858,19 +6858,19 @@
         <v>400954470.90730453</v>
       </c>
       <c r="D154">
-        <v>39355063.349563211</v>
+        <v>39265166.272459619</v>
       </c>
       <c r="E154">
-        <v>20120276.137464222</v>
+        <v>20074316.256794997</v>
       </c>
       <c r="F154">
         <v>35.577291205448873</v>
       </c>
       <c r="G154">
-        <v>3.49203376140927</v>
+        <v>3.4840570590086313</v>
       </c>
       <c r="H154">
-        <v>1.785302260520492</v>
+        <v>1.7812241714181642</v>
       </c>
       <c r="I154" t="s">
         <v>39</v>
@@ -6896,22 +6896,22 @@
         <v>5367819</v>
       </c>
       <c r="C155">
-        <v>237047694.19993597</v>
+        <v>238926524.03773808</v>
       </c>
       <c r="D155">
-        <v>22853258.452771634</v>
+        <v>23130154.273056492</v>
       </c>
       <c r="E155">
-        <v>11683728.383979514</v>
+        <v>11825291.372100133</v>
       </c>
       <c r="F155">
-        <v>44.16089555179412</v>
+        <v>44.510912912253204</v>
       </c>
       <c r="G155">
-        <v>4.2574569769904</v>
+        <v>4.3090413952215032</v>
       </c>
       <c r="H155">
-        <v>2.1766248794863454</v>
+        <v>2.2029974133069938</v>
       </c>
       <c r="I155" t="s">
         <v>39</v>
@@ -6937,22 +6937,22 @@
         <v>9846148</v>
       </c>
       <c r="C156">
-        <v>641265058.10040092</v>
+        <v>645282265.5628351</v>
       </c>
       <c r="D156">
-        <v>61773736.73382958</v>
+        <v>62493492.489464149</v>
       </c>
       <c r="E156">
-        <v>31581822.905170392</v>
+        <v>31949798.035238609</v>
       </c>
       <c r="F156">
-        <v>65.128521133381398</v>
+        <v>65.536519008533602</v>
       </c>
       <c r="G156">
-        <v>6.273898862157016</v>
+        <v>6.3469990994919181</v>
       </c>
       <c r="H156">
-        <v>3.2075307932777766</v>
+        <v>3.2449032896152494</v>
       </c>
       <c r="I156" t="s">
         <v>39</v>
@@ -6978,22 +6978,22 @@
         <v>5178344</v>
       </c>
       <c r="C157">
-        <v>299877012.18753773</v>
+        <v>299858997.59956175</v>
       </c>
       <c r="D157">
-        <v>28465480.141147614</v>
+        <v>28442731.734157212</v>
       </c>
       <c r="E157">
-        <v>14552976.722161729</v>
+        <v>14541346.59908786</v>
       </c>
       <c r="F157">
-        <v>57.909828351986221</v>
+        <v>57.90634952014809</v>
       </c>
       <c r="G157">
-        <v>5.4970237862041635</v>
+        <v>5.4926307974435868</v>
       </c>
       <c r="H157">
-        <v>2.810353410696881</v>
+        <v>2.8081074951930307</v>
       </c>
       <c r="I157" t="s">
         <v>40</v>
@@ -7019,22 +7019,22 @@
         <v>3896653</v>
       </c>
       <c r="C158">
-        <v>143081454.24507892</v>
+        <v>143796833.07399139</v>
       </c>
       <c r="D158">
         <v>0</v>
       </c>
       <c r="E158">
-        <v>103949225.85403517</v>
+        <v>104673000.38006291</v>
       </c>
       <c r="F158">
-        <v>36.719064860299063</v>
+        <v>36.902652885435629</v>
       </c>
       <c r="G158">
         <v>0</v>
       </c>
       <c r="H158">
-        <v>26.676541599684438</v>
+        <v>26.862284216752919</v>
       </c>
       <c r="I158" t="s">
         <v>40</v>
@@ -7060,22 +7060,22 @@
         <v>419820</v>
       </c>
       <c r="C159">
-        <v>19850958.611385092</v>
+        <v>19661112.890513875</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159">
-        <v>4354155.276303459</v>
+        <v>4397963.5237300303</v>
       </c>
       <c r="F159">
-        <v>47.284451935079538</v>
+        <v>46.832244510775752</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>10.371481292705109</v>
+        <v>10.475831365180387</v>
       </c>
       <c r="I159" t="s">
         <v>40</v>
@@ -7101,22 +7101,22 @@
         <v>4404857</v>
       </c>
       <c r="C160">
-        <v>226527876.25073904</v>
+        <v>226608702.09067917</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>24017874.447229229</v>
+        <v>23933481.68287804</v>
       </c>
       <c r="F160">
-        <v>51.426840020172968</v>
+        <v>51.445189274176023</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>5.4525889142892101</v>
+        <v>5.4334298895237776</v>
       </c>
       <c r="I160" t="s">
         <v>40</v>
@@ -7142,22 +7142,22 @@
         <v>1376677</v>
       </c>
       <c r="C161">
-        <v>97107717.413007364</v>
+        <v>97762023.512656927</v>
       </c>
       <c r="D161">
         <v>0</v>
       </c>
       <c r="E161">
-        <v>772601.67236127367</v>
+        <v>780984.33065090107</v>
       </c>
       <c r="F161">
-        <v>70.537764060129831</v>
+        <v>71.013043373759373</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>0.56120765608873657</v>
+        <v>0.56729670841519186</v>
       </c>
       <c r="I161" t="s">
         <v>40</v>
@@ -7183,22 +7183,22 @@
         <v>5140970</v>
       </c>
       <c r="C162">
-        <v>383574095.3482995</v>
+        <v>379348911.96437097</v>
       </c>
       <c r="D162">
         <v>0</v>
       </c>
       <c r="E162">
-        <v>24327541.267040707</v>
+        <v>23833885.209478214</v>
       </c>
       <c r="F162">
-        <v>74.611230049640341</v>
+        <v>73.789365035075278</v>
       </c>
       <c r="G162">
         <v>0</v>
       </c>
       <c r="H162">
-        <v>4.7320916611146746</v>
+        <v>4.6360677478137813</v>
       </c>
       <c r="I162" t="s">
         <v>41</v>
@@ -7224,19 +7224,19 @@
         <v>4899321</v>
       </c>
       <c r="C163">
-        <v>26416201.421126135</v>
+        <v>26072501.451199595</v>
       </c>
       <c r="D163">
-        <v>1258670.4857220345</v>
+        <v>1213175.7596349192</v>
       </c>
       <c r="E163">
         <v>59962927.938456081</v>
       </c>
       <c r="F163">
-        <v>5.3918086651448505</v>
+        <v>5.3216560929972943</v>
       </c>
       <c r="G163">
-        <v>0.25690712768606805</v>
+        <v>0.24762120294524878</v>
       </c>
       <c r="H163">
         <v>12.239028211961633</v>
@@ -7265,22 +7265,22 @@
         <v>214384</v>
       </c>
       <c r="C164">
-        <v>6000553.6381739937</v>
+        <v>5875962.3152341386</v>
       </c>
       <c r="D164">
-        <v>421591.82860324136</v>
+        <v>404754.654461589</v>
       </c>
       <c r="E164">
-        <v>6233071.3861633167</v>
+        <v>6237042.0469919471</v>
       </c>
       <c r="F164">
-        <v>27.989745681459407</v>
+        <v>27.408586066283579</v>
       </c>
       <c r="G164">
-        <v>1.9665265533026781</v>
+        <v>1.8879890964884927</v>
       </c>
       <c r="H164">
-        <v>29.07433104225743</v>
+        <v>29.092852297708536</v>
       </c>
       <c r="I164" t="s">
         <v>27</v>
@@ -7306,22 +7306,22 @@
         <v>1502812</v>
       </c>
       <c r="C165">
-        <v>66308567.456439443</v>
+        <v>65821002.915953755</v>
       </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>23292800.890529305</v>
+        <v>22806851.106458157</v>
       </c>
       <c r="F165">
-        <v>44.122995728300971</v>
+        <v>43.798560908452792</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <v>15.499477573062569</v>
+        <v>15.176117243180222</v>
       </c>
       <c r="I165" t="s">
         <v>40</v>
@@ -7347,22 +7347,22 @@
         <v>13572760</v>
       </c>
       <c r="C166">
-        <v>88830953.361820191</v>
+        <v>88152734.836119592</v>
       </c>
       <c r="D166">
-        <v>10059807.215665404</v>
+        <v>9838876.40776884</v>
       </c>
       <c r="E166">
-        <v>174253215.78732902</v>
+        <v>173158976.18077132</v>
       </c>
       <c r="F166">
-        <v>6.5447965897739433</v>
+        <v>6.4948274953745289</v>
       </c>
       <c r="G166">
-        <v>0.74117623944322331</v>
+        <v>0.72489872419234114</v>
       </c>
       <c r="H166">
-        <v>12.83845111733568</v>
+        <v>12.757830845072876</v>
       </c>
       <c r="I166" t="s">
         <v>14</v>
@@ -7388,22 +7388,22 @@
         <v>17815891</v>
       </c>
       <c r="C167">
-        <v>954312625.64184844</v>
+        <v>968835728.60552227</v>
       </c>
       <c r="D167">
-        <v>90842627.623127997</v>
+        <v>92176211.624064893</v>
       </c>
       <c r="E167">
-        <v>46443293.372324221</v>
+        <v>47125088.192803167</v>
       </c>
       <c r="F167">
-        <v>53.565248330372498</v>
+        <v>54.38042523977736</v>
       </c>
       <c r="G167">
-        <v>5.0989662893159817</v>
+        <v>5.1738199130239906</v>
       </c>
       <c r="H167">
-        <v>2.6068465154127973</v>
+        <v>2.6451154305335147</v>
       </c>
       <c r="I167" t="s">
         <v>9</v>
@@ -7429,22 +7429,22 @@
         <v>7047532</v>
       </c>
       <c r="C168">
-        <v>350427376.69326562</v>
+        <v>344373483.95623618</v>
       </c>
       <c r="D168">
-        <v>34883729.85430631</v>
+        <v>34162959.502360344</v>
       </c>
       <c r="E168">
-        <v>17834306.8880141</v>
+        <v>17465813.045581728</v>
       </c>
       <c r="F168">
-        <v>49.723417601121305</v>
+        <v>48.864408697432829</v>
       </c>
       <c r="G168">
-        <v>4.9497795617396712</v>
+        <v>4.8475068296760258</v>
       </c>
       <c r="H168">
-        <v>2.5305748009394069</v>
+        <v>2.4782878666718688</v>
       </c>
       <c r="I168" t="s">
         <v>39</v>
@@ -7470,22 +7470,22 @@
         <v>6223129</v>
       </c>
       <c r="C169">
-        <v>73738804.084188938</v>
+        <v>71899690.642860144</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>333718594.348333</v>
+        <v>339362127.21458489</v>
       </c>
       <c r="F169">
-        <v>11.849152425442078</v>
+        <v>11.553623690407212</v>
       </c>
       <c r="G169">
         <v>0</v>
       </c>
       <c r="H169">
-        <v>53.625530556787915</v>
+        <v>54.532394751030374</v>
       </c>
       <c r="I169" t="s">
         <v>42</v>
@@ -7511,22 +7511,22 @@
         <v>2129192</v>
       </c>
       <c r="C170">
-        <v>125827817.05167772</v>
+        <v>124647829.84464177</v>
       </c>
       <c r="D170">
-        <v>11985526.320034873</v>
+        <v>11776969.075328227</v>
       </c>
       <c r="E170">
-        <v>6127600.3311178144</v>
+        <v>6020975.4397615613</v>
       </c>
       <c r="F170">
-        <v>59.096510343678595</v>
+        <v>58.542315509658955</v>
       </c>
       <c r="G170">
-        <v>5.6291430364358277</v>
+        <v>5.5311916799087291</v>
       </c>
       <c r="H170">
-        <v>2.8778993773778101</v>
+        <v>2.8278217463533402</v>
       </c>
       <c r="I170" t="s">
         <v>23</v>
@@ -7552,22 +7552,22 @@
         <v>4998069</v>
       </c>
       <c r="C171">
-        <v>220327811.27805752</v>
+        <v>220549406.46208209</v>
       </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>50141070.81949833</v>
+        <v>49538605.693478763</v>
       </c>
       <c r="F171">
-        <v>44.082586950691862</v>
+        <v>44.126923110121545</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <v>10.032088556500186</v>
+        <v>9.9115489789114086</v>
       </c>
       <c r="I171" t="s">
         <v>23</v>
@@ -7593,22 +7593,22 @@
         <v>4031692</v>
       </c>
       <c r="C172">
-        <v>174494909.57689261</v>
+        <v>173394015.70919228</v>
       </c>
       <c r="D172">
-        <v>21019789.492930077</v>
+        <v>20884324.811792433</v>
       </c>
       <c r="E172">
-        <v>10746367.378260495</v>
+        <v>10677111.060028873</v>
       </c>
       <c r="F172">
-        <v>43.280813508792988</v>
+        <v>43.007753496346517</v>
       </c>
       <c r="G172">
-        <v>5.2136397058431241</v>
+        <v>5.1800397480245097</v>
       </c>
       <c r="H172">
-        <v>2.6654732996122954</v>
+        <v>2.6482953211775286</v>
       </c>
       <c r="I172" t="s">
         <v>26</v>
@@ -7634,22 +7634,22 @@
         <v>5936999</v>
       </c>
       <c r="C173">
-        <v>228162359.63769734</v>
+        <v>230994142.10953277</v>
       </c>
       <c r="D173">
-        <v>22316214.885822713</v>
+        <v>22346548.494519111</v>
       </c>
       <c r="E173">
-        <v>11409164.860376861</v>
+        <v>11424672.917822901</v>
       </c>
       <c r="F173">
-        <v>38.430587513607016</v>
+        <v>38.907559544735108</v>
       </c>
       <c r="G173">
-        <v>3.7588375685801383</v>
+        <v>3.763946817999988</v>
       </c>
       <c r="H173">
-        <v>1.9217057069365955</v>
+        <v>1.9243178107024947</v>
       </c>
       <c r="I173" t="s">
         <v>35</v>
@@ -7675,22 +7675,22 @@
         <v>8020477</v>
       </c>
       <c r="C174">
-        <v>124196267.91274843</v>
+        <v>124653537.92655866</v>
       </c>
       <c r="D174">
-        <v>750471.37420729152</v>
+        <v>752170.51718677091</v>
       </c>
       <c r="E174">
-        <v>11046721.70363646</v>
+        <v>11404425.693065559</v>
       </c>
       <c r="F174">
-        <v>15.484897957159959</v>
+        <v>15.541910777446112</v>
       </c>
       <c r="G174">
-        <v>9.3569419151415992E-2</v>
+        <v>9.3781269765722278E-2</v>
       </c>
       <c r="H174">
-        <v>1.3773148035505196</v>
+        <v>1.4219136459172639</v>
       </c>
       <c r="I174" t="s">
         <v>19</v>
@@ -7719,19 +7719,19 @@
         <v>233135599.28946865</v>
       </c>
       <c r="D175">
-        <v>13618087.463722285</v>
+        <v>13518247.762384322</v>
       </c>
       <c r="E175">
-        <v>266536381.03214043</v>
+        <v>266537931.11199155</v>
       </c>
       <c r="F175">
         <v>26.390221701682837</v>
       </c>
       <c r="G175">
-        <v>1.5415249683696555</v>
+        <v>1.5302234260013137</v>
       </c>
       <c r="H175">
-        <v>30.171085876373667</v>
+        <v>30.171261340571544</v>
       </c>
       <c r="I175" t="s">
         <v>34</v>
@@ -7757,22 +7757,22 @@
         <v>3440952</v>
       </c>
       <c r="C176">
-        <v>113496843.1479665</v>
+        <v>113351669.67302933</v>
       </c>
       <c r="D176">
-        <v>13694209.264275083</v>
+        <v>13641924.019157562</v>
       </c>
       <c r="E176">
-        <v>7001164.4863606282</v>
+        <v>6974433.6547943</v>
       </c>
       <c r="F176">
-        <v>32.984140187938252</v>
+        <v>32.941950272200636</v>
       </c>
       <c r="G176">
-        <v>3.9797734069743149</v>
+        <v>3.9645784129385016</v>
       </c>
       <c r="H176">
-        <v>2.0346591543156163</v>
+        <v>2.0268907136148075</v>
       </c>
       <c r="I176" t="s">
         <v>35</v>
@@ -7798,22 +7798,22 @@
         <v>5568642</v>
       </c>
       <c r="C177">
-        <v>208068233.69258198</v>
+        <v>211534181.38769007</v>
       </c>
       <c r="D177">
-        <v>20128626.276665203</v>
+        <v>20444083.221573528</v>
       </c>
       <c r="E177">
-        <v>96379074.721377581</v>
+        <v>97974485.131379187</v>
       </c>
       <c r="F177">
-        <v>37.364268288854262</v>
+        <v>37.986672762890855</v>
       </c>
       <c r="G177">
-        <v>3.6146382325646367</v>
+        <v>3.6712870429762816</v>
       </c>
       <c r="H177">
-        <v>17.307464678350229</v>
+        <v>17.593963686546772</v>
       </c>
       <c r="I177" t="s">
         <v>26</v>
@@ -7839,22 +7839,22 @@
         <v>4469578</v>
       </c>
       <c r="C178">
-        <v>116493937.83386438</v>
+        <v>117695245.23687513</v>
       </c>
       <c r="D178">
-        <v>2311564.7684808373</v>
+        <v>2318514.7127769217</v>
       </c>
       <c r="E178">
-        <v>1181787.48788583</v>
+        <v>1185340.6469072029</v>
       </c>
       <c r="F178">
-        <v>26.063744235778945</v>
+        <v>26.33251846972469</v>
       </c>
       <c r="G178">
-        <v>0.5171774088025396</v>
+        <v>0.51873235298207609</v>
       </c>
       <c r="H178">
-        <v>0.26440695025029881</v>
+        <v>0.26520191546208677</v>
       </c>
       <c r="I178" t="s">
         <v>22</v>
@@ -7880,22 +7880,22 @@
         <v>5464804</v>
       </c>
       <c r="C179">
-        <v>323568670.38205504</v>
+        <v>321781739.91603148</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179">
-        <v>68251851.538440347</v>
+        <v>68942439.544413418</v>
       </c>
       <c r="F179">
-        <v>59.209565499888932</v>
+        <v>58.882576560116611</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>12.489350311271977</v>
+        <v>12.615720443846369</v>
       </c>
       <c r="I179" t="s">
         <v>10</v>
@@ -7921,22 +7921,22 @@
         <v>245854</v>
       </c>
       <c r="C180">
-        <v>3183486.9958516536</v>
+        <v>3188296.4012307171</v>
       </c>
       <c r="D180">
-        <v>370660.41791331972</v>
+        <v>372167.46680038387</v>
       </c>
       <c r="E180">
-        <v>4933185.982751362</v>
+        <v>4930203.9211276695</v>
       </c>
       <c r="F180">
-        <v>12.948689042487223</v>
+        <v>12.968251080847645</v>
       </c>
       <c r="G180">
-        <v>1.5076444471650643</v>
+        <v>1.5137743001959858</v>
       </c>
       <c r="H180">
-        <v>20.065510354728261</v>
+        <v>20.05338095425606</v>
       </c>
       <c r="I180" t="s">
         <v>29</v>
@@ -7962,22 +7962,22 @@
         <v>1204962</v>
       </c>
       <c r="C181">
-        <v>16068270.022984527</v>
+        <v>16076003.414974198</v>
       </c>
       <c r="D181">
         <v>0</v>
       </c>
       <c r="E181">
-        <v>74915086.735502973</v>
+        <v>74841673.212551981</v>
       </c>
       <c r="F181">
-        <v>13.335084444973806</v>
+        <v>13.341502400054274</v>
       </c>
       <c r="G181">
         <v>0</v>
       </c>
       <c r="H181">
-        <v>62.172157076740156</v>
+        <v>62.111231069985593</v>
       </c>
       <c r="I181" t="s">
         <v>13</v>
@@ -8003,22 +8003,22 @@
         <v>9406012</v>
       </c>
       <c r="C182">
-        <v>511620753.15731835</v>
+        <v>505295280.49863982</v>
       </c>
       <c r="D182">
-        <v>12686213.199698169</v>
+        <v>12530251.394479357</v>
       </c>
       <c r="E182">
-        <v>6485826.4983457047</v>
+        <v>6406091.0254275771</v>
       </c>
       <c r="F182">
-        <v>54.392951354656823</v>
+        <v>53.720458840435228</v>
       </c>
       <c r="G182">
-        <v>1.3487345327327001</v>
+        <v>1.3321534561596728</v>
       </c>
       <c r="H182">
-        <v>0.68954052985959458</v>
+        <v>0.68106345446163341</v>
       </c>
       <c r="I182" t="s">
         <v>30</v>
@@ -8044,22 +8044,22 @@
         <v>11346108</v>
       </c>
       <c r="C183">
-        <v>511975239.33863521</v>
+        <v>507357575.15990347</v>
       </c>
       <c r="D183">
-        <v>40902618.983758584</v>
+        <v>40672176.041335791</v>
       </c>
       <c r="E183">
-        <v>260973493.058391</v>
+        <v>260658208.9355849</v>
       </c>
       <c r="F183">
-        <v>45.123423762459794</v>
+        <v>44.716441546290895</v>
       </c>
       <c r="G183">
-        <v>3.6049911550073896</v>
+        <v>3.5846808475061045</v>
       </c>
       <c r="H183">
-        <v>23.001146565711434</v>
+        <v>22.973358700233145</v>
       </c>
       <c r="I183" t="s">
         <v>13</v>
@@ -8085,22 +8085,22 @@
         <v>8278514</v>
       </c>
       <c r="C184">
-        <v>320773370.49272847</v>
+        <v>319429362.25369072</v>
       </c>
       <c r="D184">
-        <v>1148554.7427864757</v>
+        <v>1160004.9338759203</v>
       </c>
       <c r="E184">
-        <v>587198.61224958685</v>
+        <v>593052.52244407265</v>
       </c>
       <c r="F184">
-        <v>38.747699223885888</v>
+        <v>38.585350251710722</v>
       </c>
       <c r="G184">
-        <v>0.1387392402533203</v>
+        <v>0.14012236180018783</v>
       </c>
       <c r="H184">
-        <v>7.0930436579510148E-2</v>
+        <v>7.1637557470347057E-2</v>
       </c>
       <c r="I184" t="s">
         <v>26</v>
@@ -8126,22 +8126,22 @@
         <v>2439887</v>
       </c>
       <c r="C185">
-        <v>89795447.241037801</v>
+        <v>91067884.224876523</v>
       </c>
       <c r="D185">
-        <v>670868.79063773761</v>
+        <v>676436.87192596495</v>
       </c>
       <c r="E185">
-        <v>9754866.8701147735</v>
+        <v>9835402.9974694084</v>
       </c>
       <c r="F185">
-        <v>36.803117210361712</v>
+        <v>37.324631929624822</v>
       </c>
       <c r="G185">
-        <v>0.27495895942629212</v>
+        <v>0.27724106564196005</v>
       </c>
       <c r="H185">
-        <v>3.9980814152929103</v>
+        <v>4.0310895535200642</v>
       </c>
       <c r="I185" t="s">
         <v>29</v>
@@ -8167,22 +8167,22 @@
         <v>14844275</v>
       </c>
       <c r="C186">
-        <v>177656995.1667133</v>
+        <v>177651151.12967101</v>
       </c>
       <c r="D186">
-        <v>22207124.39583917</v>
+        <v>22206393.89120888</v>
       </c>
       <c r="E186">
-        <v>333882992.71903294</v>
+        <v>340422206.30630881</v>
       </c>
       <c r="F186">
-        <v>11.968047962376962</v>
+        <v>11.967654272753032</v>
       </c>
       <c r="G186">
-        <v>1.496005995297121</v>
+        <v>1.4959567840941292</v>
       </c>
       <c r="H186">
-        <v>22.492374516036179</v>
+        <v>22.932895429807708</v>
       </c>
       <c r="I186" t="s">
         <v>43</v>
@@ -8208,22 +8208,22 @@
         <v>8797020</v>
       </c>
       <c r="C187">
-        <v>401591198.57512677</v>
+        <v>404104490.89241636</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>139648425.47438943</v>
+        <v>141050992.0985195</v>
       </c>
       <c r="F187">
-        <v>45.650822502975643</v>
+        <v>45.936520650449395</v>
       </c>
       <c r="G187">
         <v>0</v>
       </c>
       <c r="H187">
-        <v>15.874514946469308</v>
+        <v>16.033951508410745</v>
       </c>
       <c r="I187" t="s">
         <v>11</v>
@@ -8249,22 +8249,22 @@
         <v>614883</v>
       </c>
       <c r="C188">
-        <v>30987958.603795961</v>
+        <v>31554518.284749527</v>
       </c>
       <c r="D188">
-        <v>2952229.423550033</v>
+        <v>2969257.423109082</v>
       </c>
       <c r="E188">
-        <v>1509327.2927899554</v>
+        <v>1518032.8575645164</v>
       </c>
       <c r="F188">
-        <v>50.396512188165815</v>
+        <v>51.317922734486928</v>
       </c>
       <c r="G188">
-        <v>4.8012864618960567</v>
+        <v>4.8289795344953141</v>
       </c>
       <c r="H188">
-        <v>2.4546577036443606</v>
+        <v>2.4688157870107261</v>
       </c>
       <c r="I188" t="s">
         <v>32</v>
@@ -8290,22 +8290,22 @@
         <v>5372955</v>
       </c>
       <c r="C189">
-        <v>148134590.00001961</v>
+        <v>147226150.88516089</v>
       </c>
       <c r="D189">
-        <v>10648034.489986295</v>
+        <v>10535742.234410683</v>
       </c>
       <c r="E189">
-        <v>127879411.48637833</v>
+        <v>128080104.77979141</v>
       </c>
       <c r="F189">
-        <v>27.570413301436474</v>
+        <v>27.40133704547328</v>
       </c>
       <c r="G189">
-        <v>1.9817836721108393</v>
+        <v>1.9608841381345428</v>
       </c>
       <c r="H189">
-        <v>23.800573704112232</v>
+        <v>23.837926202581524</v>
       </c>
       <c r="I189" t="s">
         <v>24</v>
@@ -8372,22 +8372,22 @@
         <v>12160150</v>
       </c>
       <c r="C191">
-        <v>366884119.1357429</v>
+        <v>363204036.63911331</v>
       </c>
       <c r="D191">
-        <v>14412563.512401521</v>
+        <v>14086932.910328772</v>
       </c>
       <c r="E191">
-        <v>222223058.32791626</v>
+        <v>225305226.38140586</v>
       </c>
       <c r="F191">
-        <v>30.171019200893319</v>
+        <v>29.868384570841091</v>
       </c>
       <c r="G191">
-        <v>1.1852290894768174</v>
+        <v>1.1584505873964361</v>
       </c>
       <c r="H191">
-        <v>18.27469713185415</v>
+        <v>18.528161772791112</v>
       </c>
       <c r="I191" t="s">
         <v>28</v>
@@ -8413,22 +8413,22 @@
         <v>13610817</v>
       </c>
       <c r="C192">
-        <v>516357892.15226167</v>
+        <v>513406850.80086768</v>
       </c>
       <c r="D192">
-        <v>59457916.085027806</v>
+        <v>59085045.721024327</v>
       </c>
       <c r="E192">
-        <v>30397859.598470472</v>
+        <v>30207229.624873698</v>
       </c>
       <c r="F192">
-        <v>37.937317954701889</v>
+        <v>37.720502068381911</v>
       </c>
       <c r="G192">
-        <v>4.3684310857333406</v>
+        <v>4.3410359364191233</v>
       </c>
       <c r="H192">
-        <v>2.2333603925811705</v>
+        <v>2.219354622494278</v>
       </c>
       <c r="I192" t="s">
         <v>36</v>
@@ -8454,22 +8454,22 @@
         <v>5621453</v>
       </c>
       <c r="C193">
-        <v>64303457.240047231</v>
+        <v>64829058.726496086</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>277378644.03039312</v>
+        <v>278819773.24053729</v>
       </c>
       <c r="F193">
-        <v>11.438938872218131</v>
+        <v>11.532438095007835</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>49.342873458231018</v>
+        <v>49.599235863136684</v>
       </c>
       <c r="I193" t="s">
         <v>18</v>
@@ -8495,7 +8495,7 @@
         <v>8681175</v>
       </c>
       <c r="C194">
-        <v>310671140.18914711</v>
+        <v>312632623.61918277</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -8504,7 +8504,7 @@
         <v>258137418.6626628</v>
       </c>
       <c r="F194">
-        <v>35.786761606481512</v>
+        <v>36.012708374060281</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -8536,22 +8536,22 @@
         <v>1498688</v>
       </c>
       <c r="C195">
-        <v>112917257.02135889</v>
+        <v>112028144.76134819</v>
       </c>
       <c r="D195">
         <v>0</v>
       </c>
       <c r="E195">
-        <v>1140578.3537511011</v>
+        <v>1131597.4218318008</v>
       </c>
       <c r="F195">
-        <v>75.344072296140951</v>
+        <v>74.750811884360317</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
       <c r="H195">
-        <v>0.76105123531455587</v>
+        <v>0.75505870590263002</v>
       </c>
       <c r="I195" t="s">
         <v>44</v>
@@ -8577,22 +8577,22 @@
         <v>2563582</v>
       </c>
       <c r="C196">
-        <v>219946147.43888655</v>
+        <v>218214288.01023388</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>2221678.2569584521</v>
+        <v>2204184.727376102</v>
       </c>
       <c r="F196">
-        <v>85.79641588951965</v>
+        <v>85.120853559680896</v>
       </c>
       <c r="G196">
         <v>0</v>
       </c>
       <c r="H196">
-        <v>0.86663046353050222</v>
+        <v>0.8598066016129392</v>
       </c>
       <c r="I196" t="s">
         <v>41</v>
@@ -8618,22 +8618,22 @@
         <v>2383346</v>
       </c>
       <c r="C197">
-        <v>123634733.49902849</v>
+        <v>124714790.26649174</v>
       </c>
       <c r="D197">
         <v>0</v>
       </c>
       <c r="E197">
-        <v>26683755.431445006</v>
+        <v>25845123.117885321</v>
       </c>
       <c r="F197">
-        <v>51.874437659923693</v>
+        <v>52.327605923139878</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
       <c r="H197">
-        <v>11.195921797105836</v>
+        <v>10.844049969196803</v>
       </c>
       <c r="I197" t="s">
         <v>45</v>
@@ -8659,22 +8659,22 @@
         <v>14585886</v>
       </c>
       <c r="C198">
-        <v>404442384.87053597</v>
+        <v>405350480.73309666</v>
       </c>
       <c r="D198">
-        <v>39519335.170195758</v>
+        <v>39469910.471154347</v>
       </c>
       <c r="E198">
-        <v>20204260.105762579</v>
+        <v>20178991.728377674</v>
       </c>
       <c r="F198">
-        <v>27.728338537030659</v>
+        <v>27.790597069872661</v>
       </c>
       <c r="G198">
-        <v>2.7094230114095064</v>
+        <v>2.7060344823176559</v>
       </c>
       <c r="H198">
-        <v>1.3851925145831099</v>
+        <v>1.3834601290849027</v>
       </c>
       <c r="I198" t="s">
         <v>24</v>
@@ -8700,22 +8700,22 @@
         <v>93260</v>
       </c>
       <c r="C199">
-        <v>6396372.1537193619</v>
+        <v>6311053.5988887623</v>
       </c>
       <c r="D199">
         <v>0</v>
       </c>
       <c r="E199">
-        <v>1454046.3903731978</v>
+        <v>1462862.599037186</v>
       </c>
       <c r="F199">
-        <v>68.586448141961853</v>
+        <v>67.671601961063288</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
       <c r="H199">
-        <v>15.591318790190842</v>
+        <v>15.685852445176774</v>
       </c>
       <c r="I199" t="s">
         <v>22</v>
@@ -8741,22 +8741,22 @@
         <v>2184313</v>
       </c>
       <c r="C200">
-        <v>71087563.162162766</v>
+        <v>71094523.477816254</v>
       </c>
       <c r="D200">
-        <v>4714150.2567648441</v>
+        <v>4737434.1824399829</v>
       </c>
       <c r="E200">
-        <v>70396561.763680831</v>
+        <v>70659107.045670718</v>
       </c>
       <c r="F200">
-        <v>32.544586404129248</v>
+        <v>32.547772905172586</v>
       </c>
       <c r="G200">
-        <v>2.1581844070720835</v>
+        <v>2.1688440175194592</v>
       </c>
       <c r="H200">
-        <v>32.228239159717873</v>
+        <v>32.348434975056556</v>
       </c>
       <c r="I200" t="s">
         <v>15</v>
@@ -8782,22 +8782,22 @@
         <v>2459453</v>
       </c>
       <c r="C201">
-        <v>110801913.38917714</v>
+        <v>111243069.65379572</v>
       </c>
       <c r="D201">
-        <v>6282600.2113317866</v>
+        <v>6415123.5616593231</v>
       </c>
       <c r="E201">
-        <v>3211979.3580433773</v>
+        <v>3279731.9208983323</v>
       </c>
       <c r="F201">
-        <v>45.051445743902057</v>
+        <v>45.230817443470443</v>
       </c>
       <c r="G201">
-        <v>2.5544705311838798</v>
+        <v>2.6083537931643024</v>
       </c>
       <c r="H201">
-        <v>1.3059730590677592</v>
+        <v>1.3335208767552509</v>
       </c>
       <c r="I201" t="s">
         <v>24</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>208505537.84033278</v>
+        <v>206876588.32595521</v>
       </c>
       <c r="F202">
         <v>1.8858566657781348</v>
@@ -8838,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>68.560374878939982</v>
+        <v>68.024746950198278</v>
       </c>
       <c r="I202" t="s">
         <v>42</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>438415655.50160635</v>
+        <v>441867747.27720964</v>
       </c>
       <c r="F203">
         <v>1.9826048037774777</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>71.514549608446757</v>
+        <v>72.077656298277063</v>
       </c>
       <c r="I203" t="s">
         <v>15</v>
@@ -8905,22 +8905,22 @@
         <v>9975515</v>
       </c>
       <c r="C204">
-        <v>1715834726.3006501</v>
+        <v>1707978254.4950383</v>
       </c>
       <c r="D204">
-        <v>12203723.698967127</v>
+        <v>12171441.430933138</v>
       </c>
       <c r="E204">
-        <v>168027376.64242774</v>
+        <v>167431350.5876697</v>
       </c>
       <c r="F204">
-        <v>172.00462595672005</v>
+        <v>171.21705039740186</v>
       </c>
       <c r="G204">
-        <v>1.2233677859205392</v>
+        <v>1.2201316354025971</v>
       </c>
       <c r="H204">
-        <v>16.843980149639165</v>
+        <v>16.784231248980099</v>
       </c>
       <c r="I204" t="s">
         <v>15</v>
@@ -8946,22 +8946,22 @@
         <v>4778869</v>
       </c>
       <c r="C205">
-        <v>493490828.94438106</v>
+        <v>495413995.41405058</v>
       </c>
       <c r="D205">
-        <v>1668720.3257821104</v>
+        <v>1663479.6919997716</v>
       </c>
       <c r="E205">
-        <v>34090115.534430861</v>
+        <v>34194563.086453542</v>
       </c>
       <c r="F205">
-        <v>103.26519286140321</v>
+        <v>103.66762416254778</v>
       </c>
       <c r="G205">
-        <v>0.34918729217773292</v>
+        <v>0.34809066580393222</v>
       </c>
       <c r="H205">
-        <v>7.1335111999158922</v>
+        <v>7.1553673236185258</v>
       </c>
       <c r="I205" t="s">
         <v>15</v>
@@ -8987,22 +8987,22 @@
         <v>7465222</v>
       </c>
       <c r="C206">
-        <v>386910118.91254324</v>
+        <v>390085632.2932874</v>
       </c>
       <c r="D206">
         <v>0</v>
       </c>
       <c r="E206">
-        <v>83252793.108742148</v>
+        <v>82406110.004964978</v>
       </c>
       <c r="F206">
-        <v>51.828347356922976</v>
+        <v>52.253721629884204</v>
       </c>
       <c r="G206">
         <v>0</v>
       </c>
       <c r="H206">
-        <v>11.152085377868488</v>
+        <v>11.038668375162182</v>
       </c>
       <c r="I206" t="s">
         <v>30</v>
@@ -9028,22 +9028,22 @@
         <v>9630419</v>
       </c>
       <c r="C207">
-        <v>195496730.30059996</v>
+        <v>196813088.23577052</v>
       </c>
       <c r="D207">
-        <v>2072422.5735350493</v>
+        <v>2139610.6983483024</v>
       </c>
       <c r="E207">
-        <v>32248947.754483253</v>
+        <v>33126439.537563607</v>
       </c>
       <c r="F207">
-        <v>20.299919484354728</v>
+        <v>20.436606988311777</v>
       </c>
       <c r="G207">
-        <v>0.21519547317048712</v>
+        <v>0.22217212961848309</v>
       </c>
       <c r="H207">
-        <v>3.348654690360124</v>
+        <v>3.4397713679502009</v>
       </c>
       <c r="I207" t="s">
         <v>46</v>
@@ -9069,22 +9069,22 @@
         <v>12442473</v>
       </c>
       <c r="C208">
-        <v>625564756.319893</v>
+        <v>633510560.47236335</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>141350662.18041137</v>
+        <v>140395884.37745947</v>
       </c>
       <c r="F208">
-        <v>50.276561284874234</v>
+        <v>50.915164571573783</v>
       </c>
       <c r="G208">
         <v>0</v>
       </c>
       <c r="H208">
-        <v>11.360335054005049</v>
+        <v>11.283599681306077</v>
       </c>
       <c r="I208" t="s">
         <v>24</v>
@@ -9110,22 +9110,22 @@
         <v>6659324</v>
       </c>
       <c r="C209">
-        <v>446117778.91064513</v>
+        <v>447888590.90749246</v>
       </c>
       <c r="D209">
-        <v>42428677.454744183</v>
+        <v>42409160.729662478</v>
       </c>
       <c r="E209">
-        <v>21691661.348737977</v>
+        <v>21681683.42303995</v>
       </c>
       <c r="F209">
-        <v>66.991451220971541</v>
+        <v>67.257365898924945</v>
       </c>
       <c r="G209">
-        <v>6.3713189889460526</v>
+        <v>6.3683882522704227</v>
       </c>
       <c r="H209">
-        <v>3.2573368330986714</v>
+        <v>3.2558384939732545</v>
       </c>
       <c r="I209" t="s">
         <v>40</v>
@@ -9151,22 +9151,22 @@
         <v>4935387</v>
       </c>
       <c r="C210">
-        <v>259839491.63905388</v>
+        <v>257461416.58414546</v>
       </c>
       <c r="D210">
-        <v>7772555.4766887594</v>
+        <v>7604147.5750868805</v>
       </c>
       <c r="E210">
-        <v>29763876.51489687</v>
+        <v>29958609.853449762</v>
       </c>
       <c r="F210">
-        <v>52.648250611158531</v>
+        <v>52.166408953167291</v>
       </c>
       <c r="G210">
-        <v>1.5748624123475543</v>
+        <v>1.5407398801931602</v>
       </c>
       <c r="H210">
-        <v>6.0307077266477522</v>
+        <v>6.0701642755572687</v>
       </c>
       <c r="I210" t="s">
         <v>14</v>
@@ -9192,22 +9192,22 @@
         <v>3211787</v>
       </c>
       <c r="C211">
-        <v>141414929.55157885</v>
+        <v>143343398.29374</v>
       </c>
       <c r="D211">
         <v>0</v>
       </c>
       <c r="E211">
-        <v>50616887.434701107</v>
+        <v>50053514.543732688</v>
       </c>
       <c r="F211">
-        <v>44.029983791446583</v>
+        <v>44.630418609247748</v>
       </c>
       <c r="G211">
         <v>0</v>
       </c>
       <c r="H211">
-        <v>15.759727352623667</v>
+        <v>15.584319428322205</v>
       </c>
       <c r="I211" t="s">
         <v>15</v>
@@ -9233,22 +9233,22 @@
         <v>8727176</v>
       </c>
       <c r="C212">
-        <v>274356398.19925433</v>
+        <v>275500711.25438309</v>
       </c>
       <c r="D212">
-        <v>18071974.289789535</v>
+        <v>18293683.418074999</v>
       </c>
       <c r="E212">
-        <v>275903071.70552903</v>
+        <v>275494665.1938231</v>
       </c>
       <c r="F212">
-        <v>31.437019053959073</v>
+        <v>31.568139711446531</v>
       </c>
       <c r="G212">
-        <v>2.0707700050726072</v>
+        <v>2.0961744575879986</v>
       </c>
       <c r="H212">
-        <v>31.614244024129803</v>
+        <v>31.567446925995661</v>
       </c>
       <c r="I212" t="s">
         <v>15</v>
@@ -9274,22 +9274,22 @@
         <v>11925993</v>
       </c>
       <c r="C213">
-        <v>2344257298.8099794</v>
+        <v>2348921047.7582674</v>
       </c>
       <c r="D213">
-        <v>53829963.615285307</v>
+        <v>53373112.702104002</v>
       </c>
       <c r="E213">
-        <v>27520568.898314536</v>
+        <v>27287003.868950695</v>
       </c>
       <c r="F213">
-        <v>196.56705305880857</v>
+        <v>196.95811055383541</v>
       </c>
       <c r="G213">
-        <v>4.5136672154080006</v>
+        <v>4.4753600561482809</v>
       </c>
       <c r="H213">
-        <v>2.3076123638773338</v>
+        <v>2.2880278287058107</v>
       </c>
       <c r="I213" t="s">
         <v>15</v>
@@ -9315,22 +9315,22 @@
         <v>3197035</v>
       </c>
       <c r="C214">
-        <v>131794238.36140847</v>
+        <v>132829464.00836265</v>
       </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>48473962.951744333</v>
+        <v>49004788.81193389</v>
       </c>
       <c r="F214">
-        <v>41.223896004081432</v>
+        <v>41.547704047144514</v>
       </c>
       <c r="G214">
         <v>0</v>
       </c>
       <c r="H214">
-        <v>15.162162113253165</v>
+        <v>15.328199038150627</v>
       </c>
       <c r="I214" t="s">
         <v>15</v>
@@ -9356,22 +9356,22 @@
         <v>2169628</v>
       </c>
       <c r="C215">
-        <v>309077401.15147924</v>
+        <v>308438866.76713961</v>
       </c>
       <c r="D215">
-        <v>20420908.363102924</v>
+        <v>20731957.065918852</v>
       </c>
       <c r="E215">
-        <v>308325084.08593029</v>
+        <v>308310903.01371139</v>
       </c>
       <c r="F215">
-        <v>142.45640319514646</v>
+        <v>142.16209726604728</v>
       </c>
       <c r="G215">
-        <v>9.4121703642757755</v>
+        <v>9.5555353571759092</v>
       </c>
       <c r="H215">
-        <v>142.10965386044532</v>
+        <v>142.10311768363582</v>
       </c>
       <c r="I215" t="s">
         <v>15</v>
@@ -9397,22 +9397,22 @@
         <v>2005494</v>
       </c>
       <c r="C216">
-        <v>89975526.830693215</v>
+        <v>89607682.043715149</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>29302072.144079071</v>
+        <v>30020886.613838121</v>
       </c>
       <c r="F216">
-        <v>44.864520577320711</v>
+        <v>44.681102034568617</v>
       </c>
       <c r="G216">
         <v>0</v>
       </c>
       <c r="H216">
-        <v>14.610899929932012</v>
+        <v>14.96932257779785</v>
       </c>
       <c r="I216" t="s">
         <v>10</v>
@@ -9438,22 +9438,22 @@
         <v>5753937</v>
       </c>
       <c r="C217">
-        <v>195032176.98087204</v>
+        <v>196294579.31325439</v>
       </c>
       <c r="D217">
         <v>0</v>
       </c>
       <c r="E217">
-        <v>166611220.54472768</v>
+        <v>167146532.57797688</v>
       </c>
       <c r="F217">
-        <v>33.895431420412152</v>
+        <v>34.114829431266692</v>
       </c>
       <c r="G217">
         <v>0</v>
       </c>
       <c r="H217">
-        <v>28.956038368985912</v>
+        <v>29.049072413892763</v>
       </c>
       <c r="I217" t="s">
         <v>15</v>
@@ -9479,22 +9479,22 @@
         <v>6488120</v>
       </c>
       <c r="C218">
-        <v>286499475.80238724</v>
+        <v>283614275.9509632</v>
       </c>
       <c r="D218">
         <v>0</v>
       </c>
       <c r="E218">
-        <v>101359629.66594255</v>
+        <v>100944040.84565723</v>
       </c>
       <c r="F218">
-        <v>44.157548843484278</v>
+        <v>43.712859187401463</v>
       </c>
       <c r="G218">
         <v>0</v>
       </c>
       <c r="H218">
-        <v>15.62234201370236</v>
+        <v>15.558288201460089</v>
       </c>
       <c r="I218" t="s">
         <v>15</v>
@@ -9520,22 +9520,22 @@
         <v>1861832</v>
       </c>
       <c r="C219">
-        <v>122366010.80125724</v>
+        <v>121153053.72342905</v>
       </c>
       <c r="D219">
         <v>0</v>
       </c>
       <c r="E219">
-        <v>1909809.7679492631</v>
+        <v>1917078.3489382798</v>
       </c>
       <c r="F219">
-        <v>65.723443791522129</v>
+        <v>65.071958008794056</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>1.0257691177019532</v>
+        <v>1.0296731117191453</v>
       </c>
       <c r="I219" t="s">
         <v>30</v>
@@ -9561,22 +9561,22 @@
         <v>10724956</v>
       </c>
       <c r="C220">
-        <v>560470412.3425374</v>
+        <v>556776193.90967929</v>
       </c>
       <c r="D220">
-        <v>5649457.2570115793</v>
+        <v>5716262.1200946476</v>
       </c>
       <c r="E220">
-        <v>83067069.300381929</v>
+        <v>81008067.168388307</v>
       </c>
       <c r="F220">
-        <v>52.258527899092307</v>
+        <v>51.914077214832332</v>
       </c>
       <c r="G220">
-        <v>0.52675808245848088</v>
+        <v>0.53298699967577001</v>
       </c>
       <c r="H220">
-        <v>7.745213061981973</v>
+        <v>7.5532307235934866</v>
       </c>
       <c r="I220" t="s">
         <v>41</v>
@@ -9602,22 +9602,22 @@
         <v>5178428</v>
       </c>
       <c r="C221">
-        <v>183620008.72079277</v>
+        <v>182953338.44904837</v>
       </c>
       <c r="D221">
-        <v>18579529.561384726</v>
+        <v>18307025.347578634</v>
       </c>
       <c r="E221">
-        <v>9498784.488257952</v>
+        <v>9359466.7089495976</v>
       </c>
       <c r="F221">
-        <v>35.458638938456374</v>
+        <v>35.329899044468391</v>
       </c>
       <c r="G221">
-        <v>3.5878705972902831</v>
+        <v>3.5352476364600673</v>
       </c>
       <c r="H221">
-        <v>1.8342988428646594</v>
+        <v>1.8073953541402135</v>
       </c>
       <c r="I221" t="s">
         <v>24</v>
@@ -9643,22 +9643,22 @@
         <v>3427166</v>
       </c>
       <c r="C222">
-        <v>248900157.72703621</v>
+        <v>250875555.80423486</v>
       </c>
       <c r="D222">
         <v>0</v>
       </c>
       <c r="E222">
-        <v>2514143.0073438021</v>
+        <v>2534096.523275102</v>
       </c>
       <c r="F222">
-        <v>72.625649801333296</v>
+        <v>73.202043847375606</v>
       </c>
       <c r="G222">
         <v>0</v>
       </c>
       <c r="H222">
-        <v>0.73359242223569043</v>
+        <v>0.73941458431692597</v>
       </c>
       <c r="I222" t="s">
         <v>19</v>
@@ -9684,22 +9684,22 @@
         <v>3910602</v>
       </c>
       <c r="C223">
-        <v>191324958.04700729</v>
+        <v>190465390.12202233</v>
       </c>
       <c r="D223">
-        <v>18588536.502331164</v>
+        <v>18534466.049918495</v>
       </c>
       <c r="E223">
-        <v>9503389.2868168037</v>
+        <v>9475745.768020831</v>
       </c>
       <c r="F223">
-        <v>48.92468168507235</v>
+        <v>48.704877183109488</v>
       </c>
       <c r="G223">
-        <v>4.7533695585311833</v>
+        <v>4.7395429271295049</v>
       </c>
       <c r="H223">
-        <v>2.4301601867990668</v>
+        <v>2.4230913214949594</v>
       </c>
       <c r="I223" t="s">
         <v>16</v>
@@ -9725,22 +9725,22 @@
         <v>3855966</v>
       </c>
       <c r="C224">
-        <v>248703800.48726574</v>
+        <v>252068366.31890392</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>2440075.0465199249</v>
+        <v>2462951.3866399634</v>
       </c>
       <c r="F224">
-        <v>64.498442280680308</v>
+        <v>65.371003353998432</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
       <c r="H224">
-        <v>0.63280512497255548</v>
+        <v>0.63873783810333473</v>
       </c>
       <c r="I224" t="s">
         <v>25</v>
@@ -9766,22 +9766,22 @@
         <v>16989297</v>
       </c>
       <c r="C225">
-        <v>1206264586.7704494</v>
+        <v>1185781604.3072047</v>
       </c>
       <c r="D225">
-        <v>14893677.666343644</v>
+        <v>15279273.343062785</v>
       </c>
       <c r="E225">
-        <v>7614392.7069182079</v>
+        <v>7811528.4966408666</v>
       </c>
       <c r="F225">
-        <v>71.001442070878468</v>
+        <v>69.795801692512924</v>
       </c>
       <c r="G225">
-        <v>0.87665061516928244</v>
+        <v>0.89934700317869443</v>
       </c>
       <c r="H225">
-        <v>0.4481876270052968</v>
+        <v>0.45979115537510862</v>
       </c>
       <c r="I225" t="s">
         <v>22</v>
@@ -9807,22 +9807,22 @@
         <v>7463219</v>
       </c>
       <c r="C226">
-        <v>354345928.60499656</v>
+        <v>355090257.91890204</v>
       </c>
       <c r="D226">
-        <v>34352427.547930844</v>
+        <v>34687255.226318844</v>
       </c>
       <c r="E226">
-        <v>17562678.583879661</v>
+        <v>17733859.234455548</v>
       </c>
       <c r="F226">
-        <v>47.478966998690048</v>
+        <v>47.578700011201875</v>
       </c>
       <c r="G226">
-        <v>4.6028968931409953</v>
+        <v>4.6477606011988719</v>
       </c>
       <c r="H226">
-        <v>2.353231036618336</v>
+        <v>2.3761676073629285</v>
       </c>
       <c r="I226" t="s">
         <v>39</v>
@@ -9889,22 +9889,22 @@
         <v>10860909</v>
       </c>
       <c r="C228">
-        <v>246761554.06202024</v>
+        <v>248269029.81653205</v>
       </c>
       <c r="D228">
-        <v>2825724.1609673239</v>
+        <v>2870795.336214548</v>
       </c>
       <c r="E228">
-        <v>44380582.459141329</v>
+        <v>43872125.169335306</v>
       </c>
       <c r="F228">
-        <v>22.720156670313713</v>
+        <v>22.85895497481215</v>
       </c>
       <c r="G228">
-        <v>0.26017381795274447</v>
+        <v>0.26432367090218212</v>
       </c>
       <c r="H228">
-        <v>4.0862677754818986</v>
+        <v>4.0394524223833663</v>
       </c>
       <c r="I228" t="s">
         <v>46</v>
@@ -9930,22 +9930,22 @@
         <v>2584028</v>
       </c>
       <c r="C229">
-        <v>34472347.02976907</v>
+        <v>35005869.694261596</v>
       </c>
       <c r="D229">
-        <v>2284401.1436259449</v>
+        <v>2323550.2687830897</v>
       </c>
       <c r="E229">
-        <v>36090366.89626471</v>
+        <v>35999628.739364699</v>
       </c>
       <c r="F229">
-        <v>13.340547017977</v>
+        <v>13.547016400078325</v>
       </c>
       <c r="G229">
-        <v>0.88404659068165858</v>
+        <v>0.89919701674404828</v>
       </c>
       <c r="H229">
-        <v>13.966708911925378</v>
+        <v>13.931593906631313</v>
       </c>
       <c r="I229" t="s">
         <v>26</v>
@@ -9971,22 +9971,22 @@
         <v>5184267</v>
       </c>
       <c r="C230">
-        <v>286650445.35010421</v>
+        <v>284648460.59124362</v>
       </c>
       <c r="D230">
         <v>0</v>
       </c>
       <c r="E230">
-        <v>61214923.278593734</v>
+        <v>60734545.039895117</v>
       </c>
       <c r="F230">
-        <v>55.292376984075901</v>
+        <v>54.906211541813647</v>
       </c>
       <c r="G230">
         <v>0</v>
       </c>
       <c r="H230">
-        <v>11.807826116709215</v>
+        <v>11.715165333864</v>
       </c>
       <c r="I230" t="s">
         <v>42</v>
@@ -10015,19 +10015,19 @@
         <v>986124165.35661471</v>
       </c>
       <c r="D231">
-        <v>16283198.465996694</v>
+        <v>16600403.630918708</v>
       </c>
       <c r="E231">
-        <v>8324785.2157408213</v>
+        <v>8486956.3563072011</v>
       </c>
       <c r="F231">
         <v>240.24789812155518</v>
       </c>
       <c r="G231">
-        <v>3.9670503407013951</v>
+        <v>4.04433054214363</v>
       </c>
       <c r="H231">
-        <v>2.028154486683591</v>
+        <v>2.0676639896709337</v>
       </c>
       <c r="I231" t="s">
         <v>15</v>
@@ -10053,22 +10053,22 @@
         <v>3995922</v>
       </c>
       <c r="C232">
-        <v>272228090.82731384</v>
+        <v>273376304.8390429</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>2659537.531643515</v>
+        <v>2676175.6097288467</v>
       </c>
       <c r="F232">
-        <v>68.126477650793447</v>
+        <v>68.41382410343418</v>
       </c>
       <c r="G232">
         <v>0</v>
       </c>
       <c r="H232">
-        <v>0.66556292431221509</v>
+        <v>0.66972668879143449</v>
       </c>
       <c r="I232" t="s">
         <v>25</v>
@@ -10094,22 +10094,22 @@
         <v>5491581</v>
       </c>
       <c r="C233">
-        <v>147659085.7477352</v>
+        <v>146890560.91592506</v>
       </c>
       <c r="D233">
-        <v>11841455.907470278</v>
+        <v>11860890.485619292</v>
       </c>
       <c r="E233">
-        <v>81088148.915661141</v>
+        <v>80078131.879941285</v>
       </c>
       <c r="F233">
-        <v>26.888265100293559</v>
+        <v>26.74831909352244</v>
       </c>
       <c r="G233">
-        <v>2.15629267918843</v>
+        <v>2.1598316560603026</v>
       </c>
       <c r="H233">
-        <v>14.765902372315212</v>
+        <v>14.581981378393815</v>
       </c>
       <c r="I233" t="s">
         <v>24</v>
@@ -10176,22 +10176,22 @@
         <v>1299004</v>
       </c>
       <c r="C235">
-        <v>15705232.558517549</v>
+        <v>15803080.763687076</v>
       </c>
       <c r="D235">
         <v>0</v>
       </c>
       <c r="E235">
-        <v>72554464.522896305</v>
+        <v>71924173.555872649</v>
       </c>
       <c r="F235">
-        <v>12.090211083659133</v>
+        <v>12.165536644757889</v>
       </c>
       <c r="G235">
         <v>0</v>
       </c>
       <c r="H235">
-        <v>55.853919251131103</v>
+        <v>55.368708299491495</v>
       </c>
       <c r="I235" t="s">
         <v>30</v>
@@ -10217,7 +10217,7 @@
         <v>2477354</v>
       </c>
       <c r="C236">
-        <v>142064250.51566792</v>
+        <v>141713077.17007348</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -10226,7 +10226,7 @@
         <v>30508184.398513503</v>
       </c>
       <c r="F236">
-        <v>57.345155563422878</v>
+        <v>57.203402166211802</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -10258,22 +10258,22 @@
         <v>3250811</v>
       </c>
       <c r="C237">
-        <v>117953829.11406308</v>
+        <v>118648834.84195498</v>
       </c>
       <c r="D237">
-        <v>11493444.478558894</v>
+        <v>11505808.175237419</v>
       </c>
       <c r="E237">
-        <v>5876023.4896632303</v>
+        <v>5882344.4295901321</v>
       </c>
       <c r="F237">
-        <v>36.284431520030871</v>
+        <v>36.498226086338143</v>
       </c>
       <c r="G237">
-        <v>3.5355621961900874</v>
+        <v>3.5393654614917383</v>
       </c>
       <c r="H237">
-        <v>1.8075561728021807</v>
+        <v>1.8095005921876517</v>
       </c>
       <c r="I237" t="s">
         <v>26</v>
@@ -10299,22 +10299,22 @@
         <v>2434413</v>
       </c>
       <c r="C238">
-        <v>326781508.1130228</v>
+        <v>324368977.40248817</v>
       </c>
       <c r="D238">
         <v>0</v>
       </c>
       <c r="E238">
-        <v>114276861.20456733</v>
+        <v>112156028.5370152</v>
       </c>
       <c r="F238">
-        <v>134.23421092190307</v>
+        <v>133.24319965531245</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>46.942265426847179</v>
+        <v>46.0710769031447</v>
       </c>
       <c r="I238" t="s">
         <v>15</v>
@@ -10340,22 +10340,22 @@
         <v>2199703</v>
       </c>
       <c r="C239">
-        <v>32681128.22244212</v>
+        <v>32617989.394820124</v>
       </c>
       <c r="D239">
         <v>0</v>
       </c>
       <c r="E239">
-        <v>65607979.213474035</v>
+        <v>65481226.83020281</v>
       </c>
       <c r="F239">
-        <v>14.857063986566423</v>
+        <v>14.828360644514339</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
       <c r="H239">
-        <v>29.825835221152143</v>
+        <v>29.76821272244608</v>
       </c>
       <c r="I239" t="s">
         <v>16</v>
@@ -10381,22 +10381,22 @@
         <v>5484916</v>
       </c>
       <c r="C240">
-        <v>187760253.57010436</v>
+        <v>187391683.79509386</v>
       </c>
       <c r="D240">
-        <v>2211256.24200586</v>
+        <v>2161898.691775145</v>
       </c>
       <c r="E240">
-        <v>33663237.900644489</v>
+        <v>33408400.056481764</v>
       </c>
       <c r="F240">
-        <v>34.232111042375919</v>
+        <v>34.164914065246187</v>
       </c>
       <c r="G240">
-        <v>0.40315225283411088</v>
+        <v>0.39415347323006317</v>
       </c>
       <c r="H240">
-        <v>6.1374208649037634</v>
+        <v>6.0909592884342736</v>
       </c>
       <c r="I240" t="s">
         <v>38</v>
@@ -10422,22 +10422,22 @@
         <v>4229531</v>
       </c>
       <c r="C241">
-        <v>277865593.65247416</v>
+        <v>280940335.29282588</v>
       </c>
       <c r="D241">
         <v>0</v>
       </c>
       <c r="E241">
-        <v>2189380.0587404515</v>
+        <v>2226532.8999128793</v>
       </c>
       <c r="F241">
-        <v>65.696549724419597</v>
+        <v>66.423519603669035</v>
       </c>
       <c r="G241">
         <v>0</v>
       </c>
       <c r="H241">
-        <v>0.51764133156618342</v>
+        <v>0.52642548308852199</v>
       </c>
       <c r="I241" t="s">
         <v>25</v>
@@ -10504,7 +10504,7 @@
         <v>3406721</v>
       </c>
       <c r="C243">
-        <v>46962105.203988805</v>
+        <v>46701076.137265958</v>
       </c>
       <c r="D243">
         <v>523230.39980257361</v>
@@ -10513,7 +10513,7 @@
         <v>8754769.4956649821</v>
       </c>
       <c r="F243">
-        <v>13.785133917332475</v>
+        <v>13.708512125667456</v>
       </c>
       <c r="G243">
         <v>0.15358768733998868</v>
@@ -10551,7 +10551,7 @@
         <v>8915058.1061014365</v>
       </c>
       <c r="E244">
-        <v>113764600.97804253</v>
+        <v>114564870.29258628</v>
       </c>
       <c r="F244">
         <v>321.24437936720375</v>
@@ -10560,7 +10560,7 @@
         <v>1.9451576268012907</v>
       </c>
       <c r="H244">
-        <v>24.822057087995287</v>
+        <v>24.996666153034859</v>
       </c>
       <c r="I244" t="s">
         <v>15</v>
@@ -10586,22 +10586,22 @@
         <v>4859658</v>
       </c>
       <c r="C245">
-        <v>346552267.6304704</v>
+        <v>343800022.17981088</v>
       </c>
       <c r="D245">
         <v>0</v>
       </c>
       <c r="E245">
-        <v>3086217.4912778297</v>
+        <v>3040892.5807701908</v>
       </c>
       <c r="F245">
-        <v>71.312069209493842</v>
+        <v>70.745723707267231</v>
       </c>
       <c r="G245">
         <v>0</v>
       </c>
       <c r="H245">
-        <v>0.63506886519130146</v>
+        <v>0.62574209558989358</v>
       </c>
       <c r="I245" t="s">
         <v>40</v>
@@ -10627,22 +10627,22 @@
         <v>12498933</v>
       </c>
       <c r="C246">
-        <v>742052078.53011167</v>
+        <v>745032352.06387901</v>
       </c>
       <c r="D246">
-        <v>72064315.747683898</v>
+        <v>71967652.552597433</v>
       </c>
       <c r="E246">
-        <v>36842881.426003389</v>
+        <v>36793462.367515475</v>
       </c>
       <c r="F246">
-        <v>59.369234040226608</v>
+        <v>59.607676276357267</v>
       </c>
       <c r="G246">
-        <v>5.7656374146244245</v>
+        <v>5.7579036988675298</v>
       </c>
       <c r="H246">
-        <v>2.9476821282267367</v>
+        <v>2.9437282660460276</v>
       </c>
       <c r="I246" t="s">
         <v>33</v>
@@ -10668,22 +10668,22 @@
         <v>13439341</v>
       </c>
       <c r="C247">
-        <v>571816248.79717803</v>
+        <v>568403191.83077955</v>
       </c>
       <c r="D247">
-        <v>5261493.2827606397</v>
+        <v>5214073.7457001945</v>
       </c>
       <c r="E247">
-        <v>46793263.011841007</v>
+        <v>47041231.503137961</v>
       </c>
       <c r="F247">
-        <v>42.547938086932838</v>
+        <v>42.293977943619375</v>
       </c>
       <c r="G247">
-        <v>0.39149935125246393</v>
+        <v>0.38797093888012774</v>
       </c>
       <c r="H247">
-        <v>3.4818123159343162</v>
+        <v>3.5002632571893191</v>
       </c>
       <c r="I247" t="s">
         <v>41</v>
@@ -10709,22 +10709,22 @@
         <v>5988318</v>
       </c>
       <c r="C248">
-        <v>142039471.90007609</v>
+        <v>143300326.82219571</v>
       </c>
       <c r="D248">
-        <v>1379821.2123195776</v>
+        <v>1406429.3313921476</v>
       </c>
       <c r="E248">
-        <v>21425668.419190053</v>
+        <v>21393581.573001832</v>
       </c>
       <c r="F248">
-        <v>23.719427041128426</v>
+        <v>23.929979473734647</v>
       </c>
       <c r="G248">
-        <v>0.23041882751042572</v>
+        <v>0.23486216520100428</v>
       </c>
       <c r="H248">
-        <v>3.5779109291106539</v>
+        <v>3.572552688918964</v>
       </c>
       <c r="I248" t="s">
         <v>46</v>
@@ -10750,22 +10750,22 @@
         <v>14171621</v>
       </c>
       <c r="C249">
-        <v>733128520.8933394</v>
+        <v>723692694.97677135</v>
       </c>
       <c r="D249">
-        <v>71418101.568149358</v>
+        <v>70342826.956195652</v>
       </c>
       <c r="E249">
-        <v>36512504.426716372</v>
+        <v>35962770.281354979</v>
       </c>
       <c r="F249">
-        <v>51.732156885464221</v>
+        <v>51.066331436380594</v>
       </c>
       <c r="G249">
-        <v>5.0395153503010954</v>
+        <v>4.9636401478839751</v>
       </c>
       <c r="H249">
-        <v>2.5764522228414357</v>
+        <v>2.5376610256056789</v>
       </c>
       <c r="I249" t="s">
         <v>35</v>
@@ -10791,22 +10791,22 @@
         <v>1551911</v>
       </c>
       <c r="C250">
-        <v>62673339.944627956</v>
+        <v>63727896.870642215</v>
       </c>
       <c r="D250">
         <v>0</v>
       </c>
       <c r="E250">
-        <v>22751280.938803293</v>
+        <v>22830923.695881959</v>
       </c>
       <c r="F250">
-        <v>40.384622536104168</v>
+        <v>41.064144058932641</v>
       </c>
       <c r="G250">
         <v>0</v>
       </c>
       <c r="H250">
-        <v>14.660171194613152</v>
+        <v>14.711490346986366</v>
       </c>
       <c r="I250" t="s">
         <v>19</v>
@@ -10873,22 +10873,22 @@
         <v>10047182</v>
       </c>
       <c r="C252">
-        <v>210571272.17230999</v>
+        <v>211208072.60408568</v>
       </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>199101638.84108323</v>
+        <v>199703753.30937359</v>
       </c>
       <c r="F252">
-        <v>20.958242039639572</v>
+        <v>21.021623038587904</v>
       </c>
       <c r="G252">
         <v>0</v>
       </c>
       <c r="H252">
-        <v>19.816664895796972</v>
+        <v>19.876593587074822</v>
       </c>
       <c r="I252" t="s">
         <v>14</v>
@@ -10914,22 +10914,22 @@
         <v>1425257</v>
       </c>
       <c r="C253">
-        <v>34726940.542154439</v>
+        <v>35581174.357838824</v>
       </c>
       <c r="D253">
         <v>0</v>
       </c>
       <c r="E253">
-        <v>19892917.997496858</v>
+        <v>19849392.079116393</v>
       </c>
       <c r="F253">
-        <v>24.365388517407343</v>
+        <v>24.964742750141781</v>
       </c>
       <c r="G253">
         <v>0</v>
       </c>
       <c r="H253">
-        <v>13.957425220501888</v>
+        <v>13.926886224110033</v>
       </c>
       <c r="I253" t="s">
         <v>47</v>
@@ -10955,22 +10955,22 @@
         <v>1940463</v>
       </c>
       <c r="C254">
-        <v>50528310.74703297</v>
+        <v>51427797.123212554</v>
       </c>
       <c r="D254">
-        <v>3387897.5368689643</v>
+        <v>3485910.5875578886</v>
       </c>
       <c r="E254">
-        <v>52151065.22658959</v>
+        <v>51880716.353883646</v>
       </c>
       <c r="F254">
-        <v>26.039306468112493</v>
+        <v>26.502848610466962</v>
       </c>
       <c r="G254">
-        <v>1.7459222550849793</v>
+        <v>1.7964323914230205</v>
       </c>
       <c r="H254">
-        <v>26.875578264872658</v>
+        <v>26.736256426370225</v>
       </c>
       <c r="I254" t="s">
         <v>36</v>
@@ -10996,22 +10996,22 @@
         <v>825950</v>
       </c>
       <c r="C255">
-        <v>41201048.57098183</v>
+        <v>41103449.782146282</v>
       </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>9040008.981902644</v>
+        <v>9012912.4135569464</v>
       </c>
       <c r="F255">
-        <v>49.883223646687853</v>
+        <v>49.765058153818373</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>10.944983330592219</v>
+        <v>10.912176782561833</v>
       </c>
       <c r="I255" t="s">
         <v>28</v>
@@ -11037,22 +11037,22 @@
         <v>166824</v>
       </c>
       <c r="C256">
-        <v>3747854.1023345767</v>
+        <v>3705835.5144133829</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>15748514.585030116</v>
+        <v>15649521.321960546</v>
       </c>
       <c r="F256">
-        <v>22.46591678855906</v>
+        <v>22.214043029860107</v>
       </c>
       <c r="G256">
         <v>0</v>
       </c>
       <c r="H256">
-        <v>94.401972048566847</v>
+        <v>93.80857263919188</v>
       </c>
       <c r="I256" t="s">
         <v>40</v>
@@ -11084,7 +11084,7 @@
         <v>0</v>
       </c>
       <c r="E257">
-        <v>6817627.3030761573</v>
+        <v>6612915.2726025889</v>
       </c>
       <c r="F257">
         <v>38.048343051849834</v>
@@ -11093,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>14.279667438308291</v>
+        <v>13.850893674969187</v>
       </c>
       <c r="I257" t="s">
         <v>28</v>
@@ -11119,22 +11119,22 @@
         <v>97358</v>
       </c>
       <c r="C258">
-        <v>14853.935118360001</v>
+        <v>20786.017833359998</v>
       </c>
       <c r="D258">
         <v>0</v>
       </c>
       <c r="E258">
-        <v>604597.87031279993</v>
+        <v>712988.88568127993</v>
       </c>
       <c r="F258">
-        <v>0.15257025738367674</v>
+        <v>0.21350087135479362</v>
       </c>
       <c r="G258">
         <v>0</v>
       </c>
       <c r="H258">
-        <v>6.2100481759362349</v>
+        <v>7.3233723544164828</v>
       </c>
       <c r="I258" t="s">
         <v>21</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="E259">
-        <v>13024065.463473599</v>
+        <v>12864260.979259199</v>
       </c>
       <c r="F259">
         <v>2.4712149074485956</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>85.552147946362012</v>
+        <v>84.502428339658181</v>
       </c>
       <c r="I259" t="s">
         <v>36</v>
@@ -11201,22 +11201,22 @@
         <v>334348.61</v>
       </c>
       <c r="C260">
-        <v>3426661.8369223336</v>
+        <v>3350710.7064659325</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>15168213.069878327</v>
+        <v>15220346.959859826</v>
       </c>
       <c r="F260">
-        <v>10.248769501157291</v>
+        <v>10.021608005087662</v>
       </c>
       <c r="G260">
         <v>0</v>
       </c>
       <c r="H260">
-        <v>45.366460682693813</v>
+        <v>45.52238742628488</v>
       </c>
       <c r="I260" t="s">
         <v>39</v>
@@ -11283,22 +11283,22 @@
         <v>681233</v>
       </c>
       <c r="C262">
-        <v>10989517.53556129</v>
+        <v>10830781.488548115</v>
       </c>
       <c r="D262">
         <v>0</v>
       </c>
       <c r="E262">
-        <v>22061663.022517778</v>
+        <v>21742997.424378552</v>
       </c>
       <c r="F262">
-        <v>16.131804442182467</v>
+        <v>15.898791586062499</v>
       </c>
       <c r="G262">
         <v>0</v>
       </c>
       <c r="H262">
-        <v>32.384900647088116</v>
+        <v>31.917122958486381</v>
       </c>
       <c r="I262" t="s">
         <v>17</v>
@@ -11324,22 +11324,22 @@
         <v>335919</v>
       </c>
       <c r="C263">
-        <v>9716484.6910765283</v>
+        <v>9688621.4803231526</v>
       </c>
       <c r="D263">
         <v>0</v>
       </c>
       <c r="E263">
-        <v>19506025.658025816</v>
+        <v>19450089.738693848</v>
       </c>
       <c r="F263">
-        <v>28.925082210522561</v>
+        <v>28.842135992078902</v>
       </c>
       <c r="G263">
         <v>0</v>
       </c>
       <c r="H263">
-        <v>58.067646242176885</v>
+        <v>57.901130149511779</v>
       </c>
       <c r="I263" t="s">
         <v>38</v>
@@ -11488,22 +11488,22 @@
         <v>489990</v>
       </c>
       <c r="C267">
-        <v>20776562.704954978</v>
+        <v>19797727.683900874</v>
       </c>
       <c r="D267">
         <v>0</v>
       </c>
       <c r="E267">
-        <v>209864.26974702015</v>
+        <v>199977.04731213022</v>
       </c>
       <c r="F267">
-        <v>42.402013724678007</v>
+        <v>40.404350464092886</v>
       </c>
       <c r="G267">
         <v>0</v>
       </c>
       <c r="H267">
-        <v>0.42830316893614184</v>
+        <v>0.40812475216255478</v>
       </c>
       <c r="I267" t="s">
         <v>43</v>
@@ -11570,22 +11570,22 @@
         <v>7123683</v>
       </c>
       <c r="C269">
-        <v>413271414.42631495</v>
+        <v>413117846.97033358</v>
       </c>
       <c r="D269">
-        <v>12290411.924706191</v>
+        <v>12416317.671898372</v>
       </c>
       <c r="E269">
-        <v>6283473.0965060415</v>
+        <v>6347842.4097580565</v>
       </c>
       <c r="F269">
-        <v>58.013728913304391</v>
+        <v>57.992171601450202</v>
       </c>
       <c r="G269">
-        <v>1.7252890007466912</v>
+        <v>1.7429632497541472</v>
       </c>
       <c r="H269">
-        <v>0.88205400163174608</v>
+        <v>0.89108996143680963</v>
       </c>
       <c r="I269" t="s">
         <v>40</v>
@@ -11611,22 +11611,22 @@
         <v>254563</v>
       </c>
       <c r="C270">
-        <v>232247.3160506248</v>
+        <v>232891.68701896881</v>
       </c>
       <c r="D270">
         <v>0</v>
       </c>
       <c r="E270">
-        <v>7500942.3915518327</v>
+        <v>8691729.3757151719</v>
       </c>
       <c r="F270">
-        <v>0.91233728409322956</v>
+        <v>0.91486856699115271</v>
       </c>
       <c r="G270">
         <v>0</v>
       </c>
       <c r="H270">
-        <v>29.465956920494467</v>
+        <v>34.143726212038558</v>
       </c>
       <c r="I270" t="s">
         <v>46</v>
@@ -11693,22 +11693,22 @@
         <v>3230316</v>
       </c>
       <c r="C272">
-        <v>188214357.41978508</v>
+        <v>186743227.92278561</v>
       </c>
       <c r="D272">
         <v>0</v>
       </c>
       <c r="E272">
-        <v>1901155.1254523762</v>
+        <v>1886295.2315432909</v>
       </c>
       <c r="F272">
-        <v>58.264998662603006</v>
+        <v>57.809585168381545</v>
       </c>
       <c r="G272">
         <v>0</v>
       </c>
       <c r="H272">
-        <v>0.58853534002629349</v>
+        <v>0.58393520372102636</v>
       </c>
       <c r="I272" t="s">
         <v>42</v>
@@ -11775,22 +11775,22 @@
         <v>3492531</v>
       </c>
       <c r="C274">
-        <v>182209326.36376497</v>
+        <v>181534128.55242473</v>
       </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>1840498.2460986378</v>
+        <v>1833678.06618611</v>
       </c>
       <c r="F274">
-        <v>52.171140746858072</v>
+        <v>51.977814528324799</v>
       </c>
       <c r="G274">
         <v>0</v>
       </c>
       <c r="H274">
-        <v>0.52698121966523359</v>
+        <v>0.52502842957903884</v>
       </c>
       <c r="I274" t="s">
         <v>15</v>
@@ -11816,7 +11816,7 @@
         <v>3055709</v>
       </c>
       <c r="C275">
-        <v>170565289.13377747</v>
+        <v>169734357.44544706</v>
       </c>
       <c r="D275">
         <v>4582132.4804936526</v>
@@ -11825,7 +11825,7 @@
         <v>2342615.2306523854</v>
       </c>
       <c r="F275">
-        <v>55.81856424606449</v>
+        <v>55.546636621958129</v>
       </c>
       <c r="G275">
         <v>1.4995316898610609</v>
